--- a/docs/秘籍数值.xlsx
+++ b/docs/秘籍数值.xlsx
@@ -5299,7 +5299,7 @@
     <t>IncreaseMagicAttack</t>
   </si>
   <si>
-    <t>380</t>
+    <t>450</t>
   </si>
   <si>
     <t>490</t>
@@ -11655,7 +11655,7 @@
         <v>26</v>
       </c>
       <c r="S95" s="0" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="T95" s="0" t="s">
         <v>412</v>
@@ -32724,7 +32724,7 @@
         <v>24</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>270</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
@@ -33108,7 +33108,7 @@
         <v>1727</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>25</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41">
@@ -37326,7 +37326,7 @@
         <v>130</v>
       </c>
       <c r="H172" s="0" t="s">
-        <v>357</v>
+        <v>24</v>
       </c>
       <c r="I172" s="0" t="s">
         <v>1761</v>

--- a/docs/秘籍数值.xlsx
+++ b/docs/秘籍数值.xlsx
@@ -5326,112 +5326,112 @@
     <t>IncreaseDamageRate</t>
   </si>
   <si>
+    <t>-0.6</t>
+  </si>
+  <si>
+    <t>IncreaseMagicDefenseRate</t>
+  </si>
+  <si>
+    <t>-0.4</t>
+  </si>
+  <si>
+    <t>2080</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
+    <t>IncreaseMaxHPRate</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>DrugResistance</t>
+  </si>
+  <si>
+    <t>IncreaseMagicAttack</t>
+  </si>
+  <si>
+    <t>1380</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>-20</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>530</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>IncreaseMagicDefense</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>710</t>
+  </si>
+  <si>
+    <t>820</t>
+  </si>
+  <si>
+    <t>IncreaseMaxHP</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>-100</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>-200</t>
+  </si>
+  <si>
+    <t>-300</t>
+  </si>
+  <si>
+    <t>-500</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
     <t>IncreaseHurtCutRate</t>
-  </si>
-  <si>
-    <t>-0.8</t>
-  </si>
-  <si>
-    <t>IncreaseMagicDefenseRate</t>
-  </si>
-  <si>
-    <t>-0.4</t>
-  </si>
-  <si>
-    <t>2080</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>1960</t>
-  </si>
-  <si>
-    <t>IncreaseMaxHPRate</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>DrugResistance</t>
-  </si>
-  <si>
-    <t>IncreaseMagicAttack</t>
-  </si>
-  <si>
-    <t>1380</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>-20</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>530</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>IncreaseMagicDefense</t>
-  </si>
-  <si>
-    <t>490</t>
-  </si>
-  <si>
-    <t>710</t>
-  </si>
-  <si>
-    <t>820</t>
-  </si>
-  <si>
-    <t>IncreaseMaxHP</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>-100</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>-200</t>
-  </si>
-  <si>
-    <t>-300</t>
-  </si>
-  <si>
-    <t>-500</t>
-  </si>
-  <si>
-    <t>1200</t>
   </si>
   <si>
     <t>-0.05</t>
@@ -12746,25 +12746,25 @@
         <v>474</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="J111" s="0" t="s">
         <v>24</v>
@@ -34446,7 +34446,7 @@
         <v>1724</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>1770</v>
+        <v>1737</v>
       </c>
       <c r="G73" s="0" t="s">
         <v>138</v>
@@ -34455,7 +34455,7 @@
         <v>1762</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="J73" s="0" t="s">
         <v>286</v>
@@ -34510,7 +34510,7 @@
         <v>1724</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>138</v>
@@ -34574,7 +34574,7 @@
         <v>1724</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="G77" s="0" t="s">
         <v>138</v>
@@ -34583,7 +34583,7 @@
         <v>230</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="J77" s="0" t="s">
         <v>25</v>
@@ -34615,7 +34615,7 @@
         <v>24</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="J78" s="0" t="s">
         <v>286</v>
@@ -34807,7 +34807,7 @@
         <v>230</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="J84" s="0" t="s">
         <v>25</v>
@@ -34871,7 +34871,7 @@
         <v>1728</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="J86" s="0" t="s">
         <v>286</v>
@@ -34903,7 +34903,7 @@
         <v>205</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="J87" s="0" t="s">
         <v>25</v>
@@ -34999,7 +34999,7 @@
         <v>1728</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="J90" s="0" t="s">
         <v>286</v>
@@ -35031,7 +35031,7 @@
         <v>205</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="J91" s="0" t="s">
         <v>25</v>
@@ -35095,7 +35095,7 @@
         <v>24</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="J93" s="0" t="s">
         <v>286</v>
@@ -35150,7 +35150,7 @@
         <v>1724</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>138</v>
@@ -35191,7 +35191,7 @@
         <v>1728</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="J96" s="0" t="s">
         <v>286</v>
@@ -35223,7 +35223,7 @@
         <v>205</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="J97" s="0" t="s">
         <v>25</v>
@@ -35319,7 +35319,7 @@
         <v>1728</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="J100" s="0" t="s">
         <v>286</v>
@@ -35351,7 +35351,7 @@
         <v>205</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="J101" s="0" t="s">
         <v>25</v>
@@ -35534,7 +35534,7 @@
         <v>1724</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="G107" s="0" t="s">
         <v>138</v>
@@ -35767,7 +35767,7 @@
         <v>1728</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="J114" s="0" t="s">
         <v>286</v>
@@ -36462,7 +36462,7 @@
         <v>1724</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G136" s="0" t="s">
         <v>152</v>
@@ -36558,16 +36558,16 @@
         <v>1722</v>
       </c>
       <c r="F139" s="0" t="s">
+        <v>1780</v>
+      </c>
+      <c r="G139" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H139" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I139" s="0" t="s">
         <v>1781</v>
-      </c>
-      <c r="G139" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="H139" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I139" s="0" t="s">
-        <v>1782</v>
       </c>
       <c r="J139" s="0" t="s">
         <v>286</v>
@@ -36599,7 +36599,7 @@
         <v>24</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="J140" s="0" t="s">
         <v>286</v>
@@ -37015,7 +37015,7 @@
         <v>1728</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="J153" s="0" t="s">
         <v>286</v>
@@ -37047,7 +37047,7 @@
         <v>218</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="J154" s="0" t="s">
         <v>286</v>
@@ -37303,7 +37303,7 @@
         <v>218</v>
       </c>
       <c r="I162" s="0" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="J162" s="0" t="s">
         <v>286</v>
@@ -37431,7 +37431,7 @@
         <v>1728</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="J166" s="0" t="s">
         <v>286</v>
@@ -37463,7 +37463,7 @@
         <v>1728</v>
       </c>
       <c r="I167" s="0" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="J167" s="0" t="s">
         <v>286</v>
@@ -37495,7 +37495,7 @@
         <v>1728</v>
       </c>
       <c r="I168" s="0" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="J168" s="0" t="s">
         <v>286</v>
@@ -37591,7 +37591,7 @@
         <v>1728</v>
       </c>
       <c r="I171" s="0" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="J171" s="0" t="s">
         <v>286</v>
@@ -37623,7 +37623,7 @@
         <v>1728</v>
       </c>
       <c r="I172" s="0" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="J172" s="0" t="s">
         <v>286</v>
@@ -37751,7 +37751,7 @@
         <v>1728</v>
       </c>
       <c r="I176" s="0" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="J176" s="0" t="s">
         <v>286</v>
@@ -37783,7 +37783,7 @@
         <v>1728</v>
       </c>
       <c r="I177" s="0" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="J177" s="0" t="s">
         <v>286</v>
@@ -37815,7 +37815,7 @@
         <v>1728</v>
       </c>
       <c r="I178" s="0" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="J178" s="0" t="s">
         <v>286</v>
@@ -37870,7 +37870,7 @@
         <v>1722</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G180" s="0" t="s">
         <v>138</v>
@@ -37879,7 +37879,7 @@
         <v>24</v>
       </c>
       <c r="I180" s="0" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="J180" s="0" t="s">
         <v>286</v>
@@ -37934,7 +37934,7 @@
         <v>1722</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="G182" s="0" t="s">
         <v>138</v>
@@ -37966,7 +37966,7 @@
         <v>1722</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G183" s="0" t="s">
         <v>138</v>
@@ -37975,7 +37975,7 @@
         <v>1728</v>
       </c>
       <c r="I183" s="0" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="J183" s="0" t="s">
         <v>286</v>
@@ -37998,7 +37998,7 @@
         <v>1722</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="G184" s="0" t="s">
         <v>138</v>
@@ -38030,7 +38030,7 @@
         <v>1722</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G185" s="0" t="s">
         <v>138</v>
@@ -38039,7 +38039,7 @@
         <v>1728</v>
       </c>
       <c r="I185" s="0" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="J185" s="0" t="s">
         <v>286</v>
@@ -38062,7 +38062,7 @@
         <v>1722</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G186" s="0" t="s">
         <v>138</v>
@@ -38071,7 +38071,7 @@
         <v>1728</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="J186" s="0" t="s">
         <v>286</v>
@@ -38094,7 +38094,7 @@
         <v>1722</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="G187" s="0" t="s">
         <v>138</v>
@@ -38103,7 +38103,7 @@
         <v>230</v>
       </c>
       <c r="I187" s="0" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="J187" s="0" t="s">
         <v>286</v>
@@ -38254,7 +38254,7 @@
         <v>1722</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="G192" s="0" t="s">
         <v>138</v>
@@ -38295,7 +38295,7 @@
         <v>152</v>
       </c>
       <c r="I193" s="0" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="J193" s="0" t="s">
         <v>286</v>
@@ -38318,7 +38318,7 @@
         <v>1722</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G194" s="0" t="s">
         <v>138</v>
@@ -38327,7 +38327,7 @@
         <v>1728</v>
       </c>
       <c r="I194" s="0" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="J194" s="0" t="s">
         <v>286</v>
@@ -38382,7 +38382,7 @@
         <v>1722</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G196" s="0" t="s">
         <v>138</v>
@@ -38423,7 +38423,7 @@
         <v>152</v>
       </c>
       <c r="I197" s="0" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="J197" s="0" t="s">
         <v>286</v>
@@ -38446,7 +38446,7 @@
         <v>1722</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G198" s="0" t="s">
         <v>138</v>
@@ -38487,7 +38487,7 @@
         <v>152</v>
       </c>
       <c r="I199" s="0" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="J199" s="0" t="s">
         <v>286</v>
@@ -38510,7 +38510,7 @@
         <v>1722</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G200" s="0" t="s">
         <v>138</v>
@@ -38519,7 +38519,7 @@
         <v>24</v>
       </c>
       <c r="I200" s="0" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="J200" s="0" t="s">
         <v>286</v>
@@ -38551,7 +38551,7 @@
         <v>137</v>
       </c>
       <c r="I201" s="0" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="J201" s="0" t="s">
         <v>286</v>
@@ -38574,7 +38574,7 @@
         <v>1722</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G202" s="0" t="s">
         <v>138</v>
@@ -38606,7 +38606,7 @@
         <v>1724</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="G203" s="0" t="s">
         <v>102</v>
@@ -38615,7 +38615,7 @@
         <v>152</v>
       </c>
       <c r="I203" s="0" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="J203" s="0" t="s">
         <v>286</v>
@@ -38638,7 +38638,7 @@
         <v>1722</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G204" s="0" t="s">
         <v>138</v>
@@ -38647,7 +38647,7 @@
         <v>1728</v>
       </c>
       <c r="I204" s="0" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="J204" s="0" t="s">
         <v>286</v>
@@ -38670,7 +38670,7 @@
         <v>1724</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="G205" s="0" t="s">
         <v>749</v>
@@ -38702,7 +38702,7 @@
         <v>1722</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G206" s="0" t="s">
         <v>138</v>
@@ -38734,7 +38734,7 @@
         <v>1724</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="G207" s="0" t="s">
         <v>725</v>
@@ -38743,7 +38743,7 @@
         <v>152</v>
       </c>
       <c r="I207" s="0" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="J207" s="0" t="s">
         <v>286</v>
@@ -38766,7 +38766,7 @@
         <v>1722</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G208" s="0" t="s">
         <v>138</v>
@@ -38798,7 +38798,7 @@
         <v>1724</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="G209" s="0" t="s">
         <v>761</v>
@@ -38807,7 +38807,7 @@
         <v>152</v>
       </c>
       <c r="I209" s="0" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="J209" s="0" t="s">
         <v>286</v>
@@ -38830,7 +38830,7 @@
         <v>1722</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G210" s="0" t="s">
         <v>138</v>
@@ -38839,7 +38839,7 @@
         <v>1728</v>
       </c>
       <c r="I210" s="0" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="J210" s="0" t="s">
         <v>286</v>
@@ -38862,7 +38862,7 @@
         <v>1724</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G211" s="0" t="s">
         <v>138</v>
@@ -38871,7 +38871,7 @@
         <v>137</v>
       </c>
       <c r="I211" s="0" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="J211" s="0" t="s">
         <v>286</v>
@@ -38894,7 +38894,7 @@
         <v>1722</v>
       </c>
       <c r="F212" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G212" s="0" t="s">
         <v>138</v>
@@ -38958,7 +38958,7 @@
         <v>1722</v>
       </c>
       <c r="F214" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G214" s="0" t="s">
         <v>138</v>
@@ -38967,7 +38967,7 @@
         <v>1728</v>
       </c>
       <c r="I214" s="0" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="J214" s="0" t="s">
         <v>286</v>
@@ -38999,7 +38999,7 @@
         <v>152</v>
       </c>
       <c r="I215" s="0" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="J215" s="0" t="s">
         <v>286</v>
@@ -39022,7 +39022,7 @@
         <v>1722</v>
       </c>
       <c r="F216" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G216" s="0" t="s">
         <v>138</v>
@@ -39086,7 +39086,7 @@
         <v>1722</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G218" s="0" t="s">
         <v>138</v>
@@ -39150,7 +39150,7 @@
         <v>1722</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G220" s="0" t="s">
         <v>138</v>
@@ -39159,7 +39159,7 @@
         <v>1728</v>
       </c>
       <c r="I220" s="0" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="J220" s="0" t="s">
         <v>286</v>
@@ -39191,7 +39191,7 @@
         <v>137</v>
       </c>
       <c r="I221" s="0" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="J221" s="0" t="s">
         <v>286</v>
@@ -39214,7 +39214,7 @@
         <v>1722</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G222" s="0" t="s">
         <v>138</v>
@@ -39246,7 +39246,7 @@
         <v>1722</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="G223" s="0" t="s">
         <v>102</v>
@@ -39278,7 +39278,7 @@
         <v>1722</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G224" s="0" t="s">
         <v>138</v>
@@ -39287,7 +39287,7 @@
         <v>1728</v>
       </c>
       <c r="I224" s="0" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="J224" s="0" t="s">
         <v>286</v>
@@ -39310,7 +39310,7 @@
         <v>1722</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="G225" s="0" t="s">
         <v>749</v>
@@ -39342,7 +39342,7 @@
         <v>1722</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G226" s="0" t="s">
         <v>138</v>
@@ -39374,7 +39374,7 @@
         <v>1722</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="G227" s="0" t="s">
         <v>725</v>
@@ -39383,7 +39383,7 @@
         <v>152</v>
       </c>
       <c r="I227" s="0" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="J227" s="0" t="s">
         <v>286</v>
@@ -39406,7 +39406,7 @@
         <v>1722</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G228" s="0" t="s">
         <v>138</v>
@@ -39438,7 +39438,7 @@
         <v>1722</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="G229" s="0" t="s">
         <v>761</v>
@@ -39479,7 +39479,7 @@
         <v>1728</v>
       </c>
       <c r="I230" s="0" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="J230" s="0" t="s">
         <v>286</v>
@@ -39502,7 +39502,7 @@
         <v>1722</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="G231" s="0" t="s">
         <v>138</v>
@@ -39511,7 +39511,7 @@
         <v>137</v>
       </c>
       <c r="I231" s="0" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="J231" s="0" t="s">
         <v>286</v>
@@ -39534,7 +39534,7 @@
         <v>1722</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G232" s="0" t="s">
         <v>138</v>
@@ -39566,7 +39566,7 @@
         <v>1722</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>1770</v>
+        <v>1805</v>
       </c>
       <c r="G233" s="0" t="s">
         <v>102</v>
@@ -39598,7 +39598,7 @@
         <v>1722</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G234" s="0" t="s">
         <v>138</v>
@@ -39607,7 +39607,7 @@
         <v>1728</v>
       </c>
       <c r="I234" s="0" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="J234" s="0" t="s">
         <v>286</v>
@@ -39630,7 +39630,7 @@
         <v>1722</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>1770</v>
+        <v>1805</v>
       </c>
       <c r="G235" s="0" t="s">
         <v>749</v>
@@ -39662,7 +39662,7 @@
         <v>1722</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G236" s="0" t="s">
         <v>138</v>
@@ -39694,7 +39694,7 @@
         <v>1722</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>1770</v>
+        <v>1805</v>
       </c>
       <c r="G237" s="0" t="s">
         <v>725</v>
@@ -39726,7 +39726,7 @@
         <v>1722</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G238" s="0" t="s">
         <v>138</v>
@@ -39758,7 +39758,7 @@
         <v>1722</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>1770</v>
+        <v>1805</v>
       </c>
       <c r="G239" s="0" t="s">
         <v>761</v>
@@ -39790,7 +39790,7 @@
         <v>1722</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G240" s="0" t="s">
         <v>138</v>
@@ -39799,7 +39799,7 @@
         <v>1728</v>
       </c>
       <c r="I240" s="0" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="J240" s="0" t="s">
         <v>286</v>
@@ -39822,7 +39822,7 @@
         <v>1722</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>1770</v>
+        <v>1805</v>
       </c>
       <c r="G241" s="0" t="s">
         <v>138</v>
@@ -39854,7 +39854,7 @@
         <v>1722</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G242" s="0" t="s">
         <v>138</v>
@@ -39918,7 +39918,7 @@
         <v>1722</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G244" s="0" t="s">
         <v>138</v>
@@ -39927,7 +39927,7 @@
         <v>1728</v>
       </c>
       <c r="I244" s="0" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="J244" s="0" t="s">
         <v>286</v>
@@ -39959,7 +39959,7 @@
         <v>1728</v>
       </c>
       <c r="I245" s="0" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="J245" s="0" t="s">
         <v>286</v>
@@ -39982,7 +39982,7 @@
         <v>1722</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G246" s="0" t="s">
         <v>138</v>
@@ -40046,7 +40046,7 @@
         <v>1722</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G248" s="0" t="s">
         <v>138</v>
@@ -40110,7 +40110,7 @@
         <v>1722</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G250" s="0" t="s">
         <v>138</v>
@@ -40119,7 +40119,7 @@
         <v>1728</v>
       </c>
       <c r="I250" s="0" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="J250" s="0" t="s">
         <v>286</v>
@@ -40151,7 +40151,7 @@
         <v>1728</v>
       </c>
       <c r="I251" s="0" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="J251" s="0" t="s">
         <v>286</v>
@@ -40174,7 +40174,7 @@
         <v>1722</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G252" s="0" t="s">
         <v>138</v>
@@ -40238,7 +40238,7 @@
         <v>1722</v>
       </c>
       <c r="F254" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G254" s="0" t="s">
         <v>138</v>
@@ -40302,7 +40302,7 @@
         <v>1722</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G256" s="0" t="s">
         <v>138</v>
@@ -40311,7 +40311,7 @@
         <v>1728</v>
       </c>
       <c r="I256" s="0" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="J256" s="0" t="s">
         <v>286</v>
@@ -40366,7 +40366,7 @@
         <v>1722</v>
       </c>
       <c r="F258" s="0" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="G258" s="0" t="s">
         <v>138</v>
@@ -40430,7 +40430,7 @@
         <v>1722</v>
       </c>
       <c r="F260" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G260" s="0" t="s">
         <v>138</v>
@@ -40695,7 +40695,7 @@
         <v>1728</v>
       </c>
       <c r="I268" s="0" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="J268" s="0" t="s">
         <v>286</v>
@@ -40759,7 +40759,7 @@
         <v>1728</v>
       </c>
       <c r="I270" s="0" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="J270" s="0" t="s">
         <v>286</v>
@@ -41143,7 +41143,7 @@
         <v>1728</v>
       </c>
       <c r="I282" s="0" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="J282" s="0" t="s">
         <v>286</v>
@@ -41271,7 +41271,7 @@
         <v>1728</v>
       </c>
       <c r="I286" s="0" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="J286" s="0" t="s">
         <v>286</v>
@@ -41335,7 +41335,7 @@
         <v>1728</v>
       </c>
       <c r="I288" s="0" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="J288" s="0" t="s">
         <v>286</v>
@@ -41495,7 +41495,7 @@
         <v>1728</v>
       </c>
       <c r="I293" s="0" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="J293" s="0" t="s">
         <v>286</v>
@@ -41527,7 +41527,7 @@
         <v>1728</v>
       </c>
       <c r="I294" s="0" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="J294" s="0" t="s">
         <v>286</v>
@@ -42039,7 +42039,7 @@
         <v>1728</v>
       </c>
       <c r="I310" s="0" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="J310" s="0" t="s">
         <v>286</v>
@@ -42327,7 +42327,7 @@
         <v>1728</v>
       </c>
       <c r="I319" s="0" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="J319" s="0" t="s">
         <v>286</v>
@@ -42423,7 +42423,7 @@
         <v>24</v>
       </c>
       <c r="I322" s="0" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="J322" s="0" t="s">
         <v>286</v>
@@ -42446,7 +42446,7 @@
         <v>1722</v>
       </c>
       <c r="F323" s="0" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="G323" s="0" t="s">
         <v>138</v>
@@ -43441,7 +43441,7 @@
         <v>1725</v>
       </c>
       <c r="G354" s="0" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="H354" s="0" t="s">
         <v>246</v>
@@ -43534,7 +43534,7 @@
         <v>1722</v>
       </c>
       <c r="F357" s="0" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G357" s="0" t="s">
         <v>138</v>
@@ -43598,7 +43598,7 @@
         <v>1722</v>
       </c>
       <c r="F359" s="0" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G359" s="0" t="s">
         <v>138</v>
@@ -43726,7 +43726,7 @@
         <v>1722</v>
       </c>
       <c r="F363" s="0" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G363" s="0" t="s">
         <v>138</v>
@@ -43790,7 +43790,7 @@
         <v>1722</v>
       </c>
       <c r="F365" s="0" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G365" s="0" t="s">
         <v>138</v>
@@ -43886,7 +43886,7 @@
         <v>1722</v>
       </c>
       <c r="F368" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G368" s="0" t="s">
         <v>138</v>
@@ -43895,7 +43895,7 @@
         <v>24</v>
       </c>
       <c r="I368" s="0" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="J368" s="0" t="s">
         <v>286</v>
@@ -44471,7 +44471,7 @@
         <v>1728</v>
       </c>
       <c r="I386" s="0" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="J386" s="0" t="s">
         <v>286</v>
@@ -45070,7 +45070,7 @@
         <v>1722</v>
       </c>
       <c r="F405" s="0" t="s">
-        <v>1770</v>
+        <v>1805</v>
       </c>
       <c r="G405" s="0" t="s">
         <v>749</v>
@@ -45134,7 +45134,7 @@
         <v>1722</v>
       </c>
       <c r="F407" s="0" t="s">
-        <v>1770</v>
+        <v>1805</v>
       </c>
       <c r="G407" s="0" t="s">
         <v>102</v>
@@ -45198,7 +45198,7 @@
         <v>1722</v>
       </c>
       <c r="F409" s="0" t="s">
-        <v>1770</v>
+        <v>1805</v>
       </c>
       <c r="G409" s="0" t="s">
         <v>783</v>
@@ -45326,7 +45326,7 @@
         <v>1722</v>
       </c>
       <c r="F413" s="0" t="s">
-        <v>1770</v>
+        <v>1805</v>
       </c>
       <c r="G413" s="0" t="s">
         <v>725</v>
@@ -45454,7 +45454,7 @@
         <v>1722</v>
       </c>
       <c r="F417" s="0" t="s">
-        <v>1770</v>
+        <v>1805</v>
       </c>
       <c r="G417" s="0" t="s">
         <v>102</v>
@@ -45591,7 +45591,7 @@
         <v>246</v>
       </c>
       <c r="I421" s="0" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="J421" s="0" t="s">
         <v>286</v>
@@ -45623,7 +45623,7 @@
         <v>1728</v>
       </c>
       <c r="I422" s="0" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="J422" s="0" t="s">
         <v>286</v>
@@ -45678,7 +45678,7 @@
         <v>1722</v>
       </c>
       <c r="F424" s="0" t="s">
-        <v>1770</v>
+        <v>1805</v>
       </c>
       <c r="G424" s="0" t="s">
         <v>138</v>
@@ -45742,7 +45742,7 @@
         <v>1722</v>
       </c>
       <c r="F426" s="0" t="s">
-        <v>1770</v>
+        <v>1805</v>
       </c>
       <c r="G426" s="0" t="s">
         <v>102</v>
@@ -45806,7 +45806,7 @@
         <v>1722</v>
       </c>
       <c r="F428" s="0" t="s">
-        <v>1770</v>
+        <v>1805</v>
       </c>
       <c r="G428" s="0" t="s">
         <v>102</v>
@@ -45934,7 +45934,7 @@
         <v>1722</v>
       </c>
       <c r="F432" s="0" t="s">
-        <v>1770</v>
+        <v>1805</v>
       </c>
       <c r="G432" s="0" t="s">
         <v>138</v>
@@ -46030,7 +46030,7 @@
         <v>1722</v>
       </c>
       <c r="F435" s="0" t="s">
-        <v>1770</v>
+        <v>1805</v>
       </c>
       <c r="G435" s="0" t="s">
         <v>138</v>
@@ -46190,7 +46190,7 @@
         <v>1722</v>
       </c>
       <c r="F440" s="0" t="s">
-        <v>1770</v>
+        <v>1805</v>
       </c>
       <c r="G440" s="0" t="s">
         <v>138</v>
@@ -46935,7 +46935,7 @@
         <v>1728</v>
       </c>
       <c r="I463" s="0" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="J463" s="0" t="s">
         <v>286</v>
@@ -46990,7 +46990,7 @@
         <v>1722</v>
       </c>
       <c r="F465" s="0" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G465" s="0" t="s">
         <v>138</v>
@@ -47022,7 +47022,7 @@
         <v>1722</v>
       </c>
       <c r="F466" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G466" s="0" t="s">
         <v>138</v>
@@ -47118,7 +47118,7 @@
         <v>1724</v>
       </c>
       <c r="F469" s="0" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="G469" s="0" t="s">
         <v>742</v>
@@ -47566,7 +47566,7 @@
         <v>1724</v>
       </c>
       <c r="F483" s="0" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="G483" s="0" t="s">
         <v>138</v>
@@ -47799,7 +47799,7 @@
         <v>1728</v>
       </c>
       <c r="I490" s="0" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="J490" s="0" t="s">
         <v>286</v>
@@ -48142,7 +48142,7 @@
         <v>1722</v>
       </c>
       <c r="F501" s="0" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="G501" s="0" t="s">
         <v>138</v>
@@ -48183,7 +48183,7 @@
         <v>1728</v>
       </c>
       <c r="I502" s="0" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="J502" s="0" t="s">
         <v>286</v>
@@ -48270,7 +48270,7 @@
         <v>1722</v>
       </c>
       <c r="F505" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G505" s="0" t="s">
         <v>138</v>
@@ -48334,7 +48334,7 @@
         <v>1722</v>
       </c>
       <c r="F507" s="0" t="s">
-        <v>1770</v>
+        <v>1805</v>
       </c>
       <c r="G507" s="0" t="s">
         <v>138</v>
@@ -48398,7 +48398,7 @@
         <v>1722</v>
       </c>
       <c r="F509" s="0" t="s">
-        <v>1770</v>
+        <v>1805</v>
       </c>
       <c r="G509" s="0" t="s">
         <v>138</v>
@@ -48567,7 +48567,7 @@
         <v>1728</v>
       </c>
       <c r="I514" s="0" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="J514" s="0" t="s">
         <v>286</v>
@@ -48654,7 +48654,7 @@
         <v>1722</v>
       </c>
       <c r="F517" s="0" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="G517" s="0" t="s">
         <v>138</v>
@@ -48782,7 +48782,7 @@
         <v>1722</v>
       </c>
       <c r="F521" s="0" t="s">
-        <v>1770</v>
+        <v>1805</v>
       </c>
       <c r="G521" s="0" t="s">
         <v>138</v>
@@ -48983,7 +48983,7 @@
         <v>1728</v>
       </c>
       <c r="I527" s="0" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="J527" s="0" t="s">
         <v>286</v>
@@ -49038,7 +49038,7 @@
         <v>1722</v>
       </c>
       <c r="F529" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G529" s="0" t="s">
         <v>138</v>
@@ -49591,7 +49591,7 @@
         <v>1728</v>
       </c>
       <c r="I546" s="0" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="J546" s="0" t="s">
         <v>286</v>
@@ -51063,7 +51063,7 @@
         <v>1728</v>
       </c>
       <c r="I592" s="0" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="J592" s="0" t="s">
         <v>286</v>
@@ -51127,7 +51127,7 @@
         <v>1728</v>
       </c>
       <c r="I594" s="0" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="J594" s="0" t="s">
         <v>286</v>
@@ -51598,7 +51598,7 @@
         <v>1724</v>
       </c>
       <c r="F609" s="0" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="G609" s="0" t="s">
         <v>869</v>
@@ -51662,7 +51662,7 @@
         <v>1722</v>
       </c>
       <c r="F611" s="0" t="s">
-        <v>1770</v>
+        <v>1805</v>
       </c>
       <c r="G611" s="0" t="s">
         <v>152</v>
@@ -51726,7 +51726,7 @@
         <v>1722</v>
       </c>
       <c r="F613" s="0" t="s">
-        <v>1770</v>
+        <v>1805</v>
       </c>
       <c r="G613" s="0" t="s">
         <v>137</v>
@@ -51790,7 +51790,7 @@
         <v>1722</v>
       </c>
       <c r="F615" s="0" t="s">
-        <v>1770</v>
+        <v>1805</v>
       </c>
       <c r="G615" s="0" t="s">
         <v>783</v>
@@ -51854,7 +51854,7 @@
         <v>1722</v>
       </c>
       <c r="F617" s="0" t="s">
-        <v>1770</v>
+        <v>1805</v>
       </c>
       <c r="G617" s="0" t="s">
         <v>102</v>
@@ -52087,7 +52087,7 @@
         <v>1728</v>
       </c>
       <c r="I624" s="0" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="J624" s="0" t="s">
         <v>286</v>
@@ -52398,7 +52398,7 @@
         <v>1724</v>
       </c>
       <c r="F634" s="0" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="G634" s="0" t="s">
         <v>137</v>
@@ -53207,7 +53207,7 @@
         <v>1728</v>
       </c>
       <c r="I659" s="0" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="J659" s="0" t="s">
         <v>286</v>
@@ -53431,7 +53431,7 @@
         <v>205</v>
       </c>
       <c r="I666" s="0" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="J666" s="0" t="s">
         <v>286</v>
@@ -53518,7 +53518,7 @@
         <v>1724</v>
       </c>
       <c r="F669" s="0" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="G669" s="0" t="s">
         <v>102</v>
@@ -53719,7 +53719,7 @@
         <v>152</v>
       </c>
       <c r="I675" s="0" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="J675" s="0" t="s">
         <v>286</v>
@@ -53774,7 +53774,7 @@
         <v>1724</v>
       </c>
       <c r="F677" s="0" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="G677" s="0" t="s">
         <v>137</v>
@@ -53975,7 +53975,7 @@
         <v>1728</v>
       </c>
       <c r="I683" s="0" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="J683" s="0" t="s">
         <v>286</v>
@@ -54318,7 +54318,7 @@
         <v>1724</v>
       </c>
       <c r="F694" s="0" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="G694" s="0" t="s">
         <v>102</v>
@@ -54446,7 +54446,7 @@
         <v>1722</v>
       </c>
       <c r="F698" s="0" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G698" s="0" t="s">
         <v>869</v>
@@ -54551,7 +54551,7 @@
         <v>24</v>
       </c>
       <c r="I701" s="0" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="J701" s="0" t="s">
         <v>286</v>
@@ -54638,7 +54638,7 @@
         <v>1724</v>
       </c>
       <c r="F704" s="0" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="G704" s="0" t="s">
         <v>102</v>
@@ -54967,7 +54967,7 @@
         <v>230</v>
       </c>
       <c r="I714" s="0" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="J714" s="0" t="s">
         <v>286</v>

--- a/docs/秘籍数值.xlsx
+++ b/docs/秘籍数值.xlsx
@@ -5665,7 +5665,7 @@
     <t>1.5</t>
   </si>
   <si>
-    <t>14500</t>
+    <t>8345</t>
   </si>
   <si>
     <t>19856</t>
@@ -17044,25 +17044,25 @@
         <v>669</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="F175" s="0" t="s">
         <v>24</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="H175" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I175" s="0" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="J175" s="0" t="s">
         <v>24</v>

--- a/docs/秘籍数值.xlsx
+++ b/docs/秘籍数值.xlsx
@@ -4399,6 +4399,9 @@
     <t>40017001</t>
   </si>
   <si>
+    <t>2.3</t>
+  </si>
+  <si>
     <t>40018001</t>
   </si>
   <si>
@@ -4481,9 +4484,6 @@
   </si>
   <si>
     <t>40022001</t>
-  </si>
-  <si>
-    <t>2.3</t>
   </si>
   <si>
     <t>40023001</t>
@@ -27636,18 +27636,18 @@
         <v>1145</v>
       </c>
       <c r="I340" s="0" t="s">
-        <v>1097</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B341" s="0" t="s">
         <v>457</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="D341" s="0" t="s">
         <v>718</v>
@@ -27665,18 +27665,18 @@
         <v>808</v>
       </c>
       <c r="I341" s="0" t="s">
-        <v>1441</v>
+        <v>231</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B342" s="0" t="s">
         <v>457</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="D342" s="0" t="s">
         <v>718</v>
@@ -27699,16 +27699,16 @@
     </row>
     <row r="343">
       <c r="A343" s="0" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B343" s="0" t="s">
         <v>457</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="D343" s="0" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="E343" s="0" t="s">
         <v>719</v>
@@ -27728,13 +27728,13 @@
     </row>
     <row r="344">
       <c r="A344" s="0" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B344" s="0" t="s">
         <v>457</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="D344" s="0" t="s">
         <v>718</v>
@@ -27757,16 +27757,16 @@
     </row>
     <row r="345">
       <c r="A345" s="0" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B345" s="0" t="s">
         <v>457</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="D345" s="0" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="E345" s="0" t="s">
         <v>719</v>
@@ -27786,13 +27786,13 @@
     </row>
     <row r="346">
       <c r="A346" s="0" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B346" s="0" t="s">
         <v>460</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="D346" s="0" t="s">
         <v>718</v>
@@ -27810,18 +27810,18 @@
         <v>1145</v>
       </c>
       <c r="I346" s="0" t="s">
-        <v>1434</v>
+        <v>231</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B347" s="0" t="s">
         <v>460</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D347" s="0" t="s">
         <v>718</v>
@@ -27844,16 +27844,16 @@
     </row>
     <row r="348">
       <c r="A348" s="0" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B348" s="0" t="s">
         <v>460</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="D348" s="0" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="E348" s="0" t="s">
         <v>719</v>
@@ -27873,13 +27873,13 @@
     </row>
     <row r="349">
       <c r="A349" s="0" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B349" s="0" t="s">
         <v>460</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D349" s="0" t="s">
         <v>718</v>
@@ -27902,16 +27902,16 @@
     </row>
     <row r="350">
       <c r="A350" s="0" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B350" s="0" t="s">
         <v>460</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="D350" s="0" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="E350" s="0" t="s">
         <v>719</v>
@@ -27931,13 +27931,13 @@
     </row>
     <row r="351">
       <c r="A351" s="0" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B351" s="0" t="s">
         <v>463</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="D351" s="0" t="s">
         <v>718</v>
@@ -27955,18 +27955,18 @@
         <v>808</v>
       </c>
       <c r="I351" s="0" t="s">
-        <v>1434</v>
+        <v>231</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B352" s="0" t="s">
         <v>463</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D352" s="0" t="s">
         <v>718</v>
@@ -27989,13 +27989,13 @@
     </row>
     <row r="353">
       <c r="A353" s="0" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B353" s="0" t="s">
         <v>463</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D353" s="0" t="s">
         <v>718</v>
@@ -28018,7 +28018,7 @@
     </row>
     <row r="354">
       <c r="A354" s="0" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B354" s="0" t="s">
         <v>466</v>
@@ -28047,7 +28047,7 @@
     </row>
     <row r="355">
       <c r="A355" s="0" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B355" s="0" t="s">
         <v>469</v>
@@ -28071,7 +28071,7 @@
         <v>814</v>
       </c>
       <c r="I355" s="0" t="s">
-        <v>1489</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="356">
@@ -50714,13 +50714,13 @@
     </row>
     <row r="573">
       <c r="A573" s="0" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B573" s="0" t="s">
         <v>457</v>
       </c>
       <c r="C573" s="0" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="D573" s="0" t="s">
         <v>718</v>
@@ -50746,13 +50746,13 @@
     </row>
     <row r="574">
       <c r="A574" s="0" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B574" s="0" t="s">
         <v>463</v>
       </c>
       <c r="C574" s="0" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="D574" s="0" t="s">
         <v>718</v>
@@ -50778,13 +50778,13 @@
     </row>
     <row r="575">
       <c r="A575" s="0" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B575" s="0" t="s">
         <v>463</v>
       </c>
       <c r="C575" s="0" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D575" s="0" t="s">
         <v>718</v>
@@ -50810,13 +50810,13 @@
     </row>
     <row r="576">
       <c r="A576" s="0" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B576" s="0" t="s">
         <v>463</v>
       </c>
       <c r="C576" s="0" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D576" s="0" t="s">
         <v>718</v>
@@ -50842,7 +50842,7 @@
     </row>
     <row r="577">
       <c r="A577" s="0" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B577" s="0" t="s">
         <v>466</v>
@@ -50874,7 +50874,7 @@
     </row>
     <row r="578">
       <c r="A578" s="0" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B578" s="0" t="s">
         <v>466</v>
@@ -50906,7 +50906,7 @@
     </row>
     <row r="579">
       <c r="A579" s="0" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B579" s="0" t="s">
         <v>466</v>
@@ -50938,7 +50938,7 @@
     </row>
     <row r="580">
       <c r="A580" s="0" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B580" s="0" t="s">
         <v>469</v>
@@ -50970,7 +50970,7 @@
     </row>
     <row r="581">
       <c r="A581" s="0" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B581" s="0" t="s">
         <v>469</v>
@@ -51002,7 +51002,7 @@
     </row>
     <row r="582">
       <c r="A582" s="0" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B582" s="0" t="s">
         <v>469</v>

--- a/docs/秘籍数值.xlsx
+++ b/docs/秘籍数值.xlsx
@@ -13094,19 +13094,19 @@
         <v>24</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="H114" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="J114" s="0" t="s">
         <v>24</v>
@@ -32367,7 +32367,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J745"/>
+  <dimension ref="A1:J747"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -50499,19 +50499,19 @@
         <v>718</v>
       </c>
       <c r="E567" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F567" s="0" t="s">
-        <v>1768</v>
+        <v>1755</v>
       </c>
       <c r="G567" s="0" t="s">
-        <v>741</v>
+        <v>318</v>
       </c>
       <c r="H567" s="0" t="s">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="I567" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J567" s="0" t="s">
         <v>297</v>
@@ -50519,31 +50519,31 @@
     </row>
     <row r="568">
       <c r="A568" s="0" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="B568" s="0" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="C568" s="0" t="s">
-        <v>1447</v>
+        <v>434</v>
       </c>
       <c r="D568" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E568" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="F568" s="0" t="s">
-        <v>1790</v>
+        <v>1768</v>
       </c>
       <c r="G568" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H568" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="I568" s="0" t="s">
-        <v>1798</v>
+        <v>24</v>
       </c>
       <c r="J568" s="0" t="s">
         <v>297</v>
@@ -50563,19 +50563,19 @@
         <v>718</v>
       </c>
       <c r="E569" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F569" s="0" t="s">
-        <v>1768</v>
+        <v>1790</v>
       </c>
       <c r="G569" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H569" s="0" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="I569" s="0" t="s">
-        <v>24</v>
+        <v>1798</v>
       </c>
       <c r="J569" s="0" t="s">
         <v>297</v>
@@ -50583,31 +50583,31 @@
     </row>
     <row r="570">
       <c r="A570" s="0" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B570" s="0" t="s">
         <v>448</v>
       </c>
       <c r="C570" s="0" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="D570" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E570" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="F570" s="0" t="s">
-        <v>1790</v>
+        <v>1768</v>
       </c>
       <c r="G570" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H570" s="0" t="s">
-        <v>1760</v>
+        <v>217</v>
       </c>
       <c r="I570" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J570" s="0" t="s">
         <v>297</v>
@@ -50615,13 +50615,13 @@
     </row>
     <row r="571">
       <c r="A571" s="0" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="B571" s="0" t="s">
         <v>448</v>
       </c>
       <c r="C571" s="0" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="D571" s="0" t="s">
         <v>718</v>
@@ -50639,7 +50639,7 @@
         <v>1760</v>
       </c>
       <c r="I571" s="0" t="s">
-        <v>1798</v>
+        <v>488</v>
       </c>
       <c r="J571" s="0" t="s">
         <v>297</v>
@@ -50647,13 +50647,13 @@
     </row>
     <row r="572">
       <c r="A572" s="0" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="B572" s="0" t="s">
         <v>448</v>
       </c>
       <c r="C572" s="0" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D572" s="0" t="s">
         <v>718</v>
@@ -50671,7 +50671,7 @@
         <v>1760</v>
       </c>
       <c r="I572" s="0" t="s">
-        <v>1807</v>
+        <v>1798</v>
       </c>
       <c r="J572" s="0" t="s">
         <v>297</v>
@@ -50679,13 +50679,13 @@
     </row>
     <row r="573">
       <c r="A573" s="0" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="B573" s="0" t="s">
         <v>448</v>
       </c>
       <c r="C573" s="0" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="D573" s="0" t="s">
         <v>718</v>
@@ -50703,7 +50703,7 @@
         <v>1760</v>
       </c>
       <c r="I573" s="0" t="s">
-        <v>1799</v>
+        <v>1807</v>
       </c>
       <c r="J573" s="0" t="s">
         <v>297</v>
@@ -50726,16 +50726,16 @@
         <v>1754</v>
       </c>
       <c r="F574" s="0" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="G574" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H574" s="0" t="s">
-        <v>163</v>
+        <v>1760</v>
       </c>
       <c r="I574" s="0" t="s">
-        <v>1774</v>
+        <v>1799</v>
       </c>
       <c r="J574" s="0" t="s">
         <v>297</v>
@@ -50755,19 +50755,19 @@
         <v>718</v>
       </c>
       <c r="E575" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F575" s="0" t="s">
-        <v>1757</v>
+        <v>1791</v>
       </c>
       <c r="G575" s="0" t="s">
-        <v>127</v>
+        <v>318</v>
       </c>
       <c r="H575" s="0" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="I575" s="0" t="s">
-        <v>24</v>
+        <v>1774</v>
       </c>
       <c r="J575" s="0" t="s">
         <v>297</v>
@@ -50775,13 +50775,13 @@
     </row>
     <row r="576">
       <c r="A576" s="0" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="B576" s="0" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C576" s="0" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="D576" s="0" t="s">
         <v>718</v>
@@ -50790,16 +50790,16 @@
         <v>1756</v>
       </c>
       <c r="F576" s="0" t="s">
-        <v>1786</v>
+        <v>1757</v>
       </c>
       <c r="G576" s="0" t="s">
-        <v>1764</v>
+        <v>127</v>
       </c>
       <c r="H576" s="0" t="s">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="I576" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J576" s="0" t="s">
         <v>297</v>
@@ -50807,13 +50807,13 @@
     </row>
     <row r="577">
       <c r="A577" s="0" t="s">
-        <v>1479</v>
+        <v>1459</v>
       </c>
       <c r="B577" s="0" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C577" s="0" t="s">
-        <v>1480</v>
+        <v>1460</v>
       </c>
       <c r="D577" s="0" t="s">
         <v>718</v>
@@ -50822,16 +50822,16 @@
         <v>1756</v>
       </c>
       <c r="F577" s="0" t="s">
-        <v>1757</v>
+        <v>1786</v>
       </c>
       <c r="G577" s="0" t="s">
         <v>1764</v>
       </c>
       <c r="H577" s="0" t="s">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="I577" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J577" s="0" t="s">
         <v>297</v>
@@ -50839,13 +50839,13 @@
     </row>
     <row r="578">
       <c r="A578" s="0" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B578" s="0" t="s">
         <v>463</v>
       </c>
       <c r="C578" s="0" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="D578" s="0" t="s">
         <v>718</v>
@@ -50871,13 +50871,13 @@
     </row>
     <row r="579">
       <c r="A579" s="0" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="B579" s="0" t="s">
         <v>463</v>
       </c>
       <c r="C579" s="0" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="D579" s="0" t="s">
         <v>718</v>
@@ -50889,10 +50889,10 @@
         <v>1757</v>
       </c>
       <c r="G579" s="0" t="s">
-        <v>127</v>
+        <v>1764</v>
       </c>
       <c r="H579" s="0" t="s">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="I579" s="0" t="s">
         <v>24</v>
@@ -50903,31 +50903,31 @@
     </row>
     <row r="580">
       <c r="A580" s="0" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B580" s="0" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C580" s="0" t="s">
-        <v>466</v>
+        <v>1484</v>
       </c>
       <c r="D580" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E580" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="F580" s="0" t="s">
-        <v>1770</v>
+        <v>1757</v>
       </c>
       <c r="G580" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H580" s="0" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="I580" s="0" t="s">
-        <v>243</v>
+        <v>24</v>
       </c>
       <c r="J580" s="0" t="s">
         <v>297</v>
@@ -50950,7 +50950,7 @@
         <v>1754</v>
       </c>
       <c r="F581" s="0" t="s">
-        <v>1800</v>
+        <v>1770</v>
       </c>
       <c r="G581" s="0" t="s">
         <v>148</v>
@@ -50959,7 +50959,7 @@
         <v>24</v>
       </c>
       <c r="I581" s="0" t="s">
-        <v>1760</v>
+        <v>243</v>
       </c>
       <c r="J581" s="0" t="s">
         <v>297</v>
@@ -50979,19 +50979,19 @@
         <v>718</v>
       </c>
       <c r="E582" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F582" s="0" t="s">
-        <v>1767</v>
+        <v>1800</v>
       </c>
       <c r="G582" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H582" s="0" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="I582" s="0" t="s">
-        <v>24</v>
+        <v>1760</v>
       </c>
       <c r="J582" s="0" t="s">
         <v>297</v>
@@ -50999,31 +50999,31 @@
     </row>
     <row r="583">
       <c r="A583" s="0" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B583" s="0" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C583" s="0" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D583" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E583" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="F583" s="0" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="G583" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H583" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I583" s="0" t="s">
-        <v>1878</v>
+        <v>24</v>
       </c>
       <c r="J583" s="0" t="s">
         <v>297</v>
@@ -51043,19 +51043,19 @@
         <v>718</v>
       </c>
       <c r="E584" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F584" s="0" t="s">
-        <v>1786</v>
+        <v>1770</v>
       </c>
       <c r="G584" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H584" s="0" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="I584" s="0" t="s">
-        <v>488</v>
+        <v>1878</v>
       </c>
       <c r="J584" s="0" t="s">
         <v>297</v>
@@ -51078,7 +51078,7 @@
         <v>1756</v>
       </c>
       <c r="F585" s="0" t="s">
-        <v>1792</v>
+        <v>1786</v>
       </c>
       <c r="G585" s="0" t="s">
         <v>148</v>
@@ -51087,7 +51087,7 @@
         <v>217</v>
       </c>
       <c r="I585" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J585" s="0" t="s">
         <v>297</v>
@@ -51095,31 +51095,31 @@
     </row>
     <row r="586">
       <c r="A586" s="0" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B586" s="0" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C586" s="0" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D586" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E586" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="F586" s="0" t="s">
-        <v>1800</v>
+        <v>1792</v>
       </c>
       <c r="G586" s="0" t="s">
-        <v>883</v>
+        <v>148</v>
       </c>
       <c r="H586" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I586" s="0" t="s">
-        <v>1760</v>
+        <v>24</v>
       </c>
       <c r="J586" s="0" t="s">
         <v>297</v>
@@ -51139,19 +51139,19 @@
         <v>718</v>
       </c>
       <c r="E587" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F587" s="0" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
       <c r="G587" s="0" t="s">
-        <v>148</v>
+        <v>883</v>
       </c>
       <c r="H587" s="0" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="I587" s="0" t="s">
-        <v>24</v>
+        <v>1760</v>
       </c>
       <c r="J587" s="0" t="s">
         <v>297</v>
@@ -51159,31 +51159,31 @@
     </row>
     <row r="588">
       <c r="A588" s="0" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="B588" s="0" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C588" s="0" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D588" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E588" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="F588" s="0" t="s">
-        <v>1800</v>
+        <v>1816</v>
       </c>
       <c r="G588" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H588" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I588" s="0" t="s">
-        <v>1796</v>
+        <v>24</v>
       </c>
       <c r="J588" s="0" t="s">
         <v>297</v>
@@ -51191,77 +51191,77 @@
     </row>
     <row r="589">
       <c r="A589" s="0" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B589" s="0" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C589" s="0" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D589" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E589" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F589" s="0" t="s">
-        <v>1757</v>
+        <v>1800</v>
       </c>
       <c r="G589" s="0" t="s">
-        <v>883</v>
+        <v>318</v>
       </c>
       <c r="H589" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I589" s="0" t="s">
-        <v>24</v>
+        <v>1796</v>
       </c>
       <c r="J589" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="0" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="B590" s="0" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C590" s="0" t="s">
-        <v>1493</v>
+        <v>478</v>
       </c>
       <c r="D590" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E590" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="F590" s="0" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="G590" s="0" t="s">
-        <v>148</v>
+        <v>883</v>
       </c>
       <c r="H590" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I590" s="0" t="s">
-        <v>1774</v>
+        <v>24</v>
       </c>
       <c r="J590" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="0" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="B591" s="0" t="s">
         <v>481</v>
       </c>
       <c r="C591" s="0" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="D591" s="0" t="s">
         <v>718</v>
@@ -51276,10 +51276,10 @@
         <v>148</v>
       </c>
       <c r="H591" s="0" t="s">
-        <v>1760</v>
+        <v>24</v>
       </c>
       <c r="I591" s="0" t="s">
-        <v>62</v>
+        <v>1774</v>
       </c>
       <c r="J591" s="0" t="s">
         <v>297</v>
@@ -51287,13 +51287,13 @@
     </row>
     <row r="592">
       <c r="A592" s="0" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="B592" s="0" t="s">
         <v>481</v>
       </c>
       <c r="C592" s="0" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="D592" s="0" t="s">
         <v>718</v>
@@ -51311,7 +51311,7 @@
         <v>1760</v>
       </c>
       <c r="I592" s="0" t="s">
-        <v>1796</v>
+        <v>62</v>
       </c>
       <c r="J592" s="0" t="s">
         <v>297</v>
@@ -51334,16 +51334,16 @@
         <v>1754</v>
       </c>
       <c r="F593" s="0" t="s">
-        <v>1770</v>
+        <v>1755</v>
       </c>
       <c r="G593" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H593" s="0" t="s">
         <v>1760</v>
       </c>
       <c r="I593" s="0" t="s">
-        <v>721</v>
+        <v>1796</v>
       </c>
       <c r="J593" s="0" t="s">
         <v>297</v>
@@ -51351,13 +51351,13 @@
     </row>
     <row r="594">
       <c r="A594" s="0" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="B594" s="0" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C594" s="0" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="D594" s="0" t="s">
         <v>718</v>
@@ -51366,16 +51366,16 @@
         <v>1754</v>
       </c>
       <c r="F594" s="0" t="s">
-        <v>1790</v>
+        <v>1770</v>
       </c>
       <c r="G594" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H594" s="0" t="s">
-        <v>24</v>
+        <v>1760</v>
       </c>
       <c r="I594" s="0" t="s">
-        <v>1774</v>
+        <v>721</v>
       </c>
       <c r="J594" s="0" t="s">
         <v>297</v>
@@ -51398,13 +51398,13 @@
         <v>1754</v>
       </c>
       <c r="F595" s="0" t="s">
-        <v>1773</v>
+        <v>1790</v>
       </c>
       <c r="G595" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H595" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I595" s="0" t="s">
         <v>1774</v>
@@ -51415,13 +51415,13 @@
     </row>
     <row r="596">
       <c r="A596" s="0" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B596" s="0" t="s">
         <v>487</v>
       </c>
       <c r="C596" s="0" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="D596" s="0" t="s">
         <v>718</v>
@@ -51430,16 +51430,16 @@
         <v>1754</v>
       </c>
       <c r="F596" s="0" t="s">
-        <v>1755</v>
+        <v>1773</v>
       </c>
       <c r="G596" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H596" s="0" t="s">
-        <v>1760</v>
+        <v>163</v>
       </c>
       <c r="I596" s="0" t="s">
-        <v>62</v>
+        <v>1774</v>
       </c>
       <c r="J596" s="0" t="s">
         <v>297</v>
@@ -51462,13 +51462,13 @@
         <v>1754</v>
       </c>
       <c r="F597" s="0" t="s">
-        <v>1773</v>
+        <v>1755</v>
       </c>
       <c r="G597" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H597" s="0" t="s">
-        <v>163</v>
+        <v>1760</v>
       </c>
       <c r="I597" s="0" t="s">
         <v>62</v>
@@ -51479,13 +51479,13 @@
     </row>
     <row r="598">
       <c r="A598" s="0" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="B598" s="0" t="s">
         <v>487</v>
       </c>
       <c r="C598" s="0" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="D598" s="0" t="s">
         <v>718</v>
@@ -51494,16 +51494,16 @@
         <v>1754</v>
       </c>
       <c r="F598" s="0" t="s">
-        <v>1755</v>
+        <v>1773</v>
       </c>
       <c r="G598" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H598" s="0" t="s">
-        <v>1760</v>
+        <v>163</v>
       </c>
       <c r="I598" s="0" t="s">
-        <v>1796</v>
+        <v>62</v>
       </c>
       <c r="J598" s="0" t="s">
         <v>297</v>
@@ -51526,13 +51526,13 @@
         <v>1754</v>
       </c>
       <c r="F599" s="0" t="s">
-        <v>1773</v>
+        <v>1755</v>
       </c>
       <c r="G599" s="0" t="s">
-        <v>1774</v>
+        <v>148</v>
       </c>
       <c r="H599" s="0" t="s">
-        <v>163</v>
+        <v>1760</v>
       </c>
       <c r="I599" s="0" t="s">
         <v>1796</v>
@@ -51543,13 +51543,13 @@
     </row>
     <row r="600">
       <c r="A600" s="0" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="B600" s="0" t="s">
         <v>487</v>
       </c>
       <c r="C600" s="0" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="D600" s="0" t="s">
         <v>718</v>
@@ -51558,16 +51558,16 @@
         <v>1754</v>
       </c>
       <c r="F600" s="0" t="s">
-        <v>1755</v>
+        <v>1773</v>
       </c>
       <c r="G600" s="0" t="s">
-        <v>148</v>
+        <v>1774</v>
       </c>
       <c r="H600" s="0" t="s">
-        <v>1760</v>
+        <v>163</v>
       </c>
       <c r="I600" s="0" t="s">
-        <v>488</v>
+        <v>1796</v>
       </c>
       <c r="J600" s="0" t="s">
         <v>297</v>
@@ -51590,13 +51590,13 @@
         <v>1754</v>
       </c>
       <c r="F601" s="0" t="s">
-        <v>1773</v>
+        <v>1755</v>
       </c>
       <c r="G601" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H601" s="0" t="s">
-        <v>163</v>
+        <v>1760</v>
       </c>
       <c r="I601" s="0" t="s">
         <v>488</v>
@@ -51607,13 +51607,13 @@
     </row>
     <row r="602">
       <c r="A602" s="0" t="s">
-        <v>1511</v>
+        <v>1506</v>
       </c>
       <c r="B602" s="0" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="C602" s="0" t="s">
-        <v>1512</v>
+        <v>1507</v>
       </c>
       <c r="D602" s="0" t="s">
         <v>718</v>
@@ -51622,16 +51622,16 @@
         <v>1754</v>
       </c>
       <c r="F602" s="0" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="G602" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H602" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I602" s="0" t="s">
-        <v>1879</v>
+        <v>488</v>
       </c>
       <c r="J602" s="0" t="s">
         <v>297</v>
@@ -51639,13 +51639,13 @@
     </row>
     <row r="603">
       <c r="A603" s="0" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="B603" s="0" t="s">
         <v>494</v>
       </c>
       <c r="C603" s="0" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="D603" s="0" t="s">
         <v>718</v>
@@ -51654,16 +51654,16 @@
         <v>1754</v>
       </c>
       <c r="F603" s="0" t="s">
-        <v>1755</v>
+        <v>1770</v>
       </c>
       <c r="G603" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H603" s="0" t="s">
-        <v>1760</v>
+        <v>24</v>
       </c>
       <c r="I603" s="0" t="s">
-        <v>62</v>
+        <v>1879</v>
       </c>
       <c r="J603" s="0" t="s">
         <v>297</v>
@@ -51683,19 +51683,19 @@
         <v>718</v>
       </c>
       <c r="E604" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F604" s="0" t="s">
-        <v>1786</v>
+        <v>1755</v>
       </c>
       <c r="G604" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H604" s="0" t="s">
-        <v>163</v>
+        <v>1760</v>
       </c>
       <c r="I604" s="0" t="s">
-        <v>1774</v>
+        <v>62</v>
       </c>
       <c r="J604" s="0" t="s">
         <v>297</v>
@@ -51703,31 +51703,31 @@
     </row>
     <row r="605">
       <c r="A605" s="0" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="B605" s="0" t="s">
         <v>494</v>
       </c>
       <c r="C605" s="0" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="D605" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E605" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="F605" s="0" t="s">
-        <v>1769</v>
+        <v>1786</v>
       </c>
       <c r="G605" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H605" s="0" t="s">
-        <v>1760</v>
+        <v>163</v>
       </c>
       <c r="I605" s="0" t="s">
-        <v>1796</v>
+        <v>1774</v>
       </c>
       <c r="J605" s="0" t="s">
         <v>297</v>
@@ -51747,19 +51747,19 @@
         <v>718</v>
       </c>
       <c r="E606" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F606" s="0" t="s">
-        <v>1757</v>
+        <v>1769</v>
       </c>
       <c r="G606" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H606" s="0" t="s">
-        <v>231</v>
+        <v>1760</v>
       </c>
       <c r="I606" s="0" t="s">
-        <v>24</v>
+        <v>1796</v>
       </c>
       <c r="J606" s="0" t="s">
         <v>297</v>
@@ -51767,31 +51767,31 @@
     </row>
     <row r="607">
       <c r="A607" s="0" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="B607" s="0" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C607" s="0" t="s">
-        <v>497</v>
+        <v>1517</v>
       </c>
       <c r="D607" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E607" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="F607" s="0" t="s">
-        <v>1770</v>
+        <v>1757</v>
       </c>
       <c r="G607" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H607" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="I607" s="0" t="s">
-        <v>1880</v>
+        <v>24</v>
       </c>
       <c r="J607" s="0" t="s">
         <v>297</v>
@@ -51799,13 +51799,13 @@
     </row>
     <row r="608">
       <c r="A608" s="0" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="B608" s="0" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C608" s="0" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D608" s="0" t="s">
         <v>718</v>
@@ -51823,7 +51823,7 @@
         <v>24</v>
       </c>
       <c r="I608" s="0" t="s">
-        <v>334</v>
+        <v>1880</v>
       </c>
       <c r="J608" s="0" t="s">
         <v>297</v>
@@ -51831,13 +51831,13 @@
     </row>
     <row r="609">
       <c r="A609" s="0" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="B609" s="0" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C609" s="0" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D609" s="0" t="s">
         <v>718</v>
@@ -51855,7 +51855,7 @@
         <v>24</v>
       </c>
       <c r="I609" s="0" t="s">
-        <v>1881</v>
+        <v>334</v>
       </c>
       <c r="J609" s="0" t="s">
         <v>297</v>
@@ -51863,13 +51863,13 @@
     </row>
     <row r="610">
       <c r="A610" s="0" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="B610" s="0" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="C610" s="0" t="s">
-        <v>1526</v>
+        <v>503</v>
       </c>
       <c r="D610" s="0" t="s">
         <v>718</v>
@@ -51878,7 +51878,7 @@
         <v>1754</v>
       </c>
       <c r="F610" s="0" t="s">
-        <v>1790</v>
+        <v>1770</v>
       </c>
       <c r="G610" s="0" t="s">
         <v>148</v>
@@ -51887,7 +51887,7 @@
         <v>24</v>
       </c>
       <c r="I610" s="0" t="s">
-        <v>1774</v>
+        <v>1881</v>
       </c>
       <c r="J610" s="0" t="s">
         <v>297</v>
@@ -51895,45 +51895,45 @@
     </row>
     <row r="611">
       <c r="A611" s="0" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
       <c r="B611" s="0" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="C611" s="0" t="s">
-        <v>1529</v>
+        <v>503</v>
       </c>
       <c r="D611" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E611" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="F611" s="0" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="G611" s="0" t="s">
-        <v>148</v>
+        <v>883</v>
       </c>
       <c r="H611" s="0" t="s">
-        <v>1760</v>
+        <v>231</v>
       </c>
       <c r="I611" s="0" t="s">
-        <v>232</v>
+        <v>24</v>
       </c>
       <c r="J611" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="0" t="s">
-        <v>1530</v>
+        <v>1525</v>
       </c>
       <c r="B612" s="0" t="s">
         <v>512</v>
       </c>
       <c r="C612" s="0" t="s">
-        <v>1531</v>
+        <v>1526</v>
       </c>
       <c r="D612" s="0" t="s">
         <v>718</v>
@@ -51942,16 +51942,16 @@
         <v>1754</v>
       </c>
       <c r="F612" s="0" t="s">
-        <v>1755</v>
+        <v>1790</v>
       </c>
       <c r="G612" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H612" s="0" t="s">
-        <v>1760</v>
+        <v>24</v>
       </c>
       <c r="I612" s="0" t="s">
-        <v>488</v>
+        <v>1774</v>
       </c>
       <c r="J612" s="0" t="s">
         <v>297</v>
@@ -51959,16 +51959,16 @@
     </row>
     <row r="613">
       <c r="A613" s="0" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="B613" s="0" t="s">
         <v>512</v>
       </c>
       <c r="C613" s="0" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="D613" s="0" t="s">
-        <v>1531</v>
+        <v>718</v>
       </c>
       <c r="E613" s="0" t="s">
         <v>1754</v>
@@ -51983,7 +51983,7 @@
         <v>1760</v>
       </c>
       <c r="I613" s="0" t="s">
-        <v>1760</v>
+        <v>232</v>
       </c>
       <c r="J613" s="0" t="s">
         <v>297</v>
@@ -51991,16 +51991,16 @@
     </row>
     <row r="614">
       <c r="A614" s="0" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="B614" s="0" t="s">
         <v>512</v>
       </c>
       <c r="C614" s="0" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="D614" s="0" t="s">
-        <v>1531</v>
+        <v>718</v>
       </c>
       <c r="E614" s="0" t="s">
         <v>1754</v>
@@ -52015,7 +52015,7 @@
         <v>1760</v>
       </c>
       <c r="I614" s="0" t="s">
-        <v>231</v>
+        <v>488</v>
       </c>
       <c r="J614" s="0" t="s">
         <v>297</v>
@@ -52023,31 +52023,31 @@
     </row>
     <row r="615">
       <c r="A615" s="0" t="s">
-        <v>1539</v>
+        <v>1532</v>
       </c>
       <c r="B615" s="0" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="C615" s="0" t="s">
-        <v>525</v>
+        <v>1533</v>
       </c>
       <c r="D615" s="0" t="s">
-        <v>718</v>
+        <v>1531</v>
       </c>
       <c r="E615" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F615" s="0" t="s">
-        <v>1792</v>
+        <v>1755</v>
       </c>
       <c r="G615" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H615" s="0" t="s">
-        <v>127</v>
+        <v>1760</v>
       </c>
       <c r="I615" s="0" t="s">
-        <v>24</v>
+        <v>1760</v>
       </c>
       <c r="J615" s="0" t="s">
         <v>297</v>
@@ -52055,31 +52055,31 @@
     </row>
     <row r="616">
       <c r="A616" s="0" t="s">
-        <v>1542</v>
+        <v>1534</v>
       </c>
       <c r="B616" s="0" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="C616" s="0" t="s">
-        <v>531</v>
+        <v>1535</v>
       </c>
       <c r="D616" s="0" t="s">
-        <v>718</v>
+        <v>1531</v>
       </c>
       <c r="E616" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F616" s="0" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="G616" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H616" s="0" t="s">
-        <v>81</v>
+        <v>1760</v>
       </c>
       <c r="I616" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="J616" s="0" t="s">
         <v>297</v>
@@ -52087,31 +52087,31 @@
     </row>
     <row r="617">
       <c r="A617" s="0" t="s">
-        <v>1544</v>
+        <v>1539</v>
       </c>
       <c r="B617" s="0" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="C617" s="0" t="s">
-        <v>1545</v>
+        <v>525</v>
       </c>
       <c r="D617" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E617" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="F617" s="0" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="G617" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H617" s="0" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="I617" s="0" t="s">
-        <v>1783</v>
+        <v>24</v>
       </c>
       <c r="J617" s="0" t="s">
         <v>297</v>
@@ -52119,31 +52119,31 @@
     </row>
     <row r="618">
       <c r="A618" s="0" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="B618" s="0" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C618" s="0" t="s">
-        <v>1547</v>
+        <v>531</v>
       </c>
       <c r="D618" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E618" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="F618" s="0" t="s">
-        <v>1790</v>
+        <v>1757</v>
       </c>
       <c r="G618" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H618" s="0" t="s">
-        <v>1760</v>
+        <v>81</v>
       </c>
       <c r="I618" s="0" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="J618" s="0" t="s">
         <v>297</v>
@@ -52151,13 +52151,13 @@
     </row>
     <row r="619">
       <c r="A619" s="0" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="B619" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C619" s="0" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="D619" s="0" t="s">
         <v>718</v>
@@ -52172,10 +52172,10 @@
         <v>148</v>
       </c>
       <c r="H619" s="0" t="s">
-        <v>1760</v>
+        <v>24</v>
       </c>
       <c r="I619" s="0" t="s">
-        <v>1797</v>
+        <v>1783</v>
       </c>
       <c r="J619" s="0" t="s">
         <v>297</v>
@@ -52183,16 +52183,16 @@
     </row>
     <row r="620">
       <c r="A620" s="0" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="B620" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C620" s="0" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="D620" s="0" t="s">
-        <v>1549</v>
+        <v>718</v>
       </c>
       <c r="E620" s="0" t="s">
         <v>1754</v>
@@ -52207,7 +52207,7 @@
         <v>1760</v>
       </c>
       <c r="I620" s="0" t="s">
-        <v>1798</v>
+        <v>62</v>
       </c>
       <c r="J620" s="0" t="s">
         <v>297</v>
@@ -52215,31 +52215,31 @@
     </row>
     <row r="621">
       <c r="A621" s="0" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="B621" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C621" s="0" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="D621" s="0" t="s">
-        <v>1549</v>
+        <v>718</v>
       </c>
       <c r="E621" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F621" s="0" t="s">
-        <v>1768</v>
+        <v>1790</v>
       </c>
       <c r="G621" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H621" s="0" t="s">
-        <v>217</v>
+        <v>1760</v>
       </c>
       <c r="I621" s="0" t="s">
-        <v>24</v>
+        <v>1797</v>
       </c>
       <c r="J621" s="0" t="s">
         <v>297</v>
@@ -52247,16 +52247,16 @@
     </row>
     <row r="622">
       <c r="A622" s="0" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="B622" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C622" s="0" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D622" s="0" t="s">
-        <v>718</v>
+        <v>1549</v>
       </c>
       <c r="E622" s="0" t="s">
         <v>1754</v>
@@ -52279,31 +52279,31 @@
     </row>
     <row r="623">
       <c r="A623" s="0" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="B623" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C623" s="0" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="D623" s="0" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="E623" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="F623" s="0" t="s">
-        <v>1790</v>
+        <v>1768</v>
       </c>
       <c r="G623" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H623" s="0" t="s">
-        <v>1760</v>
+        <v>217</v>
       </c>
       <c r="I623" s="0" t="s">
-        <v>1818</v>
+        <v>24</v>
       </c>
       <c r="J623" s="0" t="s">
         <v>297</v>
@@ -52311,31 +52311,31 @@
     </row>
     <row r="624">
       <c r="A624" s="0" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="B624" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C624" s="0" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="D624" s="0" t="s">
-        <v>1553</v>
+        <v>718</v>
       </c>
       <c r="E624" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F624" s="0" t="s">
-        <v>1768</v>
+        <v>1790</v>
       </c>
       <c r="G624" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H624" s="0" t="s">
-        <v>81</v>
+        <v>1760</v>
       </c>
       <c r="I624" s="0" t="s">
-        <v>24</v>
+        <v>1798</v>
       </c>
       <c r="J624" s="0" t="s">
         <v>297</v>
@@ -52343,16 +52343,16 @@
     </row>
     <row r="625">
       <c r="A625" s="0" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="B625" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C625" s="0" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="D625" s="0" t="s">
-        <v>718</v>
+        <v>1553</v>
       </c>
       <c r="E625" s="0" t="s">
         <v>1754</v>
@@ -52375,31 +52375,31 @@
     </row>
     <row r="626">
       <c r="A626" s="0" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="B626" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C626" s="0" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="D626" s="0" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="E626" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="F626" s="0" t="s">
-        <v>1790</v>
+        <v>1768</v>
       </c>
       <c r="G626" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H626" s="0" t="s">
-        <v>1760</v>
+        <v>81</v>
       </c>
       <c r="I626" s="0" t="s">
-        <v>1760</v>
+        <v>24</v>
       </c>
       <c r="J626" s="0" t="s">
         <v>297</v>
@@ -52407,31 +52407,31 @@
     </row>
     <row r="627">
       <c r="A627" s="0" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B627" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C627" s="0" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="D627" s="0" t="s">
-        <v>1557</v>
+        <v>718</v>
       </c>
       <c r="E627" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F627" s="0" t="s">
-        <v>1768</v>
+        <v>1790</v>
       </c>
       <c r="G627" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H627" s="0" t="s">
-        <v>163</v>
+        <v>1760</v>
       </c>
       <c r="I627" s="0" t="s">
-        <v>24</v>
+        <v>1818</v>
       </c>
       <c r="J627" s="0" t="s">
         <v>297</v>
@@ -52439,31 +52439,31 @@
     </row>
     <row r="628">
       <c r="A628" s="0" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
       <c r="B628" s="0" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C628" s="0" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
       <c r="D628" s="0" t="s">
-        <v>718</v>
+        <v>1557</v>
       </c>
       <c r="E628" s="0" t="s">
         <v>1754</v>
       </c>
       <c r="F628" s="0" t="s">
-        <v>1755</v>
+        <v>1790</v>
       </c>
       <c r="G628" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H628" s="0" t="s">
-        <v>24</v>
+        <v>1760</v>
       </c>
       <c r="I628" s="0" t="s">
-        <v>1774</v>
+        <v>1760</v>
       </c>
       <c r="J628" s="0" t="s">
         <v>297</v>
@@ -52471,31 +52471,31 @@
     </row>
     <row r="629">
       <c r="A629" s="0" t="s">
-        <v>1565</v>
+        <v>1558</v>
       </c>
       <c r="B629" s="0" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C629" s="0" t="s">
-        <v>1566</v>
+        <v>1559</v>
       </c>
       <c r="D629" s="0" t="s">
-        <v>718</v>
+        <v>1557</v>
       </c>
       <c r="E629" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="F629" s="0" t="s">
-        <v>1755</v>
+        <v>1768</v>
       </c>
       <c r="G629" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H629" s="0" t="s">
-        <v>1760</v>
+        <v>163</v>
       </c>
       <c r="I629" s="0" t="s">
-        <v>1796</v>
+        <v>24</v>
       </c>
       <c r="J629" s="0" t="s">
         <v>297</v>
@@ -52503,13 +52503,13 @@
     </row>
     <row r="630">
       <c r="A630" s="0" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="B630" s="0" t="s">
         <v>549</v>
       </c>
       <c r="C630" s="0" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="D630" s="0" t="s">
         <v>718</v>
@@ -52524,10 +52524,10 @@
         <v>148</v>
       </c>
       <c r="H630" s="0" t="s">
-        <v>1760</v>
+        <v>24</v>
       </c>
       <c r="I630" s="0" t="s">
-        <v>1798</v>
+        <v>1774</v>
       </c>
       <c r="J630" s="0" t="s">
         <v>297</v>
@@ -52535,13 +52535,13 @@
     </row>
     <row r="631">
       <c r="A631" s="0" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="B631" s="0" t="s">
         <v>549</v>
       </c>
       <c r="C631" s="0" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="D631" s="0" t="s">
         <v>718</v>
@@ -52559,7 +52559,7 @@
         <v>1760</v>
       </c>
       <c r="I631" s="0" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="J631" s="0" t="s">
         <v>297</v>
@@ -52567,13 +52567,13 @@
     </row>
     <row r="632">
       <c r="A632" s="0" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="B632" s="0" t="s">
         <v>549</v>
       </c>
       <c r="C632" s="0" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="D632" s="0" t="s">
         <v>718</v>
@@ -52591,7 +52591,7 @@
         <v>1760</v>
       </c>
       <c r="I632" s="0" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
       <c r="J632" s="0" t="s">
         <v>297</v>
@@ -52599,31 +52599,31 @@
     </row>
     <row r="633">
       <c r="A633" s="0" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="B633" s="0" t="s">
         <v>549</v>
       </c>
       <c r="C633" s="0" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="D633" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E633" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F633" s="0" t="s">
-        <v>1763</v>
+        <v>1755</v>
       </c>
       <c r="G633" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H633" s="0" t="s">
-        <v>217</v>
+        <v>1760</v>
       </c>
       <c r="I633" s="0" t="s">
-        <v>24</v>
+        <v>1799</v>
       </c>
       <c r="J633" s="0" t="s">
         <v>297</v>
@@ -52631,13 +52631,13 @@
     </row>
     <row r="634">
       <c r="A634" s="0" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="B634" s="0" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="C634" s="0" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="D634" s="0" t="s">
         <v>718</v>
@@ -52646,16 +52646,16 @@
         <v>1754</v>
       </c>
       <c r="F634" s="0" t="s">
-        <v>1790</v>
+        <v>1755</v>
       </c>
       <c r="G634" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H634" s="0" t="s">
-        <v>24</v>
+        <v>1760</v>
       </c>
       <c r="I634" s="0" t="s">
-        <v>1774</v>
+        <v>1760</v>
       </c>
       <c r="J634" s="0" t="s">
         <v>297</v>
@@ -52663,31 +52663,31 @@
     </row>
     <row r="635">
       <c r="A635" s="0" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="B635" s="0" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="C635" s="0" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="D635" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E635" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="F635" s="0" t="s">
-        <v>1790</v>
+        <v>1763</v>
       </c>
       <c r="G635" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H635" s="0" t="s">
-        <v>1760</v>
+        <v>217</v>
       </c>
       <c r="I635" s="0" t="s">
-        <v>1796</v>
+        <v>24</v>
       </c>
       <c r="J635" s="0" t="s">
         <v>297</v>
@@ -52695,13 +52695,13 @@
     </row>
     <row r="636">
       <c r="A636" s="0" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="B636" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C636" s="0" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="D636" s="0" t="s">
         <v>718</v>
@@ -52716,10 +52716,10 @@
         <v>148</v>
       </c>
       <c r="H636" s="0" t="s">
-        <v>1760</v>
+        <v>24</v>
       </c>
       <c r="I636" s="0" t="s">
-        <v>1798</v>
+        <v>1774</v>
       </c>
       <c r="J636" s="0" t="s">
         <v>297</v>
@@ -52727,13 +52727,13 @@
     </row>
     <row r="637">
       <c r="A637" s="0" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="B637" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C637" s="0" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="D637" s="0" t="s">
         <v>718</v>
@@ -52751,7 +52751,7 @@
         <v>1760</v>
       </c>
       <c r="I637" s="0" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="J637" s="0" t="s">
         <v>297</v>
@@ -52759,13 +52759,13 @@
     </row>
     <row r="638">
       <c r="A638" s="0" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="B638" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C638" s="0" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="D638" s="0" t="s">
         <v>718</v>
@@ -52783,7 +52783,7 @@
         <v>1760</v>
       </c>
       <c r="I638" s="0" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
       <c r="J638" s="0" t="s">
         <v>297</v>
@@ -52791,16 +52791,16 @@
     </row>
     <row r="639">
       <c r="A639" s="0" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="B639" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C639" s="0" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="D639" s="0" t="s">
-        <v>1584</v>
+        <v>718</v>
       </c>
       <c r="E639" s="0" t="s">
         <v>1754</v>
@@ -52815,7 +52815,7 @@
         <v>1760</v>
       </c>
       <c r="I639" s="0" t="s">
-        <v>1882</v>
+        <v>1799</v>
       </c>
       <c r="J639" s="0" t="s">
         <v>297</v>
@@ -52823,31 +52823,31 @@
     </row>
     <row r="640">
       <c r="A640" s="0" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="B640" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C640" s="0" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="D640" s="0" t="s">
-        <v>1584</v>
+        <v>718</v>
       </c>
       <c r="E640" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F640" s="0" t="s">
-        <v>1802</v>
+        <v>1790</v>
       </c>
       <c r="G640" s="0" t="s">
-        <v>883</v>
+        <v>148</v>
       </c>
       <c r="H640" s="0" t="s">
-        <v>163</v>
+        <v>1760</v>
       </c>
       <c r="I640" s="0" t="s">
-        <v>1788</v>
+        <v>1760</v>
       </c>
       <c r="J640" s="0" t="s">
         <v>297</v>
@@ -52855,16 +52855,16 @@
     </row>
     <row r="641">
       <c r="A641" s="0" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="B641" s="0" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="C641" s="0" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="D641" s="0" t="s">
-        <v>718</v>
+        <v>1584</v>
       </c>
       <c r="E641" s="0" t="s">
         <v>1754</v>
@@ -52876,10 +52876,10 @@
         <v>148</v>
       </c>
       <c r="H641" s="0" t="s">
-        <v>24</v>
+        <v>1760</v>
       </c>
       <c r="I641" s="0" t="s">
-        <v>1781</v>
+        <v>1882</v>
       </c>
       <c r="J641" s="0" t="s">
         <v>297</v>
@@ -52887,31 +52887,31 @@
     </row>
     <row r="642">
       <c r="A642" s="0" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="B642" s="0" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="C642" s="0" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="D642" s="0" t="s">
-        <v>718</v>
+        <v>1584</v>
       </c>
       <c r="E642" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="F642" s="0" t="s">
-        <v>1840</v>
+        <v>1802</v>
       </c>
       <c r="G642" s="0" t="s">
-        <v>163</v>
+        <v>883</v>
       </c>
       <c r="H642" s="0" t="s">
         <v>163</v>
       </c>
       <c r="I642" s="0" t="s">
-        <v>1781</v>
+        <v>1788</v>
       </c>
       <c r="J642" s="0" t="s">
         <v>297</v>
@@ -52919,13 +52919,13 @@
     </row>
     <row r="643">
       <c r="A643" s="0" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="B643" s="0" t="s">
         <v>567</v>
       </c>
       <c r="C643" s="0" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="D643" s="0" t="s">
         <v>718</v>
@@ -52940,10 +52940,10 @@
         <v>148</v>
       </c>
       <c r="H643" s="0" t="s">
-        <v>1760</v>
+        <v>24</v>
       </c>
       <c r="I643" s="0" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
       <c r="J643" s="0" t="s">
         <v>297</v>
@@ -52951,13 +52951,13 @@
     </row>
     <row r="644">
       <c r="A644" s="0" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="B644" s="0" t="s">
         <v>567</v>
       </c>
       <c r="C644" s="0" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="D644" s="0" t="s">
         <v>718</v>
@@ -52969,13 +52969,13 @@
         <v>1840</v>
       </c>
       <c r="G644" s="0" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="H644" s="0" t="s">
         <v>163</v>
       </c>
       <c r="I644" s="0" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
       <c r="J644" s="0" t="s">
         <v>297</v>
@@ -52983,13 +52983,13 @@
     </row>
     <row r="645">
       <c r="A645" s="0" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="B645" s="0" t="s">
         <v>567</v>
       </c>
       <c r="C645" s="0" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="D645" s="0" t="s">
         <v>718</v>
@@ -53007,7 +53007,7 @@
         <v>1760</v>
       </c>
       <c r="I645" s="0" t="s">
-        <v>62</v>
+        <v>1774</v>
       </c>
       <c r="J645" s="0" t="s">
         <v>297</v>
@@ -53015,13 +53015,13 @@
     </row>
     <row r="646">
       <c r="A646" s="0" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="B646" s="0" t="s">
         <v>567</v>
       </c>
       <c r="C646" s="0" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="D646" s="0" t="s">
         <v>718</v>
@@ -53033,13 +53033,13 @@
         <v>1840</v>
       </c>
       <c r="G646" s="0" t="s">
-        <v>799</v>
+        <v>127</v>
       </c>
       <c r="H646" s="0" t="s">
         <v>163</v>
       </c>
       <c r="I646" s="0" t="s">
-        <v>62</v>
+        <v>1774</v>
       </c>
       <c r="J646" s="0" t="s">
         <v>297</v>
@@ -53047,16 +53047,16 @@
     </row>
     <row r="647">
       <c r="A647" s="0" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B647" s="0" t="s">
         <v>567</v>
       </c>
       <c r="C647" s="0" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="D647" s="0" t="s">
-        <v>1594</v>
+        <v>718</v>
       </c>
       <c r="E647" s="0" t="s">
         <v>1754</v>
@@ -53071,7 +53071,7 @@
         <v>1760</v>
       </c>
       <c r="I647" s="0" t="s">
-        <v>1796</v>
+        <v>62</v>
       </c>
       <c r="J647" s="0" t="s">
         <v>297</v>
@@ -53079,16 +53079,16 @@
     </row>
     <row r="648">
       <c r="A648" s="0" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B648" s="0" t="s">
         <v>567</v>
       </c>
       <c r="C648" s="0" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="D648" s="0" t="s">
-        <v>1594</v>
+        <v>718</v>
       </c>
       <c r="E648" s="0" t="s">
         <v>1754</v>
@@ -53097,13 +53097,13 @@
         <v>1840</v>
       </c>
       <c r="G648" s="0" t="s">
-        <v>318</v>
+        <v>799</v>
       </c>
       <c r="H648" s="0" t="s">
         <v>163</v>
       </c>
       <c r="I648" s="0" t="s">
-        <v>1796</v>
+        <v>62</v>
       </c>
       <c r="J648" s="0" t="s">
         <v>297</v>
@@ -53111,16 +53111,16 @@
     </row>
     <row r="649">
       <c r="A649" s="0" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="B649" s="0" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C649" s="0" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="D649" s="0" t="s">
-        <v>718</v>
+        <v>1594</v>
       </c>
       <c r="E649" s="0" t="s">
         <v>1754</v>
@@ -53132,10 +53132,10 @@
         <v>148</v>
       </c>
       <c r="H649" s="0" t="s">
-        <v>24</v>
+        <v>1760</v>
       </c>
       <c r="I649" s="0" t="s">
-        <v>1783</v>
+        <v>1796</v>
       </c>
       <c r="J649" s="0" t="s">
         <v>297</v>
@@ -53143,31 +53143,31 @@
     </row>
     <row r="650">
       <c r="A650" s="0" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
       <c r="B650" s="0" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C650" s="0" t="s">
-        <v>1602</v>
+        <v>1596</v>
       </c>
       <c r="D650" s="0" t="s">
-        <v>718</v>
+        <v>1594</v>
       </c>
       <c r="E650" s="0" t="s">
         <v>1754</v>
       </c>
       <c r="F650" s="0" t="s">
-        <v>1790</v>
+        <v>1840</v>
       </c>
       <c r="G650" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H650" s="0" t="s">
-        <v>1760</v>
+        <v>163</v>
       </c>
       <c r="I650" s="0" t="s">
-        <v>62</v>
+        <v>1796</v>
       </c>
       <c r="J650" s="0" t="s">
         <v>297</v>
@@ -53175,13 +53175,13 @@
     </row>
     <row r="651">
       <c r="A651" s="0" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="B651" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C651" s="0" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="D651" s="0" t="s">
         <v>718</v>
@@ -53196,10 +53196,10 @@
         <v>148</v>
       </c>
       <c r="H651" s="0" t="s">
-        <v>1760</v>
+        <v>24</v>
       </c>
       <c r="I651" s="0" t="s">
-        <v>1797</v>
+        <v>1783</v>
       </c>
       <c r="J651" s="0" t="s">
         <v>297</v>
@@ -53207,16 +53207,16 @@
     </row>
     <row r="652">
       <c r="A652" s="0" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="B652" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C652" s="0" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="D652" s="0" t="s">
-        <v>1604</v>
+        <v>718</v>
       </c>
       <c r="E652" s="0" t="s">
         <v>1754</v>
@@ -53231,7 +53231,7 @@
         <v>1760</v>
       </c>
       <c r="I652" s="0" t="s">
-        <v>1883</v>
+        <v>62</v>
       </c>
       <c r="J652" s="0" t="s">
         <v>297</v>
@@ -53239,13 +53239,13 @@
     </row>
     <row r="653">
       <c r="A653" s="0" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="B653" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C653" s="0" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="D653" s="0" t="s">
         <v>718</v>
@@ -53263,7 +53263,7 @@
         <v>1760</v>
       </c>
       <c r="I653" s="0" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="J653" s="0" t="s">
         <v>297</v>
@@ -53271,16 +53271,16 @@
     </row>
     <row r="654">
       <c r="A654" s="0" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="B654" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C654" s="0" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="D654" s="0" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="E654" s="0" t="s">
         <v>1754</v>
@@ -53295,7 +53295,7 @@
         <v>1760</v>
       </c>
       <c r="I654" s="0" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="J654" s="0" t="s">
         <v>297</v>
@@ -53303,13 +53303,13 @@
     </row>
     <row r="655">
       <c r="A655" s="0" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="B655" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C655" s="0" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="D655" s="0" t="s">
         <v>718</v>
@@ -53327,7 +53327,7 @@
         <v>1760</v>
       </c>
       <c r="I655" s="0" t="s">
-        <v>1818</v>
+        <v>1798</v>
       </c>
       <c r="J655" s="0" t="s">
         <v>297</v>
@@ -53335,16 +53335,16 @@
     </row>
     <row r="656">
       <c r="A656" s="0" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="B656" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C656" s="0" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="D656" s="0" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="E656" s="0" t="s">
         <v>1754</v>
@@ -53359,7 +53359,7 @@
         <v>1760</v>
       </c>
       <c r="I656" s="0" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="J656" s="0" t="s">
         <v>297</v>
@@ -53367,31 +53367,31 @@
     </row>
     <row r="657">
       <c r="A657" s="0" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="B657" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C657" s="0" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="D657" s="0" t="s">
-        <v>1612</v>
+        <v>718</v>
       </c>
       <c r="E657" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F657" s="0" t="s">
-        <v>1767</v>
+        <v>1790</v>
       </c>
       <c r="G657" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H657" s="0" t="s">
-        <v>163</v>
+        <v>1760</v>
       </c>
       <c r="I657" s="0" t="s">
-        <v>24</v>
+        <v>1818</v>
       </c>
       <c r="J657" s="0" t="s">
         <v>297</v>
@@ -53399,16 +53399,16 @@
     </row>
     <row r="658">
       <c r="A658" s="0" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="B658" s="0" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C658" s="0" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="D658" s="0" t="s">
-        <v>718</v>
+        <v>1612</v>
       </c>
       <c r="E658" s="0" t="s">
         <v>1754</v>
@@ -53420,10 +53420,10 @@
         <v>148</v>
       </c>
       <c r="H658" s="0" t="s">
-        <v>24</v>
+        <v>1760</v>
       </c>
       <c r="I658" s="0" t="s">
-        <v>488</v>
+        <v>1885</v>
       </c>
       <c r="J658" s="0" t="s">
         <v>297</v>
@@ -53431,31 +53431,31 @@
     </row>
     <row r="659">
       <c r="A659" s="0" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="B659" s="0" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C659" s="0" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="D659" s="0" t="s">
-        <v>718</v>
+        <v>1612</v>
       </c>
       <c r="E659" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="F659" s="0" t="s">
-        <v>1800</v>
+        <v>1767</v>
       </c>
       <c r="G659" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H659" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I659" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J659" s="0" t="s">
         <v>297</v>
@@ -53475,19 +53475,19 @@
         <v>718</v>
       </c>
       <c r="E660" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F660" s="0" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="G660" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H660" s="0" t="s">
-        <v>741</v>
+        <v>24</v>
       </c>
       <c r="I660" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J660" s="0" t="s">
         <v>297</v>
@@ -53495,13 +53495,13 @@
     </row>
     <row r="661">
       <c r="A661" s="0" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="B661" s="0" t="s">
         <v>579</v>
       </c>
       <c r="C661" s="0" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="D661" s="0" t="s">
         <v>718</v>
@@ -53510,16 +53510,16 @@
         <v>1754</v>
       </c>
       <c r="F661" s="0" t="s">
-        <v>1790</v>
+        <v>1800</v>
       </c>
       <c r="G661" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H661" s="0" t="s">
-        <v>1760</v>
+        <v>24</v>
       </c>
       <c r="I661" s="0" t="s">
-        <v>1760</v>
+        <v>488</v>
       </c>
       <c r="J661" s="0" t="s">
         <v>297</v>
@@ -53527,13 +53527,13 @@
     </row>
     <row r="662">
       <c r="A662" s="0" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="B662" s="0" t="s">
         <v>579</v>
       </c>
       <c r="C662" s="0" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="D662" s="0" t="s">
         <v>718</v>
@@ -53542,13 +53542,13 @@
         <v>1756</v>
       </c>
       <c r="F662" s="0" t="s">
-        <v>1816</v>
+        <v>1792</v>
       </c>
       <c r="G662" s="0" t="s">
-        <v>883</v>
+        <v>148</v>
       </c>
       <c r="H662" s="0" t="s">
-        <v>163</v>
+        <v>741</v>
       </c>
       <c r="I662" s="0" t="s">
         <v>24</v>
@@ -53559,13 +53559,13 @@
     </row>
     <row r="663">
       <c r="A663" s="0" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="B663" s="0" t="s">
         <v>579</v>
       </c>
       <c r="C663" s="0" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="D663" s="0" t="s">
         <v>718</v>
@@ -53583,7 +53583,7 @@
         <v>1760</v>
       </c>
       <c r="I663" s="0" t="s">
-        <v>1885</v>
+        <v>1760</v>
       </c>
       <c r="J663" s="0" t="s">
         <v>297</v>
@@ -53591,13 +53591,13 @@
     </row>
     <row r="664">
       <c r="A664" s="0" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="B664" s="0" t="s">
         <v>579</v>
       </c>
       <c r="C664" s="0" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="D664" s="0" t="s">
         <v>718</v>
@@ -53606,16 +53606,16 @@
         <v>1756</v>
       </c>
       <c r="F664" s="0" t="s">
-        <v>1786</v>
+        <v>1816</v>
       </c>
       <c r="G664" s="0" t="s">
-        <v>799</v>
+        <v>883</v>
       </c>
       <c r="H664" s="0" t="s">
         <v>163</v>
       </c>
       <c r="I664" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J664" s="0" t="s">
         <v>297</v>
@@ -53623,13 +53623,13 @@
     </row>
     <row r="665">
       <c r="A665" s="0" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="B665" s="0" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C665" s="0" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="D665" s="0" t="s">
         <v>718</v>
@@ -53644,10 +53644,10 @@
         <v>148</v>
       </c>
       <c r="H665" s="0" t="s">
-        <v>24</v>
+        <v>1760</v>
       </c>
       <c r="I665" s="0" t="s">
-        <v>232</v>
+        <v>1885</v>
       </c>
       <c r="J665" s="0" t="s">
         <v>297</v>
@@ -53655,13 +53655,13 @@
     </row>
     <row r="666">
       <c r="A666" s="0" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="B666" s="0" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C666" s="0" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="D666" s="0" t="s">
         <v>718</v>
@@ -53670,16 +53670,16 @@
         <v>1756</v>
       </c>
       <c r="F666" s="0" t="s">
-        <v>1802</v>
+        <v>1786</v>
       </c>
       <c r="G666" s="0" t="s">
-        <v>127</v>
+        <v>799</v>
       </c>
       <c r="H666" s="0" t="s">
         <v>163</v>
       </c>
       <c r="I666" s="0" t="s">
-        <v>1857</v>
+        <v>488</v>
       </c>
       <c r="J666" s="0" t="s">
         <v>297</v>
@@ -53687,13 +53687,13 @@
     </row>
     <row r="667">
       <c r="A667" s="0" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="B667" s="0" t="s">
         <v>585</v>
       </c>
       <c r="C667" s="0" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D667" s="0" t="s">
         <v>718</v>
@@ -53702,13 +53702,13 @@
         <v>1754</v>
       </c>
       <c r="F667" s="0" t="s">
-        <v>1755</v>
+        <v>1790</v>
       </c>
       <c r="G667" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H667" s="0" t="s">
-        <v>1760</v>
+        <v>24</v>
       </c>
       <c r="I667" s="0" t="s">
         <v>232</v>
@@ -53719,13 +53719,13 @@
     </row>
     <row r="668">
       <c r="A668" s="0" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="B668" s="0" t="s">
         <v>585</v>
       </c>
       <c r="C668" s="0" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D668" s="0" t="s">
         <v>718</v>
@@ -53734,7 +53734,7 @@
         <v>1756</v>
       </c>
       <c r="F668" s="0" t="s">
-        <v>1769</v>
+        <v>1802</v>
       </c>
       <c r="G668" s="0" t="s">
         <v>127</v>
@@ -53751,13 +53751,13 @@
     </row>
     <row r="669">
       <c r="A669" s="0" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="B669" s="0" t="s">
         <v>585</v>
       </c>
       <c r="C669" s="0" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="D669" s="0" t="s">
         <v>718</v>
@@ -53766,7 +53766,7 @@
         <v>1754</v>
       </c>
       <c r="F669" s="0" t="s">
-        <v>1790</v>
+        <v>1755</v>
       </c>
       <c r="G669" s="0" t="s">
         <v>148</v>
@@ -53775,7 +53775,7 @@
         <v>1760</v>
       </c>
       <c r="I669" s="0" t="s">
-        <v>488</v>
+        <v>232</v>
       </c>
       <c r="J669" s="0" t="s">
         <v>297</v>
@@ -53783,31 +53783,31 @@
     </row>
     <row r="670">
       <c r="A670" s="0" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="B670" s="0" t="s">
         <v>585</v>
       </c>
       <c r="C670" s="0" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="D670" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E670" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="F670" s="0" t="s">
-        <v>1755</v>
+        <v>1769</v>
       </c>
       <c r="G670" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H670" s="0" t="s">
-        <v>1760</v>
+        <v>163</v>
       </c>
       <c r="I670" s="0" t="s">
-        <v>488</v>
+        <v>1857</v>
       </c>
       <c r="J670" s="0" t="s">
         <v>297</v>
@@ -53815,13 +53815,13 @@
     </row>
     <row r="671">
       <c r="A671" s="0" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="B671" s="0" t="s">
         <v>585</v>
       </c>
       <c r="C671" s="0" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="D671" s="0" t="s">
         <v>718</v>
@@ -53839,7 +53839,7 @@
         <v>1760</v>
       </c>
       <c r="I671" s="0" t="s">
-        <v>1760</v>
+        <v>488</v>
       </c>
       <c r="J671" s="0" t="s">
         <v>297</v>
@@ -53847,31 +53847,31 @@
     </row>
     <row r="672">
       <c r="A672" s="0" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="B672" s="0" t="s">
         <v>585</v>
       </c>
       <c r="C672" s="0" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="D672" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E672" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F672" s="0" t="s">
-        <v>1763</v>
+        <v>1755</v>
       </c>
       <c r="G672" s="0" t="s">
-        <v>883</v>
+        <v>148</v>
       </c>
       <c r="H672" s="0" t="s">
-        <v>217</v>
+        <v>1760</v>
       </c>
       <c r="I672" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J672" s="0" t="s">
         <v>297</v>
@@ -53879,13 +53879,13 @@
     </row>
     <row r="673">
       <c r="A673" s="0" t="s">
-        <v>1639</v>
+        <v>1632</v>
       </c>
       <c r="B673" s="0" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="C673" s="0" t="s">
-        <v>1640</v>
+        <v>1633</v>
       </c>
       <c r="D673" s="0" t="s">
         <v>718</v>
@@ -53900,10 +53900,10 @@
         <v>148</v>
       </c>
       <c r="H673" s="0" t="s">
-        <v>24</v>
+        <v>1760</v>
       </c>
       <c r="I673" s="0" t="s">
-        <v>62</v>
+        <v>1760</v>
       </c>
       <c r="J673" s="0" t="s">
         <v>297</v>
@@ -53911,13 +53911,13 @@
     </row>
     <row r="674">
       <c r="A674" s="0" t="s">
-        <v>1639</v>
+        <v>1632</v>
       </c>
       <c r="B674" s="0" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="C674" s="0" t="s">
-        <v>1640</v>
+        <v>1633</v>
       </c>
       <c r="D674" s="0" t="s">
         <v>718</v>
@@ -53926,13 +53926,13 @@
         <v>1756</v>
       </c>
       <c r="F674" s="0" t="s">
-        <v>1792</v>
+        <v>1763</v>
       </c>
       <c r="G674" s="0" t="s">
-        <v>148</v>
+        <v>883</v>
       </c>
       <c r="H674" s="0" t="s">
-        <v>1823</v>
+        <v>217</v>
       </c>
       <c r="I674" s="0" t="s">
         <v>24</v>
@@ -53943,13 +53943,13 @@
     </row>
     <row r="675">
       <c r="A675" s="0" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="B675" s="0" t="s">
         <v>603</v>
       </c>
       <c r="C675" s="0" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="D675" s="0" t="s">
         <v>718</v>
@@ -53964,10 +53964,10 @@
         <v>148</v>
       </c>
       <c r="H675" s="0" t="s">
-        <v>1760</v>
+        <v>24</v>
       </c>
       <c r="I675" s="0" t="s">
-        <v>488</v>
+        <v>62</v>
       </c>
       <c r="J675" s="0" t="s">
         <v>297</v>
@@ -53975,31 +53975,31 @@
     </row>
     <row r="676">
       <c r="A676" s="0" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="B676" s="0" t="s">
         <v>603</v>
       </c>
       <c r="C676" s="0" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="D676" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E676" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="F676" s="0" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="G676" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H676" s="0" t="s">
-        <v>163</v>
+        <v>1823</v>
       </c>
       <c r="I676" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J676" s="0" t="s">
         <v>297</v>
@@ -54007,13 +54007,13 @@
     </row>
     <row r="677">
       <c r="A677" s="0" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="B677" s="0" t="s">
         <v>603</v>
       </c>
       <c r="C677" s="0" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="D677" s="0" t="s">
         <v>718</v>
@@ -54031,7 +54031,7 @@
         <v>1760</v>
       </c>
       <c r="I677" s="0" t="s">
-        <v>1799</v>
+        <v>488</v>
       </c>
       <c r="J677" s="0" t="s">
         <v>297</v>
@@ -54039,13 +54039,13 @@
     </row>
     <row r="678">
       <c r="A678" s="0" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="B678" s="0" t="s">
         <v>603</v>
       </c>
       <c r="C678" s="0" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="D678" s="0" t="s">
         <v>718</v>
@@ -54054,16 +54054,16 @@
         <v>1754</v>
       </c>
       <c r="F678" s="0" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="G678" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H678" s="0" t="s">
-        <v>1760</v>
+        <v>163</v>
       </c>
       <c r="I678" s="0" t="s">
-        <v>1760</v>
+        <v>488</v>
       </c>
       <c r="J678" s="0" t="s">
         <v>297</v>
@@ -54071,31 +54071,31 @@
     </row>
     <row r="679">
       <c r="A679" s="0" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="B679" s="0" t="s">
         <v>603</v>
       </c>
       <c r="C679" s="0" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="D679" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E679" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F679" s="0" t="s">
-        <v>1816</v>
+        <v>1790</v>
       </c>
       <c r="G679" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H679" s="0" t="s">
-        <v>163</v>
+        <v>1760</v>
       </c>
       <c r="I679" s="0" t="s">
-        <v>24</v>
+        <v>1799</v>
       </c>
       <c r="J679" s="0" t="s">
         <v>297</v>
@@ -54103,13 +54103,13 @@
     </row>
     <row r="680">
       <c r="A680" s="0" t="s">
-        <v>1657</v>
+        <v>1645</v>
       </c>
       <c r="B680" s="0" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="C680" s="0" t="s">
-        <v>1658</v>
+        <v>1646</v>
       </c>
       <c r="D680" s="0" t="s">
         <v>718</v>
@@ -54118,16 +54118,16 @@
         <v>1754</v>
       </c>
       <c r="F680" s="0" t="s">
-        <v>1755</v>
+        <v>1790</v>
       </c>
       <c r="G680" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H680" s="0" t="s">
-        <v>24</v>
+        <v>1760</v>
       </c>
       <c r="I680" s="0" t="s">
-        <v>1774</v>
+        <v>1760</v>
       </c>
       <c r="J680" s="0" t="s">
         <v>297</v>
@@ -54135,31 +54135,31 @@
     </row>
     <row r="681">
       <c r="A681" s="0" t="s">
-        <v>1659</v>
+        <v>1645</v>
       </c>
       <c r="B681" s="0" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="C681" s="0" t="s">
-        <v>1660</v>
+        <v>1646</v>
       </c>
       <c r="D681" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E681" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="F681" s="0" t="s">
-        <v>1755</v>
+        <v>1816</v>
       </c>
       <c r="G681" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H681" s="0" t="s">
-        <v>1760</v>
+        <v>163</v>
       </c>
       <c r="I681" s="0" t="s">
-        <v>1796</v>
+        <v>24</v>
       </c>
       <c r="J681" s="0" t="s">
         <v>297</v>
@@ -54167,13 +54167,13 @@
     </row>
     <row r="682">
       <c r="A682" s="0" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="B682" s="0" t="s">
         <v>627</v>
       </c>
       <c r="C682" s="0" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D682" s="0" t="s">
         <v>718</v>
@@ -54188,10 +54188,10 @@
         <v>148</v>
       </c>
       <c r="H682" s="0" t="s">
-        <v>1760</v>
+        <v>24</v>
       </c>
       <c r="I682" s="0" t="s">
-        <v>1798</v>
+        <v>1774</v>
       </c>
       <c r="J682" s="0" t="s">
         <v>297</v>
@@ -54199,13 +54199,13 @@
     </row>
     <row r="683">
       <c r="A683" s="0" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="B683" s="0" t="s">
         <v>627</v>
       </c>
       <c r="C683" s="0" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="D683" s="0" t="s">
         <v>718</v>
@@ -54223,7 +54223,7 @@
         <v>1760</v>
       </c>
       <c r="I683" s="0" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="J683" s="0" t="s">
         <v>297</v>
@@ -54231,13 +54231,13 @@
     </row>
     <row r="684">
       <c r="A684" s="0" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="B684" s="0" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C684" s="0" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="D684" s="0" t="s">
         <v>718</v>
@@ -54252,10 +54252,10 @@
         <v>148</v>
       </c>
       <c r="H684" s="0" t="s">
-        <v>24</v>
+        <v>1760</v>
       </c>
       <c r="I684" s="0" t="s">
-        <v>1783</v>
+        <v>1798</v>
       </c>
       <c r="J684" s="0" t="s">
         <v>297</v>
@@ -54263,13 +54263,13 @@
     </row>
     <row r="685">
       <c r="A685" s="0" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="B685" s="0" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C685" s="0" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="D685" s="0" t="s">
         <v>718</v>
@@ -54278,16 +54278,16 @@
         <v>1754</v>
       </c>
       <c r="F685" s="0" t="s">
-        <v>1773</v>
+        <v>1755</v>
       </c>
       <c r="G685" s="0" t="s">
-        <v>758</v>
+        <v>148</v>
       </c>
       <c r="H685" s="0" t="s">
-        <v>231</v>
+        <v>1760</v>
       </c>
       <c r="I685" s="0" t="s">
-        <v>1774</v>
+        <v>1799</v>
       </c>
       <c r="J685" s="0" t="s">
         <v>297</v>
@@ -54295,13 +54295,13 @@
     </row>
     <row r="686">
       <c r="A686" s="0" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="B686" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C686" s="0" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="D686" s="0" t="s">
         <v>718</v>
@@ -54316,10 +54316,10 @@
         <v>148</v>
       </c>
       <c r="H686" s="0" t="s">
-        <v>1760</v>
+        <v>24</v>
       </c>
       <c r="I686" s="0" t="s">
-        <v>62</v>
+        <v>1783</v>
       </c>
       <c r="J686" s="0" t="s">
         <v>297</v>
@@ -54327,13 +54327,13 @@
     </row>
     <row r="687">
       <c r="A687" s="0" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="B687" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C687" s="0" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="D687" s="0" t="s">
         <v>718</v>
@@ -54345,13 +54345,13 @@
         <v>1773</v>
       </c>
       <c r="G687" s="0" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
       <c r="H687" s="0" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="I687" s="0" t="s">
-        <v>62</v>
+        <v>1774</v>
       </c>
       <c r="J687" s="0" t="s">
         <v>297</v>
@@ -54359,13 +54359,13 @@
     </row>
     <row r="688">
       <c r="A688" s="0" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="B688" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C688" s="0" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D688" s="0" t="s">
         <v>718</v>
@@ -54383,7 +54383,7 @@
         <v>1760</v>
       </c>
       <c r="I688" s="0" t="s">
-        <v>1797</v>
+        <v>62</v>
       </c>
       <c r="J688" s="0" t="s">
         <v>297</v>
@@ -54391,13 +54391,13 @@
     </row>
     <row r="689">
       <c r="A689" s="0" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="B689" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C689" s="0" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D689" s="0" t="s">
         <v>718</v>
@@ -54409,13 +54409,13 @@
         <v>1773</v>
       </c>
       <c r="G689" s="0" t="s">
-        <v>741</v>
+        <v>777</v>
       </c>
       <c r="H689" s="0" t="s">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="I689" s="0" t="s">
-        <v>1796</v>
+        <v>62</v>
       </c>
       <c r="J689" s="0" t="s">
         <v>297</v>
@@ -54423,13 +54423,13 @@
     </row>
     <row r="690">
       <c r="A690" s="0" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="B690" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C690" s="0" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="D690" s="0" t="s">
         <v>718</v>
@@ -54447,7 +54447,7 @@
         <v>1760</v>
       </c>
       <c r="I690" s="0" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="J690" s="0" t="s">
         <v>297</v>
@@ -54455,13 +54455,13 @@
     </row>
     <row r="691">
       <c r="A691" s="0" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="B691" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C691" s="0" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="D691" s="0" t="s">
         <v>718</v>
@@ -54473,13 +54473,13 @@
         <v>1773</v>
       </c>
       <c r="G691" s="0" t="s">
-        <v>765</v>
+        <v>741</v>
       </c>
       <c r="H691" s="0" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="I691" s="0" t="s">
-        <v>488</v>
+        <v>1796</v>
       </c>
       <c r="J691" s="0" t="s">
         <v>297</v>
@@ -54487,13 +54487,13 @@
     </row>
     <row r="692">
       <c r="A692" s="0" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="B692" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C692" s="0" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="D692" s="0" t="s">
         <v>718</v>
@@ -54511,7 +54511,7 @@
         <v>1760</v>
       </c>
       <c r="I692" s="0" t="s">
-        <v>1818</v>
+        <v>1798</v>
       </c>
       <c r="J692" s="0" t="s">
         <v>297</v>
@@ -54519,13 +54519,13 @@
     </row>
     <row r="693">
       <c r="A693" s="0" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="B693" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C693" s="0" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="D693" s="0" t="s">
         <v>718</v>
@@ -54537,13 +54537,13 @@
         <v>1773</v>
       </c>
       <c r="G693" s="0" t="s">
-        <v>318</v>
+        <v>765</v>
       </c>
       <c r="H693" s="0" t="s">
         <v>163</v>
       </c>
       <c r="I693" s="0" t="s">
-        <v>1798</v>
+        <v>488</v>
       </c>
       <c r="J693" s="0" t="s">
         <v>297</v>
@@ -54551,13 +54551,13 @@
     </row>
     <row r="694">
       <c r="A694" s="0" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="B694" s="0" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="C694" s="0" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="D694" s="0" t="s">
         <v>718</v>
@@ -54572,10 +54572,10 @@
         <v>148</v>
       </c>
       <c r="H694" s="0" t="s">
-        <v>24</v>
+        <v>1760</v>
       </c>
       <c r="I694" s="0" t="s">
-        <v>1774</v>
+        <v>1818</v>
       </c>
       <c r="J694" s="0" t="s">
         <v>297</v>
@@ -54583,13 +54583,13 @@
     </row>
     <row r="695">
       <c r="A695" s="0" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="B695" s="0" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="C695" s="0" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="D695" s="0" t="s">
         <v>718</v>
@@ -54601,13 +54601,13 @@
         <v>1773</v>
       </c>
       <c r="G695" s="0" t="s">
-        <v>127</v>
+        <v>318</v>
       </c>
       <c r="H695" s="0" t="s">
-        <v>318</v>
+        <v>163</v>
       </c>
       <c r="I695" s="0" t="s">
-        <v>62</v>
+        <v>1798</v>
       </c>
       <c r="J695" s="0" t="s">
         <v>297</v>
@@ -54615,13 +54615,13 @@
     </row>
     <row r="696">
       <c r="A696" s="0" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="B696" s="0" t="s">
         <v>641</v>
       </c>
       <c r="C696" s="0" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="D696" s="0" t="s">
         <v>718</v>
@@ -54636,10 +54636,10 @@
         <v>148</v>
       </c>
       <c r="H696" s="0" t="s">
-        <v>1760</v>
+        <v>24</v>
       </c>
       <c r="I696" s="0" t="s">
-        <v>1795</v>
+        <v>1774</v>
       </c>
       <c r="J696" s="0" t="s">
         <v>297</v>
@@ -54647,13 +54647,13 @@
     </row>
     <row r="697">
       <c r="A697" s="0" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="B697" s="0" t="s">
         <v>641</v>
       </c>
       <c r="C697" s="0" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="D697" s="0" t="s">
         <v>718</v>
@@ -54662,16 +54662,16 @@
         <v>1754</v>
       </c>
       <c r="F697" s="0" t="s">
-        <v>1864</v>
+        <v>1773</v>
       </c>
       <c r="G697" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H697" s="0" t="s">
-        <v>217</v>
+        <v>318</v>
       </c>
       <c r="I697" s="0" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="J697" s="0" t="s">
         <v>297</v>
@@ -54679,13 +54679,13 @@
     </row>
     <row r="698">
       <c r="A698" s="0" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="B698" s="0" t="s">
         <v>641</v>
       </c>
       <c r="C698" s="0" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="D698" s="0" t="s">
         <v>718</v>
@@ -54703,7 +54703,7 @@
         <v>1760</v>
       </c>
       <c r="I698" s="0" t="s">
-        <v>488</v>
+        <v>1795</v>
       </c>
       <c r="J698" s="0" t="s">
         <v>297</v>
@@ -54711,31 +54711,31 @@
     </row>
     <row r="699">
       <c r="A699" s="0" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="B699" s="0" t="s">
         <v>641</v>
       </c>
       <c r="C699" s="0" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="D699" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E699" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F699" s="0" t="s">
-        <v>1769</v>
+        <v>1864</v>
       </c>
       <c r="G699" s="0" t="s">
-        <v>799</v>
+        <v>148</v>
       </c>
       <c r="H699" s="0" t="s">
         <v>217</v>
       </c>
       <c r="I699" s="0" t="s">
-        <v>1803</v>
+        <v>24</v>
       </c>
       <c r="J699" s="0" t="s">
         <v>297</v>
@@ -54743,31 +54743,31 @@
     </row>
     <row r="700">
       <c r="A700" s="0" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="B700" s="0" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="C700" s="0" t="s">
-        <v>650</v>
+        <v>1681</v>
       </c>
       <c r="D700" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E700" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F700" s="0" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="G700" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H700" s="0" t="s">
-        <v>163</v>
+        <v>1760</v>
       </c>
       <c r="I700" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J700" s="0" t="s">
         <v>297</v>
@@ -54775,13 +54775,13 @@
     </row>
     <row r="701">
       <c r="A701" s="0" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="B701" s="0" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="C701" s="0" t="s">
-        <v>653</v>
+        <v>1681</v>
       </c>
       <c r="D701" s="0" t="s">
         <v>718</v>
@@ -54790,16 +54790,16 @@
         <v>1756</v>
       </c>
       <c r="F701" s="0" t="s">
-        <v>1757</v>
+        <v>1769</v>
       </c>
       <c r="G701" s="0" t="s">
-        <v>127</v>
+        <v>799</v>
       </c>
       <c r="H701" s="0" t="s">
         <v>217</v>
       </c>
       <c r="I701" s="0" t="s">
-        <v>24</v>
+        <v>1803</v>
       </c>
       <c r="J701" s="0" t="s">
         <v>297</v>
@@ -54807,13 +54807,13 @@
     </row>
     <row r="702">
       <c r="A702" s="0" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B702" s="0" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C702" s="0" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D702" s="0" t="s">
         <v>718</v>
@@ -54822,16 +54822,16 @@
         <v>1756</v>
       </c>
       <c r="F702" s="0" t="s">
-        <v>1802</v>
+        <v>1757</v>
       </c>
       <c r="G702" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H702" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I702" s="0" t="s">
-        <v>1785</v>
+        <v>24</v>
       </c>
       <c r="J702" s="0" t="s">
         <v>297</v>
@@ -54839,13 +54839,13 @@
     </row>
     <row r="703">
       <c r="A703" s="0" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="B703" s="0" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="C703" s="0" t="s">
-        <v>1695</v>
+        <v>653</v>
       </c>
       <c r="D703" s="0" t="s">
         <v>718</v>
@@ -54854,13 +54854,13 @@
         <v>1756</v>
       </c>
       <c r="F703" s="0" t="s">
-        <v>1792</v>
+        <v>1757</v>
       </c>
       <c r="G703" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H703" s="0" t="s">
-        <v>1793</v>
+        <v>217</v>
       </c>
       <c r="I703" s="0" t="s">
         <v>24</v>
@@ -54871,31 +54871,31 @@
     </row>
     <row r="704">
       <c r="A704" s="0" t="s">
-        <v>1696</v>
+        <v>1685</v>
       </c>
       <c r="B704" s="0" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="C704" s="0" t="s">
-        <v>1697</v>
+        <v>653</v>
       </c>
       <c r="D704" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E704" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="F704" s="0" t="s">
-        <v>1790</v>
+        <v>1802</v>
       </c>
       <c r="G704" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H704" s="0" t="s">
-        <v>1760</v>
+        <v>24</v>
       </c>
       <c r="I704" s="0" t="s">
-        <v>1797</v>
+        <v>1785</v>
       </c>
       <c r="J704" s="0" t="s">
         <v>297</v>
@@ -54903,13 +54903,13 @@
     </row>
     <row r="705">
       <c r="A705" s="0" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="B705" s="0" t="s">
         <v>668</v>
       </c>
       <c r="C705" s="0" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="D705" s="0" t="s">
         <v>718</v>
@@ -54918,13 +54918,13 @@
         <v>1756</v>
       </c>
       <c r="F705" s="0" t="s">
-        <v>1763</v>
+        <v>1792</v>
       </c>
       <c r="G705" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H705" s="0" t="s">
-        <v>163</v>
+        <v>1793</v>
       </c>
       <c r="I705" s="0" t="s">
         <v>24</v>
@@ -54935,13 +54935,13 @@
     </row>
     <row r="706">
       <c r="A706" s="0" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="B706" s="0" t="s">
         <v>668</v>
       </c>
       <c r="C706" s="0" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="D706" s="0" t="s">
         <v>718</v>
@@ -54959,7 +54959,7 @@
         <v>1760</v>
       </c>
       <c r="I706" s="0" t="s">
-        <v>488</v>
+        <v>1797</v>
       </c>
       <c r="J706" s="0" t="s">
         <v>297</v>
@@ -54967,22 +54967,22 @@
     </row>
     <row r="707">
       <c r="A707" s="0" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="B707" s="0" t="s">
         <v>668</v>
       </c>
       <c r="C707" s="0" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="D707" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E707" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="F707" s="0" t="s">
-        <v>1771</v>
+        <v>1763</v>
       </c>
       <c r="G707" s="0" t="s">
         <v>741</v>
@@ -54991,7 +54991,7 @@
         <v>163</v>
       </c>
       <c r="I707" s="0" t="s">
-        <v>1833</v>
+        <v>24</v>
       </c>
       <c r="J707" s="0" t="s">
         <v>297</v>
@@ -54999,13 +54999,13 @@
     </row>
     <row r="708">
       <c r="A708" s="0" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="B708" s="0" t="s">
         <v>668</v>
       </c>
       <c r="C708" s="0" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="D708" s="0" t="s">
         <v>718</v>
@@ -55023,7 +55023,7 @@
         <v>1760</v>
       </c>
       <c r="I708" s="0" t="s">
-        <v>1852</v>
+        <v>488</v>
       </c>
       <c r="J708" s="0" t="s">
         <v>297</v>
@@ -55031,63 +55031,63 @@
     </row>
     <row r="709">
       <c r="A709" s="0" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="B709" s="0" t="s">
         <v>668</v>
       </c>
       <c r="C709" s="0" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="D709" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E709" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F709" s="0" t="s">
-        <v>1802</v>
+        <v>1771</v>
       </c>
       <c r="G709" s="0" t="s">
-        <v>127</v>
+        <v>741</v>
       </c>
       <c r="H709" s="0" t="s">
         <v>163</v>
       </c>
       <c r="I709" s="0" t="s">
-        <v>1785</v>
+        <v>1833</v>
       </c>
       <c r="J709" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="0" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="B710" s="0" t="s">
         <v>668</v>
       </c>
       <c r="C710" s="0" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="D710" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E710" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F710" s="0" t="s">
-        <v>1763</v>
+        <v>1790</v>
       </c>
       <c r="G710" s="0" t="s">
-        <v>883</v>
+        <v>148</v>
       </c>
       <c r="H710" s="0" t="s">
-        <v>127</v>
+        <v>1760</v>
       </c>
       <c r="I710" s="0" t="s">
-        <v>24</v>
+        <v>1852</v>
       </c>
       <c r="J710" s="0" t="s">
         <v>297</v>
@@ -55095,45 +55095,45 @@
     </row>
     <row r="711">
       <c r="A711" s="0" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="B711" s="0" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C711" s="0" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="D711" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E711" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="F711" s="0" t="s">
-        <v>1755</v>
+        <v>1802</v>
       </c>
       <c r="G711" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H711" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I711" s="0" t="s">
-        <v>1796</v>
+        <v>1785</v>
       </c>
       <c r="J711" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="0" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="B712" s="0" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C712" s="0" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="D712" s="0" t="s">
         <v>718</v>
@@ -55142,13 +55142,13 @@
         <v>1756</v>
       </c>
       <c r="F712" s="0" t="s">
-        <v>1816</v>
+        <v>1763</v>
       </c>
       <c r="G712" s="0" t="s">
-        <v>741</v>
+        <v>883</v>
       </c>
       <c r="H712" s="0" t="s">
-        <v>513</v>
+        <v>127</v>
       </c>
       <c r="I712" s="0" t="s">
         <v>24</v>
@@ -55159,13 +55159,13 @@
     </row>
     <row r="713">
       <c r="A713" s="0" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="B713" s="0" t="s">
         <v>671</v>
       </c>
       <c r="C713" s="0" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="D713" s="0" t="s">
         <v>718</v>
@@ -55180,10 +55180,10 @@
         <v>148</v>
       </c>
       <c r="H713" s="0" t="s">
-        <v>1760</v>
+        <v>24</v>
       </c>
       <c r="I713" s="0" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="J713" s="0" t="s">
         <v>297</v>
@@ -55191,31 +55191,31 @@
     </row>
     <row r="714">
       <c r="A714" s="0" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="B714" s="0" t="s">
         <v>671</v>
       </c>
       <c r="C714" s="0" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="D714" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E714" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="F714" s="0" t="s">
-        <v>1770</v>
+        <v>1816</v>
       </c>
       <c r="G714" s="0" t="s">
-        <v>883</v>
+        <v>741</v>
       </c>
       <c r="H714" s="0" t="s">
-        <v>1760</v>
+        <v>513</v>
       </c>
       <c r="I714" s="0" t="s">
-        <v>721</v>
+        <v>24</v>
       </c>
       <c r="J714" s="0" t="s">
         <v>297</v>
@@ -55223,13 +55223,13 @@
     </row>
     <row r="715">
       <c r="A715" s="0" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="B715" s="0" t="s">
         <v>671</v>
       </c>
       <c r="C715" s="0" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D715" s="0" t="s">
         <v>718</v>
@@ -55247,7 +55247,7 @@
         <v>1760</v>
       </c>
       <c r="I715" s="0" t="s">
-        <v>1818</v>
+        <v>1798</v>
       </c>
       <c r="J715" s="0" t="s">
         <v>297</v>
@@ -55255,31 +55255,31 @@
     </row>
     <row r="716">
       <c r="A716" s="0" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="B716" s="0" t="s">
         <v>671</v>
       </c>
       <c r="C716" s="0" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D716" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E716" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F716" s="0" t="s">
-        <v>1763</v>
+        <v>1770</v>
       </c>
       <c r="G716" s="0" t="s">
-        <v>741</v>
+        <v>883</v>
       </c>
       <c r="H716" s="0" t="s">
-        <v>217</v>
+        <v>1760</v>
       </c>
       <c r="I716" s="0" t="s">
-        <v>24</v>
+        <v>721</v>
       </c>
       <c r="J716" s="0" t="s">
         <v>297</v>
@@ -55287,13 +55287,13 @@
     </row>
     <row r="717">
       <c r="A717" s="0" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="B717" s="0" t="s">
         <v>671</v>
       </c>
       <c r="C717" s="0" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="D717" s="0" t="s">
         <v>718</v>
@@ -55311,7 +55311,7 @@
         <v>1760</v>
       </c>
       <c r="I717" s="0" t="s">
-        <v>1882</v>
+        <v>1818</v>
       </c>
       <c r="J717" s="0" t="s">
         <v>297</v>
@@ -55319,31 +55319,31 @@
     </row>
     <row r="718">
       <c r="A718" s="0" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="B718" s="0" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C718" s="0" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="D718" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E718" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="F718" s="0" t="s">
-        <v>1770</v>
+        <v>1763</v>
       </c>
       <c r="G718" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H718" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I718" s="0" t="s">
-        <v>1886</v>
+        <v>24</v>
       </c>
       <c r="J718" s="0" t="s">
         <v>297</v>
@@ -55351,31 +55351,31 @@
     </row>
     <row r="719">
       <c r="A719" s="0" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="B719" s="0" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C719" s="0" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="D719" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E719" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F719" s="0" t="s">
-        <v>1786</v>
+        <v>1755</v>
       </c>
       <c r="G719" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H719" s="0" t="s">
-        <v>163</v>
+        <v>1760</v>
       </c>
       <c r="I719" s="0" t="s">
-        <v>488</v>
+        <v>1882</v>
       </c>
       <c r="J719" s="0" t="s">
         <v>297</v>
@@ -55383,13 +55383,13 @@
     </row>
     <row r="720">
       <c r="A720" s="0" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="B720" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C720" s="0" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="D720" s="0" t="s">
         <v>718</v>
@@ -55398,16 +55398,16 @@
         <v>1754</v>
       </c>
       <c r="F720" s="0" t="s">
-        <v>1790</v>
+        <v>1770</v>
       </c>
       <c r="G720" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H720" s="0" t="s">
-        <v>1760</v>
+        <v>24</v>
       </c>
       <c r="I720" s="0" t="s">
-        <v>488</v>
+        <v>1886</v>
       </c>
       <c r="J720" s="0" t="s">
         <v>297</v>
@@ -55415,13 +55415,13 @@
     </row>
     <row r="721">
       <c r="A721" s="0" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="B721" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C721" s="0" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="D721" s="0" t="s">
         <v>718</v>
@@ -55430,16 +55430,16 @@
         <v>1756</v>
       </c>
       <c r="F721" s="0" t="s">
-        <v>1763</v>
+        <v>1786</v>
       </c>
       <c r="G721" s="0" t="s">
-        <v>318</v>
+        <v>741</v>
       </c>
       <c r="H721" s="0" t="s">
         <v>163</v>
       </c>
       <c r="I721" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J721" s="0" t="s">
         <v>297</v>
@@ -55447,13 +55447,13 @@
     </row>
     <row r="722">
       <c r="A722" s="0" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="B722" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C722" s="0" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="D722" s="0" t="s">
         <v>718</v>
@@ -55462,7 +55462,7 @@
         <v>1754</v>
       </c>
       <c r="F722" s="0" t="s">
-        <v>1769</v>
+        <v>1790</v>
       </c>
       <c r="G722" s="0" t="s">
         <v>148</v>
@@ -55471,7 +55471,7 @@
         <v>1760</v>
       </c>
       <c r="I722" s="0" t="s">
-        <v>1760</v>
+        <v>488</v>
       </c>
       <c r="J722" s="0" t="s">
         <v>297</v>
@@ -55479,13 +55479,13 @@
     </row>
     <row r="723">
       <c r="A723" s="0" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="B723" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C723" s="0" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="D723" s="0" t="s">
         <v>718</v>
@@ -55494,10 +55494,10 @@
         <v>1756</v>
       </c>
       <c r="F723" s="0" t="s">
-        <v>1768</v>
+        <v>1763</v>
       </c>
       <c r="G723" s="0" t="s">
-        <v>883</v>
+        <v>318</v>
       </c>
       <c r="H723" s="0" t="s">
         <v>163</v>
@@ -55511,13 +55511,13 @@
     </row>
     <row r="724">
       <c r="A724" s="0" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="B724" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C724" s="0" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="D724" s="0" t="s">
         <v>718</v>
@@ -55526,7 +55526,7 @@
         <v>1754</v>
       </c>
       <c r="F724" s="0" t="s">
-        <v>1790</v>
+        <v>1769</v>
       </c>
       <c r="G724" s="0" t="s">
         <v>148</v>
@@ -55543,13 +55543,13 @@
     </row>
     <row r="725">
       <c r="A725" s="0" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="B725" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C725" s="0" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="D725" s="0" t="s">
         <v>718</v>
@@ -55558,19 +55558,19 @@
         <v>1756</v>
       </c>
       <c r="F725" s="0" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="G725" s="0" t="s">
-        <v>318</v>
+        <v>883</v>
       </c>
       <c r="H725" s="0" t="s">
-        <v>231</v>
+        <v>163</v>
       </c>
       <c r="I725" s="0" t="s">
-        <v>1788</v>
+        <v>24</v>
       </c>
       <c r="J725" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="726">
@@ -55587,106 +55587,106 @@
         <v>718</v>
       </c>
       <c r="E726" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F726" s="0" t="s">
-        <v>1802</v>
+        <v>1790</v>
       </c>
       <c r="G726" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H726" s="0" t="s">
-        <v>231</v>
+        <v>1760</v>
       </c>
       <c r="I726" s="0" t="s">
-        <v>1788</v>
+        <v>1760</v>
       </c>
       <c r="J726" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="0" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="B727" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C727" s="0" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="D727" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E727" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="F727" s="0" t="s">
-        <v>1755</v>
+        <v>1769</v>
       </c>
       <c r="G727" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H727" s="0" t="s">
-        <v>1760</v>
+        <v>231</v>
       </c>
       <c r="I727" s="0" t="s">
-        <v>1885</v>
+        <v>1788</v>
       </c>
       <c r="J727" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="0" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="B728" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C728" s="0" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="D728" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E728" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="F728" s="0" t="s">
-        <v>1866</v>
+        <v>1802</v>
       </c>
       <c r="G728" s="0" t="s">
-        <v>741</v>
+        <v>318</v>
       </c>
       <c r="H728" s="0" t="s">
-        <v>163</v>
+        <v>231</v>
       </c>
       <c r="I728" s="0" t="s">
-        <v>24</v>
+        <v>1788</v>
       </c>
       <c r="J728" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="0" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="B729" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C729" s="0" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="D729" s="0" t="s">
-        <v>1721</v>
+        <v>718</v>
       </c>
       <c r="E729" s="0" t="s">
         <v>1754</v>
       </c>
       <c r="F729" s="0" t="s">
-        <v>1790</v>
+        <v>1755</v>
       </c>
       <c r="G729" s="0" t="s">
         <v>148</v>
@@ -55703,25 +55703,25 @@
     </row>
     <row r="730">
       <c r="A730" s="0" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="B730" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C730" s="0" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="D730" s="0" t="s">
-        <v>1721</v>
+        <v>718</v>
       </c>
       <c r="E730" s="0" t="s">
         <v>1754</v>
       </c>
       <c r="F730" s="0" t="s">
-        <v>1812</v>
+        <v>1866</v>
       </c>
       <c r="G730" s="0" t="s">
-        <v>883</v>
+        <v>741</v>
       </c>
       <c r="H730" s="0" t="s">
         <v>163</v>
@@ -55735,31 +55735,31 @@
     </row>
     <row r="731">
       <c r="A731" s="0" t="s">
-        <v>1729</v>
+        <v>1722</v>
       </c>
       <c r="B731" s="0" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="C731" s="0" t="s">
-        <v>686</v>
+        <v>1723</v>
       </c>
       <c r="D731" s="0" t="s">
-        <v>718</v>
+        <v>1721</v>
       </c>
       <c r="E731" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F731" s="0" t="s">
-        <v>1757</v>
+        <v>1790</v>
       </c>
       <c r="G731" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H731" s="0" t="s">
-        <v>127</v>
+        <v>1760</v>
       </c>
       <c r="I731" s="0" t="s">
-        <v>24</v>
+        <v>1885</v>
       </c>
       <c r="J731" s="0" t="s">
         <v>297</v>
@@ -55767,28 +55767,28 @@
     </row>
     <row r="732">
       <c r="A732" s="0" t="s">
-        <v>1729</v>
+        <v>1722</v>
       </c>
       <c r="B732" s="0" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="C732" s="0" t="s">
-        <v>686</v>
+        <v>1723</v>
       </c>
       <c r="D732" s="0" t="s">
-        <v>718</v>
+        <v>1721</v>
       </c>
       <c r="E732" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F732" s="0" t="s">
-        <v>1768</v>
+        <v>1812</v>
       </c>
       <c r="G732" s="0" t="s">
-        <v>148</v>
+        <v>883</v>
       </c>
       <c r="H732" s="0" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="I732" s="0" t="s">
         <v>24</v>
@@ -55799,31 +55799,31 @@
     </row>
     <row r="733">
       <c r="A733" s="0" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="B733" s="0" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C733" s="0" t="s">
-        <v>1731</v>
+        <v>686</v>
       </c>
       <c r="D733" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E733" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="F733" s="0" t="s">
-        <v>1770</v>
+        <v>1757</v>
       </c>
       <c r="G733" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H733" s="0" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="I733" s="0" t="s">
-        <v>1887</v>
+        <v>24</v>
       </c>
       <c r="J733" s="0" t="s">
         <v>297</v>
@@ -55831,31 +55831,31 @@
     </row>
     <row r="734">
       <c r="A734" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="B734" s="0" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C734" s="0" t="s">
-        <v>1733</v>
+        <v>686</v>
       </c>
       <c r="D734" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E734" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="F734" s="0" t="s">
-        <v>1790</v>
+        <v>1768</v>
       </c>
       <c r="G734" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H734" s="0" t="s">
-        <v>1760</v>
+        <v>134</v>
       </c>
       <c r="I734" s="0" t="s">
-        <v>1883</v>
+        <v>24</v>
       </c>
       <c r="J734" s="0" t="s">
         <v>297</v>
@@ -55863,31 +55863,31 @@
     </row>
     <row r="735">
       <c r="A735" s="0" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="B735" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C735" s="0" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="D735" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E735" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F735" s="0" t="s">
-        <v>1802</v>
+        <v>1770</v>
       </c>
       <c r="G735" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H735" s="0" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="I735" s="0" t="s">
-        <v>1788</v>
+        <v>1887</v>
       </c>
       <c r="J735" s="0" t="s">
         <v>297</v>
@@ -55895,13 +55895,13 @@
     </row>
     <row r="736">
       <c r="A736" s="0" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="B736" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C736" s="0" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="D736" s="0" t="s">
         <v>718</v>
@@ -55919,7 +55919,7 @@
         <v>1760</v>
       </c>
       <c r="I736" s="0" t="s">
-        <v>1888</v>
+        <v>1883</v>
       </c>
       <c r="J736" s="0" t="s">
         <v>297</v>
@@ -55927,31 +55927,31 @@
     </row>
     <row r="737">
       <c r="A737" s="0" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="B737" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C737" s="0" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="D737" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E737" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="F737" s="0" t="s">
-        <v>1755</v>
+        <v>1802</v>
       </c>
       <c r="G737" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H737" s="0" t="s">
-        <v>1760</v>
+        <v>217</v>
       </c>
       <c r="I737" s="0" t="s">
-        <v>1760</v>
+        <v>1788</v>
       </c>
       <c r="J737" s="0" t="s">
         <v>297</v>
@@ -55959,22 +55959,22 @@
     </row>
     <row r="738">
       <c r="A738" s="0" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="B738" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C738" s="0" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="D738" s="0" t="s">
-        <v>1737</v>
+        <v>718</v>
       </c>
       <c r="E738" s="0" t="s">
         <v>1754</v>
       </c>
       <c r="F738" s="0" t="s">
-        <v>1755</v>
+        <v>1790</v>
       </c>
       <c r="G738" s="0" t="s">
         <v>148</v>
@@ -55983,7 +55983,7 @@
         <v>1760</v>
       </c>
       <c r="I738" s="0" t="s">
-        <v>1882</v>
+        <v>1888</v>
       </c>
       <c r="J738" s="0" t="s">
         <v>297</v>
@@ -55991,31 +55991,31 @@
     </row>
     <row r="739">
       <c r="A739" s="0" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="B739" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C739" s="0" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="D739" s="0" t="s">
-        <v>1737</v>
+        <v>718</v>
       </c>
       <c r="E739" s="0" t="s">
         <v>1754</v>
       </c>
       <c r="F739" s="0" t="s">
-        <v>1773</v>
+        <v>1755</v>
       </c>
       <c r="G739" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H739" s="0" t="s">
-        <v>163</v>
+        <v>1760</v>
       </c>
       <c r="I739" s="0" t="s">
-        <v>488</v>
+        <v>1760</v>
       </c>
       <c r="J739" s="0" t="s">
         <v>297</v>
@@ -56023,16 +56023,16 @@
     </row>
     <row r="740">
       <c r="A740" s="0" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="B740" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C740" s="0" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="D740" s="0" t="s">
-        <v>718</v>
+        <v>1737</v>
       </c>
       <c r="E740" s="0" t="s">
         <v>1754</v>
@@ -56044,7 +56044,7 @@
         <v>148</v>
       </c>
       <c r="H740" s="0" t="s">
-        <v>163</v>
+        <v>1760</v>
       </c>
       <c r="I740" s="0" t="s">
         <v>1882</v>
@@ -56055,31 +56055,31 @@
     </row>
     <row r="741">
       <c r="A741" s="0" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="B741" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C741" s="0" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="D741" s="0" t="s">
-        <v>718</v>
+        <v>1737</v>
       </c>
       <c r="E741" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F741" s="0" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="G741" s="0" t="s">
-        <v>741</v>
+        <v>127</v>
       </c>
       <c r="H741" s="0" t="s">
         <v>163</v>
       </c>
       <c r="I741" s="0" t="s">
-        <v>1889</v>
+        <v>488</v>
       </c>
       <c r="J741" s="0" t="s">
         <v>297</v>
@@ -56087,16 +56087,16 @@
     </row>
     <row r="742">
       <c r="A742" s="0" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="B742" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C742" s="0" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="D742" s="0" t="s">
-        <v>1741</v>
+        <v>718</v>
       </c>
       <c r="E742" s="0" t="s">
         <v>1754</v>
@@ -56108,10 +56108,10 @@
         <v>148</v>
       </c>
       <c r="H742" s="0" t="s">
-        <v>1760</v>
+        <v>163</v>
       </c>
       <c r="I742" s="0" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="J742" s="0" t="s">
         <v>297</v>
@@ -56119,31 +56119,31 @@
     </row>
     <row r="743">
       <c r="A743" s="0" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="B743" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C743" s="0" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="D743" s="0" t="s">
-        <v>1741</v>
+        <v>718</v>
       </c>
       <c r="E743" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="F743" s="0" t="s">
-        <v>1757</v>
+        <v>1771</v>
       </c>
       <c r="G743" s="0" t="s">
-        <v>163</v>
+        <v>741</v>
       </c>
       <c r="H743" s="0" t="s">
         <v>163</v>
       </c>
       <c r="I743" s="0" t="s">
-        <v>24</v>
+        <v>1889</v>
       </c>
       <c r="J743" s="0" t="s">
         <v>297</v>
@@ -56151,31 +56151,31 @@
     </row>
     <row r="744">
       <c r="A744" s="0" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="B744" s="0" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C744" s="0" t="s">
-        <v>696</v>
+        <v>1743</v>
       </c>
       <c r="D744" s="0" t="s">
-        <v>718</v>
+        <v>1741</v>
       </c>
       <c r="E744" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F744" s="0" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="G744" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H744" s="0" t="s">
-        <v>81</v>
+        <v>1760</v>
       </c>
       <c r="I744" s="0" t="s">
-        <v>24</v>
+        <v>1885</v>
       </c>
       <c r="J744" s="0" t="s">
         <v>297</v>
@@ -56183,33 +56183,97 @@
     </row>
     <row r="745">
       <c r="A745" s="0" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="B745" s="0" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C745" s="0" t="s">
-        <v>696</v>
+        <v>1743</v>
       </c>
       <c r="D745" s="0" t="s">
-        <v>718</v>
+        <v>1741</v>
       </c>
       <c r="E745" s="0" t="s">
         <v>1756</v>
       </c>
       <c r="F745" s="0" t="s">
+        <v>1757</v>
+      </c>
+      <c r="G745" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="H745" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="I745" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J745" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="0" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B746" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="C746" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="D746" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="E746" s="0" t="s">
+        <v>1756</v>
+      </c>
+      <c r="F746" s="0" t="s">
+        <v>1757</v>
+      </c>
+      <c r="G746" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="H746" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="I746" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J746" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="0" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B747" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="C747" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="D747" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="E747" s="0" t="s">
+        <v>1756</v>
+      </c>
+      <c r="F747" s="0" t="s">
         <v>1786</v>
       </c>
-      <c r="G745" s="0" t="s">
+      <c r="G747" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="H745" s="0" t="s">
+      <c r="H747" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="I745" s="0" t="s">
+      <c r="I747" s="0" t="s">
         <v>1803</v>
       </c>
-      <c r="J745" s="0" t="s">
+      <c r="J747" s="0" t="s">
         <v>297</v>
       </c>
     </row>

--- a/docs/秘籍数值.xlsx
+++ b/docs/秘籍数值.xlsx
@@ -13608,19 +13608,19 @@
         <v>24</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="H122" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="J122" s="0" t="s">
         <v>24</v>
@@ -16267,16 +16267,16 @@
         <v>638</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D163" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="G163" s="0" t="s">
         <v>24</v>
@@ -16285,7 +16285,7 @@
         <v>24</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="J163" s="0" t="s">
         <v>24</v>
@@ -16332,7 +16332,7 @@
         <v>641</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D164" s="0" t="s">
         <v>24</v>
@@ -16341,7 +16341,7 @@
         <v>24</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="G164" s="0" t="s">
         <v>24</v>
@@ -16397,7 +16397,7 @@
         <v>644</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D165" s="0" t="s">
         <v>24</v>
@@ -16415,7 +16415,7 @@
         <v>24</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="J165" s="0" t="s">
         <v>24</v>
@@ -16462,7 +16462,7 @@
         <v>647</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D166" s="0" t="s">
         <v>24</v>
@@ -16471,7 +16471,7 @@
         <v>24</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="G166" s="0" t="s">
         <v>24</v>
@@ -16480,7 +16480,7 @@
         <v>24</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="J166" s="0" t="s">
         <v>24</v>
@@ -16527,16 +16527,16 @@
         <v>650</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D167" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="G167" s="0" t="s">
         <v>24</v>
@@ -16545,7 +16545,7 @@
         <v>24</v>
       </c>
       <c r="I167" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="J167" s="0" t="s">
         <v>24</v>
@@ -16592,7 +16592,7 @@
         <v>653</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D168" s="0" t="s">
         <v>24</v>
@@ -16601,7 +16601,7 @@
         <v>24</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="G168" s="0" t="s">
         <v>24</v>
@@ -16610,7 +16610,7 @@
         <v>24</v>
       </c>
       <c r="I168" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="J168" s="0" t="s">
         <v>24</v>
@@ -16666,7 +16666,7 @@
         <v>513</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="G169" s="0" t="s">
         <v>24</v>
@@ -16731,7 +16731,7 @@
         <v>24</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="G170" s="0" t="s">
         <v>24</v>
@@ -16740,7 +16740,7 @@
         <v>513</v>
       </c>
       <c r="I170" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="J170" s="0" t="s">
         <v>24</v>
@@ -16796,7 +16796,7 @@
         <v>24</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="G171" s="0" t="s">
         <v>513</v>
@@ -16870,7 +16870,7 @@
         <v>513</v>
       </c>
       <c r="I172" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="J172" s="0" t="s">
         <v>24</v>
@@ -17056,7 +17056,7 @@
         <v>127</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="G175" s="0" t="s">
         <v>127</v>
@@ -17313,10 +17313,10 @@
         <v>24</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="G179" s="0" t="s">
         <v>687</v>
@@ -17325,7 +17325,7 @@
         <v>24</v>
       </c>
       <c r="I179" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="J179" s="0" t="s">
         <v>24</v>
@@ -17446,7 +17446,7 @@
         <v>24</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="G181" s="0" t="s">
         <v>81</v>
@@ -17455,7 +17455,7 @@
         <v>127</v>
       </c>
       <c r="I181" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="J181" s="0" t="s">
         <v>24</v>
@@ -17511,7 +17511,7 @@
         <v>24</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="G182" s="0" t="s">
         <v>134</v>
@@ -17641,7 +17641,7 @@
         <v>24</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="G184" s="0" t="s">
         <v>513</v>
@@ -17650,7 +17650,7 @@
         <v>24</v>
       </c>
       <c r="I184" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="J184" s="0" t="s">
         <v>24</v>
@@ -52041,13 +52041,13 @@
         <v>148</v>
       </c>
       <c r="H616" s="0" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="I616" s="0" t="s">
         <v>24</v>
       </c>
       <c r="J616" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="617">
@@ -52870,13 +52870,13 @@
         <v>1838</v>
       </c>
       <c r="G642" s="0" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="H642" s="0" t="s">
-        <v>163</v>
+        <v>231</v>
       </c>
       <c r="I642" s="0" t="s">
-        <v>1779</v>
+        <v>488</v>
       </c>
       <c r="J642" s="0" t="s">
         <v>297</v>
@@ -54735,7 +54735,7 @@
         <v>24</v>
       </c>
       <c r="J700" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="701">

--- a/docs/秘籍数值.xlsx
+++ b/docs/秘籍数值.xlsx
@@ -50368,7 +50368,7 @@
         <v>718</v>
       </c>
       <c r="E564" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F564" s="0" t="s">
         <v>1755</v>
@@ -50383,7 +50383,7 @@
         <v>24</v>
       </c>
       <c r="J564" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="565">

--- a/docs/秘籍数值.xlsx
+++ b/docs/秘籍数值.xlsx
@@ -4582,9 +4582,15 @@
     <t>40034001</t>
   </si>
   <si>
+    <t>3.2</t>
+  </si>
+  <si>
     <t>40035001</t>
   </si>
   <si>
+    <t>3.3</t>
+  </si>
+  <si>
     <t>40036001</t>
   </si>
   <si>
@@ -5077,13 +5083,7 @@
     <t>40085001</t>
   </si>
   <si>
-    <t>3.3</t>
-  </si>
-  <si>
     <t>40086001</t>
-  </si>
-  <si>
-    <t>3.2</t>
   </si>
   <si>
     <t>40087001</t>
@@ -13413,19 +13413,19 @@
         <v>24</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="H119" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="J119" s="0" t="s">
         <v>24</v>
@@ -13472,16 +13472,16 @@
         <v>509</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="G120" s="0" t="s">
         <v>24</v>
@@ -13490,7 +13490,7 @@
         <v>24</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="J120" s="0" t="s">
         <v>24</v>
@@ -28552,12 +28552,12 @@
         <v>956</v>
       </c>
       <c r="I372" s="0" t="s">
-        <v>788</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B373" s="0" t="s">
         <v>509</v>
@@ -28581,18 +28581,18 @@
         <v>1140</v>
       </c>
       <c r="I373" s="0" t="s">
-        <v>903</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B374" s="0" t="s">
         <v>512</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="D374" s="0" t="s">
         <v>718</v>
@@ -28610,18 +28610,18 @@
         <v>806</v>
       </c>
       <c r="I374" s="0" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="B375" s="0" t="s">
         <v>512</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="D375" s="0" t="s">
         <v>718</v>
@@ -28644,13 +28644,13 @@
     </row>
     <row r="376">
       <c r="A376" s="0" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B376" s="0" t="s">
         <v>512</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="D376" s="0" t="s">
         <v>718</v>
@@ -28673,16 +28673,16 @@
     </row>
     <row r="377">
       <c r="A377" s="0" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="B377" s="0" t="s">
         <v>512</v>
       </c>
       <c r="C377" s="0" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D377" s="0" t="s">
         <v>1531</v>
-      </c>
-      <c r="D377" s="0" t="s">
-        <v>1529</v>
       </c>
       <c r="E377" s="0" t="s">
         <v>719</v>
@@ -28702,16 +28702,16 @@
     </row>
     <row r="378">
       <c r="A378" s="0" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="B378" s="0" t="s">
         <v>512</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="D378" s="0" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="E378" s="0" t="s">
         <v>719</v>
@@ -28731,7 +28731,7 @@
     </row>
     <row r="379">
       <c r="A379" s="0" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="B379" s="0" t="s">
         <v>516</v>
@@ -28760,7 +28760,7 @@
     </row>
     <row r="380">
       <c r="A380" s="0" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="B380" s="0" t="s">
         <v>519</v>
@@ -28789,7 +28789,7 @@
     </row>
     <row r="381">
       <c r="A381" s="0" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="B381" s="0" t="s">
         <v>522</v>
@@ -28818,7 +28818,7 @@
     </row>
     <row r="382">
       <c r="A382" s="0" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="B382" s="0" t="s">
         <v>525</v>
@@ -28842,12 +28842,12 @@
         <v>985</v>
       </c>
       <c r="I382" s="0" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="B383" s="0" t="s">
         <v>528</v>
@@ -28876,7 +28876,7 @@
     </row>
     <row r="384">
       <c r="A384" s="0" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="B384" s="0" t="s">
         <v>531</v>
@@ -28905,7 +28905,7 @@
     </row>
     <row r="385">
       <c r="A385" s="0" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="B385" s="0" t="s">
         <v>534</v>
@@ -28934,13 +28934,13 @@
     </row>
     <row r="386">
       <c r="A386" s="0" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="B386" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C386" s="0" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="D386" s="0" t="s">
         <v>718</v>
@@ -28963,13 +28963,13 @@
     </row>
     <row r="387">
       <c r="A387" s="0" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="B387" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C387" s="0" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="D387" s="0" t="s">
         <v>718</v>
@@ -28992,13 +28992,13 @@
     </row>
     <row r="388">
       <c r="A388" s="0" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="B388" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C388" s="0" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="D388" s="0" t="s">
         <v>718</v>
@@ -29021,16 +29021,16 @@
     </row>
     <row r="389">
       <c r="A389" s="0" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="B389" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C389" s="0" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D389" s="0" t="s">
         <v>1549</v>
-      </c>
-      <c r="D389" s="0" t="s">
-        <v>1547</v>
       </c>
       <c r="E389" s="0" t="s">
         <v>802</v>
@@ -29050,13 +29050,13 @@
     </row>
     <row r="390">
       <c r="A390" s="0" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="B390" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C390" s="0" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="D390" s="0" t="s">
         <v>718</v>
@@ -29079,16 +29079,16 @@
     </row>
     <row r="391">
       <c r="A391" s="0" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="B391" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C391" s="0" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D391" s="0" t="s">
         <v>1553</v>
-      </c>
-      <c r="D391" s="0" t="s">
-        <v>1551</v>
       </c>
       <c r="E391" s="0" t="s">
         <v>802</v>
@@ -29108,13 +29108,13 @@
     </row>
     <row r="392">
       <c r="A392" s="0" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="B392" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C392" s="0" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="D392" s="0" t="s">
         <v>718</v>
@@ -29137,16 +29137,16 @@
     </row>
     <row r="393">
       <c r="A393" s="0" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="B393" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C393" s="0" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D393" s="0" t="s">
         <v>1557</v>
-      </c>
-      <c r="D393" s="0" t="s">
-        <v>1555</v>
       </c>
       <c r="E393" s="0" t="s">
         <v>802</v>
@@ -29166,7 +29166,7 @@
     </row>
     <row r="394">
       <c r="A394" s="0" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="B394" s="0" t="s">
         <v>540</v>
@@ -29195,7 +29195,7 @@
     </row>
     <row r="395">
       <c r="A395" s="0" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="B395" s="0" t="s">
         <v>543</v>
@@ -29224,7 +29224,7 @@
     </row>
     <row r="396">
       <c r="A396" s="0" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="B396" s="0" t="s">
         <v>546</v>
@@ -29253,13 +29253,13 @@
     </row>
     <row r="397">
       <c r="A397" s="0" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="B397" s="0" t="s">
         <v>549</v>
       </c>
       <c r="C397" s="0" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="D397" s="0" t="s">
         <v>718</v>
@@ -29282,13 +29282,13 @@
     </row>
     <row r="398">
       <c r="A398" s="0" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="B398" s="0" t="s">
         <v>549</v>
       </c>
       <c r="C398" s="0" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="D398" s="0" t="s">
         <v>718</v>
@@ -29311,13 +29311,13 @@
     </row>
     <row r="399">
       <c r="A399" s="0" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="B399" s="0" t="s">
         <v>549</v>
       </c>
       <c r="C399" s="0" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="D399" s="0" t="s">
         <v>718</v>
@@ -29340,13 +29340,13 @@
     </row>
     <row r="400">
       <c r="A400" s="0" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="B400" s="0" t="s">
         <v>549</v>
       </c>
       <c r="C400" s="0" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="D400" s="0" t="s">
         <v>718</v>
@@ -29369,13 +29369,13 @@
     </row>
     <row r="401">
       <c r="A401" s="0" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="B401" s="0" t="s">
         <v>549</v>
       </c>
       <c r="C401" s="0" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="D401" s="0" t="s">
         <v>718</v>
@@ -29398,7 +29398,7 @@
     </row>
     <row r="402">
       <c r="A402" s="0" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="B402" s="0" t="s">
         <v>552</v>
@@ -29427,7 +29427,7 @@
     </row>
     <row r="403">
       <c r="A403" s="0" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="B403" s="0" t="s">
         <v>555</v>
@@ -29456,13 +29456,13 @@
     </row>
     <row r="404">
       <c r="A404" s="0" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="B404" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C404" s="0" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="D404" s="0" t="s">
         <v>718</v>
@@ -29485,13 +29485,13 @@
     </row>
     <row r="405">
       <c r="A405" s="0" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="B405" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C405" s="0" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="D405" s="0" t="s">
         <v>718</v>
@@ -29514,13 +29514,13 @@
     </row>
     <row r="406">
       <c r="A406" s="0" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="B406" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C406" s="0" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="D406" s="0" t="s">
         <v>718</v>
@@ -29543,13 +29543,13 @@
     </row>
     <row r="407">
       <c r="A407" s="0" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="B407" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C407" s="0" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="D407" s="0" t="s">
         <v>718</v>
@@ -29572,13 +29572,13 @@
     </row>
     <row r="408">
       <c r="A408" s="0" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="B408" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C408" s="0" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="D408" s="0" t="s">
         <v>718</v>
@@ -29601,16 +29601,16 @@
     </row>
     <row r="409">
       <c r="A409" s="0" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="B409" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C409" s="0" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D409" s="0" t="s">
         <v>1584</v>
-      </c>
-      <c r="D409" s="0" t="s">
-        <v>1582</v>
       </c>
       <c r="E409" s="0" t="s">
         <v>802</v>
@@ -29630,7 +29630,7 @@
     </row>
     <row r="410">
       <c r="A410" s="0" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="B410" s="0" t="s">
         <v>561</v>
@@ -29659,7 +29659,7 @@
     </row>
     <row r="411">
       <c r="A411" s="0" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="B411" s="0" t="s">
         <v>564</v>
@@ -29688,13 +29688,13 @@
     </row>
     <row r="412">
       <c r="A412" s="0" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="B412" s="0" t="s">
         <v>567</v>
       </c>
       <c r="C412" s="0" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D412" s="0" t="s">
         <v>718</v>
@@ -29717,13 +29717,13 @@
     </row>
     <row r="413">
       <c r="A413" s="0" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="B413" s="0" t="s">
         <v>567</v>
       </c>
       <c r="C413" s="0" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="D413" s="0" t="s">
         <v>718</v>
@@ -29746,13 +29746,13 @@
     </row>
     <row r="414">
       <c r="A414" s="0" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="B414" s="0" t="s">
         <v>567</v>
       </c>
       <c r="C414" s="0" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="D414" s="0" t="s">
         <v>718</v>
@@ -29775,16 +29775,16 @@
     </row>
     <row r="415">
       <c r="A415" s="0" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="B415" s="0" t="s">
         <v>567</v>
       </c>
       <c r="C415" s="0" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D415" s="0" t="s">
         <v>1594</v>
-      </c>
-      <c r="D415" s="0" t="s">
-        <v>1592</v>
       </c>
       <c r="E415" s="0" t="s">
         <v>802</v>
@@ -29804,13 +29804,13 @@
     </row>
     <row r="416">
       <c r="A416" s="0" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="B416" s="0" t="s">
         <v>570</v>
       </c>
       <c r="C416" s="0" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="D416" s="0" t="s">
         <v>718</v>
@@ -29833,13 +29833,13 @@
     </row>
     <row r="417">
       <c r="A417" s="0" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="B417" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C417" s="0" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="D417" s="0" t="s">
         <v>718</v>
@@ -29862,13 +29862,13 @@
     </row>
     <row r="418">
       <c r="A418" s="0" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="B418" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C418" s="0" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="D418" s="0" t="s">
         <v>718</v>
@@ -29891,13 +29891,13 @@
     </row>
     <row r="419">
       <c r="A419" s="0" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="B419" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C419" s="0" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="D419" s="0" t="s">
         <v>718</v>
@@ -29920,16 +29920,16 @@
     </row>
     <row r="420">
       <c r="A420" s="0" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="B420" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C420" s="0" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D420" s="0" t="s">
         <v>1604</v>
-      </c>
-      <c r="D420" s="0" t="s">
-        <v>1602</v>
       </c>
       <c r="E420" s="0" t="s">
         <v>802</v>
@@ -29949,13 +29949,13 @@
     </row>
     <row r="421">
       <c r="A421" s="0" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="B421" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C421" s="0" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="D421" s="0" t="s">
         <v>718</v>
@@ -29978,16 +29978,16 @@
     </row>
     <row r="422">
       <c r="A422" s="0" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="B422" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C422" s="0" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D422" s="0" t="s">
         <v>1608</v>
-      </c>
-      <c r="D422" s="0" t="s">
-        <v>1606</v>
       </c>
       <c r="E422" s="0" t="s">
         <v>802</v>
@@ -30007,13 +30007,13 @@
     </row>
     <row r="423">
       <c r="A423" s="0" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="B423" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C423" s="0" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="D423" s="0" t="s">
         <v>718</v>
@@ -30036,16 +30036,16 @@
     </row>
     <row r="424">
       <c r="A424" s="0" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="B424" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C424" s="0" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D424" s="0" t="s">
         <v>1612</v>
-      </c>
-      <c r="D424" s="0" t="s">
-        <v>1610</v>
       </c>
       <c r="E424" s="0" t="s">
         <v>802</v>
@@ -30065,7 +30065,7 @@
     </row>
     <row r="425">
       <c r="A425" s="0" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="B425" s="0" t="s">
         <v>576</v>
@@ -30094,13 +30094,13 @@
     </row>
     <row r="426">
       <c r="A426" s="0" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="B426" s="0" t="s">
         <v>579</v>
       </c>
       <c r="C426" s="0" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="D426" s="0" t="s">
         <v>718</v>
@@ -30123,13 +30123,13 @@
     </row>
     <row r="427">
       <c r="A427" s="0" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="B427" s="0" t="s">
         <v>579</v>
       </c>
       <c r="C427" s="0" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="D427" s="0" t="s">
         <v>718</v>
@@ -30152,13 +30152,13 @@
     </row>
     <row r="428">
       <c r="A428" s="0" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="B428" s="0" t="s">
         <v>579</v>
       </c>
       <c r="C428" s="0" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="D428" s="0" t="s">
         <v>718</v>
@@ -30181,13 +30181,13 @@
     </row>
     <row r="429">
       <c r="A429" s="0" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="B429" s="0" t="s">
         <v>582</v>
       </c>
       <c r="C429" s="0" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="D429" s="0" t="s">
         <v>718</v>
@@ -30205,18 +30205,18 @@
         <v>956</v>
       </c>
       <c r="I429" s="0" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="0" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="B430" s="0" t="s">
         <v>585</v>
       </c>
       <c r="C430" s="0" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="D430" s="0" t="s">
         <v>718</v>
@@ -30239,13 +30239,13 @@
     </row>
     <row r="431">
       <c r="A431" s="0" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B431" s="0" t="s">
         <v>585</v>
       </c>
       <c r="C431" s="0" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="D431" s="0" t="s">
         <v>718</v>
@@ -30268,13 +30268,13 @@
     </row>
     <row r="432">
       <c r="A432" s="0" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="B432" s="0" t="s">
         <v>585</v>
       </c>
       <c r="C432" s="0" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="D432" s="0" t="s">
         <v>718</v>
@@ -30297,13 +30297,13 @@
     </row>
     <row r="433">
       <c r="A433" s="0" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="B433" s="0" t="s">
         <v>585</v>
       </c>
       <c r="C433" s="0" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="D433" s="0" t="s">
         <v>718</v>
@@ -30326,13 +30326,13 @@
     </row>
     <row r="434">
       <c r="A434" s="0" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="B434" s="0" t="s">
         <v>585</v>
       </c>
       <c r="C434" s="0" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="D434" s="0" t="s">
         <v>718</v>
@@ -30355,7 +30355,7 @@
     </row>
     <row r="435">
       <c r="A435" s="0" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="B435" s="0" t="s">
         <v>588</v>
@@ -30384,7 +30384,7 @@
     </row>
     <row r="436">
       <c r="A436" s="0" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="B436" s="0" t="s">
         <v>591</v>
@@ -30413,7 +30413,7 @@
     </row>
     <row r="437">
       <c r="A437" s="0" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="B437" s="0" t="s">
         <v>594</v>
@@ -30442,7 +30442,7 @@
     </row>
     <row r="438">
       <c r="A438" s="0" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="B438" s="0" t="s">
         <v>597</v>
@@ -30471,7 +30471,7 @@
     </row>
     <row r="439">
       <c r="A439" s="0" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="B439" s="0" t="s">
         <v>600</v>
@@ -30500,13 +30500,13 @@
     </row>
     <row r="440">
       <c r="A440" s="0" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="B440" s="0" t="s">
         <v>603</v>
       </c>
       <c r="C440" s="0" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="D440" s="0" t="s">
         <v>718</v>
@@ -30529,13 +30529,13 @@
     </row>
     <row r="441">
       <c r="A441" s="0" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="B441" s="0" t="s">
         <v>603</v>
       </c>
       <c r="C441" s="0" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="D441" s="0" t="s">
         <v>718</v>
@@ -30558,13 +30558,13 @@
     </row>
     <row r="442">
       <c r="A442" s="0" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="B442" s="0" t="s">
         <v>603</v>
       </c>
       <c r="C442" s="0" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="D442" s="0" t="s">
         <v>718</v>
@@ -30587,13 +30587,13 @@
     </row>
     <row r="443">
       <c r="A443" s="0" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="B443" s="0" t="s">
         <v>603</v>
       </c>
       <c r="C443" s="0" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="D443" s="0" t="s">
         <v>718</v>
@@ -30616,7 +30616,7 @@
     </row>
     <row r="444">
       <c r="A444" s="0" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="B444" s="0" t="s">
         <v>606</v>
@@ -30645,7 +30645,7 @@
     </row>
     <row r="445">
       <c r="A445" s="0" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="B445" s="0" t="s">
         <v>609</v>
@@ -30674,7 +30674,7 @@
     </row>
     <row r="446">
       <c r="A446" s="0" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="B446" s="0" t="s">
         <v>612</v>
@@ -30703,7 +30703,7 @@
     </row>
     <row r="447">
       <c r="A447" s="0" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="B447" s="0" t="s">
         <v>615</v>
@@ -30732,7 +30732,7 @@
     </row>
     <row r="448">
       <c r="A448" s="0" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="B448" s="0" t="s">
         <v>618</v>
@@ -30756,12 +30756,12 @@
         <v>806</v>
       </c>
       <c r="I448" s="0" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="0" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="B449" s="0" t="s">
         <v>621</v>
@@ -30785,12 +30785,12 @@
         <v>806</v>
       </c>
       <c r="I449" s="0" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="0" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="B450" s="0" t="s">
         <v>624</v>
@@ -30814,18 +30814,18 @@
         <v>1140</v>
       </c>
       <c r="I450" s="0" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="0" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="B451" s="0" t="s">
         <v>627</v>
       </c>
       <c r="C451" s="0" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="D451" s="0" t="s">
         <v>718</v>
@@ -30848,13 +30848,13 @@
     </row>
     <row r="452">
       <c r="A452" s="0" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="B452" s="0" t="s">
         <v>627</v>
       </c>
       <c r="C452" s="0" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="D452" s="0" t="s">
         <v>718</v>
@@ -30877,13 +30877,13 @@
     </row>
     <row r="453">
       <c r="A453" s="0" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="B453" s="0" t="s">
         <v>627</v>
       </c>
       <c r="C453" s="0" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="D453" s="0" t="s">
         <v>718</v>
@@ -30906,13 +30906,13 @@
     </row>
     <row r="454">
       <c r="A454" s="0" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="B454" s="0" t="s">
         <v>627</v>
       </c>
       <c r="C454" s="0" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="D454" s="0" t="s">
         <v>718</v>
@@ -30935,13 +30935,13 @@
     </row>
     <row r="455">
       <c r="A455" s="0" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="B455" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C455" s="0" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="D455" s="0" t="s">
         <v>718</v>
@@ -30964,13 +30964,13 @@
     </row>
     <row r="456">
       <c r="A456" s="0" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="B456" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C456" s="0" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="D456" s="0" t="s">
         <v>718</v>
@@ -30993,13 +30993,13 @@
     </row>
     <row r="457">
       <c r="A457" s="0" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="B457" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C457" s="0" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="D457" s="0" t="s">
         <v>718</v>
@@ -31022,13 +31022,13 @@
     </row>
     <row r="458">
       <c r="A458" s="0" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="B458" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C458" s="0" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="D458" s="0" t="s">
         <v>718</v>
@@ -31051,13 +31051,13 @@
     </row>
     <row r="459">
       <c r="A459" s="0" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="B459" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C459" s="0" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="D459" s="0" t="s">
         <v>718</v>
@@ -31080,7 +31080,7 @@
     </row>
     <row r="460">
       <c r="A460" s="0" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="B460" s="0" t="s">
         <v>638</v>
@@ -31109,13 +31109,13 @@
     </row>
     <row r="461">
       <c r="A461" s="0" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="B461" s="0" t="s">
         <v>641</v>
       </c>
       <c r="C461" s="0" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="D461" s="0" t="s">
         <v>718</v>
@@ -31138,13 +31138,13 @@
     </row>
     <row r="462">
       <c r="A462" s="0" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="B462" s="0" t="s">
         <v>641</v>
       </c>
       <c r="C462" s="0" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="D462" s="0" t="s">
         <v>718</v>
@@ -31167,13 +31167,13 @@
     </row>
     <row r="463">
       <c r="A463" s="0" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="B463" s="0" t="s">
         <v>641</v>
       </c>
       <c r="C463" s="0" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="D463" s="0" t="s">
         <v>718</v>
@@ -31196,7 +31196,7 @@
     </row>
     <row r="464">
       <c r="A464" s="0" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="B464" s="0" t="s">
         <v>644</v>
@@ -31225,7 +31225,7 @@
     </row>
     <row r="465">
       <c r="A465" s="0" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="B465" s="0" t="s">
         <v>647</v>
@@ -31254,7 +31254,7 @@
     </row>
     <row r="466">
       <c r="A466" s="0" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="B466" s="0" t="s">
         <v>650</v>
@@ -31283,7 +31283,7 @@
     </row>
     <row r="467">
       <c r="A467" s="0" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="B467" s="0" t="s">
         <v>653</v>
@@ -31307,12 +31307,12 @@
         <v>806</v>
       </c>
       <c r="I467" s="0" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="0" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="B468" s="0" t="s">
         <v>656</v>
@@ -31336,12 +31336,12 @@
         <v>806</v>
       </c>
       <c r="I468" s="0" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="0" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="B469" s="0" t="s">
         <v>659</v>
@@ -31365,12 +31365,12 @@
         <v>806</v>
       </c>
       <c r="I469" s="0" t="s">
-        <v>1687</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="0" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="B470" s="0" t="s">
         <v>662</v>
@@ -31394,7 +31394,7 @@
         <v>839</v>
       </c>
       <c r="I470" s="0" t="s">
-        <v>1689</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="471">
@@ -31452,7 +31452,7 @@
         <v>806</v>
       </c>
       <c r="I472" s="0" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="473">
@@ -31568,7 +31568,7 @@
         <v>812</v>
       </c>
       <c r="I476" s="0" t="s">
-        <v>1689</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="477">
@@ -32332,7 +32332,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J745"/>
+  <dimension ref="A1:J748"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -51828,13 +51828,13 @@
     </row>
     <row r="610">
       <c r="A610" s="0" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="B610" s="0" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C610" s="0" t="s">
-        <v>1524</v>
+        <v>506</v>
       </c>
       <c r="D610" s="0" t="s">
         <v>718</v>
@@ -51843,16 +51843,16 @@
         <v>1752</v>
       </c>
       <c r="F610" s="0" t="s">
-        <v>1788</v>
+        <v>1753</v>
       </c>
       <c r="G610" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H610" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I610" s="0" t="s">
-        <v>1772</v>
+        <v>62</v>
       </c>
       <c r="J610" s="0" t="s">
         <v>297</v>
@@ -51860,31 +51860,31 @@
     </row>
     <row r="611">
       <c r="A611" s="0" t="s">
-        <v>1526</v>
+        <v>1521</v>
       </c>
       <c r="B611" s="0" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C611" s="0" t="s">
-        <v>1527</v>
+        <v>506</v>
       </c>
       <c r="D611" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E611" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F611" s="0" t="s">
-        <v>1753</v>
+        <v>1767</v>
       </c>
       <c r="G611" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H611" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I611" s="0" t="s">
-        <v>232</v>
+        <v>488</v>
       </c>
       <c r="J611" s="0" t="s">
         <v>297</v>
@@ -51892,31 +51892,31 @@
     </row>
     <row r="612">
       <c r="A612" s="0" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="B612" s="0" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C612" s="0" t="s">
-        <v>1529</v>
+        <v>509</v>
       </c>
       <c r="D612" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E612" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F612" s="0" t="s">
-        <v>1753</v>
+        <v>1765</v>
       </c>
       <c r="G612" s="0" t="s">
-        <v>148</v>
+        <v>799</v>
       </c>
       <c r="H612" s="0" t="s">
-        <v>1758</v>
+        <v>231</v>
       </c>
       <c r="I612" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J612" s="0" t="s">
         <v>297</v>
@@ -51924,31 +51924,31 @@
     </row>
     <row r="613">
       <c r="A613" s="0" t="s">
-        <v>1530</v>
+        <v>1525</v>
       </c>
       <c r="B613" s="0" t="s">
         <v>512</v>
       </c>
       <c r="C613" s="0" t="s">
-        <v>1531</v>
+        <v>1526</v>
       </c>
       <c r="D613" s="0" t="s">
-        <v>1529</v>
+        <v>718</v>
       </c>
       <c r="E613" s="0" t="s">
         <v>1752</v>
       </c>
       <c r="F613" s="0" t="s">
-        <v>1753</v>
+        <v>1788</v>
       </c>
       <c r="G613" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H613" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="I613" s="0" t="s">
-        <v>1758</v>
+        <v>1772</v>
       </c>
       <c r="J613" s="0" t="s">
         <v>297</v>
@@ -51956,16 +51956,16 @@
     </row>
     <row r="614">
       <c r="A614" s="0" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="B614" s="0" t="s">
         <v>512</v>
       </c>
       <c r="C614" s="0" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="D614" s="0" t="s">
-        <v>1529</v>
+        <v>718</v>
       </c>
       <c r="E614" s="0" t="s">
         <v>1752</v>
@@ -51980,7 +51980,7 @@
         <v>1758</v>
       </c>
       <c r="I614" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J614" s="0" t="s">
         <v>297</v>
@@ -51988,31 +51988,31 @@
     </row>
     <row r="615">
       <c r="A615" s="0" t="s">
-        <v>1537</v>
+        <v>1530</v>
       </c>
       <c r="B615" s="0" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="C615" s="0" t="s">
-        <v>525</v>
+        <v>1531</v>
       </c>
       <c r="D615" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E615" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F615" s="0" t="s">
-        <v>1790</v>
+        <v>1753</v>
       </c>
       <c r="G615" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H615" s="0" t="s">
-        <v>127</v>
+        <v>1758</v>
       </c>
       <c r="I615" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J615" s="0" t="s">
         <v>297</v>
@@ -52020,63 +52020,63 @@
     </row>
     <row r="616">
       <c r="A616" s="0" t="s">
-        <v>1540</v>
+        <v>1532</v>
       </c>
       <c r="B616" s="0" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="C616" s="0" t="s">
-        <v>531</v>
+        <v>1533</v>
       </c>
       <c r="D616" s="0" t="s">
-        <v>718</v>
+        <v>1531</v>
       </c>
       <c r="E616" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F616" s="0" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="G616" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H616" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I616" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="J616" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="0" t="s">
-        <v>1542</v>
+        <v>1534</v>
       </c>
       <c r="B617" s="0" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="C617" s="0" t="s">
-        <v>1543</v>
+        <v>1535</v>
       </c>
       <c r="D617" s="0" t="s">
-        <v>718</v>
+        <v>1531</v>
       </c>
       <c r="E617" s="0" t="s">
         <v>1752</v>
       </c>
       <c r="F617" s="0" t="s">
-        <v>1788</v>
+        <v>1753</v>
       </c>
       <c r="G617" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H617" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="I617" s="0" t="s">
-        <v>1781</v>
+        <v>231</v>
       </c>
       <c r="J617" s="0" t="s">
         <v>297</v>
@@ -52084,31 +52084,31 @@
     </row>
     <row r="618">
       <c r="A618" s="0" t="s">
-        <v>1544</v>
+        <v>1539</v>
       </c>
       <c r="B618" s="0" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="C618" s="0" t="s">
-        <v>1545</v>
+        <v>525</v>
       </c>
       <c r="D618" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E618" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F618" s="0" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="G618" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H618" s="0" t="s">
-        <v>1758</v>
+        <v>127</v>
       </c>
       <c r="I618" s="0" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="J618" s="0" t="s">
         <v>297</v>
@@ -52116,48 +52116,48 @@
     </row>
     <row r="619">
       <c r="A619" s="0" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="B619" s="0" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C619" s="0" t="s">
-        <v>1547</v>
+        <v>531</v>
       </c>
       <c r="D619" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E619" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F619" s="0" t="s">
-        <v>1788</v>
+        <v>1755</v>
       </c>
       <c r="G619" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H619" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I619" s="0" t="s">
-        <v>1795</v>
+        <v>24</v>
       </c>
       <c r="J619" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="0" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="B620" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C620" s="0" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="D620" s="0" t="s">
-        <v>1547</v>
+        <v>718</v>
       </c>
       <c r="E620" s="0" t="s">
         <v>1752</v>
@@ -52169,10 +52169,10 @@
         <v>148</v>
       </c>
       <c r="H620" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="I620" s="0" t="s">
-        <v>1796</v>
+        <v>1781</v>
       </c>
       <c r="J620" s="0" t="s">
         <v>297</v>
@@ -52180,31 +52180,31 @@
     </row>
     <row r="621">
       <c r="A621" s="0" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="B621" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C621" s="0" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="D621" s="0" t="s">
-        <v>1547</v>
+        <v>718</v>
       </c>
       <c r="E621" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F621" s="0" t="s">
-        <v>1766</v>
+        <v>1788</v>
       </c>
       <c r="G621" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H621" s="0" t="s">
-        <v>217</v>
+        <v>1758</v>
       </c>
       <c r="I621" s="0" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="J621" s="0" t="s">
         <v>297</v>
@@ -52212,13 +52212,13 @@
     </row>
     <row r="622">
       <c r="A622" s="0" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="B622" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C622" s="0" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="D622" s="0" t="s">
         <v>718</v>
@@ -52236,7 +52236,7 @@
         <v>1758</v>
       </c>
       <c r="I622" s="0" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="J622" s="0" t="s">
         <v>297</v>
@@ -52244,16 +52244,16 @@
     </row>
     <row r="623">
       <c r="A623" s="0" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="B623" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C623" s="0" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D623" s="0" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E623" s="0" t="s">
         <v>1752</v>
@@ -52268,7 +52268,7 @@
         <v>1758</v>
       </c>
       <c r="I623" s="0" t="s">
-        <v>1816</v>
+        <v>1796</v>
       </c>
       <c r="J623" s="0" t="s">
         <v>297</v>
@@ -52276,16 +52276,16 @@
     </row>
     <row r="624">
       <c r="A624" s="0" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="B624" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C624" s="0" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D624" s="0" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E624" s="0" t="s">
         <v>1754</v>
@@ -52297,7 +52297,7 @@
         <v>148</v>
       </c>
       <c r="H624" s="0" t="s">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="I624" s="0" t="s">
         <v>24</v>
@@ -52308,13 +52308,13 @@
     </row>
     <row r="625">
       <c r="A625" s="0" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="B625" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C625" s="0" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="D625" s="0" t="s">
         <v>718</v>
@@ -52332,7 +52332,7 @@
         <v>1758</v>
       </c>
       <c r="I625" s="0" t="s">
-        <v>1816</v>
+        <v>1796</v>
       </c>
       <c r="J625" s="0" t="s">
         <v>297</v>
@@ -52340,16 +52340,16 @@
     </row>
     <row r="626">
       <c r="A626" s="0" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="B626" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C626" s="0" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="D626" s="0" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="E626" s="0" t="s">
         <v>1752</v>
@@ -52364,7 +52364,7 @@
         <v>1758</v>
       </c>
       <c r="I626" s="0" t="s">
-        <v>1758</v>
+        <v>1816</v>
       </c>
       <c r="J626" s="0" t="s">
         <v>297</v>
@@ -52372,16 +52372,16 @@
     </row>
     <row r="627">
       <c r="A627" s="0" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="B627" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C627" s="0" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="D627" s="0" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="E627" s="0" t="s">
         <v>1754</v>
@@ -52393,7 +52393,7 @@
         <v>148</v>
       </c>
       <c r="H627" s="0" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="I627" s="0" t="s">
         <v>24</v>
@@ -52404,13 +52404,13 @@
     </row>
     <row r="628">
       <c r="A628" s="0" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="B628" s="0" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C628" s="0" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
       <c r="D628" s="0" t="s">
         <v>718</v>
@@ -52419,16 +52419,16 @@
         <v>1752</v>
       </c>
       <c r="F628" s="0" t="s">
-        <v>1753</v>
+        <v>1788</v>
       </c>
       <c r="G628" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H628" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="I628" s="0" t="s">
-        <v>1772</v>
+        <v>1816</v>
       </c>
       <c r="J628" s="0" t="s">
         <v>297</v>
@@ -52436,22 +52436,22 @@
     </row>
     <row r="629">
       <c r="A629" s="0" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
       <c r="B629" s="0" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C629" s="0" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
       <c r="D629" s="0" t="s">
-        <v>718</v>
+        <v>1557</v>
       </c>
       <c r="E629" s="0" t="s">
         <v>1752</v>
       </c>
       <c r="F629" s="0" t="s">
-        <v>1753</v>
+        <v>1788</v>
       </c>
       <c r="G629" s="0" t="s">
         <v>148</v>
@@ -52460,7 +52460,7 @@
         <v>1758</v>
       </c>
       <c r="I629" s="0" t="s">
-        <v>1794</v>
+        <v>1758</v>
       </c>
       <c r="J629" s="0" t="s">
         <v>297</v>
@@ -52468,31 +52468,31 @@
     </row>
     <row r="630">
       <c r="A630" s="0" t="s">
-        <v>1565</v>
+        <v>1558</v>
       </c>
       <c r="B630" s="0" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C630" s="0" t="s">
-        <v>1566</v>
+        <v>1559</v>
       </c>
       <c r="D630" s="0" t="s">
-        <v>718</v>
+        <v>1557</v>
       </c>
       <c r="E630" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F630" s="0" t="s">
-        <v>1753</v>
+        <v>1766</v>
       </c>
       <c r="G630" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H630" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I630" s="0" t="s">
-        <v>1796</v>
+        <v>24</v>
       </c>
       <c r="J630" s="0" t="s">
         <v>297</v>
@@ -52500,13 +52500,13 @@
     </row>
     <row r="631">
       <c r="A631" s="0" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="B631" s="0" t="s">
         <v>549</v>
       </c>
       <c r="C631" s="0" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="D631" s="0" t="s">
         <v>718</v>
@@ -52521,10 +52521,10 @@
         <v>148</v>
       </c>
       <c r="H631" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="I631" s="0" t="s">
-        <v>1797</v>
+        <v>1772</v>
       </c>
       <c r="J631" s="0" t="s">
         <v>297</v>
@@ -52532,13 +52532,13 @@
     </row>
     <row r="632">
       <c r="A632" s="0" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="B632" s="0" t="s">
         <v>549</v>
       </c>
       <c r="C632" s="0" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="D632" s="0" t="s">
         <v>718</v>
@@ -52556,7 +52556,7 @@
         <v>1758</v>
       </c>
       <c r="I632" s="0" t="s">
-        <v>1758</v>
+        <v>1794</v>
       </c>
       <c r="J632" s="0" t="s">
         <v>297</v>
@@ -52564,31 +52564,31 @@
     </row>
     <row r="633">
       <c r="A633" s="0" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="B633" s="0" t="s">
         <v>549</v>
       </c>
       <c r="C633" s="0" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="D633" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E633" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F633" s="0" t="s">
-        <v>1761</v>
+        <v>1753</v>
       </c>
       <c r="G633" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H633" s="0" t="s">
-        <v>217</v>
+        <v>1758</v>
       </c>
       <c r="I633" s="0" t="s">
-        <v>24</v>
+        <v>1796</v>
       </c>
       <c r="J633" s="0" t="s">
         <v>297</v>
@@ -52596,13 +52596,13 @@
     </row>
     <row r="634">
       <c r="A634" s="0" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="B634" s="0" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="C634" s="0" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="D634" s="0" t="s">
         <v>718</v>
@@ -52611,16 +52611,16 @@
         <v>1752</v>
       </c>
       <c r="F634" s="0" t="s">
-        <v>1788</v>
+        <v>1753</v>
       </c>
       <c r="G634" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H634" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="I634" s="0" t="s">
-        <v>1772</v>
+        <v>1797</v>
       </c>
       <c r="J634" s="0" t="s">
         <v>297</v>
@@ -52628,13 +52628,13 @@
     </row>
     <row r="635">
       <c r="A635" s="0" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="B635" s="0" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="C635" s="0" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="D635" s="0" t="s">
         <v>718</v>
@@ -52643,7 +52643,7 @@
         <v>1752</v>
       </c>
       <c r="F635" s="0" t="s">
-        <v>1788</v>
+        <v>1753</v>
       </c>
       <c r="G635" s="0" t="s">
         <v>148</v>
@@ -52652,7 +52652,7 @@
         <v>1758</v>
       </c>
       <c r="I635" s="0" t="s">
-        <v>1794</v>
+        <v>1758</v>
       </c>
       <c r="J635" s="0" t="s">
         <v>297</v>
@@ -52660,31 +52660,31 @@
     </row>
     <row r="636">
       <c r="A636" s="0" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="B636" s="0" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="C636" s="0" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="D636" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E636" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F636" s="0" t="s">
-        <v>1788</v>
+        <v>1761</v>
       </c>
       <c r="G636" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H636" s="0" t="s">
-        <v>1758</v>
+        <v>217</v>
       </c>
       <c r="I636" s="0" t="s">
-        <v>1796</v>
+        <v>24</v>
       </c>
       <c r="J636" s="0" t="s">
         <v>297</v>
@@ -52692,13 +52692,13 @@
     </row>
     <row r="637">
       <c r="A637" s="0" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="B637" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C637" s="0" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="D637" s="0" t="s">
         <v>718</v>
@@ -52713,10 +52713,10 @@
         <v>148</v>
       </c>
       <c r="H637" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="I637" s="0" t="s">
-        <v>1797</v>
+        <v>1772</v>
       </c>
       <c r="J637" s="0" t="s">
         <v>297</v>
@@ -52724,13 +52724,13 @@
     </row>
     <row r="638">
       <c r="A638" s="0" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="B638" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C638" s="0" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="D638" s="0" t="s">
         <v>718</v>
@@ -52748,7 +52748,7 @@
         <v>1758</v>
       </c>
       <c r="I638" s="0" t="s">
-        <v>1758</v>
+        <v>1794</v>
       </c>
       <c r="J638" s="0" t="s">
         <v>297</v>
@@ -52756,16 +52756,16 @@
     </row>
     <row r="639">
       <c r="A639" s="0" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="B639" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C639" s="0" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="D639" s="0" t="s">
-        <v>1582</v>
+        <v>718</v>
       </c>
       <c r="E639" s="0" t="s">
         <v>1752</v>
@@ -52780,7 +52780,7 @@
         <v>1758</v>
       </c>
       <c r="I639" s="0" t="s">
-        <v>1880</v>
+        <v>1796</v>
       </c>
       <c r="J639" s="0" t="s">
         <v>297</v>
@@ -52788,31 +52788,31 @@
     </row>
     <row r="640">
       <c r="A640" s="0" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="B640" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C640" s="0" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D640" s="0" t="s">
-        <v>1582</v>
+        <v>718</v>
       </c>
       <c r="E640" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F640" s="0" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
       <c r="G640" s="0" t="s">
-        <v>883</v>
+        <v>148</v>
       </c>
       <c r="H640" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I640" s="0" t="s">
-        <v>1786</v>
+        <v>1797</v>
       </c>
       <c r="J640" s="0" t="s">
         <v>297</v>
@@ -52820,13 +52820,13 @@
     </row>
     <row r="641">
       <c r="A641" s="0" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="B641" s="0" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="C641" s="0" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="D641" s="0" t="s">
         <v>718</v>
@@ -52841,10 +52841,10 @@
         <v>148</v>
       </c>
       <c r="H641" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="I641" s="0" t="s">
-        <v>1779</v>
+        <v>1758</v>
       </c>
       <c r="J641" s="0" t="s">
         <v>297</v>
@@ -52852,31 +52852,31 @@
     </row>
     <row r="642">
       <c r="A642" s="0" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="B642" s="0" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="C642" s="0" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="D642" s="0" t="s">
-        <v>718</v>
+        <v>1584</v>
       </c>
       <c r="E642" s="0" t="s">
         <v>1752</v>
       </c>
       <c r="F642" s="0" t="s">
-        <v>1838</v>
+        <v>1788</v>
       </c>
       <c r="G642" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H642" s="0" t="s">
-        <v>231</v>
+        <v>1758</v>
       </c>
       <c r="I642" s="0" t="s">
-        <v>488</v>
+        <v>1880</v>
       </c>
       <c r="J642" s="0" t="s">
         <v>297</v>
@@ -52884,31 +52884,31 @@
     </row>
     <row r="643">
       <c r="A643" s="0" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="B643" s="0" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="C643" s="0" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="D643" s="0" t="s">
-        <v>718</v>
+        <v>1584</v>
       </c>
       <c r="E643" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F643" s="0" t="s">
-        <v>1788</v>
+        <v>1800</v>
       </c>
       <c r="G643" s="0" t="s">
-        <v>148</v>
+        <v>883</v>
       </c>
       <c r="H643" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I643" s="0" t="s">
-        <v>1772</v>
+        <v>1786</v>
       </c>
       <c r="J643" s="0" t="s">
         <v>297</v>
@@ -52931,16 +52931,16 @@
         <v>1752</v>
       </c>
       <c r="F644" s="0" t="s">
-        <v>1838</v>
+        <v>1788</v>
       </c>
       <c r="G644" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H644" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I644" s="0" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
       <c r="J644" s="0" t="s">
         <v>297</v>
@@ -52948,13 +52948,13 @@
     </row>
     <row r="645">
       <c r="A645" s="0" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="B645" s="0" t="s">
         <v>567</v>
       </c>
       <c r="C645" s="0" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="D645" s="0" t="s">
         <v>718</v>
@@ -52963,16 +52963,16 @@
         <v>1752</v>
       </c>
       <c r="F645" s="0" t="s">
-        <v>1788</v>
+        <v>1838</v>
       </c>
       <c r="G645" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H645" s="0" t="s">
-        <v>1758</v>
+        <v>231</v>
       </c>
       <c r="I645" s="0" t="s">
-        <v>62</v>
+        <v>488</v>
       </c>
       <c r="J645" s="0" t="s">
         <v>297</v>
@@ -52995,16 +52995,16 @@
         <v>1752</v>
       </c>
       <c r="F646" s="0" t="s">
-        <v>1838</v>
+        <v>1788</v>
       </c>
       <c r="G646" s="0" t="s">
-        <v>799</v>
+        <v>148</v>
       </c>
       <c r="H646" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I646" s="0" t="s">
-        <v>62</v>
+        <v>1772</v>
       </c>
       <c r="J646" s="0" t="s">
         <v>297</v>
@@ -53012,31 +53012,31 @@
     </row>
     <row r="647">
       <c r="A647" s="0" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="B647" s="0" t="s">
         <v>567</v>
       </c>
       <c r="C647" s="0" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="D647" s="0" t="s">
-        <v>1592</v>
+        <v>718</v>
       </c>
       <c r="E647" s="0" t="s">
         <v>1752</v>
       </c>
       <c r="F647" s="0" t="s">
-        <v>1788</v>
+        <v>1838</v>
       </c>
       <c r="G647" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H647" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I647" s="0" t="s">
-        <v>1794</v>
+        <v>1772</v>
       </c>
       <c r="J647" s="0" t="s">
         <v>297</v>
@@ -53053,22 +53053,22 @@
         <v>1594</v>
       </c>
       <c r="D648" s="0" t="s">
-        <v>1592</v>
+        <v>718</v>
       </c>
       <c r="E648" s="0" t="s">
         <v>1752</v>
       </c>
       <c r="F648" s="0" t="s">
-        <v>1838</v>
+        <v>1788</v>
       </c>
       <c r="G648" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H648" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I648" s="0" t="s">
-        <v>1794</v>
+        <v>62</v>
       </c>
       <c r="J648" s="0" t="s">
         <v>297</v>
@@ -53076,13 +53076,13 @@
     </row>
     <row r="649">
       <c r="A649" s="0" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="B649" s="0" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C649" s="0" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="D649" s="0" t="s">
         <v>718</v>
@@ -53091,16 +53091,16 @@
         <v>1752</v>
       </c>
       <c r="F649" s="0" t="s">
-        <v>1788</v>
+        <v>1838</v>
       </c>
       <c r="G649" s="0" t="s">
-        <v>148</v>
+        <v>799</v>
       </c>
       <c r="H649" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I649" s="0" t="s">
-        <v>1781</v>
+        <v>62</v>
       </c>
       <c r="J649" s="0" t="s">
         <v>297</v>
@@ -53108,16 +53108,16 @@
     </row>
     <row r="650">
       <c r="A650" s="0" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="B650" s="0" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C650" s="0" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="D650" s="0" t="s">
-        <v>718</v>
+        <v>1594</v>
       </c>
       <c r="E650" s="0" t="s">
         <v>1752</v>
@@ -53132,7 +53132,7 @@
         <v>1758</v>
       </c>
       <c r="I650" s="0" t="s">
-        <v>62</v>
+        <v>1794</v>
       </c>
       <c r="J650" s="0" t="s">
         <v>297</v>
@@ -53140,31 +53140,31 @@
     </row>
     <row r="651">
       <c r="A651" s="0" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
       <c r="B651" s="0" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C651" s="0" t="s">
-        <v>1602</v>
+        <v>1596</v>
       </c>
       <c r="D651" s="0" t="s">
-        <v>718</v>
+        <v>1594</v>
       </c>
       <c r="E651" s="0" t="s">
         <v>1752</v>
       </c>
       <c r="F651" s="0" t="s">
-        <v>1788</v>
+        <v>1838</v>
       </c>
       <c r="G651" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H651" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I651" s="0" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="J651" s="0" t="s">
         <v>297</v>
@@ -53172,16 +53172,16 @@
     </row>
     <row r="652">
       <c r="A652" s="0" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="B652" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C652" s="0" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="D652" s="0" t="s">
-        <v>1602</v>
+        <v>718</v>
       </c>
       <c r="E652" s="0" t="s">
         <v>1752</v>
@@ -53193,10 +53193,10 @@
         <v>148</v>
       </c>
       <c r="H652" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="I652" s="0" t="s">
-        <v>1881</v>
+        <v>1781</v>
       </c>
       <c r="J652" s="0" t="s">
         <v>297</v>
@@ -53204,13 +53204,13 @@
     </row>
     <row r="653">
       <c r="A653" s="0" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="B653" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C653" s="0" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="D653" s="0" t="s">
         <v>718</v>
@@ -53228,7 +53228,7 @@
         <v>1758</v>
       </c>
       <c r="I653" s="0" t="s">
-        <v>1796</v>
+        <v>62</v>
       </c>
       <c r="J653" s="0" t="s">
         <v>297</v>
@@ -53236,16 +53236,16 @@
     </row>
     <row r="654">
       <c r="A654" s="0" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="B654" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C654" s="0" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="D654" s="0" t="s">
-        <v>1606</v>
+        <v>718</v>
       </c>
       <c r="E654" s="0" t="s">
         <v>1752</v>
@@ -53260,7 +53260,7 @@
         <v>1758</v>
       </c>
       <c r="I654" s="0" t="s">
-        <v>1882</v>
+        <v>1795</v>
       </c>
       <c r="J654" s="0" t="s">
         <v>297</v>
@@ -53268,16 +53268,16 @@
     </row>
     <row r="655">
       <c r="A655" s="0" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="B655" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C655" s="0" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="D655" s="0" t="s">
-        <v>718</v>
+        <v>1604</v>
       </c>
       <c r="E655" s="0" t="s">
         <v>1752</v>
@@ -53292,7 +53292,7 @@
         <v>1758</v>
       </c>
       <c r="I655" s="0" t="s">
-        <v>1816</v>
+        <v>1881</v>
       </c>
       <c r="J655" s="0" t="s">
         <v>297</v>
@@ -53300,16 +53300,16 @@
     </row>
     <row r="656">
       <c r="A656" s="0" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="B656" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C656" s="0" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="D656" s="0" t="s">
-        <v>1610</v>
+        <v>718</v>
       </c>
       <c r="E656" s="0" t="s">
         <v>1752</v>
@@ -53324,7 +53324,7 @@
         <v>1758</v>
       </c>
       <c r="I656" s="0" t="s">
-        <v>1883</v>
+        <v>1796</v>
       </c>
       <c r="J656" s="0" t="s">
         <v>297</v>
@@ -53332,31 +53332,31 @@
     </row>
     <row r="657">
       <c r="A657" s="0" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="B657" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C657" s="0" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D657" s="0" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="E657" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F657" s="0" t="s">
-        <v>1765</v>
+        <v>1788</v>
       </c>
       <c r="G657" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H657" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I657" s="0" t="s">
-        <v>24</v>
+        <v>1882</v>
       </c>
       <c r="J657" s="0" t="s">
         <v>297</v>
@@ -53364,13 +53364,13 @@
     </row>
     <row r="658">
       <c r="A658" s="0" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="B658" s="0" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C658" s="0" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="D658" s="0" t="s">
         <v>718</v>
@@ -53385,10 +53385,10 @@
         <v>148</v>
       </c>
       <c r="H658" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="I658" s="0" t="s">
-        <v>488</v>
+        <v>1816</v>
       </c>
       <c r="J658" s="0" t="s">
         <v>297</v>
@@ -53396,31 +53396,31 @@
     </row>
     <row r="659">
       <c r="A659" s="0" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B659" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="C659" s="0" t="s">
         <v>1614</v>
       </c>
-      <c r="B659" s="0" t="s">
-        <v>579</v>
-      </c>
-      <c r="C659" s="0" t="s">
-        <v>1615</v>
-      </c>
       <c r="D659" s="0" t="s">
-        <v>718</v>
+        <v>1612</v>
       </c>
       <c r="E659" s="0" t="s">
         <v>1752</v>
       </c>
       <c r="F659" s="0" t="s">
-        <v>1798</v>
+        <v>1788</v>
       </c>
       <c r="G659" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H659" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="I659" s="0" t="s">
-        <v>488</v>
+        <v>1883</v>
       </c>
       <c r="J659" s="0" t="s">
         <v>297</v>
@@ -53428,28 +53428,28 @@
     </row>
     <row r="660">
       <c r="A660" s="0" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B660" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="C660" s="0" t="s">
         <v>1614</v>
       </c>
-      <c r="B660" s="0" t="s">
-        <v>579</v>
-      </c>
-      <c r="C660" s="0" t="s">
-        <v>1615</v>
-      </c>
       <c r="D660" s="0" t="s">
-        <v>718</v>
+        <v>1612</v>
       </c>
       <c r="E660" s="0" t="s">
         <v>1754</v>
       </c>
       <c r="F660" s="0" t="s">
-        <v>1790</v>
+        <v>1765</v>
       </c>
       <c r="G660" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H660" s="0" t="s">
-        <v>741</v>
+        <v>163</v>
       </c>
       <c r="I660" s="0" t="s">
         <v>24</v>
@@ -53481,10 +53481,10 @@
         <v>148</v>
       </c>
       <c r="H661" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="I661" s="0" t="s">
-        <v>1758</v>
+        <v>488</v>
       </c>
       <c r="J661" s="0" t="s">
         <v>297</v>
@@ -53504,19 +53504,19 @@
         <v>718</v>
       </c>
       <c r="E662" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F662" s="0" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
       <c r="G662" s="0" t="s">
-        <v>883</v>
+        <v>148</v>
       </c>
       <c r="H662" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I662" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J662" s="0" t="s">
         <v>297</v>
@@ -53524,31 +53524,31 @@
     </row>
     <row r="663">
       <c r="A663" s="0" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="B663" s="0" t="s">
         <v>579</v>
       </c>
       <c r="C663" s="0" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="D663" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E663" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F663" s="0" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="G663" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H663" s="0" t="s">
-        <v>1758</v>
+        <v>741</v>
       </c>
       <c r="I663" s="0" t="s">
-        <v>1883</v>
+        <v>24</v>
       </c>
       <c r="J663" s="0" t="s">
         <v>297</v>
@@ -53568,19 +53568,19 @@
         <v>718</v>
       </c>
       <c r="E664" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F664" s="0" t="s">
-        <v>1784</v>
+        <v>1788</v>
       </c>
       <c r="G664" s="0" t="s">
-        <v>799</v>
+        <v>148</v>
       </c>
       <c r="H664" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I664" s="0" t="s">
-        <v>488</v>
+        <v>1758</v>
       </c>
       <c r="J664" s="0" t="s">
         <v>297</v>
@@ -53588,31 +53588,31 @@
     </row>
     <row r="665">
       <c r="A665" s="0" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="B665" s="0" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C665" s="0" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="D665" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E665" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F665" s="0" t="s">
-        <v>1788</v>
+        <v>1814</v>
       </c>
       <c r="G665" s="0" t="s">
-        <v>148</v>
+        <v>883</v>
       </c>
       <c r="H665" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I665" s="0" t="s">
-        <v>232</v>
+        <v>24</v>
       </c>
       <c r="J665" s="0" t="s">
         <v>297</v>
@@ -53620,31 +53620,31 @@
     </row>
     <row r="666">
       <c r="A666" s="0" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="B666" s="0" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C666" s="0" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="D666" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E666" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F666" s="0" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
       <c r="G666" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H666" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I666" s="0" t="s">
-        <v>1855</v>
+        <v>1883</v>
       </c>
       <c r="J666" s="0" t="s">
         <v>297</v>
@@ -53652,31 +53652,31 @@
     </row>
     <row r="667">
       <c r="A667" s="0" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="B667" s="0" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C667" s="0" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="D667" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E667" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F667" s="0" t="s">
-        <v>1753</v>
+        <v>1784</v>
       </c>
       <c r="G667" s="0" t="s">
-        <v>148</v>
+        <v>799</v>
       </c>
       <c r="H667" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I667" s="0" t="s">
-        <v>232</v>
+        <v>488</v>
       </c>
       <c r="J667" s="0" t="s">
         <v>297</v>
@@ -53696,19 +53696,19 @@
         <v>718</v>
       </c>
       <c r="E668" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F668" s="0" t="s">
-        <v>1767</v>
+        <v>1788</v>
       </c>
       <c r="G668" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H668" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I668" s="0" t="s">
-        <v>1855</v>
+        <v>232</v>
       </c>
       <c r="J668" s="0" t="s">
         <v>297</v>
@@ -53716,31 +53716,31 @@
     </row>
     <row r="669">
       <c r="A669" s="0" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="B669" s="0" t="s">
         <v>585</v>
       </c>
       <c r="C669" s="0" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D669" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E669" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F669" s="0" t="s">
-        <v>1788</v>
+        <v>1800</v>
       </c>
       <c r="G669" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H669" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I669" s="0" t="s">
-        <v>488</v>
+        <v>1855</v>
       </c>
       <c r="J669" s="0" t="s">
         <v>297</v>
@@ -53748,13 +53748,13 @@
     </row>
     <row r="670">
       <c r="A670" s="0" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="B670" s="0" t="s">
         <v>585</v>
       </c>
       <c r="C670" s="0" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="D670" s="0" t="s">
         <v>718</v>
@@ -53772,7 +53772,7 @@
         <v>1758</v>
       </c>
       <c r="I670" s="0" t="s">
-        <v>488</v>
+        <v>232</v>
       </c>
       <c r="J670" s="0" t="s">
         <v>297</v>
@@ -53780,31 +53780,31 @@
     </row>
     <row r="671">
       <c r="A671" s="0" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="B671" s="0" t="s">
         <v>585</v>
       </c>
       <c r="C671" s="0" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="D671" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E671" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F671" s="0" t="s">
-        <v>1788</v>
+        <v>1767</v>
       </c>
       <c r="G671" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H671" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I671" s="0" t="s">
-        <v>1758</v>
+        <v>1855</v>
       </c>
       <c r="J671" s="0" t="s">
         <v>297</v>
@@ -53812,31 +53812,31 @@
     </row>
     <row r="672">
       <c r="A672" s="0" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="B672" s="0" t="s">
         <v>585</v>
       </c>
       <c r="C672" s="0" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="D672" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E672" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F672" s="0" t="s">
-        <v>1761</v>
+        <v>1788</v>
       </c>
       <c r="G672" s="0" t="s">
-        <v>883</v>
+        <v>148</v>
       </c>
       <c r="H672" s="0" t="s">
-        <v>217</v>
+        <v>1758</v>
       </c>
       <c r="I672" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J672" s="0" t="s">
         <v>297</v>
@@ -53844,13 +53844,13 @@
     </row>
     <row r="673">
       <c r="A673" s="0" t="s">
-        <v>1637</v>
+        <v>1630</v>
       </c>
       <c r="B673" s="0" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="C673" s="0" t="s">
-        <v>1638</v>
+        <v>1631</v>
       </c>
       <c r="D673" s="0" t="s">
         <v>718</v>
@@ -53859,16 +53859,16 @@
         <v>1752</v>
       </c>
       <c r="F673" s="0" t="s">
-        <v>1788</v>
+        <v>1753</v>
       </c>
       <c r="G673" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H673" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="I673" s="0" t="s">
-        <v>62</v>
+        <v>488</v>
       </c>
       <c r="J673" s="0" t="s">
         <v>297</v>
@@ -53876,31 +53876,31 @@
     </row>
     <row r="674">
       <c r="A674" s="0" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="B674" s="0" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="C674" s="0" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="D674" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E674" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F674" s="0" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="G674" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H674" s="0" t="s">
-        <v>1821</v>
+        <v>1758</v>
       </c>
       <c r="I674" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="J674" s="0" t="s">
         <v>297</v>
@@ -53908,31 +53908,31 @@
     </row>
     <row r="675">
       <c r="A675" s="0" t="s">
-        <v>1639</v>
+        <v>1632</v>
       </c>
       <c r="B675" s="0" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="C675" s="0" t="s">
-        <v>1640</v>
+        <v>1633</v>
       </c>
       <c r="D675" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E675" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F675" s="0" t="s">
-        <v>1788</v>
+        <v>1761</v>
       </c>
       <c r="G675" s="0" t="s">
-        <v>148</v>
+        <v>883</v>
       </c>
       <c r="H675" s="0" t="s">
-        <v>1758</v>
+        <v>217</v>
       </c>
       <c r="I675" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J675" s="0" t="s">
         <v>297</v>
@@ -53955,16 +53955,16 @@
         <v>1752</v>
       </c>
       <c r="F676" s="0" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="G676" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H676" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I676" s="0" t="s">
-        <v>488</v>
+        <v>62</v>
       </c>
       <c r="J676" s="0" t="s">
         <v>297</v>
@@ -53972,31 +53972,31 @@
     </row>
     <row r="677">
       <c r="A677" s="0" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="B677" s="0" t="s">
         <v>603</v>
       </c>
       <c r="C677" s="0" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="D677" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E677" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F677" s="0" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="G677" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H677" s="0" t="s">
-        <v>1758</v>
+        <v>1821</v>
       </c>
       <c r="I677" s="0" t="s">
-        <v>1797</v>
+        <v>24</v>
       </c>
       <c r="J677" s="0" t="s">
         <v>297</v>
@@ -54004,13 +54004,13 @@
     </row>
     <row r="678">
       <c r="A678" s="0" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="B678" s="0" t="s">
         <v>603</v>
       </c>
       <c r="C678" s="0" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="D678" s="0" t="s">
         <v>718</v>
@@ -54028,7 +54028,7 @@
         <v>1758</v>
       </c>
       <c r="I678" s="0" t="s">
-        <v>1758</v>
+        <v>488</v>
       </c>
       <c r="J678" s="0" t="s">
         <v>297</v>
@@ -54036,31 +54036,31 @@
     </row>
     <row r="679">
       <c r="A679" s="0" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="B679" s="0" t="s">
         <v>603</v>
       </c>
       <c r="C679" s="0" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="D679" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E679" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F679" s="0" t="s">
-        <v>1814</v>
+        <v>1789</v>
       </c>
       <c r="G679" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H679" s="0" t="s">
         <v>163</v>
       </c>
       <c r="I679" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J679" s="0" t="s">
         <v>297</v>
@@ -54068,13 +54068,13 @@
     </row>
     <row r="680">
       <c r="A680" s="0" t="s">
-        <v>1655</v>
+        <v>1643</v>
       </c>
       <c r="B680" s="0" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="C680" s="0" t="s">
-        <v>1656</v>
+        <v>1644</v>
       </c>
       <c r="D680" s="0" t="s">
         <v>718</v>
@@ -54083,16 +54083,16 @@
         <v>1752</v>
       </c>
       <c r="F680" s="0" t="s">
-        <v>1753</v>
+        <v>1788</v>
       </c>
       <c r="G680" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H680" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="I680" s="0" t="s">
-        <v>1772</v>
+        <v>1797</v>
       </c>
       <c r="J680" s="0" t="s">
         <v>297</v>
@@ -54100,13 +54100,13 @@
     </row>
     <row r="681">
       <c r="A681" s="0" t="s">
-        <v>1657</v>
+        <v>1645</v>
       </c>
       <c r="B681" s="0" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="C681" s="0" t="s">
-        <v>1658</v>
+        <v>1646</v>
       </c>
       <c r="D681" s="0" t="s">
         <v>718</v>
@@ -54115,7 +54115,7 @@
         <v>1752</v>
       </c>
       <c r="F681" s="0" t="s">
-        <v>1753</v>
+        <v>1788</v>
       </c>
       <c r="G681" s="0" t="s">
         <v>148</v>
@@ -54124,7 +54124,7 @@
         <v>1758</v>
       </c>
       <c r="I681" s="0" t="s">
-        <v>1794</v>
+        <v>1758</v>
       </c>
       <c r="J681" s="0" t="s">
         <v>297</v>
@@ -54132,31 +54132,31 @@
     </row>
     <row r="682">
       <c r="A682" s="0" t="s">
-        <v>1659</v>
+        <v>1645</v>
       </c>
       <c r="B682" s="0" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="C682" s="0" t="s">
-        <v>1660</v>
+        <v>1646</v>
       </c>
       <c r="D682" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E682" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F682" s="0" t="s">
-        <v>1753</v>
+        <v>1814</v>
       </c>
       <c r="G682" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H682" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I682" s="0" t="s">
-        <v>1796</v>
+        <v>24</v>
       </c>
       <c r="J682" s="0" t="s">
         <v>297</v>
@@ -54164,13 +54164,13 @@
     </row>
     <row r="683">
       <c r="A683" s="0" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="B683" s="0" t="s">
         <v>627</v>
       </c>
       <c r="C683" s="0" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D683" s="0" t="s">
         <v>718</v>
@@ -54185,10 +54185,10 @@
         <v>148</v>
       </c>
       <c r="H683" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="I683" s="0" t="s">
-        <v>1797</v>
+        <v>1772</v>
       </c>
       <c r="J683" s="0" t="s">
         <v>297</v>
@@ -54196,13 +54196,13 @@
     </row>
     <row r="684">
       <c r="A684" s="0" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="B684" s="0" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C684" s="0" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="D684" s="0" t="s">
         <v>718</v>
@@ -54217,10 +54217,10 @@
         <v>148</v>
       </c>
       <c r="H684" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="I684" s="0" t="s">
-        <v>1781</v>
+        <v>1794</v>
       </c>
       <c r="J684" s="0" t="s">
         <v>297</v>
@@ -54228,13 +54228,13 @@
     </row>
     <row r="685">
       <c r="A685" s="0" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="B685" s="0" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C685" s="0" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="D685" s="0" t="s">
         <v>718</v>
@@ -54243,16 +54243,16 @@
         <v>1752</v>
       </c>
       <c r="F685" s="0" t="s">
-        <v>1771</v>
+        <v>1753</v>
       </c>
       <c r="G685" s="0" t="s">
-        <v>758</v>
+        <v>148</v>
       </c>
       <c r="H685" s="0" t="s">
-        <v>231</v>
+        <v>1758</v>
       </c>
       <c r="I685" s="0" t="s">
-        <v>1772</v>
+        <v>1796</v>
       </c>
       <c r="J685" s="0" t="s">
         <v>297</v>
@@ -54260,13 +54260,13 @@
     </row>
     <row r="686">
       <c r="A686" s="0" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="B686" s="0" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C686" s="0" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="D686" s="0" t="s">
         <v>718</v>
@@ -54284,7 +54284,7 @@
         <v>1758</v>
       </c>
       <c r="I686" s="0" t="s">
-        <v>62</v>
+        <v>1797</v>
       </c>
       <c r="J686" s="0" t="s">
         <v>297</v>
@@ -54307,16 +54307,16 @@
         <v>1752</v>
       </c>
       <c r="F687" s="0" t="s">
-        <v>1771</v>
+        <v>1753</v>
       </c>
       <c r="G687" s="0" t="s">
-        <v>777</v>
+        <v>148</v>
       </c>
       <c r="H687" s="0" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="I687" s="0" t="s">
-        <v>62</v>
+        <v>1781</v>
       </c>
       <c r="J687" s="0" t="s">
         <v>297</v>
@@ -54324,13 +54324,13 @@
     </row>
     <row r="688">
       <c r="A688" s="0" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="B688" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C688" s="0" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="D688" s="0" t="s">
         <v>718</v>
@@ -54339,16 +54339,16 @@
         <v>1752</v>
       </c>
       <c r="F688" s="0" t="s">
-        <v>1753</v>
+        <v>1771</v>
       </c>
       <c r="G688" s="0" t="s">
-        <v>148</v>
+        <v>758</v>
       </c>
       <c r="H688" s="0" t="s">
-        <v>1758</v>
+        <v>231</v>
       </c>
       <c r="I688" s="0" t="s">
-        <v>1795</v>
+        <v>1772</v>
       </c>
       <c r="J688" s="0" t="s">
         <v>297</v>
@@ -54371,16 +54371,16 @@
         <v>1752</v>
       </c>
       <c r="F689" s="0" t="s">
-        <v>1771</v>
+        <v>1753</v>
       </c>
       <c r="G689" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H689" s="0" t="s">
-        <v>81</v>
+        <v>1758</v>
       </c>
       <c r="I689" s="0" t="s">
-        <v>1794</v>
+        <v>62</v>
       </c>
       <c r="J689" s="0" t="s">
         <v>297</v>
@@ -54388,13 +54388,13 @@
     </row>
     <row r="690">
       <c r="A690" s="0" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="B690" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C690" s="0" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D690" s="0" t="s">
         <v>718</v>
@@ -54403,16 +54403,16 @@
         <v>1752</v>
       </c>
       <c r="F690" s="0" t="s">
-        <v>1753</v>
+        <v>1771</v>
       </c>
       <c r="G690" s="0" t="s">
-        <v>148</v>
+        <v>777</v>
       </c>
       <c r="H690" s="0" t="s">
-        <v>1758</v>
+        <v>217</v>
       </c>
       <c r="I690" s="0" t="s">
-        <v>1796</v>
+        <v>62</v>
       </c>
       <c r="J690" s="0" t="s">
         <v>297</v>
@@ -54435,16 +54435,16 @@
         <v>1752</v>
       </c>
       <c r="F691" s="0" t="s">
-        <v>1771</v>
+        <v>1753</v>
       </c>
       <c r="G691" s="0" t="s">
-        <v>765</v>
+        <v>148</v>
       </c>
       <c r="H691" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I691" s="0" t="s">
-        <v>488</v>
+        <v>1795</v>
       </c>
       <c r="J691" s="0" t="s">
         <v>297</v>
@@ -54452,13 +54452,13 @@
     </row>
     <row r="692">
       <c r="A692" s="0" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="B692" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C692" s="0" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="D692" s="0" t="s">
         <v>718</v>
@@ -54467,16 +54467,16 @@
         <v>1752</v>
       </c>
       <c r="F692" s="0" t="s">
-        <v>1753</v>
+        <v>1771</v>
       </c>
       <c r="G692" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H692" s="0" t="s">
-        <v>1758</v>
+        <v>81</v>
       </c>
       <c r="I692" s="0" t="s">
-        <v>1816</v>
+        <v>1794</v>
       </c>
       <c r="J692" s="0" t="s">
         <v>297</v>
@@ -54499,13 +54499,13 @@
         <v>1752</v>
       </c>
       <c r="F693" s="0" t="s">
-        <v>1771</v>
+        <v>1753</v>
       </c>
       <c r="G693" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H693" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I693" s="0" t="s">
         <v>1796</v>
@@ -54516,13 +54516,13 @@
     </row>
     <row r="694">
       <c r="A694" s="0" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="B694" s="0" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="C694" s="0" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="D694" s="0" t="s">
         <v>718</v>
@@ -54531,16 +54531,16 @@
         <v>1752</v>
       </c>
       <c r="F694" s="0" t="s">
-        <v>1753</v>
+        <v>1771</v>
       </c>
       <c r="G694" s="0" t="s">
-        <v>148</v>
+        <v>765</v>
       </c>
       <c r="H694" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I694" s="0" t="s">
-        <v>1772</v>
+        <v>488</v>
       </c>
       <c r="J694" s="0" t="s">
         <v>297</v>
@@ -54548,14 +54548,14 @@
     </row>
     <row r="695">
       <c r="A695" s="0" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B695" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="C695" s="0" t="s">
         <v>1674</v>
       </c>
-      <c r="B695" s="0" t="s">
-        <v>641</v>
-      </c>
-      <c r="C695" s="0" t="s">
-        <v>1675</v>
-      </c>
       <c r="D695" s="0" t="s">
         <v>718</v>
       </c>
@@ -54563,16 +54563,16 @@
         <v>1752</v>
       </c>
       <c r="F695" s="0" t="s">
-        <v>1771</v>
+        <v>1753</v>
       </c>
       <c r="G695" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H695" s="0" t="s">
-        <v>318</v>
+        <v>1758</v>
       </c>
       <c r="I695" s="0" t="s">
-        <v>62</v>
+        <v>1816</v>
       </c>
       <c r="J695" s="0" t="s">
         <v>297</v>
@@ -54580,13 +54580,13 @@
     </row>
     <row r="696">
       <c r="A696" s="0" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="B696" s="0" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="C696" s="0" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="D696" s="0" t="s">
         <v>718</v>
@@ -54595,16 +54595,16 @@
         <v>1752</v>
       </c>
       <c r="F696" s="0" t="s">
-        <v>1753</v>
+        <v>1771</v>
       </c>
       <c r="G696" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H696" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I696" s="0" t="s">
-        <v>1793</v>
+        <v>1796</v>
       </c>
       <c r="J696" s="0" t="s">
         <v>297</v>
@@ -54627,16 +54627,16 @@
         <v>1752</v>
       </c>
       <c r="F697" s="0" t="s">
-        <v>1862</v>
+        <v>1753</v>
       </c>
       <c r="G697" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H697" s="0" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="I697" s="0" t="s">
-        <v>24</v>
+        <v>1772</v>
       </c>
       <c r="J697" s="0" t="s">
         <v>297</v>
@@ -54644,13 +54644,13 @@
     </row>
     <row r="698">
       <c r="A698" s="0" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="B698" s="0" t="s">
         <v>641</v>
       </c>
       <c r="C698" s="0" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="D698" s="0" t="s">
         <v>718</v>
@@ -54659,16 +54659,16 @@
         <v>1752</v>
       </c>
       <c r="F698" s="0" t="s">
-        <v>1753</v>
+        <v>1771</v>
       </c>
       <c r="G698" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H698" s="0" t="s">
-        <v>1758</v>
+        <v>318</v>
       </c>
       <c r="I698" s="0" t="s">
-        <v>488</v>
+        <v>62</v>
       </c>
       <c r="J698" s="0" t="s">
         <v>297</v>
@@ -54688,19 +54688,19 @@
         <v>718</v>
       </c>
       <c r="E699" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F699" s="0" t="s">
-        <v>1767</v>
+        <v>1753</v>
       </c>
       <c r="G699" s="0" t="s">
-        <v>799</v>
+        <v>148</v>
       </c>
       <c r="H699" s="0" t="s">
-        <v>217</v>
+        <v>1758</v>
       </c>
       <c r="I699" s="0" t="s">
-        <v>1801</v>
+        <v>1793</v>
       </c>
       <c r="J699" s="0" t="s">
         <v>297</v>
@@ -54708,63 +54708,63 @@
     </row>
     <row r="700">
       <c r="A700" s="0" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="B700" s="0" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="C700" s="0" t="s">
-        <v>650</v>
+        <v>1679</v>
       </c>
       <c r="D700" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E700" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F700" s="0" t="s">
-        <v>1755</v>
+        <v>1862</v>
       </c>
       <c r="G700" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H700" s="0" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="I700" s="0" t="s">
         <v>24</v>
       </c>
       <c r="J700" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="0" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="B701" s="0" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="C701" s="0" t="s">
-        <v>653</v>
+        <v>1681</v>
       </c>
       <c r="D701" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E701" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F701" s="0" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="G701" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H701" s="0" t="s">
-        <v>217</v>
+        <v>1758</v>
       </c>
       <c r="I701" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J701" s="0" t="s">
         <v>297</v>
@@ -54772,13 +54772,13 @@
     </row>
     <row r="702">
       <c r="A702" s="0" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="B702" s="0" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="C702" s="0" t="s">
-        <v>653</v>
+        <v>1681</v>
       </c>
       <c r="D702" s="0" t="s">
         <v>718</v>
@@ -54787,16 +54787,16 @@
         <v>1754</v>
       </c>
       <c r="F702" s="0" t="s">
-        <v>1800</v>
+        <v>1767</v>
       </c>
       <c r="G702" s="0" t="s">
-        <v>318</v>
+        <v>799</v>
       </c>
       <c r="H702" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I702" s="0" t="s">
-        <v>1783</v>
+        <v>1801</v>
       </c>
       <c r="J702" s="0" t="s">
         <v>297</v>
@@ -54804,13 +54804,13 @@
     </row>
     <row r="703">
       <c r="A703" s="0" t="s">
-        <v>1692</v>
+        <v>1684</v>
       </c>
       <c r="B703" s="0" t="s">
-        <v>668</v>
+        <v>650</v>
       </c>
       <c r="C703" s="0" t="s">
-        <v>1693</v>
+        <v>650</v>
       </c>
       <c r="D703" s="0" t="s">
         <v>718</v>
@@ -54819,48 +54819,48 @@
         <v>1754</v>
       </c>
       <c r="F703" s="0" t="s">
-        <v>1790</v>
+        <v>1755</v>
       </c>
       <c r="G703" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H703" s="0" t="s">
-        <v>1791</v>
+        <v>163</v>
       </c>
       <c r="I703" s="0" t="s">
         <v>24</v>
       </c>
       <c r="J703" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="0" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="B704" s="0" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="C704" s="0" t="s">
-        <v>1695</v>
+        <v>653</v>
       </c>
       <c r="D704" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E704" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F704" s="0" t="s">
-        <v>1788</v>
+        <v>1755</v>
       </c>
       <c r="G704" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H704" s="0" t="s">
-        <v>1758</v>
+        <v>217</v>
       </c>
       <c r="I704" s="0" t="s">
-        <v>1795</v>
+        <v>24</v>
       </c>
       <c r="J704" s="0" t="s">
         <v>297</v>
@@ -54868,13 +54868,13 @@
     </row>
     <row r="705">
       <c r="A705" s="0" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="B705" s="0" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="C705" s="0" t="s">
-        <v>1695</v>
+        <v>653</v>
       </c>
       <c r="D705" s="0" t="s">
         <v>718</v>
@@ -54883,16 +54883,16 @@
         <v>1754</v>
       </c>
       <c r="F705" s="0" t="s">
-        <v>1761</v>
+        <v>1800</v>
       </c>
       <c r="G705" s="0" t="s">
-        <v>741</v>
+        <v>318</v>
       </c>
       <c r="H705" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I705" s="0" t="s">
-        <v>24</v>
+        <v>1783</v>
       </c>
       <c r="J705" s="0" t="s">
         <v>297</v>
@@ -54900,31 +54900,31 @@
     </row>
     <row r="706">
       <c r="A706" s="0" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="B706" s="0" t="s">
         <v>668</v>
       </c>
       <c r="C706" s="0" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="D706" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E706" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F706" s="0" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="G706" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H706" s="0" t="s">
-        <v>1758</v>
+        <v>1791</v>
       </c>
       <c r="I706" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J706" s="0" t="s">
         <v>297</v>
@@ -54932,13 +54932,13 @@
     </row>
     <row r="707">
       <c r="A707" s="0" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="B707" s="0" t="s">
         <v>668</v>
       </c>
       <c r="C707" s="0" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="D707" s="0" t="s">
         <v>718</v>
@@ -54947,16 +54947,16 @@
         <v>1752</v>
       </c>
       <c r="F707" s="0" t="s">
-        <v>1769</v>
+        <v>1788</v>
       </c>
       <c r="G707" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H707" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I707" s="0" t="s">
-        <v>1831</v>
+        <v>1795</v>
       </c>
       <c r="J707" s="0" t="s">
         <v>297</v>
@@ -54964,31 +54964,31 @@
     </row>
     <row r="708">
       <c r="A708" s="0" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="B708" s="0" t="s">
         <v>668</v>
       </c>
       <c r="C708" s="0" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="D708" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E708" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F708" s="0" t="s">
-        <v>1788</v>
+        <v>1761</v>
       </c>
       <c r="G708" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H708" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I708" s="0" t="s">
-        <v>1850</v>
+        <v>24</v>
       </c>
       <c r="J708" s="0" t="s">
         <v>297</v>
@@ -54996,63 +54996,63 @@
     </row>
     <row r="709">
       <c r="A709" s="0" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="B709" s="0" t="s">
         <v>668</v>
       </c>
       <c r="C709" s="0" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="D709" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E709" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F709" s="0" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
       <c r="G709" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H709" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I709" s="0" t="s">
-        <v>1783</v>
+        <v>488</v>
       </c>
       <c r="J709" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="0" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="B710" s="0" t="s">
         <v>668</v>
       </c>
       <c r="C710" s="0" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="D710" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E710" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F710" s="0" t="s">
-        <v>1761</v>
+        <v>1769</v>
       </c>
       <c r="G710" s="0" t="s">
-        <v>883</v>
+        <v>741</v>
       </c>
       <c r="H710" s="0" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="I710" s="0" t="s">
-        <v>24</v>
+        <v>1831</v>
       </c>
       <c r="J710" s="0" t="s">
         <v>297</v>
@@ -55060,13 +55060,13 @@
     </row>
     <row r="711">
       <c r="A711" s="0" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="B711" s="0" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C711" s="0" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="D711" s="0" t="s">
         <v>718</v>
@@ -55075,16 +55075,16 @@
         <v>1752</v>
       </c>
       <c r="F711" s="0" t="s">
-        <v>1753</v>
+        <v>1788</v>
       </c>
       <c r="G711" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H711" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="I711" s="0" t="s">
-        <v>1794</v>
+        <v>1850</v>
       </c>
       <c r="J711" s="0" t="s">
         <v>297</v>
@@ -55092,13 +55092,13 @@
     </row>
     <row r="712">
       <c r="A712" s="0" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="B712" s="0" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C712" s="0" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="D712" s="0" t="s">
         <v>718</v>
@@ -55107,48 +55107,48 @@
         <v>1754</v>
       </c>
       <c r="F712" s="0" t="s">
-        <v>1814</v>
+        <v>1800</v>
       </c>
       <c r="G712" s="0" t="s">
-        <v>741</v>
+        <v>127</v>
       </c>
       <c r="H712" s="0" t="s">
-        <v>513</v>
+        <v>163</v>
       </c>
       <c r="I712" s="0" t="s">
-        <v>24</v>
+        <v>1783</v>
       </c>
       <c r="J712" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="0" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="B713" s="0" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C713" s="0" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="D713" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E713" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F713" s="0" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
       <c r="G713" s="0" t="s">
-        <v>148</v>
+        <v>883</v>
       </c>
       <c r="H713" s="0" t="s">
-        <v>1758</v>
+        <v>127</v>
       </c>
       <c r="I713" s="0" t="s">
-        <v>1796</v>
+        <v>24</v>
       </c>
       <c r="J713" s="0" t="s">
         <v>297</v>
@@ -55156,13 +55156,13 @@
     </row>
     <row r="714">
       <c r="A714" s="0" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="B714" s="0" t="s">
         <v>671</v>
       </c>
       <c r="C714" s="0" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="D714" s="0" t="s">
         <v>718</v>
@@ -55171,16 +55171,16 @@
         <v>1752</v>
       </c>
       <c r="F714" s="0" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
       <c r="G714" s="0" t="s">
-        <v>883</v>
+        <v>148</v>
       </c>
       <c r="H714" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="I714" s="0" t="s">
-        <v>721</v>
+        <v>1794</v>
       </c>
       <c r="J714" s="0" t="s">
         <v>297</v>
@@ -55188,31 +55188,31 @@
     </row>
     <row r="715">
       <c r="A715" s="0" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="B715" s="0" t="s">
         <v>671</v>
       </c>
       <c r="C715" s="0" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="D715" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E715" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F715" s="0" t="s">
-        <v>1753</v>
+        <v>1814</v>
       </c>
       <c r="G715" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H715" s="0" t="s">
-        <v>1758</v>
+        <v>513</v>
       </c>
       <c r="I715" s="0" t="s">
-        <v>1816</v>
+        <v>24</v>
       </c>
       <c r="J715" s="0" t="s">
         <v>297</v>
@@ -55220,31 +55220,31 @@
     </row>
     <row r="716">
       <c r="A716" s="0" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="B716" s="0" t="s">
         <v>671</v>
       </c>
       <c r="C716" s="0" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="D716" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E716" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F716" s="0" t="s">
-        <v>1761</v>
+        <v>1753</v>
       </c>
       <c r="G716" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H716" s="0" t="s">
-        <v>217</v>
+        <v>1758</v>
       </c>
       <c r="I716" s="0" t="s">
-        <v>24</v>
+        <v>1796</v>
       </c>
       <c r="J716" s="0" t="s">
         <v>297</v>
@@ -55252,13 +55252,13 @@
     </row>
     <row r="717">
       <c r="A717" s="0" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="B717" s="0" t="s">
         <v>671</v>
       </c>
       <c r="C717" s="0" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="D717" s="0" t="s">
         <v>718</v>
@@ -55267,16 +55267,16 @@
         <v>1752</v>
       </c>
       <c r="F717" s="0" t="s">
-        <v>1753</v>
+        <v>1768</v>
       </c>
       <c r="G717" s="0" t="s">
-        <v>148</v>
+        <v>883</v>
       </c>
       <c r="H717" s="0" t="s">
         <v>1758</v>
       </c>
       <c r="I717" s="0" t="s">
-        <v>1880</v>
+        <v>721</v>
       </c>
       <c r="J717" s="0" t="s">
         <v>297</v>
@@ -55284,13 +55284,13 @@
     </row>
     <row r="718">
       <c r="A718" s="0" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="B718" s="0" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C718" s="0" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="D718" s="0" t="s">
         <v>718</v>
@@ -55299,16 +55299,16 @@
         <v>1752</v>
       </c>
       <c r="F718" s="0" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
       <c r="G718" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H718" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="I718" s="0" t="s">
-        <v>1884</v>
+        <v>1816</v>
       </c>
       <c r="J718" s="0" t="s">
         <v>297</v>
@@ -55316,13 +55316,13 @@
     </row>
     <row r="719">
       <c r="A719" s="0" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="B719" s="0" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C719" s="0" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="D719" s="0" t="s">
         <v>718</v>
@@ -55331,16 +55331,16 @@
         <v>1754</v>
       </c>
       <c r="F719" s="0" t="s">
-        <v>1784</v>
+        <v>1761</v>
       </c>
       <c r="G719" s="0" t="s">
         <v>741</v>
       </c>
       <c r="H719" s="0" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="I719" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J719" s="0" t="s">
         <v>297</v>
@@ -55348,13 +55348,13 @@
     </row>
     <row r="720">
       <c r="A720" s="0" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="B720" s="0" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C720" s="0" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="D720" s="0" t="s">
         <v>718</v>
@@ -55363,7 +55363,7 @@
         <v>1752</v>
       </c>
       <c r="F720" s="0" t="s">
-        <v>1788</v>
+        <v>1753</v>
       </c>
       <c r="G720" s="0" t="s">
         <v>148</v>
@@ -55372,7 +55372,7 @@
         <v>1758</v>
       </c>
       <c r="I720" s="0" t="s">
-        <v>488</v>
+        <v>1880</v>
       </c>
       <c r="J720" s="0" t="s">
         <v>297</v>
@@ -55380,31 +55380,31 @@
     </row>
     <row r="721">
       <c r="A721" s="0" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="B721" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C721" s="0" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="D721" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E721" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F721" s="0" t="s">
-        <v>1761</v>
+        <v>1768</v>
       </c>
       <c r="G721" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H721" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I721" s="0" t="s">
-        <v>24</v>
+        <v>1884</v>
       </c>
       <c r="J721" s="0" t="s">
         <v>297</v>
@@ -55412,31 +55412,31 @@
     </row>
     <row r="722">
       <c r="A722" s="0" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="B722" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C722" s="0" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="D722" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E722" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F722" s="0" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="G722" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H722" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I722" s="0" t="s">
-        <v>1758</v>
+        <v>488</v>
       </c>
       <c r="J722" s="0" t="s">
         <v>297</v>
@@ -55444,31 +55444,31 @@
     </row>
     <row r="723">
       <c r="A723" s="0" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="B723" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C723" s="0" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="D723" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E723" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F723" s="0" t="s">
-        <v>1766</v>
+        <v>1788</v>
       </c>
       <c r="G723" s="0" t="s">
-        <v>883</v>
+        <v>148</v>
       </c>
       <c r="H723" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I723" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J723" s="0" t="s">
         <v>297</v>
@@ -55476,31 +55476,31 @@
     </row>
     <row r="724">
       <c r="A724" s="0" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="B724" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C724" s="0" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="D724" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E724" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F724" s="0" t="s">
-        <v>1788</v>
+        <v>1761</v>
       </c>
       <c r="G724" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H724" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I724" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="J724" s="0" t="s">
         <v>297</v>
@@ -55508,45 +55508,45 @@
     </row>
     <row r="725">
       <c r="A725" s="0" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="B725" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C725" s="0" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="D725" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E725" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F725" s="0" t="s">
         <v>1767</v>
       </c>
       <c r="G725" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H725" s="0" t="s">
-        <v>231</v>
+        <v>1758</v>
       </c>
       <c r="I725" s="0" t="s">
-        <v>1786</v>
+        <v>1758</v>
       </c>
       <c r="J725" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="0" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="B726" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C726" s="0" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="D726" s="0" t="s">
         <v>718</v>
@@ -55555,30 +55555,30 @@
         <v>1754</v>
       </c>
       <c r="F726" s="0" t="s">
-        <v>1800</v>
+        <v>1766</v>
       </c>
       <c r="G726" s="0" t="s">
-        <v>318</v>
+        <v>883</v>
       </c>
       <c r="H726" s="0" t="s">
-        <v>231</v>
+        <v>163</v>
       </c>
       <c r="I726" s="0" t="s">
-        <v>1786</v>
+        <v>24</v>
       </c>
       <c r="J726" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="0" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="B727" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C727" s="0" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="D727" s="0" t="s">
         <v>718</v>
@@ -55587,7 +55587,7 @@
         <v>1752</v>
       </c>
       <c r="F727" s="0" t="s">
-        <v>1753</v>
+        <v>1788</v>
       </c>
       <c r="G727" s="0" t="s">
         <v>148</v>
@@ -55596,7 +55596,7 @@
         <v>1758</v>
       </c>
       <c r="I727" s="0" t="s">
-        <v>1883</v>
+        <v>1758</v>
       </c>
       <c r="J727" s="0" t="s">
         <v>297</v>
@@ -55604,95 +55604,95 @@
     </row>
     <row r="728">
       <c r="A728" s="0" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="B728" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C728" s="0" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="D728" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E728" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F728" s="0" t="s">
-        <v>1864</v>
+        <v>1767</v>
       </c>
       <c r="G728" s="0" t="s">
-        <v>741</v>
+        <v>318</v>
       </c>
       <c r="H728" s="0" t="s">
-        <v>163</v>
+        <v>231</v>
       </c>
       <c r="I728" s="0" t="s">
-        <v>24</v>
+        <v>1786</v>
       </c>
       <c r="J728" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="0" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="B729" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C729" s="0" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="D729" s="0" t="s">
-        <v>1719</v>
+        <v>718</v>
       </c>
       <c r="E729" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F729" s="0" t="s">
-        <v>1788</v>
+        <v>1800</v>
       </c>
       <c r="G729" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H729" s="0" t="s">
-        <v>1758</v>
+        <v>231</v>
       </c>
       <c r="I729" s="0" t="s">
-        <v>1883</v>
+        <v>1786</v>
       </c>
       <c r="J729" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="0" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="B730" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C730" s="0" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="D730" s="0" t="s">
-        <v>1719</v>
+        <v>718</v>
       </c>
       <c r="E730" s="0" t="s">
         <v>1752</v>
       </c>
       <c r="F730" s="0" t="s">
-        <v>1810</v>
+        <v>1753</v>
       </c>
       <c r="G730" s="0" t="s">
-        <v>883</v>
+        <v>148</v>
       </c>
       <c r="H730" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I730" s="0" t="s">
-        <v>24</v>
+        <v>1883</v>
       </c>
       <c r="J730" s="0" t="s">
         <v>297</v>
@@ -55700,28 +55700,28 @@
     </row>
     <row r="731">
       <c r="A731" s="0" t="s">
-        <v>1727</v>
+        <v>1718</v>
       </c>
       <c r="B731" s="0" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="C731" s="0" t="s">
-        <v>686</v>
+        <v>1719</v>
       </c>
       <c r="D731" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E731" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F731" s="0" t="s">
-        <v>1755</v>
+        <v>1864</v>
       </c>
       <c r="G731" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H731" s="0" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="I731" s="0" t="s">
         <v>24</v>
@@ -55732,31 +55732,31 @@
     </row>
     <row r="732">
       <c r="A732" s="0" t="s">
-        <v>1727</v>
+        <v>1720</v>
       </c>
       <c r="B732" s="0" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="C732" s="0" t="s">
-        <v>686</v>
+        <v>1721</v>
       </c>
       <c r="D732" s="0" t="s">
-        <v>718</v>
+        <v>1719</v>
       </c>
       <c r="E732" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F732" s="0" t="s">
-        <v>1766</v>
+        <v>1788</v>
       </c>
       <c r="G732" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H732" s="0" t="s">
-        <v>134</v>
+        <v>1758</v>
       </c>
       <c r="I732" s="0" t="s">
-        <v>24</v>
+        <v>1883</v>
       </c>
       <c r="J732" s="0" t="s">
         <v>297</v>
@@ -55764,31 +55764,31 @@
     </row>
     <row r="733">
       <c r="A733" s="0" t="s">
-        <v>1728</v>
+        <v>1720</v>
       </c>
       <c r="B733" s="0" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="C733" s="0" t="s">
-        <v>1729</v>
+        <v>1721</v>
       </c>
       <c r="D733" s="0" t="s">
-        <v>718</v>
+        <v>1719</v>
       </c>
       <c r="E733" s="0" t="s">
         <v>1752</v>
       </c>
       <c r="F733" s="0" t="s">
-        <v>1768</v>
+        <v>1810</v>
       </c>
       <c r="G733" s="0" t="s">
-        <v>148</v>
+        <v>883</v>
       </c>
       <c r="H733" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I733" s="0" t="s">
-        <v>1885</v>
+        <v>24</v>
       </c>
       <c r="J733" s="0" t="s">
         <v>297</v>
@@ -55796,31 +55796,31 @@
     </row>
     <row r="734">
       <c r="A734" s="0" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="B734" s="0" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C734" s="0" t="s">
-        <v>1731</v>
+        <v>686</v>
       </c>
       <c r="D734" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E734" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F734" s="0" t="s">
-        <v>1788</v>
+        <v>1755</v>
       </c>
       <c r="G734" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H734" s="0" t="s">
-        <v>1758</v>
+        <v>127</v>
       </c>
       <c r="I734" s="0" t="s">
-        <v>1881</v>
+        <v>24</v>
       </c>
       <c r="J734" s="0" t="s">
         <v>297</v>
@@ -55828,13 +55828,13 @@
     </row>
     <row r="735">
       <c r="A735" s="0" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="B735" s="0" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C735" s="0" t="s">
-        <v>1731</v>
+        <v>686</v>
       </c>
       <c r="D735" s="0" t="s">
         <v>718</v>
@@ -55843,16 +55843,16 @@
         <v>1754</v>
       </c>
       <c r="F735" s="0" t="s">
-        <v>1800</v>
+        <v>1766</v>
       </c>
       <c r="G735" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H735" s="0" t="s">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="I735" s="0" t="s">
-        <v>1786</v>
+        <v>24</v>
       </c>
       <c r="J735" s="0" t="s">
         <v>297</v>
@@ -55860,13 +55860,13 @@
     </row>
     <row r="736">
       <c r="A736" s="0" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="B736" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C736" s="0" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="D736" s="0" t="s">
         <v>718</v>
@@ -55875,16 +55875,16 @@
         <v>1752</v>
       </c>
       <c r="F736" s="0" t="s">
-        <v>1788</v>
+        <v>1768</v>
       </c>
       <c r="G736" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H736" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="I736" s="0" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="J736" s="0" t="s">
         <v>297</v>
@@ -55892,13 +55892,13 @@
     </row>
     <row r="737">
       <c r="A737" s="0" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="B737" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C737" s="0" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="D737" s="0" t="s">
         <v>718</v>
@@ -55907,7 +55907,7 @@
         <v>1752</v>
       </c>
       <c r="F737" s="0" t="s">
-        <v>1753</v>
+        <v>1788</v>
       </c>
       <c r="G737" s="0" t="s">
         <v>148</v>
@@ -55916,7 +55916,7 @@
         <v>1758</v>
       </c>
       <c r="I737" s="0" t="s">
-        <v>1758</v>
+        <v>1881</v>
       </c>
       <c r="J737" s="0" t="s">
         <v>297</v>
@@ -55924,31 +55924,31 @@
     </row>
     <row r="738">
       <c r="A738" s="0" t="s">
-        <v>1736</v>
+        <v>1730</v>
       </c>
       <c r="B738" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C738" s="0" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
       <c r="D738" s="0" t="s">
-        <v>1735</v>
+        <v>718</v>
       </c>
       <c r="E738" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F738" s="0" t="s">
-        <v>1753</v>
+        <v>1800</v>
       </c>
       <c r="G738" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H738" s="0" t="s">
-        <v>1758</v>
+        <v>217</v>
       </c>
       <c r="I738" s="0" t="s">
-        <v>1880</v>
+        <v>1786</v>
       </c>
       <c r="J738" s="0" t="s">
         <v>297</v>
@@ -55956,31 +55956,31 @@
     </row>
     <row r="739">
       <c r="A739" s="0" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="B739" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C739" s="0" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="D739" s="0" t="s">
-        <v>1735</v>
+        <v>718</v>
       </c>
       <c r="E739" s="0" t="s">
         <v>1752</v>
       </c>
       <c r="F739" s="0" t="s">
-        <v>1771</v>
+        <v>1788</v>
       </c>
       <c r="G739" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H739" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I739" s="0" t="s">
-        <v>488</v>
+        <v>1886</v>
       </c>
       <c r="J739" s="0" t="s">
         <v>297</v>
@@ -55988,13 +55988,13 @@
     </row>
     <row r="740">
       <c r="A740" s="0" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="B740" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C740" s="0" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="D740" s="0" t="s">
         <v>718</v>
@@ -56009,10 +56009,10 @@
         <v>148</v>
       </c>
       <c r="H740" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I740" s="0" t="s">
-        <v>1880</v>
+        <v>1758</v>
       </c>
       <c r="J740" s="0" t="s">
         <v>297</v>
@@ -56020,31 +56020,31 @@
     </row>
     <row r="741">
       <c r="A741" s="0" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="B741" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C741" s="0" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="D741" s="0" t="s">
-        <v>718</v>
+        <v>1735</v>
       </c>
       <c r="E741" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F741" s="0" t="s">
-        <v>1769</v>
+        <v>1753</v>
       </c>
       <c r="G741" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H741" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I741" s="0" t="s">
-        <v>1887</v>
+        <v>1880</v>
       </c>
       <c r="J741" s="0" t="s">
         <v>297</v>
@@ -56052,31 +56052,31 @@
     </row>
     <row r="742">
       <c r="A742" s="0" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="B742" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C742" s="0" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="D742" s="0" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="E742" s="0" t="s">
         <v>1752</v>
       </c>
       <c r="F742" s="0" t="s">
-        <v>1753</v>
+        <v>1771</v>
       </c>
       <c r="G742" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H742" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I742" s="0" t="s">
-        <v>1883</v>
+        <v>488</v>
       </c>
       <c r="J742" s="0" t="s">
         <v>297</v>
@@ -56084,31 +56084,31 @@
     </row>
     <row r="743">
       <c r="A743" s="0" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="B743" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C743" s="0" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="D743" s="0" t="s">
-        <v>1739</v>
+        <v>718</v>
       </c>
       <c r="E743" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F743" s="0" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="G743" s="0" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="H743" s="0" t="s">
         <v>163</v>
       </c>
       <c r="I743" s="0" t="s">
-        <v>24</v>
+        <v>1880</v>
       </c>
       <c r="J743" s="0" t="s">
         <v>297</v>
@@ -56116,13 +56116,13 @@
     </row>
     <row r="744">
       <c r="A744" s="0" t="s">
-        <v>1743</v>
+        <v>1738</v>
       </c>
       <c r="B744" s="0" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C744" s="0" t="s">
-        <v>696</v>
+        <v>1739</v>
       </c>
       <c r="D744" s="0" t="s">
         <v>718</v>
@@ -56131,16 +56131,16 @@
         <v>1754</v>
       </c>
       <c r="F744" s="0" t="s">
-        <v>1755</v>
+        <v>1769</v>
       </c>
       <c r="G744" s="0" t="s">
-        <v>127</v>
+        <v>741</v>
       </c>
       <c r="H744" s="0" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="I744" s="0" t="s">
-        <v>24</v>
+        <v>1887</v>
       </c>
       <c r="J744" s="0" t="s">
         <v>297</v>
@@ -56148,33 +56148,129 @@
     </row>
     <row r="745">
       <c r="A745" s="0" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B745" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="C745" s="0" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D745" s="0" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E745" s="0" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F745" s="0" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G745" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="H745" s="0" t="s">
+        <v>1758</v>
+      </c>
+      <c r="I745" s="0" t="s">
+        <v>1883</v>
+      </c>
+      <c r="J745" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="0" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B746" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="C746" s="0" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D746" s="0" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E746" s="0" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F746" s="0" t="s">
+        <v>1755</v>
+      </c>
+      <c r="G746" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="H746" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="I746" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J746" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="0" t="s">
         <v>1743</v>
       </c>
-      <c r="B745" s="0" t="s">
+      <c r="B747" s="0" t="s">
         <v>696</v>
       </c>
-      <c r="C745" s="0" t="s">
+      <c r="C747" s="0" t="s">
         <v>696</v>
       </c>
-      <c r="D745" s="0" t="s">
-        <v>718</v>
-      </c>
-      <c r="E745" s="0" t="s">
+      <c r="D747" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="E747" s="0" t="s">
         <v>1754</v>
       </c>
-      <c r="F745" s="0" t="s">
+      <c r="F747" s="0" t="s">
+        <v>1755</v>
+      </c>
+      <c r="G747" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="H747" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="I747" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J747" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="0" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B748" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="C748" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="D748" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="E748" s="0" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F748" s="0" t="s">
         <v>1784</v>
       </c>
-      <c r="G745" s="0" t="s">
+      <c r="G748" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="H745" s="0" t="s">
+      <c r="H748" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="I745" s="0" t="s">
+      <c r="I748" s="0" t="s">
         <v>1801</v>
       </c>
-      <c r="J745" s="0" t="s">
+      <c r="J748" s="0" t="s">
         <v>297</v>
       </c>
     </row>

--- a/docs/秘籍数值.xlsx
+++ b/docs/秘籍数值.xlsx
@@ -5566,58 +5566,58 @@
     <t>45</t>
   </si>
   <si>
+    <t>1248</t>
+  </si>
+  <si>
+    <t>3698</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>1510</t>
+  </si>
+  <si>
+    <t>-0.25</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>1745</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>3060</t>
+  </si>
+  <si>
+    <t>CanNotMoveResistance</t>
+  </si>
+  <si>
+    <t>SlowResistance</t>
+  </si>
+  <si>
+    <t>DisarmResistance</t>
+  </si>
+  <si>
+    <t>VertigoResistance</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>1447</t>
+  </si>
+  <si>
+    <t>1269</t>
+  </si>
+  <si>
     <t>0.65</t>
-  </si>
-  <si>
-    <t>1248</t>
-  </si>
-  <si>
-    <t>3698</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>1510</t>
-  </si>
-  <si>
-    <t>-0.25</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>1745</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>3060</t>
-  </si>
-  <si>
-    <t>CanNotMoveResistance</t>
-  </si>
-  <si>
-    <t>SlowResistance</t>
-  </si>
-  <si>
-    <t>DisarmResistance</t>
-  </si>
-  <si>
-    <t>VertigoResistance</t>
-  </si>
-  <si>
-    <t>850</t>
-  </si>
-  <si>
-    <t>1447</t>
-  </si>
-  <si>
-    <t>1269</t>
   </si>
   <si>
     <t>0.22</t>
@@ -12246,16 +12246,16 @@
         <v>24</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="H101" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="J101" s="0" t="s">
         <v>24</v>
@@ -12757,7 +12757,7 @@
         <v>475</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>24</v>
@@ -43814,7 +43814,7 @@
         <v>1789</v>
       </c>
       <c r="G359" s="0" t="s">
-        <v>758</v>
+        <v>148</v>
       </c>
       <c r="H359" s="0" t="s">
         <v>134</v>
@@ -43913,10 +43913,10 @@
         <v>148</v>
       </c>
       <c r="H362" s="0" t="s">
-        <v>687</v>
+        <v>134</v>
       </c>
       <c r="I362" s="0" t="s">
-        <v>1850</v>
+        <v>1794</v>
       </c>
       <c r="J362" s="0" t="s">
         <v>297</v>
@@ -43980,7 +43980,7 @@
         <v>24</v>
       </c>
       <c r="I364" s="0" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="J364" s="0" t="s">
         <v>297</v>
@@ -44009,7 +44009,7 @@
         <v>148</v>
       </c>
       <c r="H365" s="0" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="I365" s="0" t="s">
         <v>24</v>
@@ -44460,7 +44460,7 @@
         <v>24</v>
       </c>
       <c r="I379" s="0" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="J379" s="0" t="s">
         <v>297</v>
@@ -44588,7 +44588,7 @@
         <v>1758</v>
       </c>
       <c r="I383" s="0" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="J383" s="0" t="s">
         <v>297</v>
@@ -45228,7 +45228,7 @@
         <v>24</v>
       </c>
       <c r="I403" s="0" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="J403" s="0" t="s">
         <v>297</v>
@@ -45804,7 +45804,7 @@
         <v>81</v>
       </c>
       <c r="I421" s="0" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="J421" s="0" t="s">
         <v>297</v>
@@ -45836,7 +45836,7 @@
         <v>1758</v>
       </c>
       <c r="I422" s="0" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="J422" s="0" t="s">
         <v>297</v>
@@ -45996,7 +45996,7 @@
         <v>231</v>
       </c>
       <c r="I427" s="0" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="J427" s="0" t="s">
         <v>297</v>
@@ -46316,7 +46316,7 @@
         <v>24</v>
       </c>
       <c r="I437" s="0" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="J437" s="0" t="s">
         <v>297</v>
@@ -46892,7 +46892,7 @@
         <v>24</v>
       </c>
       <c r="I455" s="0" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="J455" s="0" t="s">
         <v>297</v>
@@ -46924,7 +46924,7 @@
         <v>1758</v>
       </c>
       <c r="I456" s="0" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="J456" s="0" t="s">
         <v>297</v>
@@ -46956,7 +46956,7 @@
         <v>1758</v>
       </c>
       <c r="I457" s="0" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="J457" s="0" t="s">
         <v>297</v>
@@ -47020,7 +47020,7 @@
         <v>1758</v>
       </c>
       <c r="I459" s="0" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="J459" s="0" t="s">
         <v>297</v>
@@ -47084,7 +47084,7 @@
         <v>24</v>
       </c>
       <c r="I461" s="0" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="J461" s="0" t="s">
         <v>297</v>
@@ -47171,7 +47171,7 @@
         <v>1752</v>
       </c>
       <c r="F464" s="0" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="G464" s="0" t="s">
         <v>148</v>
@@ -47267,7 +47267,7 @@
         <v>1752</v>
       </c>
       <c r="F467" s="0" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="G467" s="0" t="s">
         <v>148</v>
@@ -47363,7 +47363,7 @@
         <v>1752</v>
       </c>
       <c r="F470" s="0" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="G470" s="0" t="s">
         <v>148</v>
@@ -47555,7 +47555,7 @@
         <v>1752</v>
       </c>
       <c r="F476" s="0" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="G476" s="0" t="s">
         <v>148</v>
@@ -47628,7 +47628,7 @@
         <v>24</v>
       </c>
       <c r="I478" s="0" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="J478" s="0" t="s">
         <v>297</v>
@@ -47788,7 +47788,7 @@
         <v>1758</v>
       </c>
       <c r="I483" s="0" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="J483" s="0" t="s">
         <v>297</v>
@@ -47820,7 +47820,7 @@
         <v>1758</v>
       </c>
       <c r="I484" s="0" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="J484" s="0" t="s">
         <v>297</v>
@@ -47916,7 +47916,7 @@
         <v>24</v>
       </c>
       <c r="I487" s="0" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="J487" s="0" t="s">
         <v>297</v>
@@ -47980,7 +47980,7 @@
         <v>24</v>
       </c>
       <c r="I489" s="0" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="J489" s="0" t="s">
         <v>297</v>
@@ -48268,7 +48268,7 @@
         <v>1758</v>
       </c>
       <c r="I498" s="0" t="s">
-        <v>1850</v>
+        <v>1867</v>
       </c>
       <c r="J498" s="0" t="s">
         <v>297</v>
@@ -48556,7 +48556,7 @@
         <v>1758</v>
       </c>
       <c r="I507" s="0" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="J507" s="0" t="s">
         <v>297</v>
@@ -53740,7 +53740,7 @@
         <v>163</v>
       </c>
       <c r="I669" s="0" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="J669" s="0" t="s">
         <v>297</v>
@@ -53804,7 +53804,7 @@
         <v>163</v>
       </c>
       <c r="I671" s="0" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="J671" s="0" t="s">
         <v>297</v>
@@ -54723,7 +54723,7 @@
         <v>1752</v>
       </c>
       <c r="F700" s="0" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="G700" s="0" t="s">
         <v>148</v>
@@ -55084,7 +55084,7 @@
         <v>1758</v>
       </c>
       <c r="I711" s="0" t="s">
-        <v>1850</v>
+        <v>1867</v>
       </c>
       <c r="J711" s="0" t="s">
         <v>297</v>
@@ -55715,7 +55715,7 @@
         <v>1752</v>
       </c>
       <c r="F731" s="0" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="G731" s="0" t="s">
         <v>741</v>

--- a/docs/秘籍数值.xlsx
+++ b/docs/秘籍数值.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="1888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="1889">
   <si>
     <t>1秘籍id</t>
   </si>
@@ -5609,6 +5609,9 @@
   </si>
   <si>
     <t>850</t>
+  </si>
+  <si>
+    <t>550</t>
   </si>
   <si>
     <t>1447</t>
@@ -43855,7 +43858,7 @@
         <v>24</v>
       </c>
       <c r="J360" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="361">
@@ -44329,7 +44332,7 @@
         <v>148</v>
       </c>
       <c r="H375" s="0" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="I375" s="0" t="s">
         <v>62</v>
@@ -44431,7 +44434,7 @@
         <v>24</v>
       </c>
       <c r="J378" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="379">
@@ -47692,7 +47695,7 @@
         <v>24</v>
       </c>
       <c r="I480" s="0" t="s">
-        <v>381</v>
+        <v>1865</v>
       </c>
       <c r="J480" s="0" t="s">
         <v>297</v>
@@ -47718,7 +47721,7 @@
         <v>1800</v>
       </c>
       <c r="G481" s="0" t="s">
-        <v>758</v>
+        <v>1821</v>
       </c>
       <c r="H481" s="0" t="s">
         <v>217</v>
@@ -47916,7 +47919,7 @@
         <v>24</v>
       </c>
       <c r="I487" s="0" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="J487" s="0" t="s">
         <v>297</v>
@@ -47980,7 +47983,7 @@
         <v>24</v>
       </c>
       <c r="I489" s="0" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="J489" s="0" t="s">
         <v>297</v>
@@ -48268,7 +48271,7 @@
         <v>1758</v>
       </c>
       <c r="I498" s="0" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="J498" s="0" t="s">
         <v>297</v>
@@ -48460,7 +48463,7 @@
         <v>1758</v>
       </c>
       <c r="I504" s="0" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="J504" s="0" t="s">
         <v>297</v>
@@ -48588,7 +48591,7 @@
         <v>24</v>
       </c>
       <c r="I508" s="0" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="J508" s="0" t="s">
         <v>297</v>
@@ -49068,7 +49071,7 @@
         <v>24</v>
       </c>
       <c r="I523" s="0" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="J523" s="0" t="s">
         <v>297</v>
@@ -49260,7 +49263,7 @@
         <v>1758</v>
       </c>
       <c r="I529" s="0" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="J529" s="0" t="s">
         <v>297</v>
@@ -49388,7 +49391,7 @@
         <v>24</v>
       </c>
       <c r="I533" s="0" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="J533" s="0" t="s">
         <v>297</v>
@@ -49548,7 +49551,7 @@
         <v>1758</v>
       </c>
       <c r="I538" s="0" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="J538" s="0" t="s">
         <v>297</v>
@@ -49740,7 +49743,7 @@
         <v>1758</v>
       </c>
       <c r="I544" s="0" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="J544" s="0" t="s">
         <v>297</v>
@@ -49900,7 +49903,7 @@
         <v>24</v>
       </c>
       <c r="I549" s="0" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="J549" s="0" t="s">
         <v>297</v>
@@ -50767,7 +50770,7 @@
         <v>24</v>
       </c>
       <c r="J576" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="577">
@@ -50799,7 +50802,7 @@
         <v>24</v>
       </c>
       <c r="J577" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="578">
@@ -50831,7 +50834,7 @@
         <v>24</v>
       </c>
       <c r="J578" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="579">
@@ -50918,7 +50921,7 @@
         <v>1765</v>
       </c>
       <c r="G581" s="0" t="s">
-        <v>148</v>
+        <v>883</v>
       </c>
       <c r="H581" s="0" t="s">
         <v>217</v>
@@ -50956,7 +50959,7 @@
         <v>24</v>
       </c>
       <c r="I582" s="0" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="J582" s="0" t="s">
         <v>297</v>
@@ -51014,7 +51017,7 @@
         <v>1790</v>
       </c>
       <c r="G584" s="0" t="s">
-        <v>148</v>
+        <v>883</v>
       </c>
       <c r="H584" s="0" t="s">
         <v>217</v>
@@ -51564,7 +51567,7 @@
         <v>24</v>
       </c>
       <c r="I601" s="0" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="J601" s="0" t="s">
         <v>297</v>
@@ -51724,7 +51727,7 @@
         <v>24</v>
       </c>
       <c r="I606" s="0" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="J606" s="0" t="s">
         <v>297</v>
@@ -51788,7 +51791,7 @@
         <v>24</v>
       </c>
       <c r="I608" s="0" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="J608" s="0" t="s">
         <v>297</v>
@@ -52876,7 +52879,7 @@
         <v>1758</v>
       </c>
       <c r="I642" s="0" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="J642" s="0" t="s">
         <v>297</v>
@@ -53292,7 +53295,7 @@
         <v>1758</v>
       </c>
       <c r="I655" s="0" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="J655" s="0" t="s">
         <v>297</v>
@@ -53356,7 +53359,7 @@
         <v>1758</v>
       </c>
       <c r="I657" s="0" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="J657" s="0" t="s">
         <v>297</v>
@@ -53420,7 +53423,7 @@
         <v>1758</v>
       </c>
       <c r="I659" s="0" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="J659" s="0" t="s">
         <v>297</v>
@@ -53644,7 +53647,7 @@
         <v>1758</v>
       </c>
       <c r="I666" s="0" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="J666" s="0" t="s">
         <v>297</v>
@@ -54863,7 +54866,7 @@
         <v>24</v>
       </c>
       <c r="J704" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="705">
@@ -55084,7 +55087,7 @@
         <v>1758</v>
       </c>
       <c r="I711" s="0" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="J711" s="0" t="s">
         <v>297</v>
@@ -55372,7 +55375,7 @@
         <v>1758</v>
       </c>
       <c r="I720" s="0" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="J720" s="0" t="s">
         <v>297</v>
@@ -55404,7 +55407,7 @@
         <v>24</v>
       </c>
       <c r="I721" s="0" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="J721" s="0" t="s">
         <v>297</v>
@@ -55692,7 +55695,7 @@
         <v>1758</v>
       </c>
       <c r="I730" s="0" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="J730" s="0" t="s">
         <v>297</v>
@@ -55756,7 +55759,7 @@
         <v>1758</v>
       </c>
       <c r="I732" s="0" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="J732" s="0" t="s">
         <v>297</v>
@@ -55823,7 +55826,7 @@
         <v>24</v>
       </c>
       <c r="J734" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="735">
@@ -55884,7 +55887,7 @@
         <v>24</v>
       </c>
       <c r="I736" s="0" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="J736" s="0" t="s">
         <v>297</v>
@@ -55916,7 +55919,7 @@
         <v>1758</v>
       </c>
       <c r="I737" s="0" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="J737" s="0" t="s">
         <v>297</v>
@@ -55980,7 +55983,7 @@
         <v>1758</v>
       </c>
       <c r="I739" s="0" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="J739" s="0" t="s">
         <v>297</v>
@@ -56044,7 +56047,7 @@
         <v>1758</v>
       </c>
       <c r="I741" s="0" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="J741" s="0" t="s">
         <v>297</v>
@@ -56108,7 +56111,7 @@
         <v>163</v>
       </c>
       <c r="I743" s="0" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="J743" s="0" t="s">
         <v>297</v>
@@ -56140,7 +56143,7 @@
         <v>163</v>
       </c>
       <c r="I744" s="0" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="J744" s="0" t="s">
         <v>297</v>
@@ -56172,7 +56175,7 @@
         <v>1758</v>
       </c>
       <c r="I745" s="0" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="J745" s="0" t="s">
         <v>297</v>

--- a/docs/秘籍数值.xlsx
+++ b/docs/秘籍数值.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="1889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="1891">
   <si>
     <t>1秘籍id</t>
   </si>
@@ -5618,6 +5618,12 @@
   </si>
   <si>
     <t>1269</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>-0.45</t>
   </si>
   <si>
     <t>0.65</t>
@@ -20290,7 +20296,7 @@
         <v>809</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>134</v>
+        <v>728</v>
       </c>
     </row>
     <row r="88">
@@ -36937,7 +36943,7 @@
         <v>1814</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>777</v>
+        <v>1762</v>
       </c>
       <c r="H144" s="0" t="s">
         <v>81</v>
@@ -44329,10 +44335,10 @@
         <v>1789</v>
       </c>
       <c r="G375" s="0" t="s">
-        <v>148</v>
+        <v>883</v>
       </c>
       <c r="H375" s="0" t="s">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="I375" s="0" t="s">
         <v>62</v>
@@ -44425,7 +44431,7 @@
         <v>1755</v>
       </c>
       <c r="G378" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H378" s="0" t="s">
         <v>217</v>
@@ -48009,13 +48015,13 @@
         <v>1800</v>
       </c>
       <c r="G490" s="0" t="s">
-        <v>1849</v>
+        <v>1868</v>
       </c>
       <c r="H490" s="0" t="s">
         <v>163</v>
       </c>
       <c r="I490" s="0" t="s">
-        <v>1801</v>
+        <v>1869</v>
       </c>
       <c r="J490" s="0" t="s">
         <v>297</v>
@@ -48041,13 +48047,13 @@
         <v>1767</v>
       </c>
       <c r="G491" s="0" t="s">
-        <v>1849</v>
+        <v>1868</v>
       </c>
       <c r="H491" s="0" t="s">
         <v>163</v>
       </c>
       <c r="I491" s="0" t="s">
-        <v>1801</v>
+        <v>1869</v>
       </c>
       <c r="J491" s="0" t="s">
         <v>297</v>
@@ -48271,7 +48277,7 @@
         <v>1758</v>
       </c>
       <c r="I498" s="0" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="J498" s="0" t="s">
         <v>297</v>
@@ -48463,7 +48469,7 @@
         <v>1758</v>
       </c>
       <c r="I504" s="0" t="s">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="J504" s="0" t="s">
         <v>297</v>
@@ -48591,7 +48597,7 @@
         <v>24</v>
       </c>
       <c r="I508" s="0" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="J508" s="0" t="s">
         <v>297</v>
@@ -49071,7 +49077,7 @@
         <v>24</v>
       </c>
       <c r="I523" s="0" t="s">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c r="J523" s="0" t="s">
         <v>297</v>
@@ -49263,7 +49269,7 @@
         <v>1758</v>
       </c>
       <c r="I529" s="0" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="J529" s="0" t="s">
         <v>297</v>
@@ -49391,7 +49397,7 @@
         <v>24</v>
       </c>
       <c r="I533" s="0" t="s">
-        <v>1873</v>
+        <v>1875</v>
       </c>
       <c r="J533" s="0" t="s">
         <v>297</v>
@@ -49551,7 +49557,7 @@
         <v>1758</v>
       </c>
       <c r="I538" s="0" t="s">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="J538" s="0" t="s">
         <v>297</v>
@@ -49743,7 +49749,7 @@
         <v>1758</v>
       </c>
       <c r="I544" s="0" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="J544" s="0" t="s">
         <v>297</v>
@@ -49903,7 +49909,7 @@
         <v>24</v>
       </c>
       <c r="I549" s="0" t="s">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="J549" s="0" t="s">
         <v>297</v>
@@ -50959,7 +50965,7 @@
         <v>24</v>
       </c>
       <c r="I582" s="0" t="s">
-        <v>1877</v>
+        <v>1879</v>
       </c>
       <c r="J582" s="0" t="s">
         <v>297</v>
@@ -51567,7 +51573,7 @@
         <v>24</v>
       </c>
       <c r="I601" s="0" t="s">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="J601" s="0" t="s">
         <v>297</v>
@@ -51727,7 +51733,7 @@
         <v>24</v>
       </c>
       <c r="I606" s="0" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="J606" s="0" t="s">
         <v>297</v>
@@ -51791,7 +51797,7 @@
         <v>24</v>
       </c>
       <c r="I608" s="0" t="s">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="J608" s="0" t="s">
         <v>297</v>
@@ -52879,7 +52885,7 @@
         <v>1758</v>
       </c>
       <c r="I642" s="0" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="J642" s="0" t="s">
         <v>297</v>
@@ -53295,7 +53301,7 @@
         <v>1758</v>
       </c>
       <c r="I655" s="0" t="s">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="J655" s="0" t="s">
         <v>297</v>
@@ -53359,7 +53365,7 @@
         <v>1758</v>
       </c>
       <c r="I657" s="0" t="s">
-        <v>1883</v>
+        <v>1885</v>
       </c>
       <c r="J657" s="0" t="s">
         <v>297</v>
@@ -53423,7 +53429,7 @@
         <v>1758</v>
       </c>
       <c r="I659" s="0" t="s">
-        <v>1884</v>
+        <v>1886</v>
       </c>
       <c r="J659" s="0" t="s">
         <v>297</v>
@@ -53647,7 +53653,7 @@
         <v>1758</v>
       </c>
       <c r="I666" s="0" t="s">
-        <v>1884</v>
+        <v>1886</v>
       </c>
       <c r="J666" s="0" t="s">
         <v>297</v>
@@ -55087,7 +55093,7 @@
         <v>1758</v>
       </c>
       <c r="I711" s="0" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="J711" s="0" t="s">
         <v>297</v>
@@ -55375,7 +55381,7 @@
         <v>1758</v>
       </c>
       <c r="I720" s="0" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="J720" s="0" t="s">
         <v>297</v>
@@ -55407,7 +55413,7 @@
         <v>24</v>
       </c>
       <c r="I721" s="0" t="s">
-        <v>1885</v>
+        <v>1887</v>
       </c>
       <c r="J721" s="0" t="s">
         <v>297</v>
@@ -55695,7 +55701,7 @@
         <v>1758</v>
       </c>
       <c r="I730" s="0" t="s">
-        <v>1884</v>
+        <v>1886</v>
       </c>
       <c r="J730" s="0" t="s">
         <v>297</v>
@@ -55759,7 +55765,7 @@
         <v>1758</v>
       </c>
       <c r="I732" s="0" t="s">
-        <v>1884</v>
+        <v>1886</v>
       </c>
       <c r="J732" s="0" t="s">
         <v>297</v>
@@ -55887,7 +55893,7 @@
         <v>24</v>
       </c>
       <c r="I736" s="0" t="s">
-        <v>1886</v>
+        <v>1888</v>
       </c>
       <c r="J736" s="0" t="s">
         <v>297</v>
@@ -55919,7 +55925,7 @@
         <v>1758</v>
       </c>
       <c r="I737" s="0" t="s">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="J737" s="0" t="s">
         <v>297</v>
@@ -55983,7 +55989,7 @@
         <v>1758</v>
       </c>
       <c r="I739" s="0" t="s">
-        <v>1887</v>
+        <v>1889</v>
       </c>
       <c r="J739" s="0" t="s">
         <v>297</v>
@@ -56047,7 +56053,7 @@
         <v>1758</v>
       </c>
       <c r="I741" s="0" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="J741" s="0" t="s">
         <v>297</v>
@@ -56111,7 +56117,7 @@
         <v>163</v>
       </c>
       <c r="I743" s="0" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="J743" s="0" t="s">
         <v>297</v>
@@ -56143,7 +56149,7 @@
         <v>163</v>
       </c>
       <c r="I744" s="0" t="s">
-        <v>1888</v>
+        <v>1890</v>
       </c>
       <c r="J744" s="0" t="s">
         <v>297</v>
@@ -56175,7 +56181,7 @@
         <v>1758</v>
       </c>
       <c r="I745" s="0" t="s">
-        <v>1884</v>
+        <v>1886</v>
       </c>
       <c r="J745" s="0" t="s">
         <v>297</v>

--- a/docs/秘籍数值.xlsx
+++ b/docs/秘籍数值.xlsx
@@ -11115,7 +11115,7 @@
         <v>24</v>
       </c>
       <c r="P83" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
       <c r="Q83" s="0" t="s">
         <v>26</v>

--- a/docs/秘籍数值.xlsx
+++ b/docs/秘籍数值.xlsx
@@ -13623,7 +13623,7 @@
         <v>231</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>231</v>
+        <v>81</v>
       </c>
       <c r="H122" s="0" t="s">
         <v>24</v>
@@ -13676,19 +13676,19 @@
         <v>519</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="F123" s="0" t="s">
         <v>24</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="H123" s="0" t="s">
         <v>24</v>
@@ -13741,22 +13741,22 @@
         <v>522</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D124" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="F124" s="0" t="s">
         <v>24</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I124" s="0" t="s">
         <v>24</v>
@@ -28822,7 +28822,7 @@
         <v>806</v>
       </c>
       <c r="I381" s="0" t="s">
-        <v>753</v>
+        <v>217</v>
       </c>
     </row>
     <row r="382">
@@ -32341,7 +32341,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J748"/>
+  <dimension ref="A1:J749"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -52093,31 +52093,31 @@
     </row>
     <row r="618">
       <c r="A618" s="0" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B618" s="0" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C618" s="0" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D618" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E618" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F618" s="0" t="s">
-        <v>1790</v>
+        <v>1753</v>
       </c>
       <c r="G618" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H618" s="0" t="s">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="I618" s="0" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="J618" s="0" t="s">
         <v>297</v>
@@ -52125,13 +52125,13 @@
     </row>
     <row r="619">
       <c r="A619" s="0" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="B619" s="0" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C619" s="0" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D619" s="0" t="s">
         <v>718</v>
@@ -52140,62 +52140,62 @@
         <v>1754</v>
       </c>
       <c r="F619" s="0" t="s">
-        <v>1755</v>
+        <v>1790</v>
       </c>
       <c r="G619" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H619" s="0" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="I619" s="0" t="s">
         <v>24</v>
       </c>
       <c r="J619" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="0" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="B620" s="0" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C620" s="0" t="s">
-        <v>1545</v>
+        <v>531</v>
       </c>
       <c r="D620" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E620" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F620" s="0" t="s">
-        <v>1788</v>
+        <v>1755</v>
       </c>
       <c r="G620" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H620" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I620" s="0" t="s">
-        <v>1781</v>
+        <v>24</v>
       </c>
       <c r="J620" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="0" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="B621" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C621" s="0" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D621" s="0" t="s">
         <v>718</v>
@@ -52210,10 +52210,10 @@
         <v>148</v>
       </c>
       <c r="H621" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="I621" s="0" t="s">
-        <v>62</v>
+        <v>1781</v>
       </c>
       <c r="J621" s="0" t="s">
         <v>297</v>
@@ -52221,13 +52221,13 @@
     </row>
     <row r="622">
       <c r="A622" s="0" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="B622" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C622" s="0" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="D622" s="0" t="s">
         <v>718</v>
@@ -52245,7 +52245,7 @@
         <v>1758</v>
       </c>
       <c r="I622" s="0" t="s">
-        <v>1795</v>
+        <v>62</v>
       </c>
       <c r="J622" s="0" t="s">
         <v>297</v>
@@ -52253,16 +52253,16 @@
     </row>
     <row r="623">
       <c r="A623" s="0" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="B623" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C623" s="0" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="D623" s="0" t="s">
-        <v>1549</v>
+        <v>718</v>
       </c>
       <c r="E623" s="0" t="s">
         <v>1752</v>
@@ -52277,7 +52277,7 @@
         <v>1758</v>
       </c>
       <c r="I623" s="0" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="J623" s="0" t="s">
         <v>297</v>
@@ -52297,19 +52297,19 @@
         <v>1549</v>
       </c>
       <c r="E624" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F624" s="0" t="s">
-        <v>1766</v>
+        <v>1788</v>
       </c>
       <c r="G624" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H624" s="0" t="s">
-        <v>217</v>
+        <v>1758</v>
       </c>
       <c r="I624" s="0" t="s">
-        <v>24</v>
+        <v>1796</v>
       </c>
       <c r="J624" s="0" t="s">
         <v>297</v>
@@ -52317,31 +52317,31 @@
     </row>
     <row r="625">
       <c r="A625" s="0" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="B625" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C625" s="0" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D625" s="0" t="s">
-        <v>718</v>
+        <v>1549</v>
       </c>
       <c r="E625" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F625" s="0" t="s">
-        <v>1788</v>
+        <v>1766</v>
       </c>
       <c r="G625" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H625" s="0" t="s">
-        <v>1758</v>
+        <v>217</v>
       </c>
       <c r="I625" s="0" t="s">
-        <v>1796</v>
+        <v>24</v>
       </c>
       <c r="J625" s="0" t="s">
         <v>297</v>
@@ -52349,16 +52349,16 @@
     </row>
     <row r="626">
       <c r="A626" s="0" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="B626" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C626" s="0" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="D626" s="0" t="s">
-        <v>1553</v>
+        <v>718</v>
       </c>
       <c r="E626" s="0" t="s">
         <v>1752</v>
@@ -52373,7 +52373,7 @@
         <v>1758</v>
       </c>
       <c r="I626" s="0" t="s">
-        <v>1816</v>
+        <v>1796</v>
       </c>
       <c r="J626" s="0" t="s">
         <v>297</v>
@@ -52393,19 +52393,19 @@
         <v>1553</v>
       </c>
       <c r="E627" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F627" s="0" t="s">
-        <v>1766</v>
+        <v>1788</v>
       </c>
       <c r="G627" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H627" s="0" t="s">
-        <v>81</v>
+        <v>1758</v>
       </c>
       <c r="I627" s="0" t="s">
-        <v>24</v>
+        <v>1816</v>
       </c>
       <c r="J627" s="0" t="s">
         <v>297</v>
@@ -52413,31 +52413,31 @@
     </row>
     <row r="628">
       <c r="A628" s="0" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="B628" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C628" s="0" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="D628" s="0" t="s">
-        <v>718</v>
+        <v>1553</v>
       </c>
       <c r="E628" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F628" s="0" t="s">
-        <v>1788</v>
+        <v>1766</v>
       </c>
       <c r="G628" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H628" s="0" t="s">
-        <v>1758</v>
+        <v>81</v>
       </c>
       <c r="I628" s="0" t="s">
-        <v>1816</v>
+        <v>24</v>
       </c>
       <c r="J628" s="0" t="s">
         <v>297</v>
@@ -52445,16 +52445,16 @@
     </row>
     <row r="629">
       <c r="A629" s="0" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B629" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C629" s="0" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="D629" s="0" t="s">
-        <v>1557</v>
+        <v>718</v>
       </c>
       <c r="E629" s="0" t="s">
         <v>1752</v>
@@ -52469,7 +52469,7 @@
         <v>1758</v>
       </c>
       <c r="I629" s="0" t="s">
-        <v>1758</v>
+        <v>1816</v>
       </c>
       <c r="J629" s="0" t="s">
         <v>297</v>
@@ -52489,19 +52489,19 @@
         <v>1557</v>
       </c>
       <c r="E630" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F630" s="0" t="s">
-        <v>1766</v>
+        <v>1788</v>
       </c>
       <c r="G630" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H630" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I630" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="J630" s="0" t="s">
         <v>297</v>
@@ -52509,31 +52509,31 @@
     </row>
     <row r="631">
       <c r="A631" s="0" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
       <c r="B631" s="0" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C631" s="0" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
       <c r="D631" s="0" t="s">
-        <v>718</v>
+        <v>1557</v>
       </c>
       <c r="E631" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F631" s="0" t="s">
-        <v>1753</v>
+        <v>1766</v>
       </c>
       <c r="G631" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H631" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I631" s="0" t="s">
-        <v>1772</v>
+        <v>24</v>
       </c>
       <c r="J631" s="0" t="s">
         <v>297</v>
@@ -52541,13 +52541,13 @@
     </row>
     <row r="632">
       <c r="A632" s="0" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="B632" s="0" t="s">
         <v>549</v>
       </c>
       <c r="C632" s="0" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="D632" s="0" t="s">
         <v>718</v>
@@ -52562,10 +52562,10 @@
         <v>148</v>
       </c>
       <c r="H632" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="I632" s="0" t="s">
-        <v>1794</v>
+        <v>1772</v>
       </c>
       <c r="J632" s="0" t="s">
         <v>297</v>
@@ -52573,13 +52573,13 @@
     </row>
     <row r="633">
       <c r="A633" s="0" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="B633" s="0" t="s">
         <v>549</v>
       </c>
       <c r="C633" s="0" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="D633" s="0" t="s">
         <v>718</v>
@@ -52597,7 +52597,7 @@
         <v>1758</v>
       </c>
       <c r="I633" s="0" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="J633" s="0" t="s">
         <v>297</v>
@@ -52605,13 +52605,13 @@
     </row>
     <row r="634">
       <c r="A634" s="0" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="B634" s="0" t="s">
         <v>549</v>
       </c>
       <c r="C634" s="0" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="D634" s="0" t="s">
         <v>718</v>
@@ -52629,7 +52629,7 @@
         <v>1758</v>
       </c>
       <c r="I634" s="0" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="J634" s="0" t="s">
         <v>297</v>
@@ -52637,13 +52637,13 @@
     </row>
     <row r="635">
       <c r="A635" s="0" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="B635" s="0" t="s">
         <v>549</v>
       </c>
       <c r="C635" s="0" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="D635" s="0" t="s">
         <v>718</v>
@@ -52661,7 +52661,7 @@
         <v>1758</v>
       </c>
       <c r="I635" s="0" t="s">
-        <v>1758</v>
+        <v>1797</v>
       </c>
       <c r="J635" s="0" t="s">
         <v>297</v>
@@ -52681,19 +52681,19 @@
         <v>718</v>
       </c>
       <c r="E636" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F636" s="0" t="s">
-        <v>1761</v>
+        <v>1753</v>
       </c>
       <c r="G636" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H636" s="0" t="s">
-        <v>217</v>
+        <v>1758</v>
       </c>
       <c r="I636" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="J636" s="0" t="s">
         <v>297</v>
@@ -52701,31 +52701,31 @@
     </row>
     <row r="637">
       <c r="A637" s="0" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="B637" s="0" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="C637" s="0" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="D637" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E637" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F637" s="0" t="s">
-        <v>1788</v>
+        <v>1761</v>
       </c>
       <c r="G637" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H637" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I637" s="0" t="s">
-        <v>1772</v>
+        <v>24</v>
       </c>
       <c r="J637" s="0" t="s">
         <v>297</v>
@@ -52733,13 +52733,13 @@
     </row>
     <row r="638">
       <c r="A638" s="0" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="B638" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C638" s="0" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D638" s="0" t="s">
         <v>718</v>
@@ -52754,10 +52754,10 @@
         <v>148</v>
       </c>
       <c r="H638" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="I638" s="0" t="s">
-        <v>1794</v>
+        <v>1772</v>
       </c>
       <c r="J638" s="0" t="s">
         <v>297</v>
@@ -52765,13 +52765,13 @@
     </row>
     <row r="639">
       <c r="A639" s="0" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="B639" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C639" s="0" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="D639" s="0" t="s">
         <v>718</v>
@@ -52789,7 +52789,7 @@
         <v>1758</v>
       </c>
       <c r="I639" s="0" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="J639" s="0" t="s">
         <v>297</v>
@@ -52797,13 +52797,13 @@
     </row>
     <row r="640">
       <c r="A640" s="0" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="B640" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C640" s="0" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="D640" s="0" t="s">
         <v>718</v>
@@ -52821,7 +52821,7 @@
         <v>1758</v>
       </c>
       <c r="I640" s="0" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="J640" s="0" t="s">
         <v>297</v>
@@ -52829,13 +52829,13 @@
     </row>
     <row r="641">
       <c r="A641" s="0" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="B641" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C641" s="0" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D641" s="0" t="s">
         <v>718</v>
@@ -52853,7 +52853,7 @@
         <v>1758</v>
       </c>
       <c r="I641" s="0" t="s">
-        <v>1758</v>
+        <v>1797</v>
       </c>
       <c r="J641" s="0" t="s">
         <v>297</v>
@@ -52861,16 +52861,16 @@
     </row>
     <row r="642">
       <c r="A642" s="0" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="B642" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C642" s="0" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="D642" s="0" t="s">
-        <v>1584</v>
+        <v>718</v>
       </c>
       <c r="E642" s="0" t="s">
         <v>1752</v>
@@ -52885,7 +52885,7 @@
         <v>1758</v>
       </c>
       <c r="I642" s="0" t="s">
-        <v>1883</v>
+        <v>1758</v>
       </c>
       <c r="J642" s="0" t="s">
         <v>297</v>
@@ -52905,19 +52905,19 @@
         <v>1584</v>
       </c>
       <c r="E643" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F643" s="0" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
       <c r="G643" s="0" t="s">
-        <v>883</v>
+        <v>148</v>
       </c>
       <c r="H643" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I643" s="0" t="s">
-        <v>1786</v>
+        <v>1883</v>
       </c>
       <c r="J643" s="0" t="s">
         <v>297</v>
@@ -52925,31 +52925,31 @@
     </row>
     <row r="644">
       <c r="A644" s="0" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="B644" s="0" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="C644" s="0" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="D644" s="0" t="s">
-        <v>718</v>
+        <v>1584</v>
       </c>
       <c r="E644" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F644" s="0" t="s">
-        <v>1788</v>
+        <v>1800</v>
       </c>
       <c r="G644" s="0" t="s">
-        <v>148</v>
+        <v>883</v>
       </c>
       <c r="H644" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I644" s="0" t="s">
-        <v>1779</v>
+        <v>1786</v>
       </c>
       <c r="J644" s="0" t="s">
         <v>297</v>
@@ -52972,16 +52972,16 @@
         <v>1752</v>
       </c>
       <c r="F645" s="0" t="s">
-        <v>1838</v>
+        <v>1788</v>
       </c>
       <c r="G645" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H645" s="0" t="s">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="I645" s="0" t="s">
-        <v>488</v>
+        <v>1779</v>
       </c>
       <c r="J645" s="0" t="s">
         <v>297</v>
@@ -52989,13 +52989,13 @@
     </row>
     <row r="646">
       <c r="A646" s="0" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="B646" s="0" t="s">
         <v>567</v>
       </c>
       <c r="C646" s="0" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="D646" s="0" t="s">
         <v>718</v>
@@ -53004,16 +53004,16 @@
         <v>1752</v>
       </c>
       <c r="F646" s="0" t="s">
-        <v>1788</v>
+        <v>1838</v>
       </c>
       <c r="G646" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H646" s="0" t="s">
-        <v>1758</v>
+        <v>231</v>
       </c>
       <c r="I646" s="0" t="s">
-        <v>1772</v>
+        <v>488</v>
       </c>
       <c r="J646" s="0" t="s">
         <v>297</v>
@@ -53036,13 +53036,13 @@
         <v>1752</v>
       </c>
       <c r="F647" s="0" t="s">
-        <v>1838</v>
+        <v>1788</v>
       </c>
       <c r="G647" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H647" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I647" s="0" t="s">
         <v>1772</v>
@@ -53053,13 +53053,13 @@
     </row>
     <row r="648">
       <c r="A648" s="0" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="B648" s="0" t="s">
         <v>567</v>
       </c>
       <c r="C648" s="0" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="D648" s="0" t="s">
         <v>718</v>
@@ -53068,16 +53068,16 @@
         <v>1752</v>
       </c>
       <c r="F648" s="0" t="s">
-        <v>1788</v>
+        <v>1838</v>
       </c>
       <c r="G648" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H648" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I648" s="0" t="s">
-        <v>62</v>
+        <v>1772</v>
       </c>
       <c r="J648" s="0" t="s">
         <v>297</v>
@@ -53100,13 +53100,13 @@
         <v>1752</v>
       </c>
       <c r="F649" s="0" t="s">
-        <v>1838</v>
+        <v>1788</v>
       </c>
       <c r="G649" s="0" t="s">
-        <v>799</v>
+        <v>148</v>
       </c>
       <c r="H649" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I649" s="0" t="s">
         <v>62</v>
@@ -53117,31 +53117,31 @@
     </row>
     <row r="650">
       <c r="A650" s="0" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B650" s="0" t="s">
         <v>567</v>
       </c>
       <c r="C650" s="0" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="D650" s="0" t="s">
-        <v>1594</v>
+        <v>718</v>
       </c>
       <c r="E650" s="0" t="s">
         <v>1752</v>
       </c>
       <c r="F650" s="0" t="s">
-        <v>1788</v>
+        <v>1838</v>
       </c>
       <c r="G650" s="0" t="s">
-        <v>148</v>
+        <v>799</v>
       </c>
       <c r="H650" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I650" s="0" t="s">
-        <v>1794</v>
+        <v>62</v>
       </c>
       <c r="J650" s="0" t="s">
         <v>297</v>
@@ -53164,13 +53164,13 @@
         <v>1752</v>
       </c>
       <c r="F651" s="0" t="s">
-        <v>1838</v>
+        <v>1788</v>
       </c>
       <c r="G651" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H651" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I651" s="0" t="s">
         <v>1794</v>
@@ -53181,31 +53181,31 @@
     </row>
     <row r="652">
       <c r="A652" s="0" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="B652" s="0" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C652" s="0" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="D652" s="0" t="s">
-        <v>718</v>
+        <v>1594</v>
       </c>
       <c r="E652" s="0" t="s">
         <v>1752</v>
       </c>
       <c r="F652" s="0" t="s">
-        <v>1788</v>
+        <v>1838</v>
       </c>
       <c r="G652" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H652" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I652" s="0" t="s">
-        <v>1781</v>
+        <v>1794</v>
       </c>
       <c r="J652" s="0" t="s">
         <v>297</v>
@@ -53213,13 +53213,13 @@
     </row>
     <row r="653">
       <c r="A653" s="0" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="B653" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C653" s="0" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="D653" s="0" t="s">
         <v>718</v>
@@ -53234,10 +53234,10 @@
         <v>148</v>
       </c>
       <c r="H653" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="I653" s="0" t="s">
-        <v>62</v>
+        <v>1781</v>
       </c>
       <c r="J653" s="0" t="s">
         <v>297</v>
@@ -53245,13 +53245,13 @@
     </row>
     <row r="654">
       <c r="A654" s="0" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="B654" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C654" s="0" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="D654" s="0" t="s">
         <v>718</v>
@@ -53269,7 +53269,7 @@
         <v>1758</v>
       </c>
       <c r="I654" s="0" t="s">
-        <v>1795</v>
+        <v>62</v>
       </c>
       <c r="J654" s="0" t="s">
         <v>297</v>
@@ -53277,16 +53277,16 @@
     </row>
     <row r="655">
       <c r="A655" s="0" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="B655" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C655" s="0" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="D655" s="0" t="s">
-        <v>1604</v>
+        <v>718</v>
       </c>
       <c r="E655" s="0" t="s">
         <v>1752</v>
@@ -53301,7 +53301,7 @@
         <v>1758</v>
       </c>
       <c r="I655" s="0" t="s">
-        <v>1884</v>
+        <v>1795</v>
       </c>
       <c r="J655" s="0" t="s">
         <v>297</v>
@@ -53309,16 +53309,16 @@
     </row>
     <row r="656">
       <c r="A656" s="0" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B656" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C656" s="0" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="D656" s="0" t="s">
-        <v>718</v>
+        <v>1604</v>
       </c>
       <c r="E656" s="0" t="s">
         <v>1752</v>
@@ -53333,7 +53333,7 @@
         <v>1758</v>
       </c>
       <c r="I656" s="0" t="s">
-        <v>1796</v>
+        <v>1884</v>
       </c>
       <c r="J656" s="0" t="s">
         <v>297</v>
@@ -53341,16 +53341,16 @@
     </row>
     <row r="657">
       <c r="A657" s="0" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="B657" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C657" s="0" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="D657" s="0" t="s">
-        <v>1608</v>
+        <v>718</v>
       </c>
       <c r="E657" s="0" t="s">
         <v>1752</v>
@@ -53365,7 +53365,7 @@
         <v>1758</v>
       </c>
       <c r="I657" s="0" t="s">
-        <v>1885</v>
+        <v>1796</v>
       </c>
       <c r="J657" s="0" t="s">
         <v>297</v>
@@ -53373,16 +53373,16 @@
     </row>
     <row r="658">
       <c r="A658" s="0" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="B658" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C658" s="0" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D658" s="0" t="s">
-        <v>718</v>
+        <v>1608</v>
       </c>
       <c r="E658" s="0" t="s">
         <v>1752</v>
@@ -53397,7 +53397,7 @@
         <v>1758</v>
       </c>
       <c r="I658" s="0" t="s">
-        <v>1816</v>
+        <v>1885</v>
       </c>
       <c r="J658" s="0" t="s">
         <v>297</v>
@@ -53405,16 +53405,16 @@
     </row>
     <row r="659">
       <c r="A659" s="0" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="B659" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C659" s="0" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="D659" s="0" t="s">
-        <v>1612</v>
+        <v>718</v>
       </c>
       <c r="E659" s="0" t="s">
         <v>1752</v>
@@ -53429,7 +53429,7 @@
         <v>1758</v>
       </c>
       <c r="I659" s="0" t="s">
-        <v>1886</v>
+        <v>1816</v>
       </c>
       <c r="J659" s="0" t="s">
         <v>297</v>
@@ -53449,19 +53449,19 @@
         <v>1612</v>
       </c>
       <c r="E660" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F660" s="0" t="s">
-        <v>1765</v>
+        <v>1788</v>
       </c>
       <c r="G660" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H660" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I660" s="0" t="s">
-        <v>24</v>
+        <v>1886</v>
       </c>
       <c r="J660" s="0" t="s">
         <v>297</v>
@@ -53469,31 +53469,31 @@
     </row>
     <row r="661">
       <c r="A661" s="0" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="B661" s="0" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C661" s="0" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="D661" s="0" t="s">
-        <v>718</v>
+        <v>1612</v>
       </c>
       <c r="E661" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F661" s="0" t="s">
-        <v>1788</v>
+        <v>1765</v>
       </c>
       <c r="G661" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H661" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I661" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J661" s="0" t="s">
         <v>297</v>
@@ -53516,7 +53516,7 @@
         <v>1752</v>
       </c>
       <c r="F662" s="0" t="s">
-        <v>1798</v>
+        <v>1788</v>
       </c>
       <c r="G662" s="0" t="s">
         <v>148</v>
@@ -53545,19 +53545,19 @@
         <v>718</v>
       </c>
       <c r="E663" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F663" s="0" t="s">
-        <v>1790</v>
+        <v>1798</v>
       </c>
       <c r="G663" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H663" s="0" t="s">
-        <v>741</v>
+        <v>24</v>
       </c>
       <c r="I663" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J663" s="0" t="s">
         <v>297</v>
@@ -53565,31 +53565,31 @@
     </row>
     <row r="664">
       <c r="A664" s="0" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="B664" s="0" t="s">
         <v>579</v>
       </c>
       <c r="C664" s="0" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="D664" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E664" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F664" s="0" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="G664" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H664" s="0" t="s">
-        <v>1758</v>
+        <v>741</v>
       </c>
       <c r="I664" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="J664" s="0" t="s">
         <v>297</v>
@@ -53609,19 +53609,19 @@
         <v>718</v>
       </c>
       <c r="E665" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F665" s="0" t="s">
-        <v>1814</v>
+        <v>1788</v>
       </c>
       <c r="G665" s="0" t="s">
-        <v>883</v>
+        <v>148</v>
       </c>
       <c r="H665" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I665" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="J665" s="0" t="s">
         <v>297</v>
@@ -53629,31 +53629,31 @@
     </row>
     <row r="666">
       <c r="A666" s="0" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="B666" s="0" t="s">
         <v>579</v>
       </c>
       <c r="C666" s="0" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="D666" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E666" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F666" s="0" t="s">
-        <v>1788</v>
+        <v>1814</v>
       </c>
       <c r="G666" s="0" t="s">
-        <v>148</v>
+        <v>883</v>
       </c>
       <c r="H666" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I666" s="0" t="s">
-        <v>1886</v>
+        <v>24</v>
       </c>
       <c r="J666" s="0" t="s">
         <v>297</v>
@@ -53673,19 +53673,19 @@
         <v>718</v>
       </c>
       <c r="E667" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F667" s="0" t="s">
-        <v>1784</v>
+        <v>1788</v>
       </c>
       <c r="G667" s="0" t="s">
-        <v>799</v>
+        <v>148</v>
       </c>
       <c r="H667" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I667" s="0" t="s">
-        <v>488</v>
+        <v>1886</v>
       </c>
       <c r="J667" s="0" t="s">
         <v>297</v>
@@ -53693,31 +53693,31 @@
     </row>
     <row r="668">
       <c r="A668" s="0" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="B668" s="0" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C668" s="0" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="D668" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E668" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F668" s="0" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="G668" s="0" t="s">
-        <v>148</v>
+        <v>799</v>
       </c>
       <c r="H668" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I668" s="0" t="s">
-        <v>232</v>
+        <v>488</v>
       </c>
       <c r="J668" s="0" t="s">
         <v>297</v>
@@ -53737,19 +53737,19 @@
         <v>718</v>
       </c>
       <c r="E669" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F669" s="0" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
       <c r="G669" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H669" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I669" s="0" t="s">
-        <v>1854</v>
+        <v>232</v>
       </c>
       <c r="J669" s="0" t="s">
         <v>297</v>
@@ -53757,31 +53757,31 @@
     </row>
     <row r="670">
       <c r="A670" s="0" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="B670" s="0" t="s">
         <v>585</v>
       </c>
       <c r="C670" s="0" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D670" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E670" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F670" s="0" t="s">
-        <v>1753</v>
+        <v>1800</v>
       </c>
       <c r="G670" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H670" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I670" s="0" t="s">
-        <v>232</v>
+        <v>1854</v>
       </c>
       <c r="J670" s="0" t="s">
         <v>297</v>
@@ -53801,19 +53801,19 @@
         <v>718</v>
       </c>
       <c r="E671" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F671" s="0" t="s">
-        <v>1767</v>
+        <v>1753</v>
       </c>
       <c r="G671" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H671" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I671" s="0" t="s">
-        <v>1854</v>
+        <v>232</v>
       </c>
       <c r="J671" s="0" t="s">
         <v>297</v>
@@ -53821,31 +53821,31 @@
     </row>
     <row r="672">
       <c r="A672" s="0" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="B672" s="0" t="s">
         <v>585</v>
       </c>
       <c r="C672" s="0" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="D672" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E672" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F672" s="0" t="s">
-        <v>1788</v>
+        <v>1767</v>
       </c>
       <c r="G672" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H672" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I672" s="0" t="s">
-        <v>488</v>
+        <v>1854</v>
       </c>
       <c r="J672" s="0" t="s">
         <v>297</v>
@@ -53853,13 +53853,13 @@
     </row>
     <row r="673">
       <c r="A673" s="0" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="B673" s="0" t="s">
         <v>585</v>
       </c>
       <c r="C673" s="0" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="D673" s="0" t="s">
         <v>718</v>
@@ -53868,7 +53868,7 @@
         <v>1752</v>
       </c>
       <c r="F673" s="0" t="s">
-        <v>1753</v>
+        <v>1788</v>
       </c>
       <c r="G673" s="0" t="s">
         <v>148</v>
@@ -53885,13 +53885,13 @@
     </row>
     <row r="674">
       <c r="A674" s="0" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="B674" s="0" t="s">
         <v>585</v>
       </c>
       <c r="C674" s="0" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="D674" s="0" t="s">
         <v>718</v>
@@ -53900,7 +53900,7 @@
         <v>1752</v>
       </c>
       <c r="F674" s="0" t="s">
-        <v>1788</v>
+        <v>1753</v>
       </c>
       <c r="G674" s="0" t="s">
         <v>148</v>
@@ -53909,7 +53909,7 @@
         <v>1758</v>
       </c>
       <c r="I674" s="0" t="s">
-        <v>1758</v>
+        <v>488</v>
       </c>
       <c r="J674" s="0" t="s">
         <v>297</v>
@@ -53929,19 +53929,19 @@
         <v>718</v>
       </c>
       <c r="E675" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F675" s="0" t="s">
-        <v>1761</v>
+        <v>1788</v>
       </c>
       <c r="G675" s="0" t="s">
-        <v>883</v>
+        <v>148</v>
       </c>
       <c r="H675" s="0" t="s">
-        <v>217</v>
+        <v>1758</v>
       </c>
       <c r="I675" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="J675" s="0" t="s">
         <v>297</v>
@@ -53949,31 +53949,31 @@
     </row>
     <row r="676">
       <c r="A676" s="0" t="s">
-        <v>1639</v>
+        <v>1632</v>
       </c>
       <c r="B676" s="0" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="C676" s="0" t="s">
-        <v>1640</v>
+        <v>1633</v>
       </c>
       <c r="D676" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E676" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F676" s="0" t="s">
-        <v>1788</v>
+        <v>1761</v>
       </c>
       <c r="G676" s="0" t="s">
-        <v>148</v>
+        <v>883</v>
       </c>
       <c r="H676" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I676" s="0" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="J676" s="0" t="s">
         <v>297</v>
@@ -53993,19 +53993,19 @@
         <v>718</v>
       </c>
       <c r="E677" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F677" s="0" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="G677" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H677" s="0" t="s">
-        <v>1821</v>
+        <v>24</v>
       </c>
       <c r="I677" s="0" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="J677" s="0" t="s">
         <v>297</v>
@@ -54013,31 +54013,31 @@
     </row>
     <row r="678">
       <c r="A678" s="0" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="B678" s="0" t="s">
         <v>603</v>
       </c>
       <c r="C678" s="0" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="D678" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E678" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F678" s="0" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="G678" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H678" s="0" t="s">
-        <v>1758</v>
+        <v>1821</v>
       </c>
       <c r="I678" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J678" s="0" t="s">
         <v>297</v>
@@ -54060,13 +54060,13 @@
         <v>1752</v>
       </c>
       <c r="F679" s="0" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="G679" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H679" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I679" s="0" t="s">
         <v>488</v>
@@ -54077,13 +54077,13 @@
     </row>
     <row r="680">
       <c r="A680" s="0" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="B680" s="0" t="s">
         <v>603</v>
       </c>
       <c r="C680" s="0" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="D680" s="0" t="s">
         <v>718</v>
@@ -54092,16 +54092,16 @@
         <v>1752</v>
       </c>
       <c r="F680" s="0" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="G680" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H680" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I680" s="0" t="s">
-        <v>1797</v>
+        <v>488</v>
       </c>
       <c r="J680" s="0" t="s">
         <v>297</v>
@@ -54109,13 +54109,13 @@
     </row>
     <row r="681">
       <c r="A681" s="0" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="B681" s="0" t="s">
         <v>603</v>
       </c>
       <c r="C681" s="0" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="D681" s="0" t="s">
         <v>718</v>
@@ -54133,7 +54133,7 @@
         <v>1758</v>
       </c>
       <c r="I681" s="0" t="s">
-        <v>1758</v>
+        <v>1797</v>
       </c>
       <c r="J681" s="0" t="s">
         <v>297</v>
@@ -54153,19 +54153,19 @@
         <v>718</v>
       </c>
       <c r="E682" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F682" s="0" t="s">
-        <v>1814</v>
+        <v>1788</v>
       </c>
       <c r="G682" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H682" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I682" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="J682" s="0" t="s">
         <v>297</v>
@@ -54173,31 +54173,31 @@
     </row>
     <row r="683">
       <c r="A683" s="0" t="s">
-        <v>1657</v>
+        <v>1645</v>
       </c>
       <c r="B683" s="0" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="C683" s="0" t="s">
-        <v>1658</v>
+        <v>1646</v>
       </c>
       <c r="D683" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E683" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F683" s="0" t="s">
-        <v>1753</v>
+        <v>1814</v>
       </c>
       <c r="G683" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H683" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I683" s="0" t="s">
-        <v>1772</v>
+        <v>24</v>
       </c>
       <c r="J683" s="0" t="s">
         <v>297</v>
@@ -54205,13 +54205,13 @@
     </row>
     <row r="684">
       <c r="A684" s="0" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="B684" s="0" t="s">
         <v>627</v>
       </c>
       <c r="C684" s="0" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="D684" s="0" t="s">
         <v>718</v>
@@ -54226,10 +54226,10 @@
         <v>148</v>
       </c>
       <c r="H684" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="I684" s="0" t="s">
-        <v>1794</v>
+        <v>1772</v>
       </c>
       <c r="J684" s="0" t="s">
         <v>297</v>
@@ -54237,13 +54237,13 @@
     </row>
     <row r="685">
       <c r="A685" s="0" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="B685" s="0" t="s">
         <v>627</v>
       </c>
       <c r="C685" s="0" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D685" s="0" t="s">
         <v>718</v>
@@ -54261,7 +54261,7 @@
         <v>1758</v>
       </c>
       <c r="I685" s="0" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="J685" s="0" t="s">
         <v>297</v>
@@ -54269,13 +54269,13 @@
     </row>
     <row r="686">
       <c r="A686" s="0" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="B686" s="0" t="s">
         <v>627</v>
       </c>
       <c r="C686" s="0" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="D686" s="0" t="s">
         <v>718</v>
@@ -54293,7 +54293,7 @@
         <v>1758</v>
       </c>
       <c r="I686" s="0" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="J686" s="0" t="s">
         <v>297</v>
@@ -54301,13 +54301,13 @@
     </row>
     <row r="687">
       <c r="A687" s="0" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="B687" s="0" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C687" s="0" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="D687" s="0" t="s">
         <v>718</v>
@@ -54322,10 +54322,10 @@
         <v>148</v>
       </c>
       <c r="H687" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="I687" s="0" t="s">
-        <v>1781</v>
+        <v>1797</v>
       </c>
       <c r="J687" s="0" t="s">
         <v>297</v>
@@ -54348,16 +54348,16 @@
         <v>1752</v>
       </c>
       <c r="F688" s="0" t="s">
-        <v>1771</v>
+        <v>1753</v>
       </c>
       <c r="G688" s="0" t="s">
-        <v>758</v>
+        <v>148</v>
       </c>
       <c r="H688" s="0" t="s">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="I688" s="0" t="s">
-        <v>1772</v>
+        <v>1781</v>
       </c>
       <c r="J688" s="0" t="s">
         <v>297</v>
@@ -54365,13 +54365,13 @@
     </row>
     <row r="689">
       <c r="A689" s="0" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="B689" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C689" s="0" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="D689" s="0" t="s">
         <v>718</v>
@@ -54380,16 +54380,16 @@
         <v>1752</v>
       </c>
       <c r="F689" s="0" t="s">
-        <v>1753</v>
+        <v>1771</v>
       </c>
       <c r="G689" s="0" t="s">
-        <v>148</v>
+        <v>758</v>
       </c>
       <c r="H689" s="0" t="s">
-        <v>1758</v>
+        <v>231</v>
       </c>
       <c r="I689" s="0" t="s">
-        <v>62</v>
+        <v>1772</v>
       </c>
       <c r="J689" s="0" t="s">
         <v>297</v>
@@ -54412,13 +54412,13 @@
         <v>1752</v>
       </c>
       <c r="F690" s="0" t="s">
-        <v>1771</v>
+        <v>1753</v>
       </c>
       <c r="G690" s="0" t="s">
-        <v>777</v>
+        <v>148</v>
       </c>
       <c r="H690" s="0" t="s">
-        <v>217</v>
+        <v>1758</v>
       </c>
       <c r="I690" s="0" t="s">
         <v>62</v>
@@ -54429,13 +54429,13 @@
     </row>
     <row r="691">
       <c r="A691" s="0" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="B691" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C691" s="0" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D691" s="0" t="s">
         <v>718</v>
@@ -54444,16 +54444,16 @@
         <v>1752</v>
       </c>
       <c r="F691" s="0" t="s">
-        <v>1753</v>
+        <v>1771</v>
       </c>
       <c r="G691" s="0" t="s">
-        <v>148</v>
+        <v>777</v>
       </c>
       <c r="H691" s="0" t="s">
-        <v>1758</v>
+        <v>217</v>
       </c>
       <c r="I691" s="0" t="s">
-        <v>1795</v>
+        <v>62</v>
       </c>
       <c r="J691" s="0" t="s">
         <v>297</v>
@@ -54476,16 +54476,16 @@
         <v>1752</v>
       </c>
       <c r="F692" s="0" t="s">
-        <v>1771</v>
+        <v>1753</v>
       </c>
       <c r="G692" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H692" s="0" t="s">
-        <v>81</v>
+        <v>1758</v>
       </c>
       <c r="I692" s="0" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="J692" s="0" t="s">
         <v>297</v>
@@ -54493,13 +54493,13 @@
     </row>
     <row r="693">
       <c r="A693" s="0" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="B693" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C693" s="0" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="D693" s="0" t="s">
         <v>718</v>
@@ -54508,16 +54508,16 @@
         <v>1752</v>
       </c>
       <c r="F693" s="0" t="s">
-        <v>1753</v>
+        <v>1771</v>
       </c>
       <c r="G693" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H693" s="0" t="s">
-        <v>1758</v>
+        <v>81</v>
       </c>
       <c r="I693" s="0" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="J693" s="0" t="s">
         <v>297</v>
@@ -54540,16 +54540,16 @@
         <v>1752</v>
       </c>
       <c r="F694" s="0" t="s">
-        <v>1771</v>
+        <v>1753</v>
       </c>
       <c r="G694" s="0" t="s">
-        <v>765</v>
+        <v>148</v>
       </c>
       <c r="H694" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I694" s="0" t="s">
-        <v>488</v>
+        <v>1796</v>
       </c>
       <c r="J694" s="0" t="s">
         <v>297</v>
@@ -54557,13 +54557,13 @@
     </row>
     <row r="695">
       <c r="A695" s="0" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="B695" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C695" s="0" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="D695" s="0" t="s">
         <v>718</v>
@@ -54572,16 +54572,16 @@
         <v>1752</v>
       </c>
       <c r="F695" s="0" t="s">
-        <v>1753</v>
+        <v>1771</v>
       </c>
       <c r="G695" s="0" t="s">
-        <v>148</v>
+        <v>765</v>
       </c>
       <c r="H695" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I695" s="0" t="s">
-        <v>1816</v>
+        <v>488</v>
       </c>
       <c r="J695" s="0" t="s">
         <v>297</v>
@@ -54604,16 +54604,16 @@
         <v>1752</v>
       </c>
       <c r="F696" s="0" t="s">
-        <v>1771</v>
+        <v>1753</v>
       </c>
       <c r="G696" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H696" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I696" s="0" t="s">
-        <v>1796</v>
+        <v>1816</v>
       </c>
       <c r="J696" s="0" t="s">
         <v>297</v>
@@ -54621,13 +54621,13 @@
     </row>
     <row r="697">
       <c r="A697" s="0" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="B697" s="0" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="C697" s="0" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="D697" s="0" t="s">
         <v>718</v>
@@ -54636,16 +54636,16 @@
         <v>1752</v>
       </c>
       <c r="F697" s="0" t="s">
-        <v>1753</v>
+        <v>1771</v>
       </c>
       <c r="G697" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H697" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I697" s="0" t="s">
-        <v>1772</v>
+        <v>1796</v>
       </c>
       <c r="J697" s="0" t="s">
         <v>297</v>
@@ -54668,16 +54668,16 @@
         <v>1752</v>
       </c>
       <c r="F698" s="0" t="s">
-        <v>1771</v>
+        <v>1753</v>
       </c>
       <c r="G698" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H698" s="0" t="s">
-        <v>318</v>
+        <v>24</v>
       </c>
       <c r="I698" s="0" t="s">
-        <v>62</v>
+        <v>1772</v>
       </c>
       <c r="J698" s="0" t="s">
         <v>297</v>
@@ -54685,13 +54685,13 @@
     </row>
     <row r="699">
       <c r="A699" s="0" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="B699" s="0" t="s">
         <v>641</v>
       </c>
       <c r="C699" s="0" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="D699" s="0" t="s">
         <v>718</v>
@@ -54700,16 +54700,16 @@
         <v>1752</v>
       </c>
       <c r="F699" s="0" t="s">
-        <v>1753</v>
+        <v>1771</v>
       </c>
       <c r="G699" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H699" s="0" t="s">
-        <v>1758</v>
+        <v>318</v>
       </c>
       <c r="I699" s="0" t="s">
-        <v>1793</v>
+        <v>62</v>
       </c>
       <c r="J699" s="0" t="s">
         <v>297</v>
@@ -54732,16 +54732,16 @@
         <v>1752</v>
       </c>
       <c r="F700" s="0" t="s">
-        <v>1861</v>
+        <v>1753</v>
       </c>
       <c r="G700" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H700" s="0" t="s">
-        <v>217</v>
+        <v>1758</v>
       </c>
       <c r="I700" s="0" t="s">
-        <v>24</v>
+        <v>1793</v>
       </c>
       <c r="J700" s="0" t="s">
         <v>297</v>
@@ -54749,13 +54749,13 @@
     </row>
     <row r="701">
       <c r="A701" s="0" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="B701" s="0" t="s">
         <v>641</v>
       </c>
       <c r="C701" s="0" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="D701" s="0" t="s">
         <v>718</v>
@@ -54764,16 +54764,16 @@
         <v>1752</v>
       </c>
       <c r="F701" s="0" t="s">
-        <v>1753</v>
+        <v>1861</v>
       </c>
       <c r="G701" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H701" s="0" t="s">
-        <v>1758</v>
+        <v>217</v>
       </c>
       <c r="I701" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J701" s="0" t="s">
         <v>297</v>
@@ -54793,19 +54793,19 @@
         <v>718</v>
       </c>
       <c r="E702" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F702" s="0" t="s">
-        <v>1767</v>
+        <v>1753</v>
       </c>
       <c r="G702" s="0" t="s">
-        <v>799</v>
+        <v>148</v>
       </c>
       <c r="H702" s="0" t="s">
-        <v>217</v>
+        <v>1758</v>
       </c>
       <c r="I702" s="0" t="s">
-        <v>1801</v>
+        <v>488</v>
       </c>
       <c r="J702" s="0" t="s">
         <v>297</v>
@@ -54813,13 +54813,13 @@
     </row>
     <row r="703">
       <c r="A703" s="0" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="B703" s="0" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="C703" s="0" t="s">
-        <v>650</v>
+        <v>1681</v>
       </c>
       <c r="D703" s="0" t="s">
         <v>718</v>
@@ -54828,30 +54828,30 @@
         <v>1754</v>
       </c>
       <c r="F703" s="0" t="s">
-        <v>1755</v>
+        <v>1767</v>
       </c>
       <c r="G703" s="0" t="s">
-        <v>148</v>
+        <v>799</v>
       </c>
       <c r="H703" s="0" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="I703" s="0" t="s">
-        <v>24</v>
+        <v>1801</v>
       </c>
       <c r="J703" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="0" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B704" s="0" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C704" s="0" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D704" s="0" t="s">
         <v>718</v>
@@ -54863,10 +54863,10 @@
         <v>1755</v>
       </c>
       <c r="G704" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H704" s="0" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="I704" s="0" t="s">
         <v>24</v>
@@ -54892,30 +54892,30 @@
         <v>1754</v>
       </c>
       <c r="F705" s="0" t="s">
-        <v>1800</v>
+        <v>1755</v>
       </c>
       <c r="G705" s="0" t="s">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="H705" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I705" s="0" t="s">
-        <v>1783</v>
+        <v>24</v>
       </c>
       <c r="J705" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="0" t="s">
-        <v>1692</v>
+        <v>1685</v>
       </c>
       <c r="B706" s="0" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="C706" s="0" t="s">
-        <v>1693</v>
+        <v>653</v>
       </c>
       <c r="D706" s="0" t="s">
         <v>718</v>
@@ -54924,16 +54924,16 @@
         <v>1754</v>
       </c>
       <c r="F706" s="0" t="s">
-        <v>1790</v>
+        <v>1800</v>
       </c>
       <c r="G706" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H706" s="0" t="s">
-        <v>1791</v>
+        <v>24</v>
       </c>
       <c r="I706" s="0" t="s">
-        <v>24</v>
+        <v>1783</v>
       </c>
       <c r="J706" s="0" t="s">
         <v>297</v>
@@ -54941,31 +54941,31 @@
     </row>
     <row r="707">
       <c r="A707" s="0" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="B707" s="0" t="s">
         <v>668</v>
       </c>
       <c r="C707" s="0" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="D707" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E707" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F707" s="0" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="G707" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H707" s="0" t="s">
-        <v>1758</v>
+        <v>1791</v>
       </c>
       <c r="I707" s="0" t="s">
-        <v>1795</v>
+        <v>24</v>
       </c>
       <c r="J707" s="0" t="s">
         <v>297</v>
@@ -54985,19 +54985,19 @@
         <v>718</v>
       </c>
       <c r="E708" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F708" s="0" t="s">
-        <v>1761</v>
+        <v>1788</v>
       </c>
       <c r="G708" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H708" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I708" s="0" t="s">
-        <v>24</v>
+        <v>1795</v>
       </c>
       <c r="J708" s="0" t="s">
         <v>297</v>
@@ -55005,31 +55005,31 @@
     </row>
     <row r="709">
       <c r="A709" s="0" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="B709" s="0" t="s">
         <v>668</v>
       </c>
       <c r="C709" s="0" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="D709" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E709" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F709" s="0" t="s">
-        <v>1788</v>
+        <v>1761</v>
       </c>
       <c r="G709" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H709" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I709" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J709" s="0" t="s">
         <v>297</v>
@@ -55052,16 +55052,16 @@
         <v>1752</v>
       </c>
       <c r="F710" s="0" t="s">
-        <v>1769</v>
+        <v>1788</v>
       </c>
       <c r="G710" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H710" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I710" s="0" t="s">
-        <v>1831</v>
+        <v>488</v>
       </c>
       <c r="J710" s="0" t="s">
         <v>297</v>
@@ -55069,13 +55069,13 @@
     </row>
     <row r="711">
       <c r="A711" s="0" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="B711" s="0" t="s">
         <v>668</v>
       </c>
       <c r="C711" s="0" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="D711" s="0" t="s">
         <v>718</v>
@@ -55084,16 +55084,16 @@
         <v>1752</v>
       </c>
       <c r="F711" s="0" t="s">
-        <v>1788</v>
+        <v>1769</v>
       </c>
       <c r="G711" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H711" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I711" s="0" t="s">
-        <v>1870</v>
+        <v>1831</v>
       </c>
       <c r="J711" s="0" t="s">
         <v>297</v>
@@ -55113,33 +55113,33 @@
         <v>718</v>
       </c>
       <c r="E712" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F712" s="0" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
       <c r="G712" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H712" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I712" s="0" t="s">
-        <v>1783</v>
+        <v>1870</v>
       </c>
       <c r="J712" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="0" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="B713" s="0" t="s">
         <v>668</v>
       </c>
       <c r="C713" s="0" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="D713" s="0" t="s">
         <v>718</v>
@@ -55148,48 +55148,48 @@
         <v>1754</v>
       </c>
       <c r="F713" s="0" t="s">
-        <v>1761</v>
+        <v>1800</v>
       </c>
       <c r="G713" s="0" t="s">
-        <v>883</v>
+        <v>127</v>
       </c>
       <c r="H713" s="0" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="I713" s="0" t="s">
-        <v>24</v>
+        <v>1783</v>
       </c>
       <c r="J713" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="0" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="B714" s="0" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C714" s="0" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="D714" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E714" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F714" s="0" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
       <c r="G714" s="0" t="s">
-        <v>148</v>
+        <v>883</v>
       </c>
       <c r="H714" s="0" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="I714" s="0" t="s">
-        <v>1794</v>
+        <v>24</v>
       </c>
       <c r="J714" s="0" t="s">
         <v>297</v>
@@ -55209,19 +55209,19 @@
         <v>718</v>
       </c>
       <c r="E715" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F715" s="0" t="s">
-        <v>1814</v>
+        <v>1753</v>
       </c>
       <c r="G715" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H715" s="0" t="s">
-        <v>513</v>
+        <v>24</v>
       </c>
       <c r="I715" s="0" t="s">
-        <v>24</v>
+        <v>1794</v>
       </c>
       <c r="J715" s="0" t="s">
         <v>297</v>
@@ -55229,31 +55229,31 @@
     </row>
     <row r="716">
       <c r="A716" s="0" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="B716" s="0" t="s">
         <v>671</v>
       </c>
       <c r="C716" s="0" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="D716" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E716" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F716" s="0" t="s">
-        <v>1753</v>
+        <v>1814</v>
       </c>
       <c r="G716" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H716" s="0" t="s">
-        <v>1758</v>
+        <v>513</v>
       </c>
       <c r="I716" s="0" t="s">
-        <v>1796</v>
+        <v>24</v>
       </c>
       <c r="J716" s="0" t="s">
         <v>297</v>
@@ -55276,16 +55276,16 @@
         <v>1752</v>
       </c>
       <c r="F717" s="0" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
       <c r="G717" s="0" t="s">
-        <v>883</v>
+        <v>148</v>
       </c>
       <c r="H717" s="0" t="s">
         <v>1758</v>
       </c>
       <c r="I717" s="0" t="s">
-        <v>721</v>
+        <v>1796</v>
       </c>
       <c r="J717" s="0" t="s">
         <v>297</v>
@@ -55293,13 +55293,13 @@
     </row>
     <row r="718">
       <c r="A718" s="0" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="B718" s="0" t="s">
         <v>671</v>
       </c>
       <c r="C718" s="0" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="D718" s="0" t="s">
         <v>718</v>
@@ -55308,16 +55308,16 @@
         <v>1752</v>
       </c>
       <c r="F718" s="0" t="s">
-        <v>1753</v>
+        <v>1768</v>
       </c>
       <c r="G718" s="0" t="s">
-        <v>148</v>
+        <v>883</v>
       </c>
       <c r="H718" s="0" t="s">
         <v>1758</v>
       </c>
       <c r="I718" s="0" t="s">
-        <v>1816</v>
+        <v>721</v>
       </c>
       <c r="J718" s="0" t="s">
         <v>297</v>
@@ -55337,19 +55337,19 @@
         <v>718</v>
       </c>
       <c r="E719" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F719" s="0" t="s">
-        <v>1761</v>
+        <v>1753</v>
       </c>
       <c r="G719" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H719" s="0" t="s">
-        <v>217</v>
+        <v>1758</v>
       </c>
       <c r="I719" s="0" t="s">
-        <v>24</v>
+        <v>1816</v>
       </c>
       <c r="J719" s="0" t="s">
         <v>297</v>
@@ -55357,31 +55357,31 @@
     </row>
     <row r="720">
       <c r="A720" s="0" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="B720" s="0" t="s">
         <v>671</v>
       </c>
       <c r="C720" s="0" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D720" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E720" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F720" s="0" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
       <c r="G720" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H720" s="0" t="s">
-        <v>1758</v>
+        <v>217</v>
       </c>
       <c r="I720" s="0" t="s">
-        <v>1883</v>
+        <v>24</v>
       </c>
       <c r="J720" s="0" t="s">
         <v>297</v>
@@ -55389,13 +55389,13 @@
     </row>
     <row r="721">
       <c r="A721" s="0" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="B721" s="0" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C721" s="0" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="D721" s="0" t="s">
         <v>718</v>
@@ -55404,16 +55404,16 @@
         <v>1752</v>
       </c>
       <c r="F721" s="0" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
       <c r="G721" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H721" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="I721" s="0" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
       <c r="J721" s="0" t="s">
         <v>297</v>
@@ -55433,19 +55433,19 @@
         <v>718</v>
       </c>
       <c r="E722" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F722" s="0" t="s">
-        <v>1784</v>
+        <v>1768</v>
       </c>
       <c r="G722" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H722" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I722" s="0" t="s">
-        <v>488</v>
+        <v>1887</v>
       </c>
       <c r="J722" s="0" t="s">
         <v>297</v>
@@ -55453,28 +55453,28 @@
     </row>
     <row r="723">
       <c r="A723" s="0" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="B723" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C723" s="0" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="D723" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E723" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F723" s="0" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="G723" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H723" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I723" s="0" t="s">
         <v>488</v>
@@ -55497,19 +55497,19 @@
         <v>718</v>
       </c>
       <c r="E724" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F724" s="0" t="s">
-        <v>1761</v>
+        <v>1788</v>
       </c>
       <c r="G724" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H724" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I724" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J724" s="0" t="s">
         <v>297</v>
@@ -55517,31 +55517,31 @@
     </row>
     <row r="725">
       <c r="A725" s="0" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="B725" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C725" s="0" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="D725" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E725" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F725" s="0" t="s">
-        <v>1767</v>
+        <v>1761</v>
       </c>
       <c r="G725" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H725" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I725" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="J725" s="0" t="s">
         <v>297</v>
@@ -55561,19 +55561,19 @@
         <v>718</v>
       </c>
       <c r="E726" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F726" s="0" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="G726" s="0" t="s">
-        <v>883</v>
+        <v>148</v>
       </c>
       <c r="H726" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I726" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="J726" s="0" t="s">
         <v>297</v>
@@ -55581,31 +55581,31 @@
     </row>
     <row r="727">
       <c r="A727" s="0" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="B727" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C727" s="0" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="D727" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E727" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F727" s="0" t="s">
-        <v>1788</v>
+        <v>1766</v>
       </c>
       <c r="G727" s="0" t="s">
-        <v>148</v>
+        <v>883</v>
       </c>
       <c r="H727" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I727" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="J727" s="0" t="s">
         <v>297</v>
@@ -55625,22 +55625,22 @@
         <v>718</v>
       </c>
       <c r="E728" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F728" s="0" t="s">
-        <v>1767</v>
+        <v>1788</v>
       </c>
       <c r="G728" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H728" s="0" t="s">
-        <v>231</v>
+        <v>1758</v>
       </c>
       <c r="I728" s="0" t="s">
-        <v>1786</v>
+        <v>1758</v>
       </c>
       <c r="J728" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="729">
@@ -55660,7 +55660,7 @@
         <v>1754</v>
       </c>
       <c r="F729" s="0" t="s">
-        <v>1800</v>
+        <v>1767</v>
       </c>
       <c r="G729" s="0" t="s">
         <v>318</v>
@@ -55677,34 +55677,34 @@
     </row>
     <row r="730">
       <c r="A730" s="0" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="B730" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C730" s="0" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="D730" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E730" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F730" s="0" t="s">
-        <v>1753</v>
+        <v>1800</v>
       </c>
       <c r="G730" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H730" s="0" t="s">
-        <v>1758</v>
+        <v>231</v>
       </c>
       <c r="I730" s="0" t="s">
-        <v>1886</v>
+        <v>1786</v>
       </c>
       <c r="J730" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="731">
@@ -55724,16 +55724,16 @@
         <v>1752</v>
       </c>
       <c r="F731" s="0" t="s">
-        <v>1863</v>
+        <v>1753</v>
       </c>
       <c r="G731" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H731" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I731" s="0" t="s">
-        <v>24</v>
+        <v>1886</v>
       </c>
       <c r="J731" s="0" t="s">
         <v>297</v>
@@ -55741,31 +55741,31 @@
     </row>
     <row r="732">
       <c r="A732" s="0" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="B732" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C732" s="0" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="D732" s="0" t="s">
-        <v>1719</v>
+        <v>718</v>
       </c>
       <c r="E732" s="0" t="s">
         <v>1752</v>
       </c>
       <c r="F732" s="0" t="s">
-        <v>1788</v>
+        <v>1863</v>
       </c>
       <c r="G732" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H732" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I732" s="0" t="s">
-        <v>1886</v>
+        <v>24</v>
       </c>
       <c r="J732" s="0" t="s">
         <v>297</v>
@@ -55788,16 +55788,16 @@
         <v>1752</v>
       </c>
       <c r="F733" s="0" t="s">
-        <v>1810</v>
+        <v>1788</v>
       </c>
       <c r="G733" s="0" t="s">
-        <v>883</v>
+        <v>148</v>
       </c>
       <c r="H733" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I733" s="0" t="s">
-        <v>24</v>
+        <v>1886</v>
       </c>
       <c r="J733" s="0" t="s">
         <v>297</v>
@@ -55805,34 +55805,34 @@
     </row>
     <row r="734">
       <c r="A734" s="0" t="s">
-        <v>1727</v>
+        <v>1720</v>
       </c>
       <c r="B734" s="0" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="C734" s="0" t="s">
-        <v>686</v>
+        <v>1721</v>
       </c>
       <c r="D734" s="0" t="s">
-        <v>718</v>
+        <v>1719</v>
       </c>
       <c r="E734" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F734" s="0" t="s">
-        <v>1755</v>
+        <v>1810</v>
       </c>
       <c r="G734" s="0" t="s">
-        <v>148</v>
+        <v>883</v>
       </c>
       <c r="H734" s="0" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="I734" s="0" t="s">
         <v>24</v>
       </c>
       <c r="J734" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="735">
@@ -55852,48 +55852,48 @@
         <v>1754</v>
       </c>
       <c r="F735" s="0" t="s">
-        <v>1766</v>
+        <v>1755</v>
       </c>
       <c r="G735" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H735" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I735" s="0" t="s">
         <v>24</v>
       </c>
       <c r="J735" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="0" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B736" s="0" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C736" s="0" t="s">
-        <v>1729</v>
+        <v>686</v>
       </c>
       <c r="D736" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E736" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F736" s="0" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="G736" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H736" s="0" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="I736" s="0" t="s">
-        <v>1888</v>
+        <v>24</v>
       </c>
       <c r="J736" s="0" t="s">
         <v>297</v>
@@ -55901,13 +55901,13 @@
     </row>
     <row r="737">
       <c r="A737" s="0" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="B737" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C737" s="0" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="D737" s="0" t="s">
         <v>718</v>
@@ -55916,16 +55916,16 @@
         <v>1752</v>
       </c>
       <c r="F737" s="0" t="s">
-        <v>1788</v>
+        <v>1768</v>
       </c>
       <c r="G737" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H737" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="I737" s="0" t="s">
-        <v>1884</v>
+        <v>1888</v>
       </c>
       <c r="J737" s="0" t="s">
         <v>297</v>
@@ -55945,19 +55945,19 @@
         <v>718</v>
       </c>
       <c r="E738" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F738" s="0" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
       <c r="G738" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H738" s="0" t="s">
-        <v>217</v>
+        <v>1758</v>
       </c>
       <c r="I738" s="0" t="s">
-        <v>1786</v>
+        <v>1884</v>
       </c>
       <c r="J738" s="0" t="s">
         <v>297</v>
@@ -55965,31 +55965,31 @@
     </row>
     <row r="739">
       <c r="A739" s="0" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="B739" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C739" s="0" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="D739" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E739" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F739" s="0" t="s">
-        <v>1788</v>
+        <v>1800</v>
       </c>
       <c r="G739" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H739" s="0" t="s">
-        <v>1758</v>
+        <v>217</v>
       </c>
       <c r="I739" s="0" t="s">
-        <v>1889</v>
+        <v>1786</v>
       </c>
       <c r="J739" s="0" t="s">
         <v>297</v>
@@ -55997,13 +55997,13 @@
     </row>
     <row r="740">
       <c r="A740" s="0" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="B740" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C740" s="0" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="D740" s="0" t="s">
         <v>718</v>
@@ -56012,7 +56012,7 @@
         <v>1752</v>
       </c>
       <c r="F740" s="0" t="s">
-        <v>1753</v>
+        <v>1788</v>
       </c>
       <c r="G740" s="0" t="s">
         <v>148</v>
@@ -56021,7 +56021,7 @@
         <v>1758</v>
       </c>
       <c r="I740" s="0" t="s">
-        <v>1758</v>
+        <v>1889</v>
       </c>
       <c r="J740" s="0" t="s">
         <v>297</v>
@@ -56029,16 +56029,16 @@
     </row>
     <row r="741">
       <c r="A741" s="0" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="B741" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C741" s="0" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="D741" s="0" t="s">
-        <v>1735</v>
+        <v>718</v>
       </c>
       <c r="E741" s="0" t="s">
         <v>1752</v>
@@ -56053,7 +56053,7 @@
         <v>1758</v>
       </c>
       <c r="I741" s="0" t="s">
-        <v>1883</v>
+        <v>1758</v>
       </c>
       <c r="J741" s="0" t="s">
         <v>297</v>
@@ -56076,16 +56076,16 @@
         <v>1752</v>
       </c>
       <c r="F742" s="0" t="s">
-        <v>1771</v>
+        <v>1753</v>
       </c>
       <c r="G742" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H742" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I742" s="0" t="s">
-        <v>488</v>
+        <v>1883</v>
       </c>
       <c r="J742" s="0" t="s">
         <v>297</v>
@@ -56093,31 +56093,31 @@
     </row>
     <row r="743">
       <c r="A743" s="0" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="B743" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C743" s="0" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="D743" s="0" t="s">
-        <v>718</v>
+        <v>1735</v>
       </c>
       <c r="E743" s="0" t="s">
         <v>1752</v>
       </c>
       <c r="F743" s="0" t="s">
-        <v>1753</v>
+        <v>1771</v>
       </c>
       <c r="G743" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H743" s="0" t="s">
         <v>163</v>
       </c>
       <c r="I743" s="0" t="s">
-        <v>1883</v>
+        <v>488</v>
       </c>
       <c r="J743" s="0" t="s">
         <v>297</v>
@@ -56137,19 +56137,19 @@
         <v>718</v>
       </c>
       <c r="E744" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F744" s="0" t="s">
-        <v>1769</v>
+        <v>1753</v>
       </c>
       <c r="G744" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H744" s="0" t="s">
         <v>163</v>
       </c>
       <c r="I744" s="0" t="s">
-        <v>1890</v>
+        <v>1883</v>
       </c>
       <c r="J744" s="0" t="s">
         <v>297</v>
@@ -56157,31 +56157,31 @@
     </row>
     <row r="745">
       <c r="A745" s="0" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="B745" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C745" s="0" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="D745" s="0" t="s">
-        <v>1739</v>
+        <v>718</v>
       </c>
       <c r="E745" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F745" s="0" t="s">
-        <v>1753</v>
+        <v>1769</v>
       </c>
       <c r="G745" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H745" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I745" s="0" t="s">
-        <v>1886</v>
+        <v>1890</v>
       </c>
       <c r="J745" s="0" t="s">
         <v>297</v>
@@ -56201,19 +56201,19 @@
         <v>1739</v>
       </c>
       <c r="E746" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F746" s="0" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="G746" s="0" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="H746" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I746" s="0" t="s">
-        <v>24</v>
+        <v>1886</v>
       </c>
       <c r="J746" s="0" t="s">
         <v>297</v>
@@ -56221,16 +56221,16 @@
     </row>
     <row r="747">
       <c r="A747" s="0" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="B747" s="0" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C747" s="0" t="s">
-        <v>696</v>
+        <v>1741</v>
       </c>
       <c r="D747" s="0" t="s">
-        <v>718</v>
+        <v>1739</v>
       </c>
       <c r="E747" s="0" t="s">
         <v>1754</v>
@@ -56239,10 +56239,10 @@
         <v>1755</v>
       </c>
       <c r="G747" s="0" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="H747" s="0" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="I747" s="0" t="s">
         <v>24</v>
@@ -56268,18 +56268,50 @@
         <v>1754</v>
       </c>
       <c r="F748" s="0" t="s">
-        <v>1784</v>
+        <v>1755</v>
       </c>
       <c r="G748" s="0" t="s">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="H748" s="0" t="s">
         <v>81</v>
       </c>
       <c r="I748" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J748" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="0" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B749" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="C749" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="D749" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="E749" s="0" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F749" s="0" t="s">
+        <v>1784</v>
+      </c>
+      <c r="G749" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="H749" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="I749" s="0" t="s">
         <v>1801</v>
       </c>
-      <c r="J748" s="0" t="s">
+      <c r="J749" s="0" t="s">
         <v>297</v>
       </c>
     </row>

--- a/docs/秘籍数值.xlsx
+++ b/docs/秘籍数值.xlsx
@@ -13871,25 +13871,25 @@
         <v>528</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D126" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="H126" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="J126" s="0" t="s">
         <v>24</v>
@@ -13948,7 +13948,7 @@
         <v>24</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="H127" s="0" t="s">
         <v>24</v>
@@ -14001,7 +14001,7 @@
         <v>534</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>24</v>
@@ -14010,7 +14010,7 @@
         <v>24</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="G128" s="0" t="s">
         <v>24</v>
@@ -14019,7 +14019,7 @@
         <v>24</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="J128" s="0" t="s">
         <v>24</v>
@@ -52146,7 +52146,7 @@
         <v>148</v>
       </c>
       <c r="H619" s="0" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="I619" s="0" t="s">
         <v>24</v>

--- a/docs/秘籍数值.xlsx
+++ b/docs/秘籍数值.xlsx
@@ -12636,7 +12636,7 @@
         <v>469</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>24</v>
@@ -15431,13 +15431,13 @@
         <v>600</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D150" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="F150" s="0" t="s">
         <v>24</v>
@@ -49103,7 +49103,7 @@
         <v>1788</v>
       </c>
       <c r="G524" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H524" s="0" t="s">
         <v>24</v>
@@ -49135,7 +49135,7 @@
         <v>1838</v>
       </c>
       <c r="G525" s="0" t="s">
-        <v>148</v>
+        <v>777</v>
       </c>
       <c r="H525" s="0" t="s">
         <v>217</v>

--- a/docs/秘籍数值.xlsx
+++ b/docs/秘籍数值.xlsx
@@ -15691,25 +15691,25 @@
         <v>612</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="J154" s="0" t="s">
         <v>24</v>

--- a/docs/秘籍数值.xlsx
+++ b/docs/秘籍数值.xlsx
@@ -15440,7 +15440,7 @@
         <v>163</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="G150" s="0" t="s">
         <v>24</v>
@@ -15449,7 +15449,7 @@
         <v>24</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="J150" s="0" t="s">
         <v>24</v>
@@ -32341,7 +32341,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J749"/>
+  <dimension ref="A1:J750"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -43826,7 +43826,7 @@
         <v>148</v>
       </c>
       <c r="H359" s="0" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="I359" s="0" t="s">
         <v>1794</v>
@@ -43855,7 +43855,7 @@
         <v>1755</v>
       </c>
       <c r="G360" s="0" t="s">
-        <v>1821</v>
+        <v>148</v>
       </c>
       <c r="H360" s="0" t="s">
         <v>134</v>
@@ -43922,7 +43922,7 @@
         <v>148</v>
       </c>
       <c r="H362" s="0" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="I362" s="0" t="s">
         <v>1794</v>
@@ -44024,7 +44024,7 @@
         <v>24</v>
       </c>
       <c r="J365" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="366">
@@ -44335,7 +44335,7 @@
         <v>1789</v>
       </c>
       <c r="G375" s="0" t="s">
-        <v>883</v>
+        <v>148</v>
       </c>
       <c r="H375" s="0" t="s">
         <v>217</v>
@@ -50717,28 +50717,28 @@
     </row>
     <row r="575">
       <c r="A575" s="0" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="B575" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C575" s="0" t="s">
-        <v>1458</v>
+        <v>454</v>
       </c>
       <c r="D575" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E575" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F575" s="0" t="s">
-        <v>1784</v>
+        <v>1753</v>
       </c>
       <c r="G575" s="0" t="s">
-        <v>1762</v>
+        <v>318</v>
       </c>
       <c r="H575" s="0" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="I575" s="0" t="s">
         <v>488</v>
@@ -50749,13 +50749,13 @@
     </row>
     <row r="576">
       <c r="A576" s="0" t="s">
-        <v>1477</v>
+        <v>1457</v>
       </c>
       <c r="B576" s="0" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C576" s="0" t="s">
-        <v>1478</v>
+        <v>1458</v>
       </c>
       <c r="D576" s="0" t="s">
         <v>718</v>
@@ -50764,30 +50764,30 @@
         <v>1754</v>
       </c>
       <c r="F576" s="0" t="s">
-        <v>1755</v>
+        <v>1784</v>
       </c>
       <c r="G576" s="0" t="s">
         <v>1762</v>
       </c>
       <c r="H576" s="0" t="s">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="I576" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J576" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="0" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B577" s="0" t="s">
         <v>463</v>
       </c>
       <c r="C577" s="0" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="D577" s="0" t="s">
         <v>718</v>
@@ -50813,13 +50813,13 @@
     </row>
     <row r="578">
       <c r="A578" s="0" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B578" s="0" t="s">
         <v>463</v>
       </c>
       <c r="C578" s="0" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="D578" s="0" t="s">
         <v>718</v>
@@ -50831,10 +50831,10 @@
         <v>1755</v>
       </c>
       <c r="G578" s="0" t="s">
-        <v>127</v>
+        <v>1762</v>
       </c>
       <c r="H578" s="0" t="s">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="I578" s="0" t="s">
         <v>24</v>
@@ -50845,34 +50845,34 @@
     </row>
     <row r="579">
       <c r="A579" s="0" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="B579" s="0" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C579" s="0" t="s">
-        <v>466</v>
+        <v>1482</v>
       </c>
       <c r="D579" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E579" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F579" s="0" t="s">
-        <v>1768</v>
+        <v>1755</v>
       </c>
       <c r="G579" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H579" s="0" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="I579" s="0" t="s">
-        <v>243</v>
+        <v>24</v>
       </c>
       <c r="J579" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="580">
@@ -50892,7 +50892,7 @@
         <v>1752</v>
       </c>
       <c r="F580" s="0" t="s">
-        <v>1798</v>
+        <v>1768</v>
       </c>
       <c r="G580" s="0" t="s">
         <v>148</v>
@@ -50901,7 +50901,7 @@
         <v>24</v>
       </c>
       <c r="I580" s="0" t="s">
-        <v>1758</v>
+        <v>243</v>
       </c>
       <c r="J580" s="0" t="s">
         <v>297</v>
@@ -50921,19 +50921,19 @@
         <v>718</v>
       </c>
       <c r="E581" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F581" s="0" t="s">
-        <v>1765</v>
+        <v>1798</v>
       </c>
       <c r="G581" s="0" t="s">
-        <v>883</v>
+        <v>148</v>
       </c>
       <c r="H581" s="0" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="I581" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="J581" s="0" t="s">
         <v>297</v>
@@ -50941,31 +50941,31 @@
     </row>
     <row r="582">
       <c r="A582" s="0" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B582" s="0" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C582" s="0" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D582" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E582" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F582" s="0" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="G582" s="0" t="s">
-        <v>148</v>
+        <v>883</v>
       </c>
       <c r="H582" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I582" s="0" t="s">
-        <v>1879</v>
+        <v>24</v>
       </c>
       <c r="J582" s="0" t="s">
         <v>297</v>
@@ -50985,19 +50985,19 @@
         <v>718</v>
       </c>
       <c r="E583" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F583" s="0" t="s">
-        <v>1784</v>
+        <v>1768</v>
       </c>
       <c r="G583" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H583" s="0" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="I583" s="0" t="s">
-        <v>488</v>
+        <v>1879</v>
       </c>
       <c r="J583" s="0" t="s">
         <v>297</v>
@@ -51020,16 +51020,16 @@
         <v>1754</v>
       </c>
       <c r="F584" s="0" t="s">
-        <v>1790</v>
+        <v>1784</v>
       </c>
       <c r="G584" s="0" t="s">
-        <v>883</v>
+        <v>148</v>
       </c>
       <c r="H584" s="0" t="s">
         <v>217</v>
       </c>
       <c r="I584" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J584" s="0" t="s">
         <v>297</v>
@@ -51037,31 +51037,31 @@
     </row>
     <row r="585">
       <c r="A585" s="0" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B585" s="0" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C585" s="0" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D585" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E585" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F585" s="0" t="s">
-        <v>1798</v>
+        <v>1790</v>
       </c>
       <c r="G585" s="0" t="s">
         <v>883</v>
       </c>
       <c r="H585" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I585" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="J585" s="0" t="s">
         <v>297</v>
@@ -51081,19 +51081,19 @@
         <v>718</v>
       </c>
       <c r="E586" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F586" s="0" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
       <c r="G586" s="0" t="s">
-        <v>148</v>
+        <v>883</v>
       </c>
       <c r="H586" s="0" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="I586" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="J586" s="0" t="s">
         <v>297</v>
@@ -51101,31 +51101,31 @@
     </row>
     <row r="587">
       <c r="A587" s="0" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="B587" s="0" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C587" s="0" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D587" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E587" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F587" s="0" t="s">
-        <v>1798</v>
+        <v>1814</v>
       </c>
       <c r="G587" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H587" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I587" s="0" t="s">
-        <v>1794</v>
+        <v>24</v>
       </c>
       <c r="J587" s="0" t="s">
         <v>297</v>
@@ -51133,77 +51133,77 @@
     </row>
     <row r="588">
       <c r="A588" s="0" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B588" s="0" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C588" s="0" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D588" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E588" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F588" s="0" t="s">
-        <v>1755</v>
+        <v>1798</v>
       </c>
       <c r="G588" s="0" t="s">
-        <v>883</v>
+        <v>318</v>
       </c>
       <c r="H588" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I588" s="0" t="s">
-        <v>24</v>
+        <v>1794</v>
       </c>
       <c r="J588" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="0" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="B589" s="0" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C589" s="0" t="s">
-        <v>1491</v>
+        <v>478</v>
       </c>
       <c r="D589" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E589" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F589" s="0" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="G589" s="0" t="s">
-        <v>148</v>
+        <v>883</v>
       </c>
       <c r="H589" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I589" s="0" t="s">
-        <v>1772</v>
+        <v>24</v>
       </c>
       <c r="J589" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="0" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="B590" s="0" t="s">
         <v>481</v>
       </c>
       <c r="C590" s="0" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="D590" s="0" t="s">
         <v>718</v>
@@ -51218,10 +51218,10 @@
         <v>148</v>
       </c>
       <c r="H590" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="I590" s="0" t="s">
-        <v>62</v>
+        <v>1772</v>
       </c>
       <c r="J590" s="0" t="s">
         <v>297</v>
@@ -51229,13 +51229,13 @@
     </row>
     <row r="591">
       <c r="A591" s="0" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="B591" s="0" t="s">
         <v>481</v>
       </c>
       <c r="C591" s="0" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="D591" s="0" t="s">
         <v>718</v>
@@ -51253,7 +51253,7 @@
         <v>1758</v>
       </c>
       <c r="I591" s="0" t="s">
-        <v>1794</v>
+        <v>62</v>
       </c>
       <c r="J591" s="0" t="s">
         <v>297</v>
@@ -51276,16 +51276,16 @@
         <v>1752</v>
       </c>
       <c r="F592" s="0" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
       <c r="G592" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H592" s="0" t="s">
         <v>1758</v>
       </c>
       <c r="I592" s="0" t="s">
-        <v>721</v>
+        <v>1794</v>
       </c>
       <c r="J592" s="0" t="s">
         <v>297</v>
@@ -51293,13 +51293,13 @@
     </row>
     <row r="593">
       <c r="A593" s="0" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="B593" s="0" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C593" s="0" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="D593" s="0" t="s">
         <v>718</v>
@@ -51308,16 +51308,16 @@
         <v>1752</v>
       </c>
       <c r="F593" s="0" t="s">
-        <v>1788</v>
+        <v>1768</v>
       </c>
       <c r="G593" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H593" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="I593" s="0" t="s">
-        <v>1772</v>
+        <v>721</v>
       </c>
       <c r="J593" s="0" t="s">
         <v>297</v>
@@ -51340,13 +51340,13 @@
         <v>1752</v>
       </c>
       <c r="F594" s="0" t="s">
-        <v>1771</v>
+        <v>1788</v>
       </c>
       <c r="G594" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H594" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I594" s="0" t="s">
         <v>1772</v>
@@ -51357,13 +51357,13 @@
     </row>
     <row r="595">
       <c r="A595" s="0" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="B595" s="0" t="s">
         <v>487</v>
       </c>
       <c r="C595" s="0" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="D595" s="0" t="s">
         <v>718</v>
@@ -51372,16 +51372,16 @@
         <v>1752</v>
       </c>
       <c r="F595" s="0" t="s">
-        <v>1753</v>
+        <v>1771</v>
       </c>
       <c r="G595" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H595" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I595" s="0" t="s">
-        <v>62</v>
+        <v>1772</v>
       </c>
       <c r="J595" s="0" t="s">
         <v>297</v>
@@ -51404,13 +51404,13 @@
         <v>1752</v>
       </c>
       <c r="F596" s="0" t="s">
-        <v>1771</v>
+        <v>1753</v>
       </c>
       <c r="G596" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H596" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I596" s="0" t="s">
         <v>62</v>
@@ -51421,13 +51421,13 @@
     </row>
     <row r="597">
       <c r="A597" s="0" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B597" s="0" t="s">
         <v>487</v>
       </c>
       <c r="C597" s="0" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="D597" s="0" t="s">
         <v>718</v>
@@ -51436,16 +51436,16 @@
         <v>1752</v>
       </c>
       <c r="F597" s="0" t="s">
-        <v>1753</v>
+        <v>1771</v>
       </c>
       <c r="G597" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H597" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I597" s="0" t="s">
-        <v>1794</v>
+        <v>62</v>
       </c>
       <c r="J597" s="0" t="s">
         <v>297</v>
@@ -51468,13 +51468,13 @@
         <v>1752</v>
       </c>
       <c r="F598" s="0" t="s">
-        <v>1771</v>
+        <v>1753</v>
       </c>
       <c r="G598" s="0" t="s">
-        <v>1772</v>
+        <v>148</v>
       </c>
       <c r="H598" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I598" s="0" t="s">
         <v>1794</v>
@@ -51485,13 +51485,13 @@
     </row>
     <row r="599">
       <c r="A599" s="0" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="B599" s="0" t="s">
         <v>487</v>
       </c>
       <c r="C599" s="0" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="D599" s="0" t="s">
         <v>718</v>
@@ -51500,16 +51500,16 @@
         <v>1752</v>
       </c>
       <c r="F599" s="0" t="s">
-        <v>1753</v>
+        <v>1771</v>
       </c>
       <c r="G599" s="0" t="s">
-        <v>148</v>
+        <v>1772</v>
       </c>
       <c r="H599" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I599" s="0" t="s">
-        <v>488</v>
+        <v>1794</v>
       </c>
       <c r="J599" s="0" t="s">
         <v>297</v>
@@ -51532,13 +51532,13 @@
         <v>1752</v>
       </c>
       <c r="F600" s="0" t="s">
-        <v>1771</v>
+        <v>1753</v>
       </c>
       <c r="G600" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H600" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I600" s="0" t="s">
         <v>488</v>
@@ -51549,13 +51549,13 @@
     </row>
     <row r="601">
       <c r="A601" s="0" t="s">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="B601" s="0" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="C601" s="0" t="s">
-        <v>1510</v>
+        <v>1505</v>
       </c>
       <c r="D601" s="0" t="s">
         <v>718</v>
@@ -51564,16 +51564,16 @@
         <v>1752</v>
       </c>
       <c r="F601" s="0" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
       <c r="G601" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H601" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I601" s="0" t="s">
-        <v>1880</v>
+        <v>488</v>
       </c>
       <c r="J601" s="0" t="s">
         <v>297</v>
@@ -51581,13 +51581,13 @@
     </row>
     <row r="602">
       <c r="A602" s="0" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="B602" s="0" t="s">
         <v>494</v>
       </c>
       <c r="C602" s="0" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="D602" s="0" t="s">
         <v>718</v>
@@ -51596,16 +51596,16 @@
         <v>1752</v>
       </c>
       <c r="F602" s="0" t="s">
-        <v>1753</v>
+        <v>1768</v>
       </c>
       <c r="G602" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H602" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="I602" s="0" t="s">
-        <v>62</v>
+        <v>1880</v>
       </c>
       <c r="J602" s="0" t="s">
         <v>297</v>
@@ -51625,19 +51625,19 @@
         <v>718</v>
       </c>
       <c r="E603" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F603" s="0" t="s">
-        <v>1784</v>
+        <v>1753</v>
       </c>
       <c r="G603" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H603" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I603" s="0" t="s">
-        <v>1772</v>
+        <v>62</v>
       </c>
       <c r="J603" s="0" t="s">
         <v>297</v>
@@ -51645,31 +51645,31 @@
     </row>
     <row r="604">
       <c r="A604" s="0" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="B604" s="0" t="s">
         <v>494</v>
       </c>
       <c r="C604" s="0" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="D604" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E604" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F604" s="0" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="G604" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H604" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I604" s="0" t="s">
-        <v>1794</v>
+        <v>1772</v>
       </c>
       <c r="J604" s="0" t="s">
         <v>297</v>
@@ -51689,19 +51689,19 @@
         <v>718</v>
       </c>
       <c r="E605" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F605" s="0" t="s">
-        <v>1755</v>
+        <v>1767</v>
       </c>
       <c r="G605" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H605" s="0" t="s">
-        <v>231</v>
+        <v>1758</v>
       </c>
       <c r="I605" s="0" t="s">
-        <v>24</v>
+        <v>1794</v>
       </c>
       <c r="J605" s="0" t="s">
         <v>297</v>
@@ -51709,31 +51709,31 @@
     </row>
     <row r="606">
       <c r="A606" s="0" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="B606" s="0" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C606" s="0" t="s">
-        <v>497</v>
+        <v>1515</v>
       </c>
       <c r="D606" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E606" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F606" s="0" t="s">
-        <v>1768</v>
+        <v>1755</v>
       </c>
       <c r="G606" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H606" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="I606" s="0" t="s">
-        <v>1881</v>
+        <v>24</v>
       </c>
       <c r="J606" s="0" t="s">
         <v>297</v>
@@ -51741,13 +51741,13 @@
     </row>
     <row r="607">
       <c r="A607" s="0" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="B607" s="0" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C607" s="0" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D607" s="0" t="s">
         <v>718</v>
@@ -51765,7 +51765,7 @@
         <v>24</v>
       </c>
       <c r="I607" s="0" t="s">
-        <v>334</v>
+        <v>1881</v>
       </c>
       <c r="J607" s="0" t="s">
         <v>297</v>
@@ -51773,13 +51773,13 @@
     </row>
     <row r="608">
       <c r="A608" s="0" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="B608" s="0" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C608" s="0" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D608" s="0" t="s">
         <v>718</v>
@@ -51797,7 +51797,7 @@
         <v>24</v>
       </c>
       <c r="I608" s="0" t="s">
-        <v>1882</v>
+        <v>334</v>
       </c>
       <c r="J608" s="0" t="s">
         <v>297</v>
@@ -51817,54 +51817,54 @@
         <v>718</v>
       </c>
       <c r="E609" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F609" s="0" t="s">
-        <v>1755</v>
+        <v>1768</v>
       </c>
       <c r="G609" s="0" t="s">
-        <v>883</v>
+        <v>148</v>
       </c>
       <c r="H609" s="0" t="s">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="I609" s="0" t="s">
-        <v>24</v>
+        <v>1882</v>
       </c>
       <c r="J609" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="0" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B610" s="0" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C610" s="0" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D610" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E610" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F610" s="0" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="G610" s="0" t="s">
-        <v>318</v>
+        <v>883</v>
       </c>
       <c r="H610" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="I610" s="0" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="J610" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="611">
@@ -51881,19 +51881,19 @@
         <v>718</v>
       </c>
       <c r="E611" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F611" s="0" t="s">
-        <v>1767</v>
+        <v>1753</v>
       </c>
       <c r="G611" s="0" t="s">
         <v>318</v>
       </c>
       <c r="H611" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I611" s="0" t="s">
-        <v>488</v>
+        <v>62</v>
       </c>
       <c r="J611" s="0" t="s">
         <v>297</v>
@@ -51901,13 +51901,13 @@
     </row>
     <row r="612">
       <c r="A612" s="0" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="B612" s="0" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C612" s="0" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D612" s="0" t="s">
         <v>718</v>
@@ -51916,16 +51916,16 @@
         <v>1754</v>
       </c>
       <c r="F612" s="0" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="G612" s="0" t="s">
-        <v>799</v>
+        <v>318</v>
       </c>
       <c r="H612" s="0" t="s">
-        <v>231</v>
+        <v>163</v>
       </c>
       <c r="I612" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J612" s="0" t="s">
         <v>297</v>
@@ -51933,31 +51933,31 @@
     </row>
     <row r="613">
       <c r="A613" s="0" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="B613" s="0" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C613" s="0" t="s">
-        <v>1526</v>
+        <v>509</v>
       </c>
       <c r="D613" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E613" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F613" s="0" t="s">
-        <v>1788</v>
+        <v>1765</v>
       </c>
       <c r="G613" s="0" t="s">
-        <v>148</v>
+        <v>799</v>
       </c>
       <c r="H613" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="I613" s="0" t="s">
-        <v>1772</v>
+        <v>24</v>
       </c>
       <c r="J613" s="0" t="s">
         <v>297</v>
@@ -51965,13 +51965,13 @@
     </row>
     <row r="614">
       <c r="A614" s="0" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="B614" s="0" t="s">
         <v>512</v>
       </c>
       <c r="C614" s="0" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="D614" s="0" t="s">
         <v>718</v>
@@ -51980,16 +51980,16 @@
         <v>1752</v>
       </c>
       <c r="F614" s="0" t="s">
-        <v>1753</v>
+        <v>1788</v>
       </c>
       <c r="G614" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H614" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="I614" s="0" t="s">
-        <v>232</v>
+        <v>1772</v>
       </c>
       <c r="J614" s="0" t="s">
         <v>297</v>
@@ -51997,13 +51997,13 @@
     </row>
     <row r="615">
       <c r="A615" s="0" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="B615" s="0" t="s">
         <v>512</v>
       </c>
       <c r="C615" s="0" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="D615" s="0" t="s">
         <v>718</v>
@@ -52021,7 +52021,7 @@
         <v>1758</v>
       </c>
       <c r="I615" s="0" t="s">
-        <v>488</v>
+        <v>232</v>
       </c>
       <c r="J615" s="0" t="s">
         <v>297</v>
@@ -52029,16 +52029,16 @@
     </row>
     <row r="616">
       <c r="A616" s="0" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="B616" s="0" t="s">
         <v>512</v>
       </c>
       <c r="C616" s="0" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="D616" s="0" t="s">
-        <v>1531</v>
+        <v>718</v>
       </c>
       <c r="E616" s="0" t="s">
         <v>1752</v>
@@ -52053,7 +52053,7 @@
         <v>1758</v>
       </c>
       <c r="I616" s="0" t="s">
-        <v>1758</v>
+        <v>488</v>
       </c>
       <c r="J616" s="0" t="s">
         <v>297</v>
@@ -52061,13 +52061,13 @@
     </row>
     <row r="617">
       <c r="A617" s="0" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="B617" s="0" t="s">
         <v>512</v>
       </c>
       <c r="C617" s="0" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="D617" s="0" t="s">
         <v>1531</v>
@@ -52085,7 +52085,7 @@
         <v>1758</v>
       </c>
       <c r="I617" s="0" t="s">
-        <v>231</v>
+        <v>1758</v>
       </c>
       <c r="J617" s="0" t="s">
         <v>297</v>
@@ -52093,16 +52093,16 @@
     </row>
     <row r="618">
       <c r="A618" s="0" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="B618" s="0" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="C618" s="0" t="s">
-        <v>522</v>
+        <v>1535</v>
       </c>
       <c r="D618" s="0" t="s">
-        <v>718</v>
+        <v>1531</v>
       </c>
       <c r="E618" s="0" t="s">
         <v>1752</v>
@@ -52111,13 +52111,13 @@
         <v>1753</v>
       </c>
       <c r="G618" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H618" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="I618" s="0" t="s">
-        <v>62</v>
+        <v>231</v>
       </c>
       <c r="J618" s="0" t="s">
         <v>297</v>
@@ -52125,31 +52125,31 @@
     </row>
     <row r="619">
       <c r="A619" s="0" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B619" s="0" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C619" s="0" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D619" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E619" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F619" s="0" t="s">
-        <v>1790</v>
+        <v>1753</v>
       </c>
       <c r="G619" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H619" s="0" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="I619" s="0" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="J619" s="0" t="s">
         <v>297</v>
@@ -52157,13 +52157,13 @@
     </row>
     <row r="620">
       <c r="A620" s="0" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="B620" s="0" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C620" s="0" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D620" s="0" t="s">
         <v>718</v>
@@ -52172,62 +52172,62 @@
         <v>1754</v>
       </c>
       <c r="F620" s="0" t="s">
-        <v>1755</v>
+        <v>1790</v>
       </c>
       <c r="G620" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H620" s="0" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="I620" s="0" t="s">
         <v>24</v>
       </c>
       <c r="J620" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="0" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="B621" s="0" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C621" s="0" t="s">
-        <v>1545</v>
+        <v>531</v>
       </c>
       <c r="D621" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E621" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F621" s="0" t="s">
-        <v>1788</v>
+        <v>1755</v>
       </c>
       <c r="G621" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H621" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I621" s="0" t="s">
-        <v>1781</v>
+        <v>24</v>
       </c>
       <c r="J621" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="0" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="B622" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C622" s="0" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D622" s="0" t="s">
         <v>718</v>
@@ -52242,10 +52242,10 @@
         <v>148</v>
       </c>
       <c r="H622" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="I622" s="0" t="s">
-        <v>62</v>
+        <v>1781</v>
       </c>
       <c r="J622" s="0" t="s">
         <v>297</v>
@@ -52253,13 +52253,13 @@
     </row>
     <row r="623">
       <c r="A623" s="0" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="B623" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C623" s="0" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="D623" s="0" t="s">
         <v>718</v>
@@ -52277,7 +52277,7 @@
         <v>1758</v>
       </c>
       <c r="I623" s="0" t="s">
-        <v>1795</v>
+        <v>62</v>
       </c>
       <c r="J623" s="0" t="s">
         <v>297</v>
@@ -52285,16 +52285,16 @@
     </row>
     <row r="624">
       <c r="A624" s="0" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="B624" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C624" s="0" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="D624" s="0" t="s">
-        <v>1549</v>
+        <v>718</v>
       </c>
       <c r="E624" s="0" t="s">
         <v>1752</v>
@@ -52309,7 +52309,7 @@
         <v>1758</v>
       </c>
       <c r="I624" s="0" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="J624" s="0" t="s">
         <v>297</v>
@@ -52329,19 +52329,19 @@
         <v>1549</v>
       </c>
       <c r="E625" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F625" s="0" t="s">
-        <v>1766</v>
+        <v>1788</v>
       </c>
       <c r="G625" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H625" s="0" t="s">
-        <v>217</v>
+        <v>1758</v>
       </c>
       <c r="I625" s="0" t="s">
-        <v>24</v>
+        <v>1796</v>
       </c>
       <c r="J625" s="0" t="s">
         <v>297</v>
@@ -52349,31 +52349,31 @@
     </row>
     <row r="626">
       <c r="A626" s="0" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="B626" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C626" s="0" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D626" s="0" t="s">
-        <v>718</v>
+        <v>1549</v>
       </c>
       <c r="E626" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F626" s="0" t="s">
-        <v>1788</v>
+        <v>1766</v>
       </c>
       <c r="G626" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H626" s="0" t="s">
-        <v>1758</v>
+        <v>217</v>
       </c>
       <c r="I626" s="0" t="s">
-        <v>1796</v>
+        <v>24</v>
       </c>
       <c r="J626" s="0" t="s">
         <v>297</v>
@@ -52381,16 +52381,16 @@
     </row>
     <row r="627">
       <c r="A627" s="0" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="B627" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C627" s="0" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="D627" s="0" t="s">
-        <v>1553</v>
+        <v>718</v>
       </c>
       <c r="E627" s="0" t="s">
         <v>1752</v>
@@ -52405,7 +52405,7 @@
         <v>1758</v>
       </c>
       <c r="I627" s="0" t="s">
-        <v>1816</v>
+        <v>1796</v>
       </c>
       <c r="J627" s="0" t="s">
         <v>297</v>
@@ -52425,19 +52425,19 @@
         <v>1553</v>
       </c>
       <c r="E628" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F628" s="0" t="s">
-        <v>1766</v>
+        <v>1788</v>
       </c>
       <c r="G628" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H628" s="0" t="s">
-        <v>81</v>
+        <v>1758</v>
       </c>
       <c r="I628" s="0" t="s">
-        <v>24</v>
+        <v>1816</v>
       </c>
       <c r="J628" s="0" t="s">
         <v>297</v>
@@ -52445,31 +52445,31 @@
     </row>
     <row r="629">
       <c r="A629" s="0" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="B629" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C629" s="0" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="D629" s="0" t="s">
-        <v>718</v>
+        <v>1553</v>
       </c>
       <c r="E629" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F629" s="0" t="s">
-        <v>1788</v>
+        <v>1766</v>
       </c>
       <c r="G629" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H629" s="0" t="s">
-        <v>1758</v>
+        <v>81</v>
       </c>
       <c r="I629" s="0" t="s">
-        <v>1816</v>
+        <v>24</v>
       </c>
       <c r="J629" s="0" t="s">
         <v>297</v>
@@ -52477,16 +52477,16 @@
     </row>
     <row r="630">
       <c r="A630" s="0" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B630" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C630" s="0" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="D630" s="0" t="s">
-        <v>1557</v>
+        <v>718</v>
       </c>
       <c r="E630" s="0" t="s">
         <v>1752</v>
@@ -52501,7 +52501,7 @@
         <v>1758</v>
       </c>
       <c r="I630" s="0" t="s">
-        <v>1758</v>
+        <v>1816</v>
       </c>
       <c r="J630" s="0" t="s">
         <v>297</v>
@@ -52521,19 +52521,19 @@
         <v>1557</v>
       </c>
       <c r="E631" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F631" s="0" t="s">
-        <v>1766</v>
+        <v>1788</v>
       </c>
       <c r="G631" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H631" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I631" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="J631" s="0" t="s">
         <v>297</v>
@@ -52541,31 +52541,31 @@
     </row>
     <row r="632">
       <c r="A632" s="0" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
       <c r="B632" s="0" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C632" s="0" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
       <c r="D632" s="0" t="s">
-        <v>718</v>
+        <v>1557</v>
       </c>
       <c r="E632" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F632" s="0" t="s">
-        <v>1753</v>
+        <v>1766</v>
       </c>
       <c r="G632" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H632" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I632" s="0" t="s">
-        <v>1772</v>
+        <v>24</v>
       </c>
       <c r="J632" s="0" t="s">
         <v>297</v>
@@ -52573,13 +52573,13 @@
     </row>
     <row r="633">
       <c r="A633" s="0" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="B633" s="0" t="s">
         <v>549</v>
       </c>
       <c r="C633" s="0" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="D633" s="0" t="s">
         <v>718</v>
@@ -52594,10 +52594,10 @@
         <v>148</v>
       </c>
       <c r="H633" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="I633" s="0" t="s">
-        <v>1794</v>
+        <v>1772</v>
       </c>
       <c r="J633" s="0" t="s">
         <v>297</v>
@@ -52605,13 +52605,13 @@
     </row>
     <row r="634">
       <c r="A634" s="0" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="B634" s="0" t="s">
         <v>549</v>
       </c>
       <c r="C634" s="0" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="D634" s="0" t="s">
         <v>718</v>
@@ -52629,7 +52629,7 @@
         <v>1758</v>
       </c>
       <c r="I634" s="0" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="J634" s="0" t="s">
         <v>297</v>
@@ -52637,13 +52637,13 @@
     </row>
     <row r="635">
       <c r="A635" s="0" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="B635" s="0" t="s">
         <v>549</v>
       </c>
       <c r="C635" s="0" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="D635" s="0" t="s">
         <v>718</v>
@@ -52661,7 +52661,7 @@
         <v>1758</v>
       </c>
       <c r="I635" s="0" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="J635" s="0" t="s">
         <v>297</v>
@@ -52669,13 +52669,13 @@
     </row>
     <row r="636">
       <c r="A636" s="0" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="B636" s="0" t="s">
         <v>549</v>
       </c>
       <c r="C636" s="0" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="D636" s="0" t="s">
         <v>718</v>
@@ -52693,7 +52693,7 @@
         <v>1758</v>
       </c>
       <c r="I636" s="0" t="s">
-        <v>1758</v>
+        <v>1797</v>
       </c>
       <c r="J636" s="0" t="s">
         <v>297</v>
@@ -52713,19 +52713,19 @@
         <v>718</v>
       </c>
       <c r="E637" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F637" s="0" t="s">
-        <v>1761</v>
+        <v>1753</v>
       </c>
       <c r="G637" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H637" s="0" t="s">
-        <v>217</v>
+        <v>1758</v>
       </c>
       <c r="I637" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="J637" s="0" t="s">
         <v>297</v>
@@ -52733,31 +52733,31 @@
     </row>
     <row r="638">
       <c r="A638" s="0" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="B638" s="0" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="C638" s="0" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="D638" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E638" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F638" s="0" t="s">
-        <v>1788</v>
+        <v>1761</v>
       </c>
       <c r="G638" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H638" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I638" s="0" t="s">
-        <v>1772</v>
+        <v>24</v>
       </c>
       <c r="J638" s="0" t="s">
         <v>297</v>
@@ -52765,13 +52765,13 @@
     </row>
     <row r="639">
       <c r="A639" s="0" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="B639" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C639" s="0" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D639" s="0" t="s">
         <v>718</v>
@@ -52786,10 +52786,10 @@
         <v>148</v>
       </c>
       <c r="H639" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="I639" s="0" t="s">
-        <v>1794</v>
+        <v>1772</v>
       </c>
       <c r="J639" s="0" t="s">
         <v>297</v>
@@ -52797,13 +52797,13 @@
     </row>
     <row r="640">
       <c r="A640" s="0" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="B640" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C640" s="0" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="D640" s="0" t="s">
         <v>718</v>
@@ -52821,7 +52821,7 @@
         <v>1758</v>
       </c>
       <c r="I640" s="0" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="J640" s="0" t="s">
         <v>297</v>
@@ -52829,13 +52829,13 @@
     </row>
     <row r="641">
       <c r="A641" s="0" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="B641" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C641" s="0" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="D641" s="0" t="s">
         <v>718</v>
@@ -52853,7 +52853,7 @@
         <v>1758</v>
       </c>
       <c r="I641" s="0" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="J641" s="0" t="s">
         <v>297</v>
@@ -52861,13 +52861,13 @@
     </row>
     <row r="642">
       <c r="A642" s="0" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="B642" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C642" s="0" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D642" s="0" t="s">
         <v>718</v>
@@ -52885,7 +52885,7 @@
         <v>1758</v>
       </c>
       <c r="I642" s="0" t="s">
-        <v>1758</v>
+        <v>1797</v>
       </c>
       <c r="J642" s="0" t="s">
         <v>297</v>
@@ -52893,16 +52893,16 @@
     </row>
     <row r="643">
       <c r="A643" s="0" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="B643" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C643" s="0" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="D643" s="0" t="s">
-        <v>1584</v>
+        <v>718</v>
       </c>
       <c r="E643" s="0" t="s">
         <v>1752</v>
@@ -52917,7 +52917,7 @@
         <v>1758</v>
       </c>
       <c r="I643" s="0" t="s">
-        <v>1883</v>
+        <v>1758</v>
       </c>
       <c r="J643" s="0" t="s">
         <v>297</v>
@@ -52937,19 +52937,19 @@
         <v>1584</v>
       </c>
       <c r="E644" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F644" s="0" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
       <c r="G644" s="0" t="s">
-        <v>883</v>
+        <v>148</v>
       </c>
       <c r="H644" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I644" s="0" t="s">
-        <v>1786</v>
+        <v>1883</v>
       </c>
       <c r="J644" s="0" t="s">
         <v>297</v>
@@ -52957,31 +52957,31 @@
     </row>
     <row r="645">
       <c r="A645" s="0" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="B645" s="0" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="C645" s="0" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="D645" s="0" t="s">
-        <v>718</v>
+        <v>1584</v>
       </c>
       <c r="E645" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F645" s="0" t="s">
-        <v>1788</v>
+        <v>1800</v>
       </c>
       <c r="G645" s="0" t="s">
-        <v>148</v>
+        <v>883</v>
       </c>
       <c r="H645" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I645" s="0" t="s">
-        <v>1779</v>
+        <v>1786</v>
       </c>
       <c r="J645" s="0" t="s">
         <v>297</v>
@@ -53004,16 +53004,16 @@
         <v>1752</v>
       </c>
       <c r="F646" s="0" t="s">
-        <v>1838</v>
+        <v>1788</v>
       </c>
       <c r="G646" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H646" s="0" t="s">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="I646" s="0" t="s">
-        <v>488</v>
+        <v>1779</v>
       </c>
       <c r="J646" s="0" t="s">
         <v>297</v>
@@ -53021,13 +53021,13 @@
     </row>
     <row r="647">
       <c r="A647" s="0" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="B647" s="0" t="s">
         <v>567</v>
       </c>
       <c r="C647" s="0" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="D647" s="0" t="s">
         <v>718</v>
@@ -53036,16 +53036,16 @@
         <v>1752</v>
       </c>
       <c r="F647" s="0" t="s">
-        <v>1788</v>
+        <v>1838</v>
       </c>
       <c r="G647" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H647" s="0" t="s">
-        <v>1758</v>
+        <v>231</v>
       </c>
       <c r="I647" s="0" t="s">
-        <v>1772</v>
+        <v>488</v>
       </c>
       <c r="J647" s="0" t="s">
         <v>297</v>
@@ -53068,13 +53068,13 @@
         <v>1752</v>
       </c>
       <c r="F648" s="0" t="s">
-        <v>1838</v>
+        <v>1788</v>
       </c>
       <c r="G648" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H648" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I648" s="0" t="s">
         <v>1772</v>
@@ -53085,13 +53085,13 @@
     </row>
     <row r="649">
       <c r="A649" s="0" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="B649" s="0" t="s">
         <v>567</v>
       </c>
       <c r="C649" s="0" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="D649" s="0" t="s">
         <v>718</v>
@@ -53100,16 +53100,16 @@
         <v>1752</v>
       </c>
       <c r="F649" s="0" t="s">
-        <v>1788</v>
+        <v>1838</v>
       </c>
       <c r="G649" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H649" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I649" s="0" t="s">
-        <v>62</v>
+        <v>1772</v>
       </c>
       <c r="J649" s="0" t="s">
         <v>297</v>
@@ -53132,13 +53132,13 @@
         <v>1752</v>
       </c>
       <c r="F650" s="0" t="s">
-        <v>1838</v>
+        <v>1788</v>
       </c>
       <c r="G650" s="0" t="s">
-        <v>799</v>
+        <v>148</v>
       </c>
       <c r="H650" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I650" s="0" t="s">
         <v>62</v>
@@ -53149,31 +53149,31 @@
     </row>
     <row r="651">
       <c r="A651" s="0" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B651" s="0" t="s">
         <v>567</v>
       </c>
       <c r="C651" s="0" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="D651" s="0" t="s">
-        <v>1594</v>
+        <v>718</v>
       </c>
       <c r="E651" s="0" t="s">
         <v>1752</v>
       </c>
       <c r="F651" s="0" t="s">
-        <v>1788</v>
+        <v>1838</v>
       </c>
       <c r="G651" s="0" t="s">
-        <v>148</v>
+        <v>799</v>
       </c>
       <c r="H651" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I651" s="0" t="s">
-        <v>1794</v>
+        <v>62</v>
       </c>
       <c r="J651" s="0" t="s">
         <v>297</v>
@@ -53196,13 +53196,13 @@
         <v>1752</v>
       </c>
       <c r="F652" s="0" t="s">
-        <v>1838</v>
+        <v>1788</v>
       </c>
       <c r="G652" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H652" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I652" s="0" t="s">
         <v>1794</v>
@@ -53213,31 +53213,31 @@
     </row>
     <row r="653">
       <c r="A653" s="0" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="B653" s="0" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C653" s="0" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="D653" s="0" t="s">
-        <v>718</v>
+        <v>1594</v>
       </c>
       <c r="E653" s="0" t="s">
         <v>1752</v>
       </c>
       <c r="F653" s="0" t="s">
-        <v>1788</v>
+        <v>1838</v>
       </c>
       <c r="G653" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H653" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I653" s="0" t="s">
-        <v>1781</v>
+        <v>1794</v>
       </c>
       <c r="J653" s="0" t="s">
         <v>297</v>
@@ -53245,13 +53245,13 @@
     </row>
     <row r="654">
       <c r="A654" s="0" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="B654" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C654" s="0" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="D654" s="0" t="s">
         <v>718</v>
@@ -53266,10 +53266,10 @@
         <v>148</v>
       </c>
       <c r="H654" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="I654" s="0" t="s">
-        <v>62</v>
+        <v>1781</v>
       </c>
       <c r="J654" s="0" t="s">
         <v>297</v>
@@ -53277,13 +53277,13 @@
     </row>
     <row r="655">
       <c r="A655" s="0" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="B655" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C655" s="0" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="D655" s="0" t="s">
         <v>718</v>
@@ -53301,7 +53301,7 @@
         <v>1758</v>
       </c>
       <c r="I655" s="0" t="s">
-        <v>1795</v>
+        <v>62</v>
       </c>
       <c r="J655" s="0" t="s">
         <v>297</v>
@@ -53309,16 +53309,16 @@
     </row>
     <row r="656">
       <c r="A656" s="0" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="B656" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C656" s="0" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="D656" s="0" t="s">
-        <v>1604</v>
+        <v>718</v>
       </c>
       <c r="E656" s="0" t="s">
         <v>1752</v>
@@ -53333,7 +53333,7 @@
         <v>1758</v>
       </c>
       <c r="I656" s="0" t="s">
-        <v>1884</v>
+        <v>1795</v>
       </c>
       <c r="J656" s="0" t="s">
         <v>297</v>
@@ -53341,16 +53341,16 @@
     </row>
     <row r="657">
       <c r="A657" s="0" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B657" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C657" s="0" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="D657" s="0" t="s">
-        <v>718</v>
+        <v>1604</v>
       </c>
       <c r="E657" s="0" t="s">
         <v>1752</v>
@@ -53365,7 +53365,7 @@
         <v>1758</v>
       </c>
       <c r="I657" s="0" t="s">
-        <v>1796</v>
+        <v>1884</v>
       </c>
       <c r="J657" s="0" t="s">
         <v>297</v>
@@ -53373,16 +53373,16 @@
     </row>
     <row r="658">
       <c r="A658" s="0" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="B658" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C658" s="0" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="D658" s="0" t="s">
-        <v>1608</v>
+        <v>718</v>
       </c>
       <c r="E658" s="0" t="s">
         <v>1752</v>
@@ -53397,7 +53397,7 @@
         <v>1758</v>
       </c>
       <c r="I658" s="0" t="s">
-        <v>1885</v>
+        <v>1796</v>
       </c>
       <c r="J658" s="0" t="s">
         <v>297</v>
@@ -53405,16 +53405,16 @@
     </row>
     <row r="659">
       <c r="A659" s="0" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="B659" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C659" s="0" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D659" s="0" t="s">
-        <v>718</v>
+        <v>1608</v>
       </c>
       <c r="E659" s="0" t="s">
         <v>1752</v>
@@ -53429,7 +53429,7 @@
         <v>1758</v>
       </c>
       <c r="I659" s="0" t="s">
-        <v>1816</v>
+        <v>1885</v>
       </c>
       <c r="J659" s="0" t="s">
         <v>297</v>
@@ -53437,16 +53437,16 @@
     </row>
     <row r="660">
       <c r="A660" s="0" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="B660" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C660" s="0" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="D660" s="0" t="s">
-        <v>1612</v>
+        <v>718</v>
       </c>
       <c r="E660" s="0" t="s">
         <v>1752</v>
@@ -53461,7 +53461,7 @@
         <v>1758</v>
       </c>
       <c r="I660" s="0" t="s">
-        <v>1886</v>
+        <v>1816</v>
       </c>
       <c r="J660" s="0" t="s">
         <v>297</v>
@@ -53481,19 +53481,19 @@
         <v>1612</v>
       </c>
       <c r="E661" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F661" s="0" t="s">
-        <v>1765</v>
+        <v>1788</v>
       </c>
       <c r="G661" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H661" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I661" s="0" t="s">
-        <v>24</v>
+        <v>1886</v>
       </c>
       <c r="J661" s="0" t="s">
         <v>297</v>
@@ -53501,31 +53501,31 @@
     </row>
     <row r="662">
       <c r="A662" s="0" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="B662" s="0" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C662" s="0" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="D662" s="0" t="s">
-        <v>718</v>
+        <v>1612</v>
       </c>
       <c r="E662" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F662" s="0" t="s">
-        <v>1788</v>
+        <v>1765</v>
       </c>
       <c r="G662" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H662" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I662" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J662" s="0" t="s">
         <v>297</v>
@@ -53548,7 +53548,7 @@
         <v>1752</v>
       </c>
       <c r="F663" s="0" t="s">
-        <v>1798</v>
+        <v>1788</v>
       </c>
       <c r="G663" s="0" t="s">
         <v>148</v>
@@ -53577,19 +53577,19 @@
         <v>718</v>
       </c>
       <c r="E664" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F664" s="0" t="s">
-        <v>1790</v>
+        <v>1798</v>
       </c>
       <c r="G664" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H664" s="0" t="s">
-        <v>741</v>
+        <v>24</v>
       </c>
       <c r="I664" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J664" s="0" t="s">
         <v>297</v>
@@ -53597,31 +53597,31 @@
     </row>
     <row r="665">
       <c r="A665" s="0" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="B665" s="0" t="s">
         <v>579</v>
       </c>
       <c r="C665" s="0" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="D665" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E665" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F665" s="0" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="G665" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H665" s="0" t="s">
-        <v>1758</v>
+        <v>741</v>
       </c>
       <c r="I665" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="J665" s="0" t="s">
         <v>297</v>
@@ -53641,19 +53641,19 @@
         <v>718</v>
       </c>
       <c r="E666" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F666" s="0" t="s">
-        <v>1814</v>
+        <v>1788</v>
       </c>
       <c r="G666" s="0" t="s">
-        <v>883</v>
+        <v>148</v>
       </c>
       <c r="H666" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I666" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="J666" s="0" t="s">
         <v>297</v>
@@ -53661,31 +53661,31 @@
     </row>
     <row r="667">
       <c r="A667" s="0" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="B667" s="0" t="s">
         <v>579</v>
       </c>
       <c r="C667" s="0" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="D667" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E667" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F667" s="0" t="s">
-        <v>1788</v>
+        <v>1814</v>
       </c>
       <c r="G667" s="0" t="s">
-        <v>148</v>
+        <v>883</v>
       </c>
       <c r="H667" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I667" s="0" t="s">
-        <v>1886</v>
+        <v>24</v>
       </c>
       <c r="J667" s="0" t="s">
         <v>297</v>
@@ -53705,19 +53705,19 @@
         <v>718</v>
       </c>
       <c r="E668" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F668" s="0" t="s">
-        <v>1784</v>
+        <v>1788</v>
       </c>
       <c r="G668" s="0" t="s">
-        <v>799</v>
+        <v>148</v>
       </c>
       <c r="H668" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I668" s="0" t="s">
-        <v>488</v>
+        <v>1886</v>
       </c>
       <c r="J668" s="0" t="s">
         <v>297</v>
@@ -53725,31 +53725,31 @@
     </row>
     <row r="669">
       <c r="A669" s="0" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="B669" s="0" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C669" s="0" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="D669" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E669" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F669" s="0" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="G669" s="0" t="s">
-        <v>148</v>
+        <v>799</v>
       </c>
       <c r="H669" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I669" s="0" t="s">
-        <v>232</v>
+        <v>488</v>
       </c>
       <c r="J669" s="0" t="s">
         <v>297</v>
@@ -53769,19 +53769,19 @@
         <v>718</v>
       </c>
       <c r="E670" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F670" s="0" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
       <c r="G670" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H670" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I670" s="0" t="s">
-        <v>1854</v>
+        <v>232</v>
       </c>
       <c r="J670" s="0" t="s">
         <v>297</v>
@@ -53789,31 +53789,31 @@
     </row>
     <row r="671">
       <c r="A671" s="0" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="B671" s="0" t="s">
         <v>585</v>
       </c>
       <c r="C671" s="0" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D671" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E671" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F671" s="0" t="s">
-        <v>1753</v>
+        <v>1800</v>
       </c>
       <c r="G671" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H671" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I671" s="0" t="s">
-        <v>232</v>
+        <v>1854</v>
       </c>
       <c r="J671" s="0" t="s">
         <v>297</v>
@@ -53833,19 +53833,19 @@
         <v>718</v>
       </c>
       <c r="E672" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F672" s="0" t="s">
-        <v>1767</v>
+        <v>1753</v>
       </c>
       <c r="G672" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H672" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I672" s="0" t="s">
-        <v>1854</v>
+        <v>232</v>
       </c>
       <c r="J672" s="0" t="s">
         <v>297</v>
@@ -53853,31 +53853,31 @@
     </row>
     <row r="673">
       <c r="A673" s="0" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="B673" s="0" t="s">
         <v>585</v>
       </c>
       <c r="C673" s="0" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="D673" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E673" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F673" s="0" t="s">
-        <v>1788</v>
+        <v>1767</v>
       </c>
       <c r="G673" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H673" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I673" s="0" t="s">
-        <v>488</v>
+        <v>1854</v>
       </c>
       <c r="J673" s="0" t="s">
         <v>297</v>
@@ -53885,13 +53885,13 @@
     </row>
     <row r="674">
       <c r="A674" s="0" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="B674" s="0" t="s">
         <v>585</v>
       </c>
       <c r="C674" s="0" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="D674" s="0" t="s">
         <v>718</v>
@@ -53900,7 +53900,7 @@
         <v>1752</v>
       </c>
       <c r="F674" s="0" t="s">
-        <v>1753</v>
+        <v>1788</v>
       </c>
       <c r="G674" s="0" t="s">
         <v>148</v>
@@ -53917,13 +53917,13 @@
     </row>
     <row r="675">
       <c r="A675" s="0" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="B675" s="0" t="s">
         <v>585</v>
       </c>
       <c r="C675" s="0" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="D675" s="0" t="s">
         <v>718</v>
@@ -53932,7 +53932,7 @@
         <v>1752</v>
       </c>
       <c r="F675" s="0" t="s">
-        <v>1788</v>
+        <v>1753</v>
       </c>
       <c r="G675" s="0" t="s">
         <v>148</v>
@@ -53941,7 +53941,7 @@
         <v>1758</v>
       </c>
       <c r="I675" s="0" t="s">
-        <v>1758</v>
+        <v>488</v>
       </c>
       <c r="J675" s="0" t="s">
         <v>297</v>
@@ -53961,19 +53961,19 @@
         <v>718</v>
       </c>
       <c r="E676" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F676" s="0" t="s">
-        <v>1761</v>
+        <v>1788</v>
       </c>
       <c r="G676" s="0" t="s">
-        <v>883</v>
+        <v>148</v>
       </c>
       <c r="H676" s="0" t="s">
-        <v>217</v>
+        <v>1758</v>
       </c>
       <c r="I676" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="J676" s="0" t="s">
         <v>297</v>
@@ -53981,31 +53981,31 @@
     </row>
     <row r="677">
       <c r="A677" s="0" t="s">
-        <v>1639</v>
+        <v>1632</v>
       </c>
       <c r="B677" s="0" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="C677" s="0" t="s">
-        <v>1640</v>
+        <v>1633</v>
       </c>
       <c r="D677" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E677" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F677" s="0" t="s">
-        <v>1788</v>
+        <v>1761</v>
       </c>
       <c r="G677" s="0" t="s">
-        <v>148</v>
+        <v>883</v>
       </c>
       <c r="H677" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I677" s="0" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="J677" s="0" t="s">
         <v>297</v>
@@ -54025,19 +54025,19 @@
         <v>718</v>
       </c>
       <c r="E678" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F678" s="0" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="G678" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H678" s="0" t="s">
-        <v>1821</v>
+        <v>24</v>
       </c>
       <c r="I678" s="0" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="J678" s="0" t="s">
         <v>297</v>
@@ -54045,31 +54045,31 @@
     </row>
     <row r="679">
       <c r="A679" s="0" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="B679" s="0" t="s">
         <v>603</v>
       </c>
       <c r="C679" s="0" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="D679" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E679" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F679" s="0" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="G679" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H679" s="0" t="s">
-        <v>1758</v>
+        <v>1821</v>
       </c>
       <c r="I679" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J679" s="0" t="s">
         <v>297</v>
@@ -54092,13 +54092,13 @@
         <v>1752</v>
       </c>
       <c r="F680" s="0" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="G680" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H680" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I680" s="0" t="s">
         <v>488</v>
@@ -54109,13 +54109,13 @@
     </row>
     <row r="681">
       <c r="A681" s="0" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="B681" s="0" t="s">
         <v>603</v>
       </c>
       <c r="C681" s="0" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="D681" s="0" t="s">
         <v>718</v>
@@ -54124,16 +54124,16 @@
         <v>1752</v>
       </c>
       <c r="F681" s="0" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="G681" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H681" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I681" s="0" t="s">
-        <v>1797</v>
+        <v>488</v>
       </c>
       <c r="J681" s="0" t="s">
         <v>297</v>
@@ -54141,13 +54141,13 @@
     </row>
     <row r="682">
       <c r="A682" s="0" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="B682" s="0" t="s">
         <v>603</v>
       </c>
       <c r="C682" s="0" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="D682" s="0" t="s">
         <v>718</v>
@@ -54165,7 +54165,7 @@
         <v>1758</v>
       </c>
       <c r="I682" s="0" t="s">
-        <v>1758</v>
+        <v>1797</v>
       </c>
       <c r="J682" s="0" t="s">
         <v>297</v>
@@ -54185,19 +54185,19 @@
         <v>718</v>
       </c>
       <c r="E683" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F683" s="0" t="s">
-        <v>1814</v>
+        <v>1788</v>
       </c>
       <c r="G683" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H683" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I683" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="J683" s="0" t="s">
         <v>297</v>
@@ -54205,31 +54205,31 @@
     </row>
     <row r="684">
       <c r="A684" s="0" t="s">
-        <v>1657</v>
+        <v>1645</v>
       </c>
       <c r="B684" s="0" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="C684" s="0" t="s">
-        <v>1658</v>
+        <v>1646</v>
       </c>
       <c r="D684" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E684" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F684" s="0" t="s">
-        <v>1753</v>
+        <v>1814</v>
       </c>
       <c r="G684" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H684" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I684" s="0" t="s">
-        <v>1772</v>
+        <v>24</v>
       </c>
       <c r="J684" s="0" t="s">
         <v>297</v>
@@ -54237,13 +54237,13 @@
     </row>
     <row r="685">
       <c r="A685" s="0" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="B685" s="0" t="s">
         <v>627</v>
       </c>
       <c r="C685" s="0" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="D685" s="0" t="s">
         <v>718</v>
@@ -54258,10 +54258,10 @@
         <v>148</v>
       </c>
       <c r="H685" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="I685" s="0" t="s">
-        <v>1794</v>
+        <v>1772</v>
       </c>
       <c r="J685" s="0" t="s">
         <v>297</v>
@@ -54269,13 +54269,13 @@
     </row>
     <row r="686">
       <c r="A686" s="0" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="B686" s="0" t="s">
         <v>627</v>
       </c>
       <c r="C686" s="0" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D686" s="0" t="s">
         <v>718</v>
@@ -54293,7 +54293,7 @@
         <v>1758</v>
       </c>
       <c r="I686" s="0" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="J686" s="0" t="s">
         <v>297</v>
@@ -54301,13 +54301,13 @@
     </row>
     <row r="687">
       <c r="A687" s="0" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="B687" s="0" t="s">
         <v>627</v>
       </c>
       <c r="C687" s="0" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="D687" s="0" t="s">
         <v>718</v>
@@ -54325,7 +54325,7 @@
         <v>1758</v>
       </c>
       <c r="I687" s="0" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="J687" s="0" t="s">
         <v>297</v>
@@ -54333,13 +54333,13 @@
     </row>
     <row r="688">
       <c r="A688" s="0" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="B688" s="0" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C688" s="0" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="D688" s="0" t="s">
         <v>718</v>
@@ -54354,10 +54354,10 @@
         <v>148</v>
       </c>
       <c r="H688" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="I688" s="0" t="s">
-        <v>1781</v>
+        <v>1797</v>
       </c>
       <c r="J688" s="0" t="s">
         <v>297</v>
@@ -54380,16 +54380,16 @@
         <v>1752</v>
       </c>
       <c r="F689" s="0" t="s">
-        <v>1771</v>
+        <v>1753</v>
       </c>
       <c r="G689" s="0" t="s">
-        <v>758</v>
+        <v>148</v>
       </c>
       <c r="H689" s="0" t="s">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="I689" s="0" t="s">
-        <v>1772</v>
+        <v>1781</v>
       </c>
       <c r="J689" s="0" t="s">
         <v>297</v>
@@ -54397,13 +54397,13 @@
     </row>
     <row r="690">
       <c r="A690" s="0" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="B690" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C690" s="0" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="D690" s="0" t="s">
         <v>718</v>
@@ -54412,16 +54412,16 @@
         <v>1752</v>
       </c>
       <c r="F690" s="0" t="s">
-        <v>1753</v>
+        <v>1771</v>
       </c>
       <c r="G690" s="0" t="s">
-        <v>148</v>
+        <v>758</v>
       </c>
       <c r="H690" s="0" t="s">
-        <v>1758</v>
+        <v>231</v>
       </c>
       <c r="I690" s="0" t="s">
-        <v>62</v>
+        <v>1772</v>
       </c>
       <c r="J690" s="0" t="s">
         <v>297</v>
@@ -54444,13 +54444,13 @@
         <v>1752</v>
       </c>
       <c r="F691" s="0" t="s">
-        <v>1771</v>
+        <v>1753</v>
       </c>
       <c r="G691" s="0" t="s">
-        <v>777</v>
+        <v>148</v>
       </c>
       <c r="H691" s="0" t="s">
-        <v>217</v>
+        <v>1758</v>
       </c>
       <c r="I691" s="0" t="s">
         <v>62</v>
@@ -54461,13 +54461,13 @@
     </row>
     <row r="692">
       <c r="A692" s="0" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="B692" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C692" s="0" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D692" s="0" t="s">
         <v>718</v>
@@ -54476,16 +54476,16 @@
         <v>1752</v>
       </c>
       <c r="F692" s="0" t="s">
-        <v>1753</v>
+        <v>1771</v>
       </c>
       <c r="G692" s="0" t="s">
-        <v>148</v>
+        <v>777</v>
       </c>
       <c r="H692" s="0" t="s">
-        <v>1758</v>
+        <v>217</v>
       </c>
       <c r="I692" s="0" t="s">
-        <v>1795</v>
+        <v>62</v>
       </c>
       <c r="J692" s="0" t="s">
         <v>297</v>
@@ -54508,16 +54508,16 @@
         <v>1752</v>
       </c>
       <c r="F693" s="0" t="s">
-        <v>1771</v>
+        <v>1753</v>
       </c>
       <c r="G693" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H693" s="0" t="s">
-        <v>81</v>
+        <v>1758</v>
       </c>
       <c r="I693" s="0" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="J693" s="0" t="s">
         <v>297</v>
@@ -54525,13 +54525,13 @@
     </row>
     <row r="694">
       <c r="A694" s="0" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="B694" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C694" s="0" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="D694" s="0" t="s">
         <v>718</v>
@@ -54540,16 +54540,16 @@
         <v>1752</v>
       </c>
       <c r="F694" s="0" t="s">
-        <v>1753</v>
+        <v>1771</v>
       </c>
       <c r="G694" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H694" s="0" t="s">
-        <v>1758</v>
+        <v>81</v>
       </c>
       <c r="I694" s="0" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="J694" s="0" t="s">
         <v>297</v>
@@ -54572,16 +54572,16 @@
         <v>1752</v>
       </c>
       <c r="F695" s="0" t="s">
-        <v>1771</v>
+        <v>1753</v>
       </c>
       <c r="G695" s="0" t="s">
-        <v>765</v>
+        <v>148</v>
       </c>
       <c r="H695" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I695" s="0" t="s">
-        <v>488</v>
+        <v>1796</v>
       </c>
       <c r="J695" s="0" t="s">
         <v>297</v>
@@ -54589,13 +54589,13 @@
     </row>
     <row r="696">
       <c r="A696" s="0" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="B696" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C696" s="0" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="D696" s="0" t="s">
         <v>718</v>
@@ -54604,16 +54604,16 @@
         <v>1752</v>
       </c>
       <c r="F696" s="0" t="s">
-        <v>1753</v>
+        <v>1771</v>
       </c>
       <c r="G696" s="0" t="s">
-        <v>148</v>
+        <v>765</v>
       </c>
       <c r="H696" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I696" s="0" t="s">
-        <v>1816</v>
+        <v>488</v>
       </c>
       <c r="J696" s="0" t="s">
         <v>297</v>
@@ -54636,16 +54636,16 @@
         <v>1752</v>
       </c>
       <c r="F697" s="0" t="s">
-        <v>1771</v>
+        <v>1753</v>
       </c>
       <c r="G697" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H697" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I697" s="0" t="s">
-        <v>1796</v>
+        <v>1816</v>
       </c>
       <c r="J697" s="0" t="s">
         <v>297</v>
@@ -54653,13 +54653,13 @@
     </row>
     <row r="698">
       <c r="A698" s="0" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="B698" s="0" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="C698" s="0" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="D698" s="0" t="s">
         <v>718</v>
@@ -54668,16 +54668,16 @@
         <v>1752</v>
       </c>
       <c r="F698" s="0" t="s">
-        <v>1753</v>
+        <v>1771</v>
       </c>
       <c r="G698" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H698" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I698" s="0" t="s">
-        <v>1772</v>
+        <v>1796</v>
       </c>
       <c r="J698" s="0" t="s">
         <v>297</v>
@@ -54700,16 +54700,16 @@
         <v>1752</v>
       </c>
       <c r="F699" s="0" t="s">
-        <v>1771</v>
+        <v>1753</v>
       </c>
       <c r="G699" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H699" s="0" t="s">
-        <v>318</v>
+        <v>24</v>
       </c>
       <c r="I699" s="0" t="s">
-        <v>62</v>
+        <v>1772</v>
       </c>
       <c r="J699" s="0" t="s">
         <v>297</v>
@@ -54717,13 +54717,13 @@
     </row>
     <row r="700">
       <c r="A700" s="0" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="B700" s="0" t="s">
         <v>641</v>
       </c>
       <c r="C700" s="0" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="D700" s="0" t="s">
         <v>718</v>
@@ -54732,16 +54732,16 @@
         <v>1752</v>
       </c>
       <c r="F700" s="0" t="s">
-        <v>1753</v>
+        <v>1771</v>
       </c>
       <c r="G700" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H700" s="0" t="s">
-        <v>1758</v>
+        <v>318</v>
       </c>
       <c r="I700" s="0" t="s">
-        <v>1793</v>
+        <v>62</v>
       </c>
       <c r="J700" s="0" t="s">
         <v>297</v>
@@ -54764,16 +54764,16 @@
         <v>1752</v>
       </c>
       <c r="F701" s="0" t="s">
-        <v>1861</v>
+        <v>1753</v>
       </c>
       <c r="G701" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H701" s="0" t="s">
-        <v>217</v>
+        <v>1758</v>
       </c>
       <c r="I701" s="0" t="s">
-        <v>24</v>
+        <v>1793</v>
       </c>
       <c r="J701" s="0" t="s">
         <v>297</v>
@@ -54781,13 +54781,13 @@
     </row>
     <row r="702">
       <c r="A702" s="0" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="B702" s="0" t="s">
         <v>641</v>
       </c>
       <c r="C702" s="0" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="D702" s="0" t="s">
         <v>718</v>
@@ -54796,16 +54796,16 @@
         <v>1752</v>
       </c>
       <c r="F702" s="0" t="s">
-        <v>1753</v>
+        <v>1861</v>
       </c>
       <c r="G702" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H702" s="0" t="s">
-        <v>1758</v>
+        <v>217</v>
       </c>
       <c r="I702" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J702" s="0" t="s">
         <v>297</v>
@@ -54825,19 +54825,19 @@
         <v>718</v>
       </c>
       <c r="E703" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F703" s="0" t="s">
-        <v>1767</v>
+        <v>1753</v>
       </c>
       <c r="G703" s="0" t="s">
-        <v>799</v>
+        <v>148</v>
       </c>
       <c r="H703" s="0" t="s">
-        <v>217</v>
+        <v>1758</v>
       </c>
       <c r="I703" s="0" t="s">
-        <v>1801</v>
+        <v>488</v>
       </c>
       <c r="J703" s="0" t="s">
         <v>297</v>
@@ -54845,13 +54845,13 @@
     </row>
     <row r="704">
       <c r="A704" s="0" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="B704" s="0" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="C704" s="0" t="s">
-        <v>650</v>
+        <v>1681</v>
       </c>
       <c r="D704" s="0" t="s">
         <v>718</v>
@@ -54860,30 +54860,30 @@
         <v>1754</v>
       </c>
       <c r="F704" s="0" t="s">
-        <v>1755</v>
+        <v>1767</v>
       </c>
       <c r="G704" s="0" t="s">
-        <v>148</v>
+        <v>799</v>
       </c>
       <c r="H704" s="0" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="I704" s="0" t="s">
-        <v>24</v>
+        <v>1801</v>
       </c>
       <c r="J704" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="0" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B705" s="0" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C705" s="0" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D705" s="0" t="s">
         <v>718</v>
@@ -54895,10 +54895,10 @@
         <v>1755</v>
       </c>
       <c r="G705" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H705" s="0" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="I705" s="0" t="s">
         <v>24</v>
@@ -54924,30 +54924,30 @@
         <v>1754</v>
       </c>
       <c r="F706" s="0" t="s">
-        <v>1800</v>
+        <v>1755</v>
       </c>
       <c r="G706" s="0" t="s">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="H706" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I706" s="0" t="s">
-        <v>1783</v>
+        <v>24</v>
       </c>
       <c r="J706" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="0" t="s">
-        <v>1692</v>
+        <v>1685</v>
       </c>
       <c r="B707" s="0" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="C707" s="0" t="s">
-        <v>1693</v>
+        <v>653</v>
       </c>
       <c r="D707" s="0" t="s">
         <v>718</v>
@@ -54956,16 +54956,16 @@
         <v>1754</v>
       </c>
       <c r="F707" s="0" t="s">
-        <v>1790</v>
+        <v>1800</v>
       </c>
       <c r="G707" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H707" s="0" t="s">
-        <v>1791</v>
+        <v>24</v>
       </c>
       <c r="I707" s="0" t="s">
-        <v>24</v>
+        <v>1783</v>
       </c>
       <c r="J707" s="0" t="s">
         <v>297</v>
@@ -54973,31 +54973,31 @@
     </row>
     <row r="708">
       <c r="A708" s="0" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="B708" s="0" t="s">
         <v>668</v>
       </c>
       <c r="C708" s="0" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="D708" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E708" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F708" s="0" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="G708" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H708" s="0" t="s">
-        <v>1758</v>
+        <v>1791</v>
       </c>
       <c r="I708" s="0" t="s">
-        <v>1795</v>
+        <v>24</v>
       </c>
       <c r="J708" s="0" t="s">
         <v>297</v>
@@ -55017,19 +55017,19 @@
         <v>718</v>
       </c>
       <c r="E709" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F709" s="0" t="s">
-        <v>1761</v>
+        <v>1788</v>
       </c>
       <c r="G709" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H709" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I709" s="0" t="s">
-        <v>24</v>
+        <v>1795</v>
       </c>
       <c r="J709" s="0" t="s">
         <v>297</v>
@@ -55037,31 +55037,31 @@
     </row>
     <row r="710">
       <c r="A710" s="0" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="B710" s="0" t="s">
         <v>668</v>
       </c>
       <c r="C710" s="0" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="D710" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E710" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F710" s="0" t="s">
-        <v>1788</v>
+        <v>1761</v>
       </c>
       <c r="G710" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H710" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I710" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J710" s="0" t="s">
         <v>297</v>
@@ -55084,16 +55084,16 @@
         <v>1752</v>
       </c>
       <c r="F711" s="0" t="s">
-        <v>1769</v>
+        <v>1788</v>
       </c>
       <c r="G711" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H711" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I711" s="0" t="s">
-        <v>1831</v>
+        <v>488</v>
       </c>
       <c r="J711" s="0" t="s">
         <v>297</v>
@@ -55101,13 +55101,13 @@
     </row>
     <row r="712">
       <c r="A712" s="0" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="B712" s="0" t="s">
         <v>668</v>
       </c>
       <c r="C712" s="0" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="D712" s="0" t="s">
         <v>718</v>
@@ -55116,16 +55116,16 @@
         <v>1752</v>
       </c>
       <c r="F712" s="0" t="s">
-        <v>1788</v>
+        <v>1769</v>
       </c>
       <c r="G712" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H712" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I712" s="0" t="s">
-        <v>1870</v>
+        <v>1831</v>
       </c>
       <c r="J712" s="0" t="s">
         <v>297</v>
@@ -55145,33 +55145,33 @@
         <v>718</v>
       </c>
       <c r="E713" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F713" s="0" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
       <c r="G713" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H713" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I713" s="0" t="s">
-        <v>1783</v>
+        <v>1870</v>
       </c>
       <c r="J713" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="0" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="B714" s="0" t="s">
         <v>668</v>
       </c>
       <c r="C714" s="0" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="D714" s="0" t="s">
         <v>718</v>
@@ -55180,48 +55180,48 @@
         <v>1754</v>
       </c>
       <c r="F714" s="0" t="s">
-        <v>1761</v>
+        <v>1800</v>
       </c>
       <c r="G714" s="0" t="s">
-        <v>883</v>
+        <v>127</v>
       </c>
       <c r="H714" s="0" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="I714" s="0" t="s">
-        <v>24</v>
+        <v>1783</v>
       </c>
       <c r="J714" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="0" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="B715" s="0" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C715" s="0" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="D715" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E715" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F715" s="0" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
       <c r="G715" s="0" t="s">
-        <v>148</v>
+        <v>883</v>
       </c>
       <c r="H715" s="0" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="I715" s="0" t="s">
-        <v>1794</v>
+        <v>24</v>
       </c>
       <c r="J715" s="0" t="s">
         <v>297</v>
@@ -55241,19 +55241,19 @@
         <v>718</v>
       </c>
       <c r="E716" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F716" s="0" t="s">
-        <v>1814</v>
+        <v>1753</v>
       </c>
       <c r="G716" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H716" s="0" t="s">
-        <v>513</v>
+        <v>24</v>
       </c>
       <c r="I716" s="0" t="s">
-        <v>24</v>
+        <v>1794</v>
       </c>
       <c r="J716" s="0" t="s">
         <v>297</v>
@@ -55261,31 +55261,31 @@
     </row>
     <row r="717">
       <c r="A717" s="0" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="B717" s="0" t="s">
         <v>671</v>
       </c>
       <c r="C717" s="0" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="D717" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E717" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F717" s="0" t="s">
-        <v>1753</v>
+        <v>1814</v>
       </c>
       <c r="G717" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H717" s="0" t="s">
-        <v>1758</v>
+        <v>513</v>
       </c>
       <c r="I717" s="0" t="s">
-        <v>1796</v>
+        <v>24</v>
       </c>
       <c r="J717" s="0" t="s">
         <v>297</v>
@@ -55308,16 +55308,16 @@
         <v>1752</v>
       </c>
       <c r="F718" s="0" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
       <c r="G718" s="0" t="s">
-        <v>883</v>
+        <v>148</v>
       </c>
       <c r="H718" s="0" t="s">
         <v>1758</v>
       </c>
       <c r="I718" s="0" t="s">
-        <v>721</v>
+        <v>1796</v>
       </c>
       <c r="J718" s="0" t="s">
         <v>297</v>
@@ -55325,13 +55325,13 @@
     </row>
     <row r="719">
       <c r="A719" s="0" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="B719" s="0" t="s">
         <v>671</v>
       </c>
       <c r="C719" s="0" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="D719" s="0" t="s">
         <v>718</v>
@@ -55340,16 +55340,16 @@
         <v>1752</v>
       </c>
       <c r="F719" s="0" t="s">
-        <v>1753</v>
+        <v>1768</v>
       </c>
       <c r="G719" s="0" t="s">
-        <v>148</v>
+        <v>883</v>
       </c>
       <c r="H719" s="0" t="s">
         <v>1758</v>
       </c>
       <c r="I719" s="0" t="s">
-        <v>1816</v>
+        <v>721</v>
       </c>
       <c r="J719" s="0" t="s">
         <v>297</v>
@@ -55369,19 +55369,19 @@
         <v>718</v>
       </c>
       <c r="E720" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F720" s="0" t="s">
-        <v>1761</v>
+        <v>1753</v>
       </c>
       <c r="G720" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H720" s="0" t="s">
-        <v>217</v>
+        <v>1758</v>
       </c>
       <c r="I720" s="0" t="s">
-        <v>24</v>
+        <v>1816</v>
       </c>
       <c r="J720" s="0" t="s">
         <v>297</v>
@@ -55389,31 +55389,31 @@
     </row>
     <row r="721">
       <c r="A721" s="0" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="B721" s="0" t="s">
         <v>671</v>
       </c>
       <c r="C721" s="0" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D721" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E721" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F721" s="0" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
       <c r="G721" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H721" s="0" t="s">
-        <v>1758</v>
+        <v>217</v>
       </c>
       <c r="I721" s="0" t="s">
-        <v>1883</v>
+        <v>24</v>
       </c>
       <c r="J721" s="0" t="s">
         <v>297</v>
@@ -55421,13 +55421,13 @@
     </row>
     <row r="722">
       <c r="A722" s="0" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="B722" s="0" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C722" s="0" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="D722" s="0" t="s">
         <v>718</v>
@@ -55436,16 +55436,16 @@
         <v>1752</v>
       </c>
       <c r="F722" s="0" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
       <c r="G722" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H722" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="I722" s="0" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
       <c r="J722" s="0" t="s">
         <v>297</v>
@@ -55465,19 +55465,19 @@
         <v>718</v>
       </c>
       <c r="E723" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F723" s="0" t="s">
-        <v>1784</v>
+        <v>1768</v>
       </c>
       <c r="G723" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H723" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I723" s="0" t="s">
-        <v>488</v>
+        <v>1887</v>
       </c>
       <c r="J723" s="0" t="s">
         <v>297</v>
@@ -55485,28 +55485,28 @@
     </row>
     <row r="724">
       <c r="A724" s="0" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="B724" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C724" s="0" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="D724" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E724" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F724" s="0" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="G724" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H724" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I724" s="0" t="s">
         <v>488</v>
@@ -55529,19 +55529,19 @@
         <v>718</v>
       </c>
       <c r="E725" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F725" s="0" t="s">
-        <v>1761</v>
+        <v>1788</v>
       </c>
       <c r="G725" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H725" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I725" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J725" s="0" t="s">
         <v>297</v>
@@ -55549,31 +55549,31 @@
     </row>
     <row r="726">
       <c r="A726" s="0" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="B726" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C726" s="0" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="D726" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E726" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F726" s="0" t="s">
-        <v>1767</v>
+        <v>1761</v>
       </c>
       <c r="G726" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H726" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I726" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="J726" s="0" t="s">
         <v>297</v>
@@ -55593,19 +55593,19 @@
         <v>718</v>
       </c>
       <c r="E727" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F727" s="0" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="G727" s="0" t="s">
-        <v>883</v>
+        <v>148</v>
       </c>
       <c r="H727" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I727" s="0" t="s">
-        <v>24</v>
+        <v>1758</v>
       </c>
       <c r="J727" s="0" t="s">
         <v>297</v>
@@ -55613,31 +55613,31 @@
     </row>
     <row r="728">
       <c r="A728" s="0" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="B728" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C728" s="0" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="D728" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E728" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F728" s="0" t="s">
-        <v>1788</v>
+        <v>1766</v>
       </c>
       <c r="G728" s="0" t="s">
-        <v>148</v>
+        <v>883</v>
       </c>
       <c r="H728" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I728" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="J728" s="0" t="s">
         <v>297</v>
@@ -55657,22 +55657,22 @@
         <v>718</v>
       </c>
       <c r="E729" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F729" s="0" t="s">
-        <v>1767</v>
+        <v>1788</v>
       </c>
       <c r="G729" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H729" s="0" t="s">
-        <v>231</v>
+        <v>1758</v>
       </c>
       <c r="I729" s="0" t="s">
-        <v>1786</v>
+        <v>1758</v>
       </c>
       <c r="J729" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="730">
@@ -55692,7 +55692,7 @@
         <v>1754</v>
       </c>
       <c r="F730" s="0" t="s">
-        <v>1800</v>
+        <v>1767</v>
       </c>
       <c r="G730" s="0" t="s">
         <v>318</v>
@@ -55709,34 +55709,34 @@
     </row>
     <row r="731">
       <c r="A731" s="0" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="B731" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C731" s="0" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="D731" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E731" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F731" s="0" t="s">
-        <v>1753</v>
+        <v>1800</v>
       </c>
       <c r="G731" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H731" s="0" t="s">
-        <v>1758</v>
+        <v>231</v>
       </c>
       <c r="I731" s="0" t="s">
-        <v>1886</v>
+        <v>1786</v>
       </c>
       <c r="J731" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="732">
@@ -55756,16 +55756,16 @@
         <v>1752</v>
       </c>
       <c r="F732" s="0" t="s">
-        <v>1863</v>
+        <v>1753</v>
       </c>
       <c r="G732" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H732" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I732" s="0" t="s">
-        <v>24</v>
+        <v>1886</v>
       </c>
       <c r="J732" s="0" t="s">
         <v>297</v>
@@ -55773,31 +55773,31 @@
     </row>
     <row r="733">
       <c r="A733" s="0" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="B733" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C733" s="0" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="D733" s="0" t="s">
-        <v>1719</v>
+        <v>718</v>
       </c>
       <c r="E733" s="0" t="s">
         <v>1752</v>
       </c>
       <c r="F733" s="0" t="s">
-        <v>1788</v>
+        <v>1863</v>
       </c>
       <c r="G733" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H733" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I733" s="0" t="s">
-        <v>1886</v>
+        <v>24</v>
       </c>
       <c r="J733" s="0" t="s">
         <v>297</v>
@@ -55820,16 +55820,16 @@
         <v>1752</v>
       </c>
       <c r="F734" s="0" t="s">
-        <v>1810</v>
+        <v>1788</v>
       </c>
       <c r="G734" s="0" t="s">
-        <v>883</v>
+        <v>148</v>
       </c>
       <c r="H734" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I734" s="0" t="s">
-        <v>24</v>
+        <v>1886</v>
       </c>
       <c r="J734" s="0" t="s">
         <v>297</v>
@@ -55837,34 +55837,34 @@
     </row>
     <row r="735">
       <c r="A735" s="0" t="s">
-        <v>1727</v>
+        <v>1720</v>
       </c>
       <c r="B735" s="0" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="C735" s="0" t="s">
-        <v>686</v>
+        <v>1721</v>
       </c>
       <c r="D735" s="0" t="s">
-        <v>718</v>
+        <v>1719</v>
       </c>
       <c r="E735" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F735" s="0" t="s">
-        <v>1755</v>
+        <v>1810</v>
       </c>
       <c r="G735" s="0" t="s">
-        <v>148</v>
+        <v>883</v>
       </c>
       <c r="H735" s="0" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="I735" s="0" t="s">
         <v>24</v>
       </c>
       <c r="J735" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="736">
@@ -55884,48 +55884,48 @@
         <v>1754</v>
       </c>
       <c r="F736" s="0" t="s">
-        <v>1766</v>
+        <v>1755</v>
       </c>
       <c r="G736" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H736" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I736" s="0" t="s">
         <v>24</v>
       </c>
       <c r="J736" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="0" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B737" s="0" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C737" s="0" t="s">
-        <v>1729</v>
+        <v>686</v>
       </c>
       <c r="D737" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E737" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F737" s="0" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="G737" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H737" s="0" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="I737" s="0" t="s">
-        <v>1888</v>
+        <v>24</v>
       </c>
       <c r="J737" s="0" t="s">
         <v>297</v>
@@ -55933,13 +55933,13 @@
     </row>
     <row r="738">
       <c r="A738" s="0" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="B738" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C738" s="0" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="D738" s="0" t="s">
         <v>718</v>
@@ -55948,16 +55948,16 @@
         <v>1752</v>
       </c>
       <c r="F738" s="0" t="s">
-        <v>1788</v>
+        <v>1768</v>
       </c>
       <c r="G738" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H738" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="I738" s="0" t="s">
-        <v>1884</v>
+        <v>1888</v>
       </c>
       <c r="J738" s="0" t="s">
         <v>297</v>
@@ -55977,19 +55977,19 @@
         <v>718</v>
       </c>
       <c r="E739" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F739" s="0" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
       <c r="G739" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H739" s="0" t="s">
-        <v>217</v>
+        <v>1758</v>
       </c>
       <c r="I739" s="0" t="s">
-        <v>1786</v>
+        <v>1884</v>
       </c>
       <c r="J739" s="0" t="s">
         <v>297</v>
@@ -55997,31 +55997,31 @@
     </row>
     <row r="740">
       <c r="A740" s="0" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="B740" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C740" s="0" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="D740" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E740" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F740" s="0" t="s">
-        <v>1788</v>
+        <v>1800</v>
       </c>
       <c r="G740" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H740" s="0" t="s">
-        <v>1758</v>
+        <v>217</v>
       </c>
       <c r="I740" s="0" t="s">
-        <v>1889</v>
+        <v>1786</v>
       </c>
       <c r="J740" s="0" t="s">
         <v>297</v>
@@ -56029,13 +56029,13 @@
     </row>
     <row r="741">
       <c r="A741" s="0" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="B741" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C741" s="0" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="D741" s="0" t="s">
         <v>718</v>
@@ -56044,7 +56044,7 @@
         <v>1752</v>
       </c>
       <c r="F741" s="0" t="s">
-        <v>1753</v>
+        <v>1788</v>
       </c>
       <c r="G741" s="0" t="s">
         <v>148</v>
@@ -56053,7 +56053,7 @@
         <v>1758</v>
       </c>
       <c r="I741" s="0" t="s">
-        <v>1758</v>
+        <v>1889</v>
       </c>
       <c r="J741" s="0" t="s">
         <v>297</v>
@@ -56061,16 +56061,16 @@
     </row>
     <row r="742">
       <c r="A742" s="0" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="B742" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C742" s="0" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="D742" s="0" t="s">
-        <v>1735</v>
+        <v>718</v>
       </c>
       <c r="E742" s="0" t="s">
         <v>1752</v>
@@ -56085,7 +56085,7 @@
         <v>1758</v>
       </c>
       <c r="I742" s="0" t="s">
-        <v>1883</v>
+        <v>1758</v>
       </c>
       <c r="J742" s="0" t="s">
         <v>297</v>
@@ -56108,16 +56108,16 @@
         <v>1752</v>
       </c>
       <c r="F743" s="0" t="s">
-        <v>1771</v>
+        <v>1753</v>
       </c>
       <c r="G743" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H743" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I743" s="0" t="s">
-        <v>488</v>
+        <v>1883</v>
       </c>
       <c r="J743" s="0" t="s">
         <v>297</v>
@@ -56125,31 +56125,31 @@
     </row>
     <row r="744">
       <c r="A744" s="0" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="B744" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C744" s="0" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="D744" s="0" t="s">
-        <v>718</v>
+        <v>1735</v>
       </c>
       <c r="E744" s="0" t="s">
         <v>1752</v>
       </c>
       <c r="F744" s="0" t="s">
-        <v>1753</v>
+        <v>1771</v>
       </c>
       <c r="G744" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H744" s="0" t="s">
         <v>163</v>
       </c>
       <c r="I744" s="0" t="s">
-        <v>1883</v>
+        <v>488</v>
       </c>
       <c r="J744" s="0" t="s">
         <v>297</v>
@@ -56169,19 +56169,19 @@
         <v>718</v>
       </c>
       <c r="E745" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F745" s="0" t="s">
-        <v>1769</v>
+        <v>1753</v>
       </c>
       <c r="G745" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H745" s="0" t="s">
         <v>163</v>
       </c>
       <c r="I745" s="0" t="s">
-        <v>1890</v>
+        <v>1883</v>
       </c>
       <c r="J745" s="0" t="s">
         <v>297</v>
@@ -56189,31 +56189,31 @@
     </row>
     <row r="746">
       <c r="A746" s="0" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="B746" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C746" s="0" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="D746" s="0" t="s">
-        <v>1739</v>
+        <v>718</v>
       </c>
       <c r="E746" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F746" s="0" t="s">
-        <v>1753</v>
+        <v>1769</v>
       </c>
       <c r="G746" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H746" s="0" t="s">
-        <v>1758</v>
+        <v>163</v>
       </c>
       <c r="I746" s="0" t="s">
-        <v>1886</v>
+        <v>1890</v>
       </c>
       <c r="J746" s="0" t="s">
         <v>297</v>
@@ -56233,19 +56233,19 @@
         <v>1739</v>
       </c>
       <c r="E747" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F747" s="0" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="G747" s="0" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="H747" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I747" s="0" t="s">
-        <v>24</v>
+        <v>1886</v>
       </c>
       <c r="J747" s="0" t="s">
         <v>297</v>
@@ -56253,16 +56253,16 @@
     </row>
     <row r="748">
       <c r="A748" s="0" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="B748" s="0" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C748" s="0" t="s">
-        <v>696</v>
+        <v>1741</v>
       </c>
       <c r="D748" s="0" t="s">
-        <v>718</v>
+        <v>1739</v>
       </c>
       <c r="E748" s="0" t="s">
         <v>1754</v>
@@ -56271,10 +56271,10 @@
         <v>1755</v>
       </c>
       <c r="G748" s="0" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="H748" s="0" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="I748" s="0" t="s">
         <v>24</v>
@@ -56300,18 +56300,50 @@
         <v>1754</v>
       </c>
       <c r="F749" s="0" t="s">
-        <v>1784</v>
+        <v>1755</v>
       </c>
       <c r="G749" s="0" t="s">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="H749" s="0" t="s">
         <v>81</v>
       </c>
       <c r="I749" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J749" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="0" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B750" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="C750" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="D750" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="E750" s="0" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F750" s="0" t="s">
+        <v>1784</v>
+      </c>
+      <c r="G750" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="H750" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="I750" s="0" t="s">
         <v>1801</v>
       </c>
-      <c r="J749" s="0" t="s">
+      <c r="J750" s="0" t="s">
         <v>297</v>
       </c>
     </row>

--- a/docs/秘籍数值.xlsx
+++ b/docs/秘籍数值.xlsx
@@ -32341,7 +32341,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J750"/>
+  <dimension ref="A1:J758"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -55869,45 +55869,45 @@
     </row>
     <row r="736">
       <c r="A736" s="0" t="s">
-        <v>1727</v>
+        <v>1722</v>
       </c>
       <c r="B736" s="0" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="C736" s="0" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="D736" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E736" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F736" s="0" t="s">
-        <v>1755</v>
+        <v>1798</v>
       </c>
       <c r="G736" s="0" t="s">
-        <v>148</v>
+        <v>799</v>
       </c>
       <c r="H736" s="0" t="s">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="I736" s="0" t="s">
-        <v>24</v>
+        <v>1805</v>
       </c>
       <c r="J736" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="0" t="s">
-        <v>1727</v>
+        <v>1722</v>
       </c>
       <c r="B737" s="0" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="C737" s="0" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="D737" s="0" t="s">
         <v>718</v>
@@ -55916,13 +55916,13 @@
         <v>1754</v>
       </c>
       <c r="F737" s="0" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="G737" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H737" s="0" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="I737" s="0" t="s">
         <v>24</v>
@@ -55933,31 +55933,31 @@
     </row>
     <row r="738">
       <c r="A738" s="0" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="B738" s="0" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C738" s="0" t="s">
-        <v>1729</v>
+        <v>680</v>
       </c>
       <c r="D738" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E738" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F738" s="0" t="s">
-        <v>1768</v>
+        <v>1814</v>
       </c>
       <c r="G738" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H738" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I738" s="0" t="s">
-        <v>1888</v>
+        <v>24</v>
       </c>
       <c r="J738" s="0" t="s">
         <v>297</v>
@@ -55965,13 +55965,13 @@
     </row>
     <row r="739">
       <c r="A739" s="0" t="s">
-        <v>1730</v>
+        <v>1725</v>
       </c>
       <c r="B739" s="0" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C739" s="0" t="s">
-        <v>1731</v>
+        <v>683</v>
       </c>
       <c r="D739" s="0" t="s">
         <v>718</v>
@@ -55980,16 +55980,16 @@
         <v>1752</v>
       </c>
       <c r="F739" s="0" t="s">
-        <v>1788</v>
+        <v>1838</v>
       </c>
       <c r="G739" s="0" t="s">
-        <v>148</v>
+        <v>741</v>
       </c>
       <c r="H739" s="0" t="s">
-        <v>1758</v>
+        <v>81</v>
       </c>
       <c r="I739" s="0" t="s">
-        <v>1884</v>
+        <v>488</v>
       </c>
       <c r="J739" s="0" t="s">
         <v>297</v>
@@ -55997,13 +55997,13 @@
     </row>
     <row r="740">
       <c r="A740" s="0" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="B740" s="0" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C740" s="0" t="s">
-        <v>1731</v>
+        <v>686</v>
       </c>
       <c r="D740" s="0" t="s">
         <v>718</v>
@@ -56012,48 +56012,48 @@
         <v>1754</v>
       </c>
       <c r="F740" s="0" t="s">
-        <v>1800</v>
+        <v>1755</v>
       </c>
       <c r="G740" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H740" s="0" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="I740" s="0" t="s">
-        <v>1786</v>
+        <v>24</v>
       </c>
       <c r="J740" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="0" t="s">
-        <v>1732</v>
+        <v>1727</v>
       </c>
       <c r="B741" s="0" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C741" s="0" t="s">
-        <v>1733</v>
+        <v>686</v>
       </c>
       <c r="D741" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E741" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F741" s="0" t="s">
-        <v>1788</v>
+        <v>1766</v>
       </c>
       <c r="G741" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H741" s="0" t="s">
-        <v>1758</v>
+        <v>134</v>
       </c>
       <c r="I741" s="0" t="s">
-        <v>1889</v>
+        <v>24</v>
       </c>
       <c r="J741" s="0" t="s">
         <v>297</v>
@@ -56061,13 +56061,13 @@
     </row>
     <row r="742">
       <c r="A742" s="0" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="B742" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C742" s="0" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="D742" s="0" t="s">
         <v>718</v>
@@ -56076,16 +56076,16 @@
         <v>1752</v>
       </c>
       <c r="F742" s="0" t="s">
-        <v>1753</v>
+        <v>1768</v>
       </c>
       <c r="G742" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H742" s="0" t="s">
-        <v>1758</v>
+        <v>24</v>
       </c>
       <c r="I742" s="0" t="s">
-        <v>1758</v>
+        <v>1888</v>
       </c>
       <c r="J742" s="0" t="s">
         <v>297</v>
@@ -56093,22 +56093,22 @@
     </row>
     <row r="743">
       <c r="A743" s="0" t="s">
-        <v>1736</v>
+        <v>1730</v>
       </c>
       <c r="B743" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C743" s="0" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
       <c r="D743" s="0" t="s">
-        <v>1735</v>
+        <v>718</v>
       </c>
       <c r="E743" s="0" t="s">
         <v>1752</v>
       </c>
       <c r="F743" s="0" t="s">
-        <v>1753</v>
+        <v>1788</v>
       </c>
       <c r="G743" s="0" t="s">
         <v>148</v>
@@ -56117,7 +56117,7 @@
         <v>1758</v>
       </c>
       <c r="I743" s="0" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="J743" s="0" t="s">
         <v>297</v>
@@ -56125,31 +56125,31 @@
     </row>
     <row r="744">
       <c r="A744" s="0" t="s">
-        <v>1736</v>
+        <v>1730</v>
       </c>
       <c r="B744" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C744" s="0" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
       <c r="D744" s="0" t="s">
-        <v>1735</v>
+        <v>718</v>
       </c>
       <c r="E744" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="F744" s="0" t="s">
-        <v>1771</v>
+        <v>1800</v>
       </c>
       <c r="G744" s="0" t="s">
-        <v>127</v>
+        <v>318</v>
       </c>
       <c r="H744" s="0" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="I744" s="0" t="s">
-        <v>488</v>
+        <v>1786</v>
       </c>
       <c r="J744" s="0" t="s">
         <v>297</v>
@@ -56157,13 +56157,13 @@
     </row>
     <row r="745">
       <c r="A745" s="0" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
       <c r="B745" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C745" s="0" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
       <c r="D745" s="0" t="s">
         <v>718</v>
@@ -56172,16 +56172,16 @@
         <v>1752</v>
       </c>
       <c r="F745" s="0" t="s">
-        <v>1753</v>
+        <v>1788</v>
       </c>
       <c r="G745" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H745" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I745" s="0" t="s">
-        <v>1883</v>
+        <v>1889</v>
       </c>
       <c r="J745" s="0" t="s">
         <v>297</v>
@@ -56189,31 +56189,31 @@
     </row>
     <row r="746">
       <c r="A746" s="0" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="B746" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C746" s="0" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="D746" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E746" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F746" s="0" t="s">
-        <v>1769</v>
+        <v>1753</v>
       </c>
       <c r="G746" s="0" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="H746" s="0" t="s">
-        <v>163</v>
+        <v>1758</v>
       </c>
       <c r="I746" s="0" t="s">
-        <v>1890</v>
+        <v>1758</v>
       </c>
       <c r="J746" s="0" t="s">
         <v>297</v>
@@ -56221,16 +56221,16 @@
     </row>
     <row r="747">
       <c r="A747" s="0" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="B747" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C747" s="0" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="D747" s="0" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="E747" s="0" t="s">
         <v>1752</v>
@@ -56245,7 +56245,7 @@
         <v>1758</v>
       </c>
       <c r="I747" s="0" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
       <c r="J747" s="0" t="s">
         <v>297</v>
@@ -56253,31 +56253,31 @@
     </row>
     <row r="748">
       <c r="A748" s="0" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="B748" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C748" s="0" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="D748" s="0" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="E748" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F748" s="0" t="s">
-        <v>1755</v>
+        <v>1771</v>
       </c>
       <c r="G748" s="0" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="H748" s="0" t="s">
         <v>163</v>
       </c>
       <c r="I748" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J748" s="0" t="s">
         <v>297</v>
@@ -56285,31 +56285,31 @@
     </row>
     <row r="749">
       <c r="A749" s="0" t="s">
-        <v>1743</v>
+        <v>1738</v>
       </c>
       <c r="B749" s="0" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C749" s="0" t="s">
-        <v>696</v>
+        <v>1739</v>
       </c>
       <c r="D749" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E749" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F749" s="0" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="G749" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H749" s="0" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="I749" s="0" t="s">
-        <v>24</v>
+        <v>1883</v>
       </c>
       <c r="J749" s="0" t="s">
         <v>297</v>
@@ -56317,13 +56317,13 @@
     </row>
     <row r="750">
       <c r="A750" s="0" t="s">
-        <v>1743</v>
+        <v>1738</v>
       </c>
       <c r="B750" s="0" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C750" s="0" t="s">
-        <v>696</v>
+        <v>1739</v>
       </c>
       <c r="D750" s="0" t="s">
         <v>718</v>
@@ -56332,18 +56332,274 @@
         <v>1754</v>
       </c>
       <c r="F750" s="0" t="s">
+        <v>1769</v>
+      </c>
+      <c r="G750" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="H750" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="I750" s="0" t="s">
+        <v>1890</v>
+      </c>
+      <c r="J750" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="0" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B751" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="C751" s="0" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D751" s="0" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E751" s="0" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F751" s="0" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G751" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="H751" s="0" t="s">
+        <v>1758</v>
+      </c>
+      <c r="I751" s="0" t="s">
+        <v>1886</v>
+      </c>
+      <c r="J751" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="0" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B752" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="C752" s="0" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D752" s="0" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E752" s="0" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F752" s="0" t="s">
+        <v>1755</v>
+      </c>
+      <c r="G752" s="0" t="s">
+        <v>883</v>
+      </c>
+      <c r="H752" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="I752" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J752" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="0" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B753" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="C753" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="D753" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="E753" s="0" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F753" s="0" t="s">
+        <v>1761</v>
+      </c>
+      <c r="G753" s="0" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H753" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="I753" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J753" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="0" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B754" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="C754" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="D754" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="E754" s="0" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F754" s="0" t="s">
+        <v>1755</v>
+      </c>
+      <c r="G754" s="0" t="s">
+        <v>1821</v>
+      </c>
+      <c r="H754" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="I754" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J754" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="0" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B755" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="C755" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="D755" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="E755" s="0" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F755" s="0" t="s">
         <v>1784</v>
       </c>
-      <c r="G750" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="H750" s="0" t="s">
+      <c r="G755" s="0" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H755" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="I750" s="0" t="s">
+      <c r="I755" s="0" t="s">
         <v>1801</v>
       </c>
-      <c r="J750" s="0" t="s">
+      <c r="J755" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="0" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B756" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="C756" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="D756" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="E756" s="0" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F756" s="0" t="s">
+        <v>1765</v>
+      </c>
+      <c r="G756" s="0" t="s">
+        <v>1821</v>
+      </c>
+      <c r="H756" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="I756" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J756" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="0" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B757" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="C757" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="D757" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="E757" s="0" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F757" s="0" t="s">
+        <v>1755</v>
+      </c>
+      <c r="G757" s="0" t="s">
+        <v>883</v>
+      </c>
+      <c r="H757" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="I757" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J757" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="0" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B758" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="C758" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="D758" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="E758" s="0" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F758" s="0" t="s">
+        <v>1814</v>
+      </c>
+      <c r="G758" s="0" t="s">
+        <v>1821</v>
+      </c>
+      <c r="H758" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="I758" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J758" s="0" t="s">
         <v>297</v>
       </c>
     </row>

--- a/docs/秘籍数值.xlsx
+++ b/docs/秘籍数值.xlsx
@@ -4315,6 +4315,9 @@
     <t>Prefabs/Effects/SkillEffectLiuMaiShenJian</t>
   </si>
   <si>
+    <t>2.9</t>
+  </si>
+  <si>
     <t>30602006</t>
   </si>
   <si>
@@ -4541,9 +4544,6 @@
   </si>
   <si>
     <t>40023001</t>
-  </si>
-  <si>
-    <t>2.9</t>
   </si>
   <si>
     <t>40024001</t>
@@ -26864,18 +26864,18 @@
         <v>825</v>
       </c>
       <c r="I311" s="0" t="s">
-        <v>1412</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="B312" s="0" t="s">
         <v>398</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="D312" s="0" t="s">
         <v>1431</v>
@@ -26890,7 +26890,7 @@
         <v>1432</v>
       </c>
       <c r="H312" s="0" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="I312" s="0" t="s">
         <v>732</v>
@@ -26898,13 +26898,13 @@
     </row>
     <row r="313">
       <c r="A313" s="0" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B313" s="0" t="s">
         <v>398</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="D313" s="0" t="s">
         <v>718</v>
@@ -26927,13 +26927,13 @@
     </row>
     <row r="314">
       <c r="A314" s="0" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B314" s="0" t="s">
         <v>398</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D314" s="0" t="s">
         <v>718</v>
@@ -26956,13 +26956,13 @@
     </row>
     <row r="315">
       <c r="A315" s="0" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B315" s="0" t="s">
         <v>398</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D315" s="0" t="s">
         <v>718</v>
@@ -26985,13 +26985,13 @@
     </row>
     <row r="316">
       <c r="A316" s="0" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B316" s="0" t="s">
         <v>398</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="D316" s="0" t="s">
         <v>718</v>
@@ -27006,7 +27006,7 @@
         <v>1432</v>
       </c>
       <c r="H316" s="0" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="I316" s="0" t="s">
         <v>732</v>
@@ -27014,13 +27014,13 @@
     </row>
     <row r="317">
       <c r="A317" s="0" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B317" s="0" t="s">
         <v>406</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D317" s="0" t="s">
         <v>718</v>
@@ -27043,13 +27043,13 @@
     </row>
     <row r="318">
       <c r="A318" s="0" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B318" s="0" t="s">
         <v>406</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="D318" s="0" t="s">
         <v>718</v>
@@ -27072,13 +27072,13 @@
     </row>
     <row r="319">
       <c r="A319" s="0" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B319" s="0" t="s">
         <v>406</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D319" s="0" t="s">
         <v>718</v>
@@ -27101,7 +27101,7 @@
     </row>
     <row r="320">
       <c r="A320" s="0" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="B320" s="0" t="s">
         <v>410</v>
@@ -27130,7 +27130,7 @@
     </row>
     <row r="321">
       <c r="A321" s="0" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B321" s="0" t="s">
         <v>413</v>
@@ -27154,12 +27154,12 @@
         <v>720</v>
       </c>
       <c r="I321" s="0" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B322" s="0" t="s">
         <v>416</v>
@@ -27188,7 +27188,7 @@
     </row>
     <row r="323">
       <c r="A323" s="0" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B323" s="0" t="s">
         <v>419</v>
@@ -27217,7 +27217,7 @@
     </row>
     <row r="324">
       <c r="A324" s="0" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B324" s="0" t="s">
         <v>422</v>
@@ -27241,12 +27241,12 @@
         <v>1153</v>
       </c>
       <c r="I324" s="0" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B325" s="0" t="s">
         <v>425</v>
@@ -27275,7 +27275,7 @@
     </row>
     <row r="326">
       <c r="A326" s="0" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B326" s="0" t="s">
         <v>428</v>
@@ -27299,12 +27299,12 @@
         <v>1153</v>
       </c>
       <c r="I326" s="0" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B327" s="0" t="s">
         <v>431</v>
@@ -27328,12 +27328,12 @@
         <v>1153</v>
       </c>
       <c r="I327" s="0" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B328" s="0" t="s">
         <v>434</v>
@@ -27357,12 +27357,12 @@
         <v>1153</v>
       </c>
       <c r="I328" s="0" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B329" s="0" t="s">
         <v>439</v>
@@ -27386,12 +27386,12 @@
         <v>995</v>
       </c>
       <c r="I329" s="0" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B330" s="0" t="s">
         <v>442</v>
@@ -27415,12 +27415,12 @@
         <v>962</v>
       </c>
       <c r="I330" s="0" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B331" s="0" t="s">
         <v>445</v>
@@ -27444,18 +27444,18 @@
         <v>962</v>
       </c>
       <c r="I331" s="0" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B332" s="0" t="s">
         <v>448</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="D332" s="0" t="s">
         <v>718</v>
@@ -27478,13 +27478,13 @@
     </row>
     <row r="333">
       <c r="A333" s="0" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B333" s="0" t="s">
         <v>448</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="D333" s="0" t="s">
         <v>718</v>
@@ -27507,13 +27507,13 @@
     </row>
     <row r="334">
       <c r="A334" s="0" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B334" s="0" t="s">
         <v>448</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="D334" s="0" t="s">
         <v>718</v>
@@ -27536,13 +27536,13 @@
     </row>
     <row r="335">
       <c r="A335" s="0" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B335" s="0" t="s">
         <v>448</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D335" s="0" t="s">
         <v>718</v>
@@ -27565,13 +27565,13 @@
     </row>
     <row r="336">
       <c r="A336" s="0" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B336" s="0" t="s">
         <v>448</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="D336" s="0" t="s">
         <v>718</v>
@@ -27586,7 +27586,7 @@
         <v>1194</v>
       </c>
       <c r="H336" s="0" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="I336" s="0" t="s">
         <v>732</v>
@@ -27594,7 +27594,7 @@
     </row>
     <row r="337">
       <c r="A337" s="0" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B337" s="0" t="s">
         <v>451</v>
@@ -27618,12 +27618,12 @@
         <v>966</v>
       </c>
       <c r="I337" s="0" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B338" s="0" t="s">
         <v>454</v>
@@ -27647,18 +27647,18 @@
         <v>1153</v>
       </c>
       <c r="I338" s="0" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B339" s="0" t="s">
         <v>457</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D339" s="0" t="s">
         <v>718</v>
@@ -27681,13 +27681,13 @@
     </row>
     <row r="340">
       <c r="A340" s="0" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B340" s="0" t="s">
         <v>457</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="D340" s="0" t="s">
         <v>718</v>
@@ -27710,16 +27710,16 @@
     </row>
     <row r="341">
       <c r="A341" s="0" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B341" s="0" t="s">
         <v>457</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="D341" s="0" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="E341" s="0" t="s">
         <v>719</v>
@@ -27739,13 +27739,13 @@
     </row>
     <row r="342">
       <c r="A342" s="0" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B342" s="0" t="s">
         <v>457</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="D342" s="0" t="s">
         <v>718</v>
@@ -27768,16 +27768,16 @@
     </row>
     <row r="343">
       <c r="A343" s="0" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B343" s="0" t="s">
         <v>457</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="D343" s="0" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="E343" s="0" t="s">
         <v>719</v>
@@ -27797,13 +27797,13 @@
     </row>
     <row r="344">
       <c r="A344" s="0" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B344" s="0" t="s">
         <v>460</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D344" s="0" t="s">
         <v>718</v>
@@ -27826,13 +27826,13 @@
     </row>
     <row r="345">
       <c r="A345" s="0" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B345" s="0" t="s">
         <v>460</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D345" s="0" t="s">
         <v>718</v>
@@ -27855,16 +27855,16 @@
     </row>
     <row r="346">
       <c r="A346" s="0" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B346" s="0" t="s">
         <v>460</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D346" s="0" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="E346" s="0" t="s">
         <v>719</v>
@@ -27884,13 +27884,13 @@
     </row>
     <row r="347">
       <c r="A347" s="0" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B347" s="0" t="s">
         <v>460</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="D347" s="0" t="s">
         <v>718</v>
@@ -27913,16 +27913,16 @@
     </row>
     <row r="348">
       <c r="A348" s="0" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="B348" s="0" t="s">
         <v>460</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D348" s="0" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="E348" s="0" t="s">
         <v>719</v>
@@ -27942,13 +27942,13 @@
     </row>
     <row r="349">
       <c r="A349" s="0" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B349" s="0" t="s">
         <v>463</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="D349" s="0" t="s">
         <v>718</v>
@@ -27971,13 +27971,13 @@
     </row>
     <row r="350">
       <c r="A350" s="0" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B350" s="0" t="s">
         <v>463</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D350" s="0" t="s">
         <v>718</v>
@@ -28000,13 +28000,13 @@
     </row>
     <row r="351">
       <c r="A351" s="0" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B351" s="0" t="s">
         <v>463</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D351" s="0" t="s">
         <v>718</v>
@@ -28029,7 +28029,7 @@
     </row>
     <row r="352">
       <c r="A352" s="0" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B352" s="0" t="s">
         <v>466</v>
@@ -28058,7 +28058,7 @@
     </row>
     <row r="353">
       <c r="A353" s="0" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B353" s="0" t="s">
         <v>469</v>
@@ -28082,12 +28082,12 @@
         <v>816</v>
       </c>
       <c r="I353" s="0" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B354" s="0" t="s">
         <v>472</v>
@@ -28111,7 +28111,7 @@
         <v>1153</v>
       </c>
       <c r="I354" s="0" t="s">
-        <v>1509</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="355">
@@ -28981,7 +28981,7 @@
         <v>1206</v>
       </c>
       <c r="I384" s="0" t="s">
-        <v>1509</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="385">
@@ -29358,7 +29358,7 @@
         <v>995</v>
       </c>
       <c r="I397" s="0" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="398">
@@ -29532,7 +29532,7 @@
         <v>1206</v>
       </c>
       <c r="I403" s="0" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="404">
@@ -29793,7 +29793,7 @@
         <v>995</v>
       </c>
       <c r="I412" s="0" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="413">
@@ -29909,7 +29909,7 @@
         <v>995</v>
       </c>
       <c r="I416" s="0" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="417">
@@ -29938,7 +29938,7 @@
         <v>995</v>
       </c>
       <c r="I417" s="0" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="418">
@@ -30489,7 +30489,7 @@
         <v>816</v>
       </c>
       <c r="I436" s="0" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="437">
@@ -30576,7 +30576,7 @@
         <v>1153</v>
       </c>
       <c r="I439" s="0" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="440">
@@ -30750,7 +30750,7 @@
         <v>810</v>
       </c>
       <c r="I445" s="0" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="446">
@@ -30924,7 +30924,7 @@
         <v>962</v>
       </c>
       <c r="I451" s="0" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="452">
@@ -31330,7 +31330,7 @@
         <v>1153</v>
       </c>
       <c r="I465" s="0" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="466">
@@ -32055,7 +32055,7 @@
         <v>810</v>
       </c>
       <c r="I490" s="0" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="491">
@@ -32287,7 +32287,7 @@
         <v>1153</v>
       </c>
       <c r="I498" s="0" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="499">
@@ -32316,7 +32316,7 @@
         <v>1199</v>
       </c>
       <c r="I499" s="0" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="500">
@@ -32403,7 +32403,7 @@
         <v>995</v>
       </c>
       <c r="I502" s="0" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
   </sheetData>
@@ -32413,7 +32413,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J760"/>
+  <dimension ref="A1:J762"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -46999,7 +46999,7 @@
         <v>1822</v>
       </c>
       <c r="G456" s="0" t="s">
-        <v>802</v>
+        <v>163</v>
       </c>
       <c r="H456" s="0" t="s">
         <v>24</v>
@@ -47255,7 +47255,7 @@
         <v>1822</v>
       </c>
       <c r="G464" s="0" t="s">
-        <v>766</v>
+        <v>687</v>
       </c>
       <c r="H464" s="0" t="s">
         <v>24</v>
@@ -50181,31 +50181,31 @@
     </row>
     <row r="556">
       <c r="A556" s="0" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="B556" s="0" t="s">
         <v>398</v>
       </c>
       <c r="C556" s="0" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="D556" s="0" t="s">
-        <v>1431</v>
+        <v>718</v>
       </c>
       <c r="E556" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F556" s="0" t="s">
-        <v>1812</v>
+        <v>1789</v>
       </c>
       <c r="G556" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H556" s="0" t="s">
-        <v>1782</v>
+        <v>231</v>
       </c>
       <c r="I556" s="0" t="s">
-        <v>1782</v>
+        <v>24</v>
       </c>
       <c r="J556" s="0" t="s">
         <v>297</v>
@@ -50213,13 +50213,13 @@
     </row>
     <row r="557">
       <c r="A557" s="0" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="B557" s="0" t="s">
         <v>398</v>
       </c>
       <c r="C557" s="0" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="D557" s="0" t="s">
         <v>1431</v>
@@ -50228,16 +50228,16 @@
         <v>1776</v>
       </c>
       <c r="F557" s="0" t="s">
-        <v>1822</v>
+        <v>1812</v>
       </c>
       <c r="G557" s="0" t="s">
-        <v>889</v>
+        <v>148</v>
       </c>
       <c r="H557" s="0" t="s">
         <v>1782</v>
       </c>
       <c r="I557" s="0" t="s">
-        <v>1821</v>
+        <v>1782</v>
       </c>
       <c r="J557" s="0" t="s">
         <v>297</v>
@@ -50245,31 +50245,31 @@
     </row>
     <row r="558">
       <c r="A558" s="0" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="B558" s="0" t="s">
         <v>398</v>
       </c>
       <c r="C558" s="0" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="D558" s="0" t="s">
-        <v>718</v>
+        <v>1431</v>
       </c>
       <c r="E558" s="0" t="s">
         <v>1776</v>
       </c>
       <c r="F558" s="0" t="s">
-        <v>1812</v>
+        <v>1822</v>
       </c>
       <c r="G558" s="0" t="s">
-        <v>148</v>
+        <v>889</v>
       </c>
       <c r="H558" s="0" t="s">
         <v>1782</v>
       </c>
       <c r="I558" s="0" t="s">
-        <v>62</v>
+        <v>1821</v>
       </c>
       <c r="J558" s="0" t="s">
         <v>297</v>
@@ -50277,13 +50277,13 @@
     </row>
     <row r="559">
       <c r="A559" s="0" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B559" s="0" t="s">
         <v>398</v>
       </c>
       <c r="C559" s="0" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="D559" s="0" t="s">
         <v>718</v>
@@ -50292,10 +50292,10 @@
         <v>1776</v>
       </c>
       <c r="F559" s="0" t="s">
-        <v>1822</v>
+        <v>1812</v>
       </c>
       <c r="G559" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H559" s="0" t="s">
         <v>1782</v>
@@ -50309,13 +50309,13 @@
     </row>
     <row r="560">
       <c r="A560" s="0" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B560" s="0" t="s">
         <v>398</v>
       </c>
       <c r="C560" s="0" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D560" s="0" t="s">
         <v>718</v>
@@ -50324,16 +50324,16 @@
         <v>1776</v>
       </c>
       <c r="F560" s="0" t="s">
-        <v>1812</v>
+        <v>1822</v>
       </c>
       <c r="G560" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H560" s="0" t="s">
         <v>1782</v>
       </c>
       <c r="I560" s="0" t="s">
-        <v>1818</v>
+        <v>62</v>
       </c>
       <c r="J560" s="0" t="s">
         <v>297</v>
@@ -50341,13 +50341,13 @@
     </row>
     <row r="561">
       <c r="A561" s="0" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B561" s="0" t="s">
         <v>398</v>
       </c>
       <c r="C561" s="0" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D561" s="0" t="s">
         <v>718</v>
@@ -50356,10 +50356,10 @@
         <v>1776</v>
       </c>
       <c r="F561" s="0" t="s">
-        <v>1822</v>
+        <v>1812</v>
       </c>
       <c r="G561" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H561" s="0" t="s">
         <v>1782</v>
@@ -50373,13 +50373,13 @@
     </row>
     <row r="562">
       <c r="A562" s="0" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B562" s="0" t="s">
         <v>398</v>
       </c>
       <c r="C562" s="0" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D562" s="0" t="s">
         <v>718</v>
@@ -50388,16 +50388,16 @@
         <v>1776</v>
       </c>
       <c r="F562" s="0" t="s">
-        <v>1812</v>
+        <v>1822</v>
       </c>
       <c r="G562" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H562" s="0" t="s">
         <v>1782</v>
       </c>
       <c r="I562" s="0" t="s">
-        <v>488</v>
+        <v>1818</v>
       </c>
       <c r="J562" s="0" t="s">
         <v>297</v>
@@ -50405,13 +50405,13 @@
     </row>
     <row r="563">
       <c r="A563" s="0" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B563" s="0" t="s">
         <v>398</v>
       </c>
       <c r="C563" s="0" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D563" s="0" t="s">
         <v>718</v>
@@ -50420,10 +50420,10 @@
         <v>1776</v>
       </c>
       <c r="F563" s="0" t="s">
-        <v>1822</v>
+        <v>1812</v>
       </c>
       <c r="G563" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H563" s="0" t="s">
         <v>1782</v>
@@ -50437,13 +50437,13 @@
     </row>
     <row r="564">
       <c r="A564" s="0" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B564" s="0" t="s">
         <v>398</v>
       </c>
       <c r="C564" s="0" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D564" s="0" t="s">
         <v>718</v>
@@ -50452,16 +50452,16 @@
         <v>1776</v>
       </c>
       <c r="F564" s="0" t="s">
-        <v>1812</v>
+        <v>1822</v>
       </c>
       <c r="G564" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H564" s="0" t="s">
         <v>1782</v>
       </c>
       <c r="I564" s="0" t="s">
-        <v>1820</v>
+        <v>488</v>
       </c>
       <c r="J564" s="0" t="s">
         <v>297</v>
@@ -50469,13 +50469,13 @@
     </row>
     <row r="565">
       <c r="A565" s="0" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B565" s="0" t="s">
         <v>398</v>
       </c>
       <c r="C565" s="0" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="D565" s="0" t="s">
         <v>718</v>
@@ -50484,10 +50484,10 @@
         <v>1776</v>
       </c>
       <c r="F565" s="0" t="s">
-        <v>1822</v>
+        <v>1812</v>
       </c>
       <c r="G565" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H565" s="0" t="s">
         <v>1782</v>
@@ -50501,34 +50501,34 @@
     </row>
     <row r="566">
       <c r="A566" s="0" t="s">
-        <v>1460</v>
+        <v>1443</v>
       </c>
       <c r="B566" s="0" t="s">
-        <v>431</v>
+        <v>398</v>
       </c>
       <c r="C566" s="0" t="s">
-        <v>431</v>
+        <v>1444</v>
       </c>
       <c r="D566" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E566" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F566" s="0" t="s">
-        <v>1779</v>
+        <v>1822</v>
       </c>
       <c r="G566" s="0" t="s">
-        <v>742</v>
+        <v>318</v>
       </c>
       <c r="H566" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I566" s="0" t="s">
-        <v>24</v>
+        <v>1820</v>
       </c>
       <c r="J566" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="567">
@@ -50536,36 +50536,36 @@
         <v>1461</v>
       </c>
       <c r="B567" s="0" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C567" s="0" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D567" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E567" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F567" s="0" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="G567" s="0" t="s">
-        <v>318</v>
+        <v>742</v>
       </c>
       <c r="H567" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I567" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J567" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="0" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B568" s="0" t="s">
         <v>434</v>
@@ -50577,19 +50577,19 @@
         <v>718</v>
       </c>
       <c r="E568" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F568" s="0" t="s">
-        <v>1790</v>
+        <v>1777</v>
       </c>
       <c r="G568" s="0" t="s">
-        <v>742</v>
+        <v>318</v>
       </c>
       <c r="H568" s="0" t="s">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="I568" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J568" s="0" t="s">
         <v>297</v>
@@ -50597,31 +50597,31 @@
     </row>
     <row r="569">
       <c r="A569" s="0" t="s">
-        <v>1467</v>
+        <v>1462</v>
       </c>
       <c r="B569" s="0" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="C569" s="0" t="s">
-        <v>1468</v>
+        <v>434</v>
       </c>
       <c r="D569" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E569" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F569" s="0" t="s">
-        <v>1812</v>
+        <v>1790</v>
       </c>
       <c r="G569" s="0" t="s">
-        <v>148</v>
+        <v>742</v>
       </c>
       <c r="H569" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="I569" s="0" t="s">
-        <v>1820</v>
+        <v>24</v>
       </c>
       <c r="J569" s="0" t="s">
         <v>297</v>
@@ -50629,31 +50629,31 @@
     </row>
     <row r="570">
       <c r="A570" s="0" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B570" s="0" t="s">
         <v>448</v>
       </c>
       <c r="C570" s="0" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="D570" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E570" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F570" s="0" t="s">
-        <v>1790</v>
+        <v>1812</v>
       </c>
       <c r="G570" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H570" s="0" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="I570" s="0" t="s">
-        <v>24</v>
+        <v>1820</v>
       </c>
       <c r="J570" s="0" t="s">
         <v>297</v>
@@ -50661,31 +50661,31 @@
     </row>
     <row r="571">
       <c r="A571" s="0" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B571" s="0" t="s">
         <v>448</v>
       </c>
       <c r="C571" s="0" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D571" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E571" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F571" s="0" t="s">
-        <v>1812</v>
+        <v>1790</v>
       </c>
       <c r="G571" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H571" s="0" t="s">
-        <v>1782</v>
+        <v>217</v>
       </c>
       <c r="I571" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J571" s="0" t="s">
         <v>297</v>
@@ -50693,13 +50693,13 @@
     </row>
     <row r="572">
       <c r="A572" s="0" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B572" s="0" t="s">
         <v>448</v>
       </c>
       <c r="C572" s="0" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D572" s="0" t="s">
         <v>718</v>
@@ -50717,7 +50717,7 @@
         <v>1782</v>
       </c>
       <c r="I572" s="0" t="s">
-        <v>1820</v>
+        <v>488</v>
       </c>
       <c r="J572" s="0" t="s">
         <v>297</v>
@@ -50725,13 +50725,13 @@
     </row>
     <row r="573">
       <c r="A573" s="0" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B573" s="0" t="s">
         <v>448</v>
       </c>
       <c r="C573" s="0" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="D573" s="0" t="s">
         <v>718</v>
@@ -50749,7 +50749,7 @@
         <v>1782</v>
       </c>
       <c r="I573" s="0" t="s">
-        <v>1829</v>
+        <v>1820</v>
       </c>
       <c r="J573" s="0" t="s">
         <v>297</v>
@@ -50757,13 +50757,13 @@
     </row>
     <row r="574">
       <c r="A574" s="0" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B574" s="0" t="s">
         <v>448</v>
       </c>
       <c r="C574" s="0" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D574" s="0" t="s">
         <v>718</v>
@@ -50781,7 +50781,7 @@
         <v>1782</v>
       </c>
       <c r="I574" s="0" t="s">
-        <v>1821</v>
+        <v>1829</v>
       </c>
       <c r="J574" s="0" t="s">
         <v>297</v>
@@ -50789,13 +50789,13 @@
     </row>
     <row r="575">
       <c r="A575" s="0" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B575" s="0" t="s">
         <v>448</v>
       </c>
       <c r="C575" s="0" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="D575" s="0" t="s">
         <v>718</v>
@@ -50804,16 +50804,16 @@
         <v>1776</v>
       </c>
       <c r="F575" s="0" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="G575" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H575" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I575" s="0" t="s">
-        <v>1796</v>
+        <v>1821</v>
       </c>
       <c r="J575" s="0" t="s">
         <v>297</v>
@@ -50821,31 +50821,31 @@
     </row>
     <row r="576">
       <c r="A576" s="0" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B576" s="0" t="s">
         <v>448</v>
       </c>
       <c r="C576" s="0" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="D576" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E576" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F576" s="0" t="s">
-        <v>1779</v>
+        <v>1813</v>
       </c>
       <c r="G576" s="0" t="s">
-        <v>127</v>
+        <v>318</v>
       </c>
       <c r="H576" s="0" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="I576" s="0" t="s">
-        <v>24</v>
+        <v>1796</v>
       </c>
       <c r="J576" s="0" t="s">
         <v>297</v>
@@ -50853,31 +50853,31 @@
     </row>
     <row r="577">
       <c r="A577" s="0" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B577" s="0" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C577" s="0" t="s">
-        <v>454</v>
+        <v>1477</v>
       </c>
       <c r="D577" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E577" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F577" s="0" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="G577" s="0" t="s">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="H577" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I577" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J577" s="0" t="s">
         <v>297</v>
@@ -50885,28 +50885,28 @@
     </row>
     <row r="578">
       <c r="A578" s="0" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B578" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C578" s="0" t="s">
-        <v>1481</v>
+        <v>454</v>
       </c>
       <c r="D578" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E578" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F578" s="0" t="s">
-        <v>1808</v>
+        <v>1777</v>
       </c>
       <c r="G578" s="0" t="s">
-        <v>1786</v>
+        <v>318</v>
       </c>
       <c r="H578" s="0" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="I578" s="0" t="s">
         <v>488</v>
@@ -50917,13 +50917,13 @@
     </row>
     <row r="579">
       <c r="A579" s="0" t="s">
-        <v>1500</v>
+        <v>1481</v>
       </c>
       <c r="B579" s="0" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C579" s="0" t="s">
-        <v>1501</v>
+        <v>1482</v>
       </c>
       <c r="D579" s="0" t="s">
         <v>718</v>
@@ -50932,30 +50932,30 @@
         <v>1778</v>
       </c>
       <c r="F579" s="0" t="s">
-        <v>1779</v>
+        <v>1808</v>
       </c>
       <c r="G579" s="0" t="s">
         <v>1786</v>
       </c>
       <c r="H579" s="0" t="s">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="I579" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J579" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="0" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B580" s="0" t="s">
         <v>463</v>
       </c>
       <c r="C580" s="0" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="D580" s="0" t="s">
         <v>718</v>
@@ -50981,13 +50981,13 @@
     </row>
     <row r="581">
       <c r="A581" s="0" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B581" s="0" t="s">
         <v>463</v>
       </c>
       <c r="C581" s="0" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="D581" s="0" t="s">
         <v>718</v>
@@ -50999,10 +50999,10 @@
         <v>1779</v>
       </c>
       <c r="G581" s="0" t="s">
-        <v>127</v>
+        <v>1786</v>
       </c>
       <c r="H581" s="0" t="s">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="I581" s="0" t="s">
         <v>24</v>
@@ -51013,39 +51013,39 @@
     </row>
     <row r="582">
       <c r="A582" s="0" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B582" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="C582" s="0" t="s">
         <v>1506</v>
       </c>
-      <c r="B582" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="C582" s="0" t="s">
-        <v>466</v>
-      </c>
       <c r="D582" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E582" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F582" s="0" t="s">
-        <v>1792</v>
+        <v>1779</v>
       </c>
       <c r="G582" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H582" s="0" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="I582" s="0" t="s">
-        <v>243</v>
+        <v>24</v>
       </c>
       <c r="J582" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="0" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B583" s="0" t="s">
         <v>466</v>
@@ -51060,7 +51060,7 @@
         <v>1776</v>
       </c>
       <c r="F583" s="0" t="s">
-        <v>1822</v>
+        <v>1792</v>
       </c>
       <c r="G583" s="0" t="s">
         <v>148</v>
@@ -51069,7 +51069,7 @@
         <v>24</v>
       </c>
       <c r="I583" s="0" t="s">
-        <v>1782</v>
+        <v>243</v>
       </c>
       <c r="J583" s="0" t="s">
         <v>297</v>
@@ -51077,7 +51077,7 @@
     </row>
     <row r="584">
       <c r="A584" s="0" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B584" s="0" t="s">
         <v>466</v>
@@ -51089,19 +51089,19 @@
         <v>718</v>
       </c>
       <c r="E584" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F584" s="0" t="s">
-        <v>1789</v>
+        <v>1822</v>
       </c>
       <c r="G584" s="0" t="s">
-        <v>889</v>
+        <v>148</v>
       </c>
       <c r="H584" s="0" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="I584" s="0" t="s">
-        <v>24</v>
+        <v>1782</v>
       </c>
       <c r="J584" s="0" t="s">
         <v>297</v>
@@ -51112,28 +51112,28 @@
         <v>1507</v>
       </c>
       <c r="B585" s="0" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C585" s="0" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D585" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E585" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F585" s="0" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="G585" s="0" t="s">
-        <v>148</v>
+        <v>889</v>
       </c>
       <c r="H585" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I585" s="0" t="s">
-        <v>1903</v>
+        <v>24</v>
       </c>
       <c r="J585" s="0" t="s">
         <v>297</v>
@@ -51141,7 +51141,7 @@
     </row>
     <row r="586">
       <c r="A586" s="0" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B586" s="0" t="s">
         <v>469</v>
@@ -51153,19 +51153,19 @@
         <v>718</v>
       </c>
       <c r="E586" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F586" s="0" t="s">
-        <v>1808</v>
+        <v>1792</v>
       </c>
       <c r="G586" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H586" s="0" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="I586" s="0" t="s">
-        <v>488</v>
+        <v>1903</v>
       </c>
       <c r="J586" s="0" t="s">
         <v>297</v>
@@ -51173,7 +51173,7 @@
     </row>
     <row r="587">
       <c r="A587" s="0" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B587" s="0" t="s">
         <v>469</v>
@@ -51188,16 +51188,16 @@
         <v>1778</v>
       </c>
       <c r="F587" s="0" t="s">
-        <v>1814</v>
+        <v>1808</v>
       </c>
       <c r="G587" s="0" t="s">
-        <v>889</v>
+        <v>148</v>
       </c>
       <c r="H587" s="0" t="s">
         <v>217</v>
       </c>
       <c r="I587" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J587" s="0" t="s">
         <v>297</v>
@@ -51208,28 +51208,28 @@
         <v>1508</v>
       </c>
       <c r="B588" s="0" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C588" s="0" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D588" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E588" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F588" s="0" t="s">
-        <v>1822</v>
+        <v>1814</v>
       </c>
       <c r="G588" s="0" t="s">
         <v>889</v>
       </c>
       <c r="H588" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I588" s="0" t="s">
-        <v>1782</v>
+        <v>24</v>
       </c>
       <c r="J588" s="0" t="s">
         <v>297</v>
@@ -51237,7 +51237,7 @@
     </row>
     <row r="589">
       <c r="A589" s="0" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B589" s="0" t="s">
         <v>472</v>
@@ -51249,19 +51249,19 @@
         <v>718</v>
       </c>
       <c r="E589" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F589" s="0" t="s">
-        <v>1838</v>
+        <v>1822</v>
       </c>
       <c r="G589" s="0" t="s">
-        <v>148</v>
+        <v>889</v>
       </c>
       <c r="H589" s="0" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="I589" s="0" t="s">
-        <v>24</v>
+        <v>1782</v>
       </c>
       <c r="J589" s="0" t="s">
         <v>297</v>
@@ -51269,31 +51269,31 @@
     </row>
     <row r="590">
       <c r="A590" s="0" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B590" s="0" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C590" s="0" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D590" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E590" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F590" s="0" t="s">
-        <v>1822</v>
+        <v>1838</v>
       </c>
       <c r="G590" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H590" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I590" s="0" t="s">
-        <v>1818</v>
+        <v>24</v>
       </c>
       <c r="J590" s="0" t="s">
         <v>297</v>
@@ -51301,77 +51301,77 @@
     </row>
     <row r="591">
       <c r="A591" s="0" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B591" s="0" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C591" s="0" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D591" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E591" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F591" s="0" t="s">
-        <v>1779</v>
+        <v>1822</v>
       </c>
       <c r="G591" s="0" t="s">
-        <v>889</v>
+        <v>318</v>
       </c>
       <c r="H591" s="0" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="I591" s="0" t="s">
-        <v>24</v>
+        <v>1818</v>
       </c>
       <c r="J591" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="0" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="B592" s="0" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C592" s="0" t="s">
-        <v>1514</v>
+        <v>478</v>
       </c>
       <c r="D592" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E592" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F592" s="0" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="G592" s="0" t="s">
-        <v>148</v>
+        <v>889</v>
       </c>
       <c r="H592" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I592" s="0" t="s">
-        <v>1796</v>
+        <v>24</v>
       </c>
       <c r="J592" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="0" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="B593" s="0" t="s">
         <v>481</v>
       </c>
       <c r="C593" s="0" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="D593" s="0" t="s">
         <v>718</v>
@@ -51386,10 +51386,10 @@
         <v>148</v>
       </c>
       <c r="H593" s="0" t="s">
-        <v>1782</v>
+        <v>24</v>
       </c>
       <c r="I593" s="0" t="s">
-        <v>62</v>
+        <v>1796</v>
       </c>
       <c r="J593" s="0" t="s">
         <v>297</v>
@@ -51397,13 +51397,13 @@
     </row>
     <row r="594">
       <c r="A594" s="0" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="B594" s="0" t="s">
         <v>481</v>
       </c>
       <c r="C594" s="0" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="D594" s="0" t="s">
         <v>718</v>
@@ -51421,7 +51421,7 @@
         <v>1782</v>
       </c>
       <c r="I594" s="0" t="s">
-        <v>1818</v>
+        <v>62</v>
       </c>
       <c r="J594" s="0" t="s">
         <v>297</v>
@@ -51444,16 +51444,16 @@
         <v>1776</v>
       </c>
       <c r="F595" s="0" t="s">
-        <v>1792</v>
+        <v>1777</v>
       </c>
       <c r="G595" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H595" s="0" t="s">
         <v>1782</v>
       </c>
       <c r="I595" s="0" t="s">
-        <v>721</v>
+        <v>1818</v>
       </c>
       <c r="J595" s="0" t="s">
         <v>297</v>
@@ -51461,13 +51461,13 @@
     </row>
     <row r="596">
       <c r="A596" s="0" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="B596" s="0" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C596" s="0" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="D596" s="0" t="s">
         <v>718</v>
@@ -51476,16 +51476,16 @@
         <v>1776</v>
       </c>
       <c r="F596" s="0" t="s">
-        <v>1812</v>
+        <v>1792</v>
       </c>
       <c r="G596" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H596" s="0" t="s">
-        <v>24</v>
+        <v>1782</v>
       </c>
       <c r="I596" s="0" t="s">
-        <v>1796</v>
+        <v>721</v>
       </c>
       <c r="J596" s="0" t="s">
         <v>297</v>
@@ -51508,13 +51508,13 @@
         <v>1776</v>
       </c>
       <c r="F597" s="0" t="s">
-        <v>1795</v>
+        <v>1812</v>
       </c>
       <c r="G597" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H597" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I597" s="0" t="s">
         <v>1796</v>
@@ -51525,13 +51525,13 @@
     </row>
     <row r="598">
       <c r="A598" s="0" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="B598" s="0" t="s">
         <v>487</v>
       </c>
       <c r="C598" s="0" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="D598" s="0" t="s">
         <v>718</v>
@@ -51540,16 +51540,16 @@
         <v>1776</v>
       </c>
       <c r="F598" s="0" t="s">
-        <v>1777</v>
+        <v>1795</v>
       </c>
       <c r="G598" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H598" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I598" s="0" t="s">
-        <v>62</v>
+        <v>1796</v>
       </c>
       <c r="J598" s="0" t="s">
         <v>297</v>
@@ -51572,13 +51572,13 @@
         <v>1776</v>
       </c>
       <c r="F599" s="0" t="s">
-        <v>1795</v>
+        <v>1777</v>
       </c>
       <c r="G599" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H599" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I599" s="0" t="s">
         <v>62</v>
@@ -51589,13 +51589,13 @@
     </row>
     <row r="600">
       <c r="A600" s="0" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="B600" s="0" t="s">
         <v>487</v>
       </c>
       <c r="C600" s="0" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="D600" s="0" t="s">
         <v>718</v>
@@ -51604,16 +51604,16 @@
         <v>1776</v>
       </c>
       <c r="F600" s="0" t="s">
-        <v>1777</v>
+        <v>1795</v>
       </c>
       <c r="G600" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H600" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I600" s="0" t="s">
-        <v>1818</v>
+        <v>62</v>
       </c>
       <c r="J600" s="0" t="s">
         <v>297</v>
@@ -51636,13 +51636,13 @@
         <v>1776</v>
       </c>
       <c r="F601" s="0" t="s">
-        <v>1795</v>
+        <v>1777</v>
       </c>
       <c r="G601" s="0" t="s">
-        <v>1796</v>
+        <v>148</v>
       </c>
       <c r="H601" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I601" s="0" t="s">
         <v>1818</v>
@@ -51653,13 +51653,13 @@
     </row>
     <row r="602">
       <c r="A602" s="0" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="B602" s="0" t="s">
         <v>487</v>
       </c>
       <c r="C602" s="0" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="D602" s="0" t="s">
         <v>718</v>
@@ -51668,16 +51668,16 @@
         <v>1776</v>
       </c>
       <c r="F602" s="0" t="s">
-        <v>1777</v>
+        <v>1795</v>
       </c>
       <c r="G602" s="0" t="s">
-        <v>148</v>
+        <v>1796</v>
       </c>
       <c r="H602" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I602" s="0" t="s">
-        <v>488</v>
+        <v>1818</v>
       </c>
       <c r="J602" s="0" t="s">
         <v>297</v>
@@ -51700,13 +51700,13 @@
         <v>1776</v>
       </c>
       <c r="F603" s="0" t="s">
-        <v>1795</v>
+        <v>1777</v>
       </c>
       <c r="G603" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H603" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I603" s="0" t="s">
         <v>488</v>
@@ -51717,13 +51717,13 @@
     </row>
     <row r="604">
       <c r="A604" s="0" t="s">
-        <v>1532</v>
+        <v>1527</v>
       </c>
       <c r="B604" s="0" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="C604" s="0" t="s">
-        <v>1533</v>
+        <v>1528</v>
       </c>
       <c r="D604" s="0" t="s">
         <v>718</v>
@@ -51732,16 +51732,16 @@
         <v>1776</v>
       </c>
       <c r="F604" s="0" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
       <c r="G604" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H604" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I604" s="0" t="s">
-        <v>1904</v>
+        <v>488</v>
       </c>
       <c r="J604" s="0" t="s">
         <v>297</v>
@@ -51749,13 +51749,13 @@
     </row>
     <row r="605">
       <c r="A605" s="0" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="B605" s="0" t="s">
         <v>494</v>
       </c>
       <c r="C605" s="0" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="D605" s="0" t="s">
         <v>718</v>
@@ -51764,16 +51764,16 @@
         <v>1776</v>
       </c>
       <c r="F605" s="0" t="s">
-        <v>1777</v>
+        <v>1792</v>
       </c>
       <c r="G605" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H605" s="0" t="s">
-        <v>1782</v>
+        <v>24</v>
       </c>
       <c r="I605" s="0" t="s">
-        <v>62</v>
+        <v>1904</v>
       </c>
       <c r="J605" s="0" t="s">
         <v>297</v>
@@ -51793,19 +51793,19 @@
         <v>718</v>
       </c>
       <c r="E606" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F606" s="0" t="s">
-        <v>1808</v>
+        <v>1777</v>
       </c>
       <c r="G606" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H606" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I606" s="0" t="s">
-        <v>1796</v>
+        <v>62</v>
       </c>
       <c r="J606" s="0" t="s">
         <v>297</v>
@@ -51813,31 +51813,31 @@
     </row>
     <row r="607">
       <c r="A607" s="0" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="B607" s="0" t="s">
         <v>494</v>
       </c>
       <c r="C607" s="0" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="D607" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E607" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F607" s="0" t="s">
-        <v>1791</v>
+        <v>1808</v>
       </c>
       <c r="G607" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H607" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I607" s="0" t="s">
-        <v>1818</v>
+        <v>1796</v>
       </c>
       <c r="J607" s="0" t="s">
         <v>297</v>
@@ -51857,19 +51857,19 @@
         <v>718</v>
       </c>
       <c r="E608" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F608" s="0" t="s">
-        <v>1779</v>
+        <v>1791</v>
       </c>
       <c r="G608" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H608" s="0" t="s">
-        <v>231</v>
+        <v>1782</v>
       </c>
       <c r="I608" s="0" t="s">
-        <v>24</v>
+        <v>1818</v>
       </c>
       <c r="J608" s="0" t="s">
         <v>297</v>
@@ -51877,31 +51877,31 @@
     </row>
     <row r="609">
       <c r="A609" s="0" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="B609" s="0" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C609" s="0" t="s">
-        <v>497</v>
+        <v>1538</v>
       </c>
       <c r="D609" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E609" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F609" s="0" t="s">
-        <v>1792</v>
+        <v>1779</v>
       </c>
       <c r="G609" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H609" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="I609" s="0" t="s">
-        <v>1905</v>
+        <v>24</v>
       </c>
       <c r="J609" s="0" t="s">
         <v>297</v>
@@ -51909,13 +51909,13 @@
     </row>
     <row r="610">
       <c r="A610" s="0" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B610" s="0" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C610" s="0" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D610" s="0" t="s">
         <v>718</v>
@@ -51933,7 +51933,7 @@
         <v>24</v>
       </c>
       <c r="I610" s="0" t="s">
-        <v>334</v>
+        <v>1905</v>
       </c>
       <c r="J610" s="0" t="s">
         <v>297</v>
@@ -51941,13 +51941,13 @@
     </row>
     <row r="611">
       <c r="A611" s="0" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="B611" s="0" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C611" s="0" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D611" s="0" t="s">
         <v>718</v>
@@ -51965,7 +51965,7 @@
         <v>24</v>
       </c>
       <c r="I611" s="0" t="s">
-        <v>1906</v>
+        <v>334</v>
       </c>
       <c r="J611" s="0" t="s">
         <v>297</v>
@@ -51985,54 +51985,54 @@
         <v>718</v>
       </c>
       <c r="E612" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F612" s="0" t="s">
-        <v>1779</v>
+        <v>1792</v>
       </c>
       <c r="G612" s="0" t="s">
-        <v>889</v>
+        <v>148</v>
       </c>
       <c r="H612" s="0" t="s">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="I612" s="0" t="s">
-        <v>24</v>
+        <v>1906</v>
       </c>
       <c r="J612" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="0" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B613" s="0" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C613" s="0" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D613" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E613" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F613" s="0" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="G613" s="0" t="s">
-        <v>318</v>
+        <v>889</v>
       </c>
       <c r="H613" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="I613" s="0" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="J613" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="614">
@@ -52049,19 +52049,19 @@
         <v>718</v>
       </c>
       <c r="E614" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F614" s="0" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
       <c r="G614" s="0" t="s">
         <v>318</v>
       </c>
       <c r="H614" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I614" s="0" t="s">
-        <v>488</v>
+        <v>62</v>
       </c>
       <c r="J614" s="0" t="s">
         <v>297</v>
@@ -52069,13 +52069,13 @@
     </row>
     <row r="615">
       <c r="A615" s="0" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="B615" s="0" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C615" s="0" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D615" s="0" t="s">
         <v>718</v>
@@ -52084,16 +52084,16 @@
         <v>1778</v>
       </c>
       <c r="F615" s="0" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="G615" s="0" t="s">
-        <v>802</v>
+        <v>318</v>
       </c>
       <c r="H615" s="0" t="s">
-        <v>231</v>
+        <v>163</v>
       </c>
       <c r="I615" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J615" s="0" t="s">
         <v>297</v>
@@ -52101,31 +52101,31 @@
     </row>
     <row r="616">
       <c r="A616" s="0" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="B616" s="0" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C616" s="0" t="s">
-        <v>1549</v>
+        <v>509</v>
       </c>
       <c r="D616" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E616" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F616" s="0" t="s">
-        <v>1812</v>
+        <v>1789</v>
       </c>
       <c r="G616" s="0" t="s">
-        <v>148</v>
+        <v>802</v>
       </c>
       <c r="H616" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="I616" s="0" t="s">
-        <v>1796</v>
+        <v>24</v>
       </c>
       <c r="J616" s="0" t="s">
         <v>297</v>
@@ -52133,13 +52133,13 @@
     </row>
     <row r="617">
       <c r="A617" s="0" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="B617" s="0" t="s">
         <v>512</v>
       </c>
       <c r="C617" s="0" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="D617" s="0" t="s">
         <v>718</v>
@@ -52148,16 +52148,16 @@
         <v>1776</v>
       </c>
       <c r="F617" s="0" t="s">
-        <v>1777</v>
+        <v>1812</v>
       </c>
       <c r="G617" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H617" s="0" t="s">
-        <v>1782</v>
+        <v>24</v>
       </c>
       <c r="I617" s="0" t="s">
-        <v>232</v>
+        <v>1796</v>
       </c>
       <c r="J617" s="0" t="s">
         <v>297</v>
@@ -52165,13 +52165,13 @@
     </row>
     <row r="618">
       <c r="A618" s="0" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="B618" s="0" t="s">
         <v>512</v>
       </c>
       <c r="C618" s="0" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="D618" s="0" t="s">
         <v>718</v>
@@ -52189,7 +52189,7 @@
         <v>1782</v>
       </c>
       <c r="I618" s="0" t="s">
-        <v>488</v>
+        <v>232</v>
       </c>
       <c r="J618" s="0" t="s">
         <v>297</v>
@@ -52197,16 +52197,16 @@
     </row>
     <row r="619">
       <c r="A619" s="0" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="B619" s="0" t="s">
         <v>512</v>
       </c>
       <c r="C619" s="0" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="D619" s="0" t="s">
-        <v>1554</v>
+        <v>718</v>
       </c>
       <c r="E619" s="0" t="s">
         <v>1776</v>
@@ -52221,7 +52221,7 @@
         <v>1782</v>
       </c>
       <c r="I619" s="0" t="s">
-        <v>1782</v>
+        <v>488</v>
       </c>
       <c r="J619" s="0" t="s">
         <v>297</v>
@@ -52229,13 +52229,13 @@
     </row>
     <row r="620">
       <c r="A620" s="0" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="B620" s="0" t="s">
         <v>512</v>
       </c>
       <c r="C620" s="0" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="D620" s="0" t="s">
         <v>1554</v>
@@ -52253,7 +52253,7 @@
         <v>1782</v>
       </c>
       <c r="I620" s="0" t="s">
-        <v>231</v>
+        <v>1782</v>
       </c>
       <c r="J620" s="0" t="s">
         <v>297</v>
@@ -52261,16 +52261,16 @@
     </row>
     <row r="621">
       <c r="A621" s="0" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="B621" s="0" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="C621" s="0" t="s">
-        <v>522</v>
+        <v>1558</v>
       </c>
       <c r="D621" s="0" t="s">
-        <v>718</v>
+        <v>1554</v>
       </c>
       <c r="E621" s="0" t="s">
         <v>1776</v>
@@ -52279,13 +52279,13 @@
         <v>1777</v>
       </c>
       <c r="G621" s="0" t="s">
-        <v>742</v>
+        <v>148</v>
       </c>
       <c r="H621" s="0" t="s">
-        <v>24</v>
+        <v>1782</v>
       </c>
       <c r="I621" s="0" t="s">
-        <v>62</v>
+        <v>231</v>
       </c>
       <c r="J621" s="0" t="s">
         <v>297</v>
@@ -52293,31 +52293,31 @@
     </row>
     <row r="622">
       <c r="A622" s="0" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B622" s="0" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C622" s="0" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D622" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E622" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F622" s="0" t="s">
-        <v>1814</v>
+        <v>1777</v>
       </c>
       <c r="G622" s="0" t="s">
-        <v>148</v>
+        <v>742</v>
       </c>
       <c r="H622" s="0" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="I622" s="0" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="J622" s="0" t="s">
         <v>297</v>
@@ -52325,13 +52325,13 @@
     </row>
     <row r="623">
       <c r="A623" s="0" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="B623" s="0" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C623" s="0" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D623" s="0" t="s">
         <v>718</v>
@@ -52340,62 +52340,62 @@
         <v>1778</v>
       </c>
       <c r="F623" s="0" t="s">
-        <v>1779</v>
+        <v>1814</v>
       </c>
       <c r="G623" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H623" s="0" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="I623" s="0" t="s">
         <v>24</v>
       </c>
       <c r="J623" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="0" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="B624" s="0" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C624" s="0" t="s">
-        <v>1568</v>
+        <v>531</v>
       </c>
       <c r="D624" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E624" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F624" s="0" t="s">
-        <v>1812</v>
+        <v>1779</v>
       </c>
       <c r="G624" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H624" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I624" s="0" t="s">
-        <v>1805</v>
+        <v>24</v>
       </c>
       <c r="J624" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="0" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="B625" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C625" s="0" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="D625" s="0" t="s">
         <v>718</v>
@@ -52410,10 +52410,10 @@
         <v>148</v>
       </c>
       <c r="H625" s="0" t="s">
-        <v>1782</v>
+        <v>24</v>
       </c>
       <c r="I625" s="0" t="s">
-        <v>62</v>
+        <v>1805</v>
       </c>
       <c r="J625" s="0" t="s">
         <v>297</v>
@@ -52421,13 +52421,13 @@
     </row>
     <row r="626">
       <c r="A626" s="0" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="B626" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C626" s="0" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="D626" s="0" t="s">
         <v>718</v>
@@ -52445,7 +52445,7 @@
         <v>1782</v>
       </c>
       <c r="I626" s="0" t="s">
-        <v>1819</v>
+        <v>62</v>
       </c>
       <c r="J626" s="0" t="s">
         <v>297</v>
@@ -52453,16 +52453,16 @@
     </row>
     <row r="627">
       <c r="A627" s="0" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="B627" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C627" s="0" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="D627" s="0" t="s">
-        <v>1572</v>
+        <v>718</v>
       </c>
       <c r="E627" s="0" t="s">
         <v>1776</v>
@@ -52477,7 +52477,7 @@
         <v>1782</v>
       </c>
       <c r="I627" s="0" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="J627" s="0" t="s">
         <v>297</v>
@@ -52497,19 +52497,19 @@
         <v>1572</v>
       </c>
       <c r="E628" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F628" s="0" t="s">
-        <v>1790</v>
+        <v>1812</v>
       </c>
       <c r="G628" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H628" s="0" t="s">
-        <v>217</v>
+        <v>1782</v>
       </c>
       <c r="I628" s="0" t="s">
-        <v>24</v>
+        <v>1820</v>
       </c>
       <c r="J628" s="0" t="s">
         <v>297</v>
@@ -52517,31 +52517,31 @@
     </row>
     <row r="629">
       <c r="A629" s="0" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="B629" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C629" s="0" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="D629" s="0" t="s">
-        <v>718</v>
+        <v>1572</v>
       </c>
       <c r="E629" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F629" s="0" t="s">
-        <v>1812</v>
+        <v>1790</v>
       </c>
       <c r="G629" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H629" s="0" t="s">
-        <v>1782</v>
+        <v>217</v>
       </c>
       <c r="I629" s="0" t="s">
-        <v>1820</v>
+        <v>24</v>
       </c>
       <c r="J629" s="0" t="s">
         <v>297</v>
@@ -52549,16 +52549,16 @@
     </row>
     <row r="630">
       <c r="A630" s="0" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="B630" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C630" s="0" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D630" s="0" t="s">
-        <v>1576</v>
+        <v>718</v>
       </c>
       <c r="E630" s="0" t="s">
         <v>1776</v>
@@ -52573,7 +52573,7 @@
         <v>1782</v>
       </c>
       <c r="I630" s="0" t="s">
-        <v>1840</v>
+        <v>1820</v>
       </c>
       <c r="J630" s="0" t="s">
         <v>297</v>
@@ -52593,19 +52593,19 @@
         <v>1576</v>
       </c>
       <c r="E631" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F631" s="0" t="s">
-        <v>1790</v>
+        <v>1812</v>
       </c>
       <c r="G631" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H631" s="0" t="s">
-        <v>81</v>
+        <v>1782</v>
       </c>
       <c r="I631" s="0" t="s">
-        <v>24</v>
+        <v>1840</v>
       </c>
       <c r="J631" s="0" t="s">
         <v>297</v>
@@ -52613,31 +52613,31 @@
     </row>
     <row r="632">
       <c r="A632" s="0" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="B632" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C632" s="0" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="D632" s="0" t="s">
-        <v>718</v>
+        <v>1576</v>
       </c>
       <c r="E632" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F632" s="0" t="s">
-        <v>1812</v>
+        <v>1790</v>
       </c>
       <c r="G632" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H632" s="0" t="s">
-        <v>1782</v>
+        <v>81</v>
       </c>
       <c r="I632" s="0" t="s">
-        <v>1840</v>
+        <v>24</v>
       </c>
       <c r="J632" s="0" t="s">
         <v>297</v>
@@ -52645,16 +52645,16 @@
     </row>
     <row r="633">
       <c r="A633" s="0" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="B633" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C633" s="0" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="D633" s="0" t="s">
-        <v>1580</v>
+        <v>718</v>
       </c>
       <c r="E633" s="0" t="s">
         <v>1776</v>
@@ -52669,7 +52669,7 @@
         <v>1782</v>
       </c>
       <c r="I633" s="0" t="s">
-        <v>1782</v>
+        <v>1840</v>
       </c>
       <c r="J633" s="0" t="s">
         <v>297</v>
@@ -52689,19 +52689,19 @@
         <v>1580</v>
       </c>
       <c r="E634" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F634" s="0" t="s">
-        <v>1790</v>
+        <v>1812</v>
       </c>
       <c r="G634" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H634" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I634" s="0" t="s">
-        <v>24</v>
+        <v>1782</v>
       </c>
       <c r="J634" s="0" t="s">
         <v>297</v>
@@ -52709,31 +52709,31 @@
     </row>
     <row r="635">
       <c r="A635" s="0" t="s">
-        <v>1586</v>
+        <v>1581</v>
       </c>
       <c r="B635" s="0" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C635" s="0" t="s">
-        <v>1587</v>
+        <v>1582</v>
       </c>
       <c r="D635" s="0" t="s">
-        <v>718</v>
+        <v>1580</v>
       </c>
       <c r="E635" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F635" s="0" t="s">
-        <v>1777</v>
+        <v>1790</v>
       </c>
       <c r="G635" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H635" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I635" s="0" t="s">
-        <v>1796</v>
+        <v>24</v>
       </c>
       <c r="J635" s="0" t="s">
         <v>297</v>
@@ -52741,13 +52741,13 @@
     </row>
     <row r="636">
       <c r="A636" s="0" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="B636" s="0" t="s">
         <v>549</v>
       </c>
       <c r="C636" s="0" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="D636" s="0" t="s">
         <v>718</v>
@@ -52762,10 +52762,10 @@
         <v>148</v>
       </c>
       <c r="H636" s="0" t="s">
-        <v>1782</v>
+        <v>24</v>
       </c>
       <c r="I636" s="0" t="s">
-        <v>1818</v>
+        <v>1796</v>
       </c>
       <c r="J636" s="0" t="s">
         <v>297</v>
@@ -52773,13 +52773,13 @@
     </row>
     <row r="637">
       <c r="A637" s="0" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="B637" s="0" t="s">
         <v>549</v>
       </c>
       <c r="C637" s="0" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D637" s="0" t="s">
         <v>718</v>
@@ -52797,7 +52797,7 @@
         <v>1782</v>
       </c>
       <c r="I637" s="0" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="J637" s="0" t="s">
         <v>297</v>
@@ -52805,13 +52805,13 @@
     </row>
     <row r="638">
       <c r="A638" s="0" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="B638" s="0" t="s">
         <v>549</v>
       </c>
       <c r="C638" s="0" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="D638" s="0" t="s">
         <v>718</v>
@@ -52829,7 +52829,7 @@
         <v>1782</v>
       </c>
       <c r="I638" s="0" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="J638" s="0" t="s">
         <v>297</v>
@@ -52837,13 +52837,13 @@
     </row>
     <row r="639">
       <c r="A639" s="0" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="B639" s="0" t="s">
         <v>549</v>
       </c>
       <c r="C639" s="0" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="D639" s="0" t="s">
         <v>718</v>
@@ -52861,7 +52861,7 @@
         <v>1782</v>
       </c>
       <c r="I639" s="0" t="s">
-        <v>1782</v>
+        <v>1821</v>
       </c>
       <c r="J639" s="0" t="s">
         <v>297</v>
@@ -52881,19 +52881,19 @@
         <v>718</v>
       </c>
       <c r="E640" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F640" s="0" t="s">
-        <v>1785</v>
+        <v>1777</v>
       </c>
       <c r="G640" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H640" s="0" t="s">
-        <v>217</v>
+        <v>1782</v>
       </c>
       <c r="I640" s="0" t="s">
-        <v>24</v>
+        <v>1782</v>
       </c>
       <c r="J640" s="0" t="s">
         <v>297</v>
@@ -52901,31 +52901,31 @@
     </row>
     <row r="641">
       <c r="A641" s="0" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="B641" s="0" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="C641" s="0" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="D641" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E641" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F641" s="0" t="s">
-        <v>1812</v>
+        <v>1785</v>
       </c>
       <c r="G641" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H641" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I641" s="0" t="s">
-        <v>1796</v>
+        <v>24</v>
       </c>
       <c r="J641" s="0" t="s">
         <v>297</v>
@@ -52933,13 +52933,13 @@
     </row>
     <row r="642">
       <c r="A642" s="0" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="B642" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C642" s="0" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="D642" s="0" t="s">
         <v>718</v>
@@ -52954,10 +52954,10 @@
         <v>148</v>
       </c>
       <c r="H642" s="0" t="s">
-        <v>1782</v>
+        <v>24</v>
       </c>
       <c r="I642" s="0" t="s">
-        <v>1818</v>
+        <v>1796</v>
       </c>
       <c r="J642" s="0" t="s">
         <v>297</v>
@@ -52965,13 +52965,13 @@
     </row>
     <row r="643">
       <c r="A643" s="0" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="B643" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C643" s="0" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="D643" s="0" t="s">
         <v>718</v>
@@ -52989,7 +52989,7 @@
         <v>1782</v>
       </c>
       <c r="I643" s="0" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="J643" s="0" t="s">
         <v>297</v>
@@ -52997,13 +52997,13 @@
     </row>
     <row r="644">
       <c r="A644" s="0" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="B644" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C644" s="0" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="D644" s="0" t="s">
         <v>718</v>
@@ -53021,7 +53021,7 @@
         <v>1782</v>
       </c>
       <c r="I644" s="0" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="J644" s="0" t="s">
         <v>297</v>
@@ -53029,13 +53029,13 @@
     </row>
     <row r="645">
       <c r="A645" s="0" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="B645" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C645" s="0" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="D645" s="0" t="s">
         <v>718</v>
@@ -53053,7 +53053,7 @@
         <v>1782</v>
       </c>
       <c r="I645" s="0" t="s">
-        <v>1782</v>
+        <v>1821</v>
       </c>
       <c r="J645" s="0" t="s">
         <v>297</v>
@@ -53061,16 +53061,16 @@
     </row>
     <row r="646">
       <c r="A646" s="0" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="B646" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C646" s="0" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="D646" s="0" t="s">
-        <v>1607</v>
+        <v>718</v>
       </c>
       <c r="E646" s="0" t="s">
         <v>1776</v>
@@ -53085,7 +53085,7 @@
         <v>1782</v>
       </c>
       <c r="I646" s="0" t="s">
-        <v>1907</v>
+        <v>1782</v>
       </c>
       <c r="J646" s="0" t="s">
         <v>297</v>
@@ -53105,19 +53105,19 @@
         <v>1607</v>
       </c>
       <c r="E647" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F647" s="0" t="s">
-        <v>1824</v>
+        <v>1812</v>
       </c>
       <c r="G647" s="0" t="s">
-        <v>889</v>
+        <v>148</v>
       </c>
       <c r="H647" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I647" s="0" t="s">
-        <v>1810</v>
+        <v>1907</v>
       </c>
       <c r="J647" s="0" t="s">
         <v>297</v>
@@ -53125,31 +53125,31 @@
     </row>
     <row r="648">
       <c r="A648" s="0" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="B648" s="0" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="C648" s="0" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="D648" s="0" t="s">
-        <v>718</v>
+        <v>1607</v>
       </c>
       <c r="E648" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F648" s="0" t="s">
-        <v>1812</v>
+        <v>1824</v>
       </c>
       <c r="G648" s="0" t="s">
-        <v>148</v>
+        <v>889</v>
       </c>
       <c r="H648" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I648" s="0" t="s">
-        <v>1803</v>
+        <v>1810</v>
       </c>
       <c r="J648" s="0" t="s">
         <v>297</v>
@@ -53172,16 +53172,16 @@
         <v>1776</v>
       </c>
       <c r="F649" s="0" t="s">
-        <v>1862</v>
+        <v>1812</v>
       </c>
       <c r="G649" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H649" s="0" t="s">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="I649" s="0" t="s">
-        <v>488</v>
+        <v>1803</v>
       </c>
       <c r="J649" s="0" t="s">
         <v>297</v>
@@ -53189,13 +53189,13 @@
     </row>
     <row r="650">
       <c r="A650" s="0" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B650" s="0" t="s">
         <v>567</v>
       </c>
       <c r="C650" s="0" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="D650" s="0" t="s">
         <v>718</v>
@@ -53204,16 +53204,16 @@
         <v>1776</v>
       </c>
       <c r="F650" s="0" t="s">
-        <v>1812</v>
+        <v>1862</v>
       </c>
       <c r="G650" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H650" s="0" t="s">
-        <v>1782</v>
+        <v>231</v>
       </c>
       <c r="I650" s="0" t="s">
-        <v>1796</v>
+        <v>488</v>
       </c>
       <c r="J650" s="0" t="s">
         <v>297</v>
@@ -53236,13 +53236,13 @@
         <v>1776</v>
       </c>
       <c r="F651" s="0" t="s">
-        <v>1862</v>
+        <v>1812</v>
       </c>
       <c r="G651" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H651" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I651" s="0" t="s">
         <v>1796</v>
@@ -53253,13 +53253,13 @@
     </row>
     <row r="652">
       <c r="A652" s="0" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="B652" s="0" t="s">
         <v>567</v>
       </c>
       <c r="C652" s="0" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="D652" s="0" t="s">
         <v>718</v>
@@ -53268,16 +53268,16 @@
         <v>1776</v>
       </c>
       <c r="F652" s="0" t="s">
-        <v>1812</v>
+        <v>1862</v>
       </c>
       <c r="G652" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H652" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I652" s="0" t="s">
-        <v>62</v>
+        <v>1796</v>
       </c>
       <c r="J652" s="0" t="s">
         <v>297</v>
@@ -53300,13 +53300,13 @@
         <v>1776</v>
       </c>
       <c r="F653" s="0" t="s">
-        <v>1862</v>
+        <v>1812</v>
       </c>
       <c r="G653" s="0" t="s">
-        <v>802</v>
+        <v>148</v>
       </c>
       <c r="H653" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I653" s="0" t="s">
         <v>62</v>
@@ -53317,31 +53317,31 @@
     </row>
     <row r="654">
       <c r="A654" s="0" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="B654" s="0" t="s">
         <v>567</v>
       </c>
       <c r="C654" s="0" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="D654" s="0" t="s">
-        <v>1617</v>
+        <v>718</v>
       </c>
       <c r="E654" s="0" t="s">
         <v>1776</v>
       </c>
       <c r="F654" s="0" t="s">
-        <v>1812</v>
+        <v>1862</v>
       </c>
       <c r="G654" s="0" t="s">
-        <v>148</v>
+        <v>802</v>
       </c>
       <c r="H654" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I654" s="0" t="s">
-        <v>1818</v>
+        <v>62</v>
       </c>
       <c r="J654" s="0" t="s">
         <v>297</v>
@@ -53364,13 +53364,13 @@
         <v>1776</v>
       </c>
       <c r="F655" s="0" t="s">
-        <v>1862</v>
+        <v>1812</v>
       </c>
       <c r="G655" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H655" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I655" s="0" t="s">
         <v>1818</v>
@@ -53381,31 +53381,31 @@
     </row>
     <row r="656">
       <c r="A656" s="0" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="B656" s="0" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C656" s="0" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="D656" s="0" t="s">
-        <v>718</v>
+        <v>1617</v>
       </c>
       <c r="E656" s="0" t="s">
         <v>1776</v>
       </c>
       <c r="F656" s="0" t="s">
-        <v>1812</v>
+        <v>1862</v>
       </c>
       <c r="G656" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H656" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I656" s="0" t="s">
-        <v>1805</v>
+        <v>1818</v>
       </c>
       <c r="J656" s="0" t="s">
         <v>297</v>
@@ -53413,13 +53413,13 @@
     </row>
     <row r="657">
       <c r="A657" s="0" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="B657" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C657" s="0" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="D657" s="0" t="s">
         <v>718</v>
@@ -53434,10 +53434,10 @@
         <v>148</v>
       </c>
       <c r="H657" s="0" t="s">
-        <v>1782</v>
+        <v>24</v>
       </c>
       <c r="I657" s="0" t="s">
-        <v>62</v>
+        <v>1805</v>
       </c>
       <c r="J657" s="0" t="s">
         <v>297</v>
@@ -53445,13 +53445,13 @@
     </row>
     <row r="658">
       <c r="A658" s="0" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="B658" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C658" s="0" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D658" s="0" t="s">
         <v>718</v>
@@ -53469,7 +53469,7 @@
         <v>1782</v>
       </c>
       <c r="I658" s="0" t="s">
-        <v>1819</v>
+        <v>62</v>
       </c>
       <c r="J658" s="0" t="s">
         <v>297</v>
@@ -53477,16 +53477,16 @@
     </row>
     <row r="659">
       <c r="A659" s="0" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="B659" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C659" s="0" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="D659" s="0" t="s">
-        <v>1627</v>
+        <v>718</v>
       </c>
       <c r="E659" s="0" t="s">
         <v>1776</v>
@@ -53501,7 +53501,7 @@
         <v>1782</v>
       </c>
       <c r="I659" s="0" t="s">
-        <v>1908</v>
+        <v>1819</v>
       </c>
       <c r="J659" s="0" t="s">
         <v>297</v>
@@ -53509,16 +53509,16 @@
     </row>
     <row r="660">
       <c r="A660" s="0" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="B660" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C660" s="0" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="D660" s="0" t="s">
-        <v>718</v>
+        <v>1627</v>
       </c>
       <c r="E660" s="0" t="s">
         <v>1776</v>
@@ -53533,7 +53533,7 @@
         <v>1782</v>
       </c>
       <c r="I660" s="0" t="s">
-        <v>1820</v>
+        <v>1908</v>
       </c>
       <c r="J660" s="0" t="s">
         <v>297</v>
@@ -53541,16 +53541,16 @@
     </row>
     <row r="661">
       <c r="A661" s="0" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="B661" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C661" s="0" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="D661" s="0" t="s">
-        <v>1631</v>
+        <v>718</v>
       </c>
       <c r="E661" s="0" t="s">
         <v>1776</v>
@@ -53565,7 +53565,7 @@
         <v>1782</v>
       </c>
       <c r="I661" s="0" t="s">
-        <v>1909</v>
+        <v>1820</v>
       </c>
       <c r="J661" s="0" t="s">
         <v>297</v>
@@ -53573,16 +53573,16 @@
     </row>
     <row r="662">
       <c r="A662" s="0" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="B662" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C662" s="0" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="D662" s="0" t="s">
-        <v>718</v>
+        <v>1631</v>
       </c>
       <c r="E662" s="0" t="s">
         <v>1776</v>
@@ -53597,7 +53597,7 @@
         <v>1782</v>
       </c>
       <c r="I662" s="0" t="s">
-        <v>1840</v>
+        <v>1909</v>
       </c>
       <c r="J662" s="0" t="s">
         <v>297</v>
@@ -53605,16 +53605,16 @@
     </row>
     <row r="663">
       <c r="A663" s="0" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="B663" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C663" s="0" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="D663" s="0" t="s">
-        <v>1635</v>
+        <v>718</v>
       </c>
       <c r="E663" s="0" t="s">
         <v>1776</v>
@@ -53629,7 +53629,7 @@
         <v>1782</v>
       </c>
       <c r="I663" s="0" t="s">
-        <v>1910</v>
+        <v>1840</v>
       </c>
       <c r="J663" s="0" t="s">
         <v>297</v>
@@ -53649,19 +53649,19 @@
         <v>1635</v>
       </c>
       <c r="E664" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F664" s="0" t="s">
-        <v>1789</v>
+        <v>1812</v>
       </c>
       <c r="G664" s="0" t="s">
-        <v>742</v>
+        <v>148</v>
       </c>
       <c r="H664" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I664" s="0" t="s">
-        <v>24</v>
+        <v>1910</v>
       </c>
       <c r="J664" s="0" t="s">
         <v>297</v>
@@ -53669,31 +53669,31 @@
     </row>
     <row r="665">
       <c r="A665" s="0" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="B665" s="0" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C665" s="0" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="D665" s="0" t="s">
-        <v>718</v>
+        <v>1635</v>
       </c>
       <c r="E665" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F665" s="0" t="s">
-        <v>1812</v>
+        <v>1789</v>
       </c>
       <c r="G665" s="0" t="s">
-        <v>148</v>
+        <v>742</v>
       </c>
       <c r="H665" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I665" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J665" s="0" t="s">
         <v>297</v>
@@ -53716,7 +53716,7 @@
         <v>1776</v>
       </c>
       <c r="F666" s="0" t="s">
-        <v>1822</v>
+        <v>1812</v>
       </c>
       <c r="G666" s="0" t="s">
         <v>148</v>
@@ -53745,19 +53745,19 @@
         <v>718</v>
       </c>
       <c r="E667" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F667" s="0" t="s">
-        <v>1814</v>
+        <v>1822</v>
       </c>
       <c r="G667" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H667" s="0" t="s">
-        <v>742</v>
+        <v>24</v>
       </c>
       <c r="I667" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J667" s="0" t="s">
         <v>297</v>
@@ -53765,31 +53765,31 @@
     </row>
     <row r="668">
       <c r="A668" s="0" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="B668" s="0" t="s">
         <v>579</v>
       </c>
       <c r="C668" s="0" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="D668" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E668" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F668" s="0" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="G668" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H668" s="0" t="s">
-        <v>1782</v>
+        <v>742</v>
       </c>
       <c r="I668" s="0" t="s">
-        <v>1782</v>
+        <v>24</v>
       </c>
       <c r="J668" s="0" t="s">
         <v>297</v>
@@ -53809,19 +53809,19 @@
         <v>718</v>
       </c>
       <c r="E669" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F669" s="0" t="s">
-        <v>1838</v>
+        <v>1812</v>
       </c>
       <c r="G669" s="0" t="s">
-        <v>889</v>
+        <v>148</v>
       </c>
       <c r="H669" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I669" s="0" t="s">
-        <v>24</v>
+        <v>1782</v>
       </c>
       <c r="J669" s="0" t="s">
         <v>297</v>
@@ -53829,31 +53829,31 @@
     </row>
     <row r="670">
       <c r="A670" s="0" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="B670" s="0" t="s">
         <v>579</v>
       </c>
       <c r="C670" s="0" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="D670" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E670" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F670" s="0" t="s">
-        <v>1812</v>
+        <v>1838</v>
       </c>
       <c r="G670" s="0" t="s">
-        <v>148</v>
+        <v>889</v>
       </c>
       <c r="H670" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I670" s="0" t="s">
-        <v>1910</v>
+        <v>24</v>
       </c>
       <c r="J670" s="0" t="s">
         <v>297</v>
@@ -53873,19 +53873,19 @@
         <v>718</v>
       </c>
       <c r="E671" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F671" s="0" t="s">
-        <v>1808</v>
+        <v>1812</v>
       </c>
       <c r="G671" s="0" t="s">
-        <v>802</v>
+        <v>148</v>
       </c>
       <c r="H671" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I671" s="0" t="s">
-        <v>488</v>
+        <v>1910</v>
       </c>
       <c r="J671" s="0" t="s">
         <v>297</v>
@@ -53893,31 +53893,31 @@
     </row>
     <row r="672">
       <c r="A672" s="0" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="B672" s="0" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C672" s="0" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="D672" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E672" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F672" s="0" t="s">
-        <v>1812</v>
+        <v>1808</v>
       </c>
       <c r="G672" s="0" t="s">
-        <v>148</v>
+        <v>802</v>
       </c>
       <c r="H672" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I672" s="0" t="s">
-        <v>232</v>
+        <v>488</v>
       </c>
       <c r="J672" s="0" t="s">
         <v>297</v>
@@ -53937,19 +53937,19 @@
         <v>718</v>
       </c>
       <c r="E673" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F673" s="0" t="s">
-        <v>1824</v>
+        <v>1812</v>
       </c>
       <c r="G673" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H673" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I673" s="0" t="s">
-        <v>1878</v>
+        <v>232</v>
       </c>
       <c r="J673" s="0" t="s">
         <v>297</v>
@@ -53957,31 +53957,31 @@
     </row>
     <row r="674">
       <c r="A674" s="0" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="B674" s="0" t="s">
         <v>585</v>
       </c>
       <c r="C674" s="0" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="D674" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E674" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F674" s="0" t="s">
-        <v>1777</v>
+        <v>1824</v>
       </c>
       <c r="G674" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H674" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I674" s="0" t="s">
-        <v>232</v>
+        <v>1878</v>
       </c>
       <c r="J674" s="0" t="s">
         <v>297</v>
@@ -54001,19 +54001,19 @@
         <v>718</v>
       </c>
       <c r="E675" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F675" s="0" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
       <c r="G675" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H675" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I675" s="0" t="s">
-        <v>1878</v>
+        <v>232</v>
       </c>
       <c r="J675" s="0" t="s">
         <v>297</v>
@@ -54021,31 +54021,31 @@
     </row>
     <row r="676">
       <c r="A676" s="0" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="B676" s="0" t="s">
         <v>585</v>
       </c>
       <c r="C676" s="0" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="D676" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E676" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F676" s="0" t="s">
-        <v>1812</v>
+        <v>1791</v>
       </c>
       <c r="G676" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H676" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I676" s="0" t="s">
-        <v>488</v>
+        <v>1878</v>
       </c>
       <c r="J676" s="0" t="s">
         <v>297</v>
@@ -54053,13 +54053,13 @@
     </row>
     <row r="677">
       <c r="A677" s="0" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="B677" s="0" t="s">
         <v>585</v>
       </c>
       <c r="C677" s="0" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="D677" s="0" t="s">
         <v>718</v>
@@ -54068,7 +54068,7 @@
         <v>1776</v>
       </c>
       <c r="F677" s="0" t="s">
-        <v>1777</v>
+        <v>1812</v>
       </c>
       <c r="G677" s="0" t="s">
         <v>148</v>
@@ -54085,13 +54085,13 @@
     </row>
     <row r="678">
       <c r="A678" s="0" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="B678" s="0" t="s">
         <v>585</v>
       </c>
       <c r="C678" s="0" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="D678" s="0" t="s">
         <v>718</v>
@@ -54100,7 +54100,7 @@
         <v>1776</v>
       </c>
       <c r="F678" s="0" t="s">
-        <v>1812</v>
+        <v>1777</v>
       </c>
       <c r="G678" s="0" t="s">
         <v>148</v>
@@ -54109,7 +54109,7 @@
         <v>1782</v>
       </c>
       <c r="I678" s="0" t="s">
-        <v>1782</v>
+        <v>488</v>
       </c>
       <c r="J678" s="0" t="s">
         <v>297</v>
@@ -54129,19 +54129,19 @@
         <v>718</v>
       </c>
       <c r="E679" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F679" s="0" t="s">
-        <v>1785</v>
+        <v>1812</v>
       </c>
       <c r="G679" s="0" t="s">
-        <v>889</v>
+        <v>148</v>
       </c>
       <c r="H679" s="0" t="s">
-        <v>217</v>
+        <v>1782</v>
       </c>
       <c r="I679" s="0" t="s">
-        <v>24</v>
+        <v>1782</v>
       </c>
       <c r="J679" s="0" t="s">
         <v>297</v>
@@ -54149,31 +54149,31 @@
     </row>
     <row r="680">
       <c r="A680" s="0" t="s">
-        <v>1662</v>
+        <v>1655</v>
       </c>
       <c r="B680" s="0" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="C680" s="0" t="s">
-        <v>1663</v>
+        <v>1656</v>
       </c>
       <c r="D680" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E680" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F680" s="0" t="s">
-        <v>1812</v>
+        <v>1785</v>
       </c>
       <c r="G680" s="0" t="s">
-        <v>148</v>
+        <v>889</v>
       </c>
       <c r="H680" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I680" s="0" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="J680" s="0" t="s">
         <v>297</v>
@@ -54193,19 +54193,19 @@
         <v>718</v>
       </c>
       <c r="E681" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F681" s="0" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="G681" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H681" s="0" t="s">
-        <v>1845</v>
+        <v>24</v>
       </c>
       <c r="I681" s="0" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="J681" s="0" t="s">
         <v>297</v>
@@ -54213,31 +54213,31 @@
     </row>
     <row r="682">
       <c r="A682" s="0" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="B682" s="0" t="s">
         <v>603</v>
       </c>
       <c r="C682" s="0" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D682" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E682" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F682" s="0" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="G682" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H682" s="0" t="s">
-        <v>1782</v>
+        <v>1845</v>
       </c>
       <c r="I682" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J682" s="0" t="s">
         <v>297</v>
@@ -54260,13 +54260,13 @@
         <v>1776</v>
       </c>
       <c r="F683" s="0" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="G683" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H683" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I683" s="0" t="s">
         <v>488</v>
@@ -54277,13 +54277,13 @@
     </row>
     <row r="684">
       <c r="A684" s="0" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="B684" s="0" t="s">
         <v>603</v>
       </c>
       <c r="C684" s="0" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="D684" s="0" t="s">
         <v>718</v>
@@ -54292,16 +54292,16 @@
         <v>1776</v>
       </c>
       <c r="F684" s="0" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="G684" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H684" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I684" s="0" t="s">
-        <v>1821</v>
+        <v>488</v>
       </c>
       <c r="J684" s="0" t="s">
         <v>297</v>
@@ -54309,13 +54309,13 @@
     </row>
     <row r="685">
       <c r="A685" s="0" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="B685" s="0" t="s">
         <v>603</v>
       </c>
       <c r="C685" s="0" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="D685" s="0" t="s">
         <v>718</v>
@@ -54333,7 +54333,7 @@
         <v>1782</v>
       </c>
       <c r="I685" s="0" t="s">
-        <v>1782</v>
+        <v>1821</v>
       </c>
       <c r="J685" s="0" t="s">
         <v>297</v>
@@ -54353,19 +54353,19 @@
         <v>718</v>
       </c>
       <c r="E686" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F686" s="0" t="s">
-        <v>1838</v>
+        <v>1812</v>
       </c>
       <c r="G686" s="0" t="s">
-        <v>742</v>
+        <v>148</v>
       </c>
       <c r="H686" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I686" s="0" t="s">
-        <v>24</v>
+        <v>1782</v>
       </c>
       <c r="J686" s="0" t="s">
         <v>297</v>
@@ -54373,31 +54373,31 @@
     </row>
     <row r="687">
       <c r="A687" s="0" t="s">
-        <v>1679</v>
+        <v>1668</v>
       </c>
       <c r="B687" s="0" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="C687" s="0" t="s">
-        <v>1680</v>
+        <v>1669</v>
       </c>
       <c r="D687" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E687" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F687" s="0" t="s">
-        <v>1777</v>
+        <v>1838</v>
       </c>
       <c r="G687" s="0" t="s">
-        <v>148</v>
+        <v>742</v>
       </c>
       <c r="H687" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I687" s="0" t="s">
-        <v>1796</v>
+        <v>24</v>
       </c>
       <c r="J687" s="0" t="s">
         <v>297</v>
@@ -54405,13 +54405,13 @@
     </row>
     <row r="688">
       <c r="A688" s="0" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="B688" s="0" t="s">
         <v>627</v>
       </c>
       <c r="C688" s="0" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="D688" s="0" t="s">
         <v>718</v>
@@ -54426,10 +54426,10 @@
         <v>148</v>
       </c>
       <c r="H688" s="0" t="s">
-        <v>1782</v>
+        <v>24</v>
       </c>
       <c r="I688" s="0" t="s">
-        <v>1818</v>
+        <v>1796</v>
       </c>
       <c r="J688" s="0" t="s">
         <v>297</v>
@@ -54437,13 +54437,13 @@
     </row>
     <row r="689">
       <c r="A689" s="0" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="B689" s="0" t="s">
         <v>627</v>
       </c>
       <c r="C689" s="0" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="D689" s="0" t="s">
         <v>718</v>
@@ -54461,7 +54461,7 @@
         <v>1782</v>
       </c>
       <c r="I689" s="0" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="J689" s="0" t="s">
         <v>297</v>
@@ -54469,13 +54469,13 @@
     </row>
     <row r="690">
       <c r="A690" s="0" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="B690" s="0" t="s">
         <v>627</v>
       </c>
       <c r="C690" s="0" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="D690" s="0" t="s">
         <v>718</v>
@@ -54493,7 +54493,7 @@
         <v>1782</v>
       </c>
       <c r="I690" s="0" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="J690" s="0" t="s">
         <v>297</v>
@@ -54501,13 +54501,13 @@
     </row>
     <row r="691">
       <c r="A691" s="0" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="B691" s="0" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C691" s="0" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="D691" s="0" t="s">
         <v>718</v>
@@ -54522,10 +54522,10 @@
         <v>148</v>
       </c>
       <c r="H691" s="0" t="s">
-        <v>24</v>
+        <v>1782</v>
       </c>
       <c r="I691" s="0" t="s">
-        <v>1805</v>
+        <v>1821</v>
       </c>
       <c r="J691" s="0" t="s">
         <v>297</v>
@@ -54548,16 +54548,16 @@
         <v>1776</v>
       </c>
       <c r="F692" s="0" t="s">
-        <v>1795</v>
+        <v>1777</v>
       </c>
       <c r="G692" s="0" t="s">
-        <v>759</v>
+        <v>148</v>
       </c>
       <c r="H692" s="0" t="s">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="I692" s="0" t="s">
-        <v>1796</v>
+        <v>1805</v>
       </c>
       <c r="J692" s="0" t="s">
         <v>297</v>
@@ -54565,13 +54565,13 @@
     </row>
     <row r="693">
       <c r="A693" s="0" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="B693" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C693" s="0" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="D693" s="0" t="s">
         <v>718</v>
@@ -54580,16 +54580,16 @@
         <v>1776</v>
       </c>
       <c r="F693" s="0" t="s">
-        <v>1777</v>
+        <v>1795</v>
       </c>
       <c r="G693" s="0" t="s">
-        <v>148</v>
+        <v>759</v>
       </c>
       <c r="H693" s="0" t="s">
-        <v>1782</v>
+        <v>231</v>
       </c>
       <c r="I693" s="0" t="s">
-        <v>62</v>
+        <v>1796</v>
       </c>
       <c r="J693" s="0" t="s">
         <v>297</v>
@@ -54612,13 +54612,13 @@
         <v>1776</v>
       </c>
       <c r="F694" s="0" t="s">
-        <v>1795</v>
+        <v>1777</v>
       </c>
       <c r="G694" s="0" t="s">
-        <v>779</v>
+        <v>148</v>
       </c>
       <c r="H694" s="0" t="s">
-        <v>217</v>
+        <v>1782</v>
       </c>
       <c r="I694" s="0" t="s">
         <v>62</v>
@@ -54629,13 +54629,13 @@
     </row>
     <row r="695">
       <c r="A695" s="0" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B695" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C695" s="0" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="D695" s="0" t="s">
         <v>718</v>
@@ -54644,16 +54644,16 @@
         <v>1776</v>
       </c>
       <c r="F695" s="0" t="s">
-        <v>1777</v>
+        <v>1795</v>
       </c>
       <c r="G695" s="0" t="s">
-        <v>148</v>
+        <v>779</v>
       </c>
       <c r="H695" s="0" t="s">
-        <v>1782</v>
+        <v>217</v>
       </c>
       <c r="I695" s="0" t="s">
-        <v>1819</v>
+        <v>62</v>
       </c>
       <c r="J695" s="0" t="s">
         <v>297</v>
@@ -54676,16 +54676,16 @@
         <v>1776</v>
       </c>
       <c r="F696" s="0" t="s">
-        <v>1795</v>
+        <v>1777</v>
       </c>
       <c r="G696" s="0" t="s">
-        <v>742</v>
+        <v>148</v>
       </c>
       <c r="H696" s="0" t="s">
-        <v>81</v>
+        <v>1782</v>
       </c>
       <c r="I696" s="0" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="J696" s="0" t="s">
         <v>297</v>
@@ -54693,13 +54693,13 @@
     </row>
     <row r="697">
       <c r="A697" s="0" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="B697" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C697" s="0" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="D697" s="0" t="s">
         <v>718</v>
@@ -54708,16 +54708,16 @@
         <v>1776</v>
       </c>
       <c r="F697" s="0" t="s">
-        <v>1777</v>
+        <v>1795</v>
       </c>
       <c r="G697" s="0" t="s">
-        <v>148</v>
+        <v>742</v>
       </c>
       <c r="H697" s="0" t="s">
-        <v>1782</v>
+        <v>81</v>
       </c>
       <c r="I697" s="0" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="J697" s="0" t="s">
         <v>297</v>
@@ -54740,16 +54740,16 @@
         <v>1776</v>
       </c>
       <c r="F698" s="0" t="s">
-        <v>1795</v>
+        <v>1777</v>
       </c>
       <c r="G698" s="0" t="s">
-        <v>766</v>
+        <v>148</v>
       </c>
       <c r="H698" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I698" s="0" t="s">
-        <v>488</v>
+        <v>1820</v>
       </c>
       <c r="J698" s="0" t="s">
         <v>297</v>
@@ -54757,13 +54757,13 @@
     </row>
     <row r="699">
       <c r="A699" s="0" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="B699" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C699" s="0" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="D699" s="0" t="s">
         <v>718</v>
@@ -54772,16 +54772,16 @@
         <v>1776</v>
       </c>
       <c r="F699" s="0" t="s">
-        <v>1777</v>
+        <v>1795</v>
       </c>
       <c r="G699" s="0" t="s">
-        <v>148</v>
+        <v>766</v>
       </c>
       <c r="H699" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I699" s="0" t="s">
-        <v>1840</v>
+        <v>488</v>
       </c>
       <c r="J699" s="0" t="s">
         <v>297</v>
@@ -54804,16 +54804,16 @@
         <v>1776</v>
       </c>
       <c r="F700" s="0" t="s">
-        <v>1795</v>
+        <v>1777</v>
       </c>
       <c r="G700" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H700" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I700" s="0" t="s">
-        <v>1820</v>
+        <v>1840</v>
       </c>
       <c r="J700" s="0" t="s">
         <v>297</v>
@@ -54821,13 +54821,13 @@
     </row>
     <row r="701">
       <c r="A701" s="0" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="B701" s="0" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="C701" s="0" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="D701" s="0" t="s">
         <v>718</v>
@@ -54836,16 +54836,16 @@
         <v>1776</v>
       </c>
       <c r="F701" s="0" t="s">
-        <v>1777</v>
+        <v>1795</v>
       </c>
       <c r="G701" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H701" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I701" s="0" t="s">
-        <v>1796</v>
+        <v>1820</v>
       </c>
       <c r="J701" s="0" t="s">
         <v>297</v>
@@ -54868,16 +54868,16 @@
         <v>1776</v>
       </c>
       <c r="F702" s="0" t="s">
-        <v>1795</v>
+        <v>1777</v>
       </c>
       <c r="G702" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H702" s="0" t="s">
-        <v>318</v>
+        <v>24</v>
       </c>
       <c r="I702" s="0" t="s">
-        <v>62</v>
+        <v>1796</v>
       </c>
       <c r="J702" s="0" t="s">
         <v>297</v>
@@ -54885,13 +54885,13 @@
     </row>
     <row r="703">
       <c r="A703" s="0" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="B703" s="0" t="s">
         <v>641</v>
       </c>
       <c r="C703" s="0" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="D703" s="0" t="s">
         <v>718</v>
@@ -54900,16 +54900,16 @@
         <v>1776</v>
       </c>
       <c r="F703" s="0" t="s">
-        <v>1777</v>
+        <v>1795</v>
       </c>
       <c r="G703" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H703" s="0" t="s">
-        <v>1782</v>
+        <v>318</v>
       </c>
       <c r="I703" s="0" t="s">
-        <v>1817</v>
+        <v>62</v>
       </c>
       <c r="J703" s="0" t="s">
         <v>297</v>
@@ -54932,16 +54932,16 @@
         <v>1776</v>
       </c>
       <c r="F704" s="0" t="s">
-        <v>1885</v>
+        <v>1777</v>
       </c>
       <c r="G704" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H704" s="0" t="s">
-        <v>217</v>
+        <v>1782</v>
       </c>
       <c r="I704" s="0" t="s">
-        <v>24</v>
+        <v>1817</v>
       </c>
       <c r="J704" s="0" t="s">
         <v>297</v>
@@ -54949,13 +54949,13 @@
     </row>
     <row r="705">
       <c r="A705" s="0" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="B705" s="0" t="s">
         <v>641</v>
       </c>
       <c r="C705" s="0" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="D705" s="0" t="s">
         <v>718</v>
@@ -54964,16 +54964,16 @@
         <v>1776</v>
       </c>
       <c r="F705" s="0" t="s">
-        <v>1777</v>
+        <v>1885</v>
       </c>
       <c r="G705" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H705" s="0" t="s">
-        <v>1782</v>
+        <v>217</v>
       </c>
       <c r="I705" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J705" s="0" t="s">
         <v>297</v>
@@ -54993,19 +54993,19 @@
         <v>718</v>
       </c>
       <c r="E706" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F706" s="0" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
       <c r="G706" s="0" t="s">
-        <v>802</v>
+        <v>148</v>
       </c>
       <c r="H706" s="0" t="s">
-        <v>217</v>
+        <v>1782</v>
       </c>
       <c r="I706" s="0" t="s">
-        <v>1825</v>
+        <v>488</v>
       </c>
       <c r="J706" s="0" t="s">
         <v>297</v>
@@ -55013,13 +55013,13 @@
     </row>
     <row r="707">
       <c r="A707" s="0" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="B707" s="0" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="C707" s="0" t="s">
-        <v>650</v>
+        <v>1703</v>
       </c>
       <c r="D707" s="0" t="s">
         <v>718</v>
@@ -55028,30 +55028,30 @@
         <v>1778</v>
       </c>
       <c r="F707" s="0" t="s">
-        <v>1779</v>
+        <v>1791</v>
       </c>
       <c r="G707" s="0" t="s">
-        <v>148</v>
+        <v>802</v>
       </c>
       <c r="H707" s="0" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="I707" s="0" t="s">
-        <v>24</v>
+        <v>1825</v>
       </c>
       <c r="J707" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="0" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B708" s="0" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C708" s="0" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D708" s="0" t="s">
         <v>718</v>
@@ -55063,10 +55063,10 @@
         <v>1779</v>
       </c>
       <c r="G708" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H708" s="0" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="I708" s="0" t="s">
         <v>24</v>
@@ -55092,30 +55092,30 @@
         <v>1778</v>
       </c>
       <c r="F709" s="0" t="s">
-        <v>1824</v>
+        <v>1779</v>
       </c>
       <c r="G709" s="0" t="s">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="H709" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I709" s="0" t="s">
-        <v>1807</v>
+        <v>24</v>
       </c>
       <c r="J709" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="0" t="s">
-        <v>1714</v>
+        <v>1707</v>
       </c>
       <c r="B710" s="0" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="C710" s="0" t="s">
-        <v>1715</v>
+        <v>653</v>
       </c>
       <c r="D710" s="0" t="s">
         <v>718</v>
@@ -55124,16 +55124,16 @@
         <v>1778</v>
       </c>
       <c r="F710" s="0" t="s">
-        <v>1814</v>
+        <v>1824</v>
       </c>
       <c r="G710" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H710" s="0" t="s">
-        <v>1815</v>
+        <v>24</v>
       </c>
       <c r="I710" s="0" t="s">
-        <v>24</v>
+        <v>1807</v>
       </c>
       <c r="J710" s="0" t="s">
         <v>297</v>
@@ -55141,31 +55141,31 @@
     </row>
     <row r="711">
       <c r="A711" s="0" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="B711" s="0" t="s">
         <v>668</v>
       </c>
       <c r="C711" s="0" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="D711" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E711" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F711" s="0" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="G711" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H711" s="0" t="s">
-        <v>1782</v>
+        <v>1815</v>
       </c>
       <c r="I711" s="0" t="s">
-        <v>1819</v>
+        <v>24</v>
       </c>
       <c r="J711" s="0" t="s">
         <v>297</v>
@@ -55185,19 +55185,19 @@
         <v>718</v>
       </c>
       <c r="E712" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F712" s="0" t="s">
-        <v>1785</v>
+        <v>1812</v>
       </c>
       <c r="G712" s="0" t="s">
-        <v>742</v>
+        <v>148</v>
       </c>
       <c r="H712" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I712" s="0" t="s">
-        <v>24</v>
+        <v>1819</v>
       </c>
       <c r="J712" s="0" t="s">
         <v>297</v>
@@ -55205,31 +55205,31 @@
     </row>
     <row r="713">
       <c r="A713" s="0" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="B713" s="0" t="s">
         <v>668</v>
       </c>
       <c r="C713" s="0" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="D713" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E713" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F713" s="0" t="s">
-        <v>1812</v>
+        <v>1785</v>
       </c>
       <c r="G713" s="0" t="s">
-        <v>148</v>
+        <v>742</v>
       </c>
       <c r="H713" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I713" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J713" s="0" t="s">
         <v>297</v>
@@ -55252,16 +55252,16 @@
         <v>1776</v>
       </c>
       <c r="F714" s="0" t="s">
-        <v>1793</v>
+        <v>1812</v>
       </c>
       <c r="G714" s="0" t="s">
-        <v>742</v>
+        <v>148</v>
       </c>
       <c r="H714" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I714" s="0" t="s">
-        <v>1855</v>
+        <v>488</v>
       </c>
       <c r="J714" s="0" t="s">
         <v>297</v>
@@ -55269,13 +55269,13 @@
     </row>
     <row r="715">
       <c r="A715" s="0" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="B715" s="0" t="s">
         <v>668</v>
       </c>
       <c r="C715" s="0" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="D715" s="0" t="s">
         <v>718</v>
@@ -55284,16 +55284,16 @@
         <v>1776</v>
       </c>
       <c r="F715" s="0" t="s">
-        <v>1812</v>
+        <v>1793</v>
       </c>
       <c r="G715" s="0" t="s">
-        <v>148</v>
+        <v>742</v>
       </c>
       <c r="H715" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I715" s="0" t="s">
-        <v>1894</v>
+        <v>1855</v>
       </c>
       <c r="J715" s="0" t="s">
         <v>297</v>
@@ -55313,33 +55313,33 @@
         <v>718</v>
       </c>
       <c r="E716" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F716" s="0" t="s">
-        <v>1824</v>
+        <v>1812</v>
       </c>
       <c r="G716" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H716" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I716" s="0" t="s">
-        <v>1807</v>
+        <v>1894</v>
       </c>
       <c r="J716" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="0" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="B717" s="0" t="s">
         <v>668</v>
       </c>
       <c r="C717" s="0" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="D717" s="0" t="s">
         <v>718</v>
@@ -55348,48 +55348,48 @@
         <v>1778</v>
       </c>
       <c r="F717" s="0" t="s">
-        <v>1785</v>
+        <v>1824</v>
       </c>
       <c r="G717" s="0" t="s">
-        <v>889</v>
+        <v>127</v>
       </c>
       <c r="H717" s="0" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="I717" s="0" t="s">
-        <v>24</v>
+        <v>1807</v>
       </c>
       <c r="J717" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="0" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="B718" s="0" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C718" s="0" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="D718" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E718" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F718" s="0" t="s">
-        <v>1777</v>
+        <v>1785</v>
       </c>
       <c r="G718" s="0" t="s">
-        <v>148</v>
+        <v>889</v>
       </c>
       <c r="H718" s="0" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="I718" s="0" t="s">
-        <v>1818</v>
+        <v>24</v>
       </c>
       <c r="J718" s="0" t="s">
         <v>297</v>
@@ -55409,19 +55409,19 @@
         <v>718</v>
       </c>
       <c r="E719" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F719" s="0" t="s">
-        <v>1838</v>
+        <v>1777</v>
       </c>
       <c r="G719" s="0" t="s">
-        <v>742</v>
+        <v>148</v>
       </c>
       <c r="H719" s="0" t="s">
-        <v>513</v>
+        <v>24</v>
       </c>
       <c r="I719" s="0" t="s">
-        <v>24</v>
+        <v>1818</v>
       </c>
       <c r="J719" s="0" t="s">
         <v>297</v>
@@ -55429,31 +55429,31 @@
     </row>
     <row r="720">
       <c r="A720" s="0" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="B720" s="0" t="s">
         <v>671</v>
       </c>
       <c r="C720" s="0" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="D720" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E720" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F720" s="0" t="s">
-        <v>1777</v>
+        <v>1838</v>
       </c>
       <c r="G720" s="0" t="s">
-        <v>148</v>
+        <v>742</v>
       </c>
       <c r="H720" s="0" t="s">
-        <v>1782</v>
+        <v>513</v>
       </c>
       <c r="I720" s="0" t="s">
-        <v>1820</v>
+        <v>24</v>
       </c>
       <c r="J720" s="0" t="s">
         <v>297</v>
@@ -55476,16 +55476,16 @@
         <v>1776</v>
       </c>
       <c r="F721" s="0" t="s">
-        <v>1792</v>
+        <v>1777</v>
       </c>
       <c r="G721" s="0" t="s">
-        <v>889</v>
+        <v>148</v>
       </c>
       <c r="H721" s="0" t="s">
         <v>1782</v>
       </c>
       <c r="I721" s="0" t="s">
-        <v>721</v>
+        <v>1820</v>
       </c>
       <c r="J721" s="0" t="s">
         <v>297</v>
@@ -55493,13 +55493,13 @@
     </row>
     <row r="722">
       <c r="A722" s="0" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="B722" s="0" t="s">
         <v>671</v>
       </c>
       <c r="C722" s="0" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="D722" s="0" t="s">
         <v>718</v>
@@ -55508,16 +55508,16 @@
         <v>1776</v>
       </c>
       <c r="F722" s="0" t="s">
-        <v>1777</v>
+        <v>1792</v>
       </c>
       <c r="G722" s="0" t="s">
-        <v>148</v>
+        <v>889</v>
       </c>
       <c r="H722" s="0" t="s">
         <v>1782</v>
       </c>
       <c r="I722" s="0" t="s">
-        <v>1840</v>
+        <v>721</v>
       </c>
       <c r="J722" s="0" t="s">
         <v>297</v>
@@ -55537,19 +55537,19 @@
         <v>718</v>
       </c>
       <c r="E723" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F723" s="0" t="s">
-        <v>1785</v>
+        <v>1777</v>
       </c>
       <c r="G723" s="0" t="s">
-        <v>742</v>
+        <v>148</v>
       </c>
       <c r="H723" s="0" t="s">
-        <v>217</v>
+        <v>1782</v>
       </c>
       <c r="I723" s="0" t="s">
-        <v>24</v>
+        <v>1840</v>
       </c>
       <c r="J723" s="0" t="s">
         <v>297</v>
@@ -55557,31 +55557,31 @@
     </row>
     <row r="724">
       <c r="A724" s="0" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="B724" s="0" t="s">
         <v>671</v>
       </c>
       <c r="C724" s="0" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="D724" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E724" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F724" s="0" t="s">
-        <v>1777</v>
+        <v>1785</v>
       </c>
       <c r="G724" s="0" t="s">
-        <v>148</v>
+        <v>742</v>
       </c>
       <c r="H724" s="0" t="s">
-        <v>1782</v>
+        <v>217</v>
       </c>
       <c r="I724" s="0" t="s">
-        <v>1907</v>
+        <v>24</v>
       </c>
       <c r="J724" s="0" t="s">
         <v>297</v>
@@ -55589,13 +55589,13 @@
     </row>
     <row r="725">
       <c r="A725" s="0" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="B725" s="0" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C725" s="0" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="D725" s="0" t="s">
         <v>718</v>
@@ -55604,16 +55604,16 @@
         <v>1776</v>
       </c>
       <c r="F725" s="0" t="s">
-        <v>1792</v>
+        <v>1777</v>
       </c>
       <c r="G725" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H725" s="0" t="s">
-        <v>24</v>
+        <v>1782</v>
       </c>
       <c r="I725" s="0" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
       <c r="J725" s="0" t="s">
         <v>297</v>
@@ -55633,19 +55633,19 @@
         <v>718</v>
       </c>
       <c r="E726" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F726" s="0" t="s">
-        <v>1808</v>
+        <v>1792</v>
       </c>
       <c r="G726" s="0" t="s">
-        <v>742</v>
+        <v>148</v>
       </c>
       <c r="H726" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I726" s="0" t="s">
-        <v>488</v>
+        <v>1911</v>
       </c>
       <c r="J726" s="0" t="s">
         <v>297</v>
@@ -55653,28 +55653,28 @@
     </row>
     <row r="727">
       <c r="A727" s="0" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="B727" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C727" s="0" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="D727" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E727" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F727" s="0" t="s">
-        <v>1812</v>
+        <v>1808</v>
       </c>
       <c r="G727" s="0" t="s">
-        <v>148</v>
+        <v>742</v>
       </c>
       <c r="H727" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I727" s="0" t="s">
         <v>488</v>
@@ -55685,13 +55685,13 @@
     </row>
     <row r="728">
       <c r="A728" s="0" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="B728" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C728" s="0" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="D728" s="0" t="s">
         <v>718</v>
@@ -55700,13 +55700,13 @@
         <v>1778</v>
       </c>
       <c r="F728" s="0" t="s">
-        <v>1785</v>
+        <v>1789</v>
       </c>
       <c r="G728" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H728" s="0" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="I728" s="0" t="s">
         <v>24</v>
@@ -55717,13 +55717,13 @@
     </row>
     <row r="729">
       <c r="A729" s="0" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="B729" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C729" s="0" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="D729" s="0" t="s">
         <v>718</v>
@@ -55732,7 +55732,7 @@
         <v>1776</v>
       </c>
       <c r="F729" s="0" t="s">
-        <v>1791</v>
+        <v>1812</v>
       </c>
       <c r="G729" s="0" t="s">
         <v>148</v>
@@ -55741,7 +55741,7 @@
         <v>1782</v>
       </c>
       <c r="I729" s="0" t="s">
-        <v>1782</v>
+        <v>488</v>
       </c>
       <c r="J729" s="0" t="s">
         <v>297</v>
@@ -55749,13 +55749,13 @@
     </row>
     <row r="730">
       <c r="A730" s="0" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="B730" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C730" s="0" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="D730" s="0" t="s">
         <v>718</v>
@@ -55764,10 +55764,10 @@
         <v>1778</v>
       </c>
       <c r="F730" s="0" t="s">
-        <v>1790</v>
+        <v>1785</v>
       </c>
       <c r="G730" s="0" t="s">
-        <v>889</v>
+        <v>318</v>
       </c>
       <c r="H730" s="0" t="s">
         <v>163</v>
@@ -55781,13 +55781,13 @@
     </row>
     <row r="731">
       <c r="A731" s="0" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="B731" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C731" s="0" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="D731" s="0" t="s">
         <v>718</v>
@@ -55796,7 +55796,7 @@
         <v>1776</v>
       </c>
       <c r="F731" s="0" t="s">
-        <v>1812</v>
+        <v>1791</v>
       </c>
       <c r="G731" s="0" t="s">
         <v>148</v>
@@ -55813,13 +55813,13 @@
     </row>
     <row r="732">
       <c r="A732" s="0" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="B732" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C732" s="0" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="D732" s="0" t="s">
         <v>718</v>
@@ -55828,19 +55828,19 @@
         <v>1778</v>
       </c>
       <c r="F732" s="0" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="G732" s="0" t="s">
-        <v>318</v>
+        <v>889</v>
       </c>
       <c r="H732" s="0" t="s">
-        <v>231</v>
+        <v>163</v>
       </c>
       <c r="I732" s="0" t="s">
-        <v>1810</v>
+        <v>24</v>
       </c>
       <c r="J732" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="733">
@@ -55857,106 +55857,106 @@
         <v>718</v>
       </c>
       <c r="E733" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F733" s="0" t="s">
-        <v>1824</v>
+        <v>1812</v>
       </c>
       <c r="G733" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H733" s="0" t="s">
-        <v>231</v>
+        <v>1782</v>
       </c>
       <c r="I733" s="0" t="s">
-        <v>1810</v>
+        <v>1782</v>
       </c>
       <c r="J733" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="0" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="B734" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C734" s="0" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="D734" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E734" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F734" s="0" t="s">
-        <v>1777</v>
+        <v>1791</v>
       </c>
       <c r="G734" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H734" s="0" t="s">
-        <v>1782</v>
+        <v>231</v>
       </c>
       <c r="I734" s="0" t="s">
-        <v>1910</v>
+        <v>1810</v>
       </c>
       <c r="J734" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="0" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="B735" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C735" s="0" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="D735" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E735" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F735" s="0" t="s">
-        <v>1887</v>
+        <v>1824</v>
       </c>
       <c r="G735" s="0" t="s">
-        <v>742</v>
+        <v>318</v>
       </c>
       <c r="H735" s="0" t="s">
-        <v>163</v>
+        <v>231</v>
       </c>
       <c r="I735" s="0" t="s">
-        <v>24</v>
+        <v>1810</v>
       </c>
       <c r="J735" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="0" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="B736" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C736" s="0" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="D736" s="0" t="s">
-        <v>1743</v>
+        <v>718</v>
       </c>
       <c r="E736" s="0" t="s">
         <v>1776</v>
       </c>
       <c r="F736" s="0" t="s">
-        <v>1812</v>
+        <v>1777</v>
       </c>
       <c r="G736" s="0" t="s">
         <v>148</v>
@@ -55973,25 +55973,25 @@
     </row>
     <row r="737">
       <c r="A737" s="0" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="B737" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C737" s="0" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="D737" s="0" t="s">
-        <v>1743</v>
+        <v>718</v>
       </c>
       <c r="E737" s="0" t="s">
         <v>1776</v>
       </c>
       <c r="F737" s="0" t="s">
-        <v>1834</v>
+        <v>1887</v>
       </c>
       <c r="G737" s="0" t="s">
-        <v>889</v>
+        <v>742</v>
       </c>
       <c r="H737" s="0" t="s">
         <v>163</v>
@@ -56005,31 +56005,31 @@
     </row>
     <row r="738">
       <c r="A738" s="0" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="B738" s="0" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C738" s="0" t="s">
-        <v>677</v>
+        <v>1745</v>
       </c>
       <c r="D738" s="0" t="s">
-        <v>718</v>
+        <v>1743</v>
       </c>
       <c r="E738" s="0" t="s">
         <v>1776</v>
       </c>
       <c r="F738" s="0" t="s">
-        <v>1822</v>
+        <v>1812</v>
       </c>
       <c r="G738" s="0" t="s">
-        <v>802</v>
+        <v>148</v>
       </c>
       <c r="H738" s="0" t="s">
-        <v>24</v>
+        <v>1782</v>
       </c>
       <c r="I738" s="0" t="s">
-        <v>1829</v>
+        <v>1910</v>
       </c>
       <c r="J738" s="0" t="s">
         <v>297</v>
@@ -56037,28 +56037,28 @@
     </row>
     <row r="739">
       <c r="A739" s="0" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="B739" s="0" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C739" s="0" t="s">
-        <v>677</v>
+        <v>1745</v>
       </c>
       <c r="D739" s="0" t="s">
-        <v>718</v>
+        <v>1743</v>
       </c>
       <c r="E739" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F739" s="0" t="s">
-        <v>1789</v>
+        <v>1834</v>
       </c>
       <c r="G739" s="0" t="s">
-        <v>318</v>
+        <v>889</v>
       </c>
       <c r="H739" s="0" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="I739" s="0" t="s">
         <v>24</v>
@@ -56069,31 +56069,31 @@
     </row>
     <row r="740">
       <c r="A740" s="0" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="B740" s="0" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C740" s="0" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D740" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E740" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F740" s="0" t="s">
-        <v>1838</v>
+        <v>1822</v>
       </c>
       <c r="G740" s="0" t="s">
-        <v>742</v>
+        <v>802</v>
       </c>
       <c r="H740" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I740" s="0" t="s">
-        <v>24</v>
+        <v>1829</v>
       </c>
       <c r="J740" s="0" t="s">
         <v>297</v>
@@ -56101,31 +56101,31 @@
     </row>
     <row r="741">
       <c r="A741" s="0" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="B741" s="0" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="C741" s="0" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="D741" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E741" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F741" s="0" t="s">
-        <v>1862</v>
+        <v>1789</v>
       </c>
       <c r="G741" s="0" t="s">
-        <v>742</v>
+        <v>318</v>
       </c>
       <c r="H741" s="0" t="s">
         <v>81</v>
       </c>
       <c r="I741" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J741" s="0" t="s">
         <v>297</v>
@@ -56133,13 +56133,13 @@
     </row>
     <row r="742">
       <c r="A742" s="0" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="B742" s="0" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="C742" s="0" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="D742" s="0" t="s">
         <v>718</v>
@@ -56148,48 +56148,48 @@
         <v>1778</v>
       </c>
       <c r="F742" s="0" t="s">
-        <v>1779</v>
+        <v>1838</v>
       </c>
       <c r="G742" s="0" t="s">
-        <v>148</v>
+        <v>742</v>
       </c>
       <c r="H742" s="0" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="I742" s="0" t="s">
         <v>24</v>
       </c>
       <c r="J742" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="0" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="B743" s="0" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C743" s="0" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D743" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E743" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F743" s="0" t="s">
-        <v>1790</v>
+        <v>1862</v>
       </c>
       <c r="G743" s="0" t="s">
-        <v>148</v>
+        <v>742</v>
       </c>
       <c r="H743" s="0" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="I743" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J743" s="0" t="s">
         <v>297</v>
@@ -56197,63 +56197,63 @@
     </row>
     <row r="744">
       <c r="A744" s="0" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B744" s="0" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C744" s="0" t="s">
-        <v>1753</v>
+        <v>686</v>
       </c>
       <c r="D744" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E744" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F744" s="0" t="s">
-        <v>1792</v>
+        <v>1779</v>
       </c>
       <c r="G744" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H744" s="0" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="I744" s="0" t="s">
-        <v>1912</v>
+        <v>24</v>
       </c>
       <c r="J744" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="0" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="B745" s="0" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C745" s="0" t="s">
-        <v>1755</v>
+        <v>686</v>
       </c>
       <c r="D745" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E745" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F745" s="0" t="s">
-        <v>1812</v>
+        <v>1790</v>
       </c>
       <c r="G745" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H745" s="0" t="s">
-        <v>1782</v>
+        <v>134</v>
       </c>
       <c r="I745" s="0" t="s">
-        <v>1908</v>
+        <v>24</v>
       </c>
       <c r="J745" s="0" t="s">
         <v>297</v>
@@ -56261,31 +56261,31 @@
     </row>
     <row r="746">
       <c r="A746" s="0" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="B746" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C746" s="0" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="D746" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E746" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F746" s="0" t="s">
-        <v>1824</v>
+        <v>1792</v>
       </c>
       <c r="G746" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H746" s="0" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="I746" s="0" t="s">
-        <v>1810</v>
+        <v>1912</v>
       </c>
       <c r="J746" s="0" t="s">
         <v>297</v>
@@ -56293,13 +56293,13 @@
     </row>
     <row r="747">
       <c r="A747" s="0" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="B747" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C747" s="0" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="D747" s="0" t="s">
         <v>718</v>
@@ -56317,7 +56317,7 @@
         <v>1782</v>
       </c>
       <c r="I747" s="0" t="s">
-        <v>1913</v>
+        <v>1908</v>
       </c>
       <c r="J747" s="0" t="s">
         <v>297</v>
@@ -56325,31 +56325,31 @@
     </row>
     <row r="748">
       <c r="A748" s="0" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="B748" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C748" s="0" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="D748" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E748" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F748" s="0" t="s">
-        <v>1777</v>
+        <v>1824</v>
       </c>
       <c r="G748" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H748" s="0" t="s">
-        <v>1782</v>
+        <v>217</v>
       </c>
       <c r="I748" s="0" t="s">
-        <v>1782</v>
+        <v>1810</v>
       </c>
       <c r="J748" s="0" t="s">
         <v>297</v>
@@ -56357,22 +56357,22 @@
     </row>
     <row r="749">
       <c r="A749" s="0" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="B749" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C749" s="0" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="D749" s="0" t="s">
-        <v>1759</v>
+        <v>718</v>
       </c>
       <c r="E749" s="0" t="s">
         <v>1776</v>
       </c>
       <c r="F749" s="0" t="s">
-        <v>1777</v>
+        <v>1812</v>
       </c>
       <c r="G749" s="0" t="s">
         <v>148</v>
@@ -56381,7 +56381,7 @@
         <v>1782</v>
       </c>
       <c r="I749" s="0" t="s">
-        <v>1907</v>
+        <v>1913</v>
       </c>
       <c r="J749" s="0" t="s">
         <v>297</v>
@@ -56389,31 +56389,31 @@
     </row>
     <row r="750">
       <c r="A750" s="0" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="B750" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C750" s="0" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="D750" s="0" t="s">
-        <v>1759</v>
+        <v>718</v>
       </c>
       <c r="E750" s="0" t="s">
         <v>1776</v>
       </c>
       <c r="F750" s="0" t="s">
-        <v>1795</v>
+        <v>1777</v>
       </c>
       <c r="G750" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H750" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I750" s="0" t="s">
-        <v>488</v>
+        <v>1782</v>
       </c>
       <c r="J750" s="0" t="s">
         <v>297</v>
@@ -56421,16 +56421,16 @@
     </row>
     <row r="751">
       <c r="A751" s="0" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B751" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C751" s="0" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="D751" s="0" t="s">
-        <v>718</v>
+        <v>1759</v>
       </c>
       <c r="E751" s="0" t="s">
         <v>1776</v>
@@ -56442,7 +56442,7 @@
         <v>148</v>
       </c>
       <c r="H751" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I751" s="0" t="s">
         <v>1907</v>
@@ -56453,31 +56453,31 @@
     </row>
     <row r="752">
       <c r="A752" s="0" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B752" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C752" s="0" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="D752" s="0" t="s">
-        <v>718</v>
+        <v>1759</v>
       </c>
       <c r="E752" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F752" s="0" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="G752" s="0" t="s">
-        <v>742</v>
+        <v>127</v>
       </c>
       <c r="H752" s="0" t="s">
         <v>163</v>
       </c>
       <c r="I752" s="0" t="s">
-        <v>1914</v>
+        <v>488</v>
       </c>
       <c r="J752" s="0" t="s">
         <v>297</v>
@@ -56485,16 +56485,16 @@
     </row>
     <row r="753">
       <c r="A753" s="0" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="B753" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C753" s="0" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="D753" s="0" t="s">
-        <v>1763</v>
+        <v>718</v>
       </c>
       <c r="E753" s="0" t="s">
         <v>1776</v>
@@ -56506,10 +56506,10 @@
         <v>148</v>
       </c>
       <c r="H753" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I753" s="0" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
       <c r="J753" s="0" t="s">
         <v>297</v>
@@ -56517,63 +56517,63 @@
     </row>
     <row r="754">
       <c r="A754" s="0" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="B754" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C754" s="0" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="D754" s="0" t="s">
-        <v>1763</v>
+        <v>718</v>
       </c>
       <c r="E754" s="0" t="s">
         <v>1778</v>
       </c>
       <c r="F754" s="0" t="s">
-        <v>1779</v>
+        <v>1793</v>
       </c>
       <c r="G754" s="0" t="s">
-        <v>889</v>
+        <v>742</v>
       </c>
       <c r="H754" s="0" t="s">
         <v>163</v>
       </c>
       <c r="I754" s="0" t="s">
-        <v>24</v>
+        <v>1914</v>
       </c>
       <c r="J754" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="0" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="B755" s="0" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C755" s="0" t="s">
-        <v>693</v>
+        <v>1765</v>
       </c>
       <c r="D755" s="0" t="s">
-        <v>718</v>
+        <v>1763</v>
       </c>
       <c r="E755" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F755" s="0" t="s">
-        <v>1785</v>
+        <v>1777</v>
       </c>
       <c r="G755" s="0" t="s">
-        <v>1786</v>
+        <v>148</v>
       </c>
       <c r="H755" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I755" s="0" t="s">
-        <v>24</v>
+        <v>1910</v>
       </c>
       <c r="J755" s="0" t="s">
         <v>297</v>
@@ -56581,16 +56581,16 @@
     </row>
     <row r="756">
       <c r="A756" s="0" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="B756" s="0" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C756" s="0" t="s">
-        <v>696</v>
+        <v>1765</v>
       </c>
       <c r="D756" s="0" t="s">
-        <v>718</v>
+        <v>1763</v>
       </c>
       <c r="E756" s="0" t="s">
         <v>1778</v>
@@ -56599,27 +56599,27 @@
         <v>1779</v>
       </c>
       <c r="G756" s="0" t="s">
-        <v>1845</v>
+        <v>889</v>
       </c>
       <c r="H756" s="0" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="I756" s="0" t="s">
         <v>24</v>
       </c>
       <c r="J756" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="0" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B757" s="0" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C757" s="0" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D757" s="0" t="s">
         <v>718</v>
@@ -56628,16 +56628,16 @@
         <v>1778</v>
       </c>
       <c r="F757" s="0" t="s">
-        <v>1808</v>
+        <v>1785</v>
       </c>
       <c r="G757" s="0" t="s">
         <v>1786</v>
       </c>
       <c r="H757" s="0" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="I757" s="0" t="s">
-        <v>1825</v>
+        <v>24</v>
       </c>
       <c r="J757" s="0" t="s">
         <v>297</v>
@@ -56645,13 +56645,13 @@
     </row>
     <row r="758">
       <c r="A758" s="0" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B758" s="0" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C758" s="0" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D758" s="0" t="s">
         <v>718</v>
@@ -56660,13 +56660,13 @@
         <v>1778</v>
       </c>
       <c r="F758" s="0" t="s">
-        <v>1789</v>
+        <v>1779</v>
       </c>
       <c r="G758" s="0" t="s">
         <v>1845</v>
       </c>
       <c r="H758" s="0" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="I758" s="0" t="s">
         <v>24</v>
@@ -56677,13 +56677,13 @@
     </row>
     <row r="759">
       <c r="A759" s="0" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="B759" s="0" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="C759" s="0" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="D759" s="0" t="s">
         <v>718</v>
@@ -56692,30 +56692,30 @@
         <v>1778</v>
       </c>
       <c r="F759" s="0" t="s">
-        <v>1779</v>
+        <v>1808</v>
       </c>
       <c r="G759" s="0" t="s">
-        <v>889</v>
+        <v>1786</v>
       </c>
       <c r="H759" s="0" t="s">
-        <v>687</v>
+        <v>81</v>
       </c>
       <c r="I759" s="0" t="s">
-        <v>24</v>
+        <v>1825</v>
       </c>
       <c r="J759" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="0" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="B760" s="0" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="C760" s="0" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="D760" s="0" t="s">
         <v>718</v>
@@ -56724,18 +56724,82 @@
         <v>1778</v>
       </c>
       <c r="F760" s="0" t="s">
-        <v>1838</v>
+        <v>1789</v>
       </c>
       <c r="G760" s="0" t="s">
         <v>1845</v>
       </c>
       <c r="H760" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="I760" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J760" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="0" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B761" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="C761" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="D761" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="E761" s="0" t="s">
+        <v>1778</v>
+      </c>
+      <c r="F761" s="0" t="s">
+        <v>1779</v>
+      </c>
+      <c r="G761" s="0" t="s">
+        <v>889</v>
+      </c>
+      <c r="H761" s="0" t="s">
         <v>687</v>
       </c>
-      <c r="I760" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J760" s="0" t="s">
+      <c r="I761" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J761" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="0" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B762" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="C762" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="D762" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="E762" s="0" t="s">
+        <v>1778</v>
+      </c>
+      <c r="F762" s="0" t="s">
+        <v>1838</v>
+      </c>
+      <c r="G762" s="0" t="s">
+        <v>1845</v>
+      </c>
+      <c r="H762" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="I762" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J762" s="0" t="s">
         <v>297</v>
       </c>
     </row>

--- a/docs/秘籍数值.xlsx
+++ b/docs/秘籍数值.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="1915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="1916">
   <si>
     <t>1秘籍id</t>
   </si>
@@ -5692,10 +5692,7 @@
     <t>1269</t>
   </si>
   <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>-0.45</t>
+    <t>ClearDebuffs</t>
   </si>
   <si>
     <t>0.65</t>
@@ -5714,6 +5711,12 @@
   </si>
   <si>
     <t>3018</t>
+  </si>
+  <si>
+    <t>AddRateMaxHP</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>2000</t>
@@ -32413,7 +32416,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J762"/>
+  <dimension ref="A1:J761"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -46362,7 +46365,7 @@
         <v>148</v>
       </c>
       <c r="H436" s="0" t="s">
-        <v>1815</v>
+        <v>163</v>
       </c>
       <c r="I436" s="0" t="s">
         <v>488</v>
@@ -47255,7 +47258,7 @@
         <v>1822</v>
       </c>
       <c r="G464" s="0" t="s">
-        <v>687</v>
+        <v>802</v>
       </c>
       <c r="H464" s="0" t="s">
         <v>24</v>
@@ -48145,19 +48148,19 @@
         <v>718</v>
       </c>
       <c r="E492" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F492" s="0" t="s">
-        <v>1824</v>
+        <v>1892</v>
       </c>
       <c r="G492" s="0" t="s">
-        <v>1892</v>
+        <v>148</v>
       </c>
       <c r="H492" s="0" t="s">
         <v>163</v>
       </c>
       <c r="I492" s="0" t="s">
-        <v>1893</v>
+        <v>24</v>
       </c>
       <c r="J492" s="0" t="s">
         <v>297</v>
@@ -48165,31 +48168,31 @@
     </row>
     <row r="493">
       <c r="A493" s="0" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="B493" s="0" t="s">
         <v>350</v>
       </c>
       <c r="C493" s="0" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="D493" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E493" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F493" s="0" t="s">
-        <v>1791</v>
+        <v>1812</v>
       </c>
       <c r="G493" s="0" t="s">
-        <v>1892</v>
+        <v>148</v>
       </c>
       <c r="H493" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I493" s="0" t="s">
-        <v>1893</v>
+        <v>62</v>
       </c>
       <c r="J493" s="0" t="s">
         <v>297</v>
@@ -48197,13 +48200,13 @@
     </row>
     <row r="494">
       <c r="A494" s="0" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="B494" s="0" t="s">
         <v>350</v>
       </c>
       <c r="C494" s="0" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="D494" s="0" t="s">
         <v>718</v>
@@ -48221,7 +48224,7 @@
         <v>1782</v>
       </c>
       <c r="I494" s="0" t="s">
-        <v>62</v>
+        <v>1818</v>
       </c>
       <c r="J494" s="0" t="s">
         <v>297</v>
@@ -48229,16 +48232,16 @@
     </row>
     <row r="495">
       <c r="A495" s="0" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="B495" s="0" t="s">
         <v>350</v>
       </c>
       <c r="C495" s="0" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D495" s="0" t="s">
         <v>1360</v>
-      </c>
-      <c r="D495" s="0" t="s">
-        <v>718</v>
       </c>
       <c r="E495" s="0" t="s">
         <v>1776</v>
@@ -48253,7 +48256,7 @@
         <v>1782</v>
       </c>
       <c r="I495" s="0" t="s">
-        <v>1818</v>
+        <v>488</v>
       </c>
       <c r="J495" s="0" t="s">
         <v>297</v>
@@ -48273,19 +48276,19 @@
         <v>1360</v>
       </c>
       <c r="E496" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F496" s="0" t="s">
-        <v>1812</v>
+        <v>1777</v>
       </c>
       <c r="G496" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H496" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I496" s="0" t="s">
-        <v>488</v>
+        <v>1810</v>
       </c>
       <c r="J496" s="0" t="s">
         <v>297</v>
@@ -48293,31 +48296,31 @@
     </row>
     <row r="497">
       <c r="A497" s="0" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="B497" s="0" t="s">
         <v>350</v>
       </c>
       <c r="C497" s="0" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="D497" s="0" t="s">
-        <v>1360</v>
+        <v>718</v>
       </c>
       <c r="E497" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F497" s="0" t="s">
-        <v>1777</v>
+        <v>1812</v>
       </c>
       <c r="G497" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H497" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I497" s="0" t="s">
-        <v>1810</v>
+        <v>488</v>
       </c>
       <c r="J497" s="0" t="s">
         <v>297</v>
@@ -48325,13 +48328,13 @@
     </row>
     <row r="498">
       <c r="A498" s="0" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="B498" s="0" t="s">
         <v>350</v>
       </c>
       <c r="C498" s="0" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="D498" s="0" t="s">
         <v>718</v>
@@ -48349,7 +48352,7 @@
         <v>1782</v>
       </c>
       <c r="I498" s="0" t="s">
-        <v>488</v>
+        <v>1820</v>
       </c>
       <c r="J498" s="0" t="s">
         <v>297</v>
@@ -48357,16 +48360,16 @@
     </row>
     <row r="499">
       <c r="A499" s="0" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="B499" s="0" t="s">
         <v>350</v>
       </c>
       <c r="C499" s="0" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D499" s="0" t="s">
         <v>1366</v>
-      </c>
-      <c r="D499" s="0" t="s">
-        <v>718</v>
       </c>
       <c r="E499" s="0" t="s">
         <v>1776</v>
@@ -48381,7 +48384,7 @@
         <v>1782</v>
       </c>
       <c r="I499" s="0" t="s">
-        <v>1820</v>
+        <v>1893</v>
       </c>
       <c r="J499" s="0" t="s">
         <v>297</v>
@@ -48401,54 +48404,54 @@
         <v>1366</v>
       </c>
       <c r="E500" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F500" s="0" t="s">
-        <v>1812</v>
+        <v>1824</v>
       </c>
       <c r="G500" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H500" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I500" s="0" t="s">
-        <v>1894</v>
+        <v>1810</v>
       </c>
       <c r="J500" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="0" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="B501" s="0" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C501" s="0" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="D501" s="0" t="s">
-        <v>1366</v>
+        <v>718</v>
       </c>
       <c r="E501" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F501" s="0" t="s">
-        <v>1824</v>
+        <v>1784</v>
       </c>
       <c r="G501" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H501" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I501" s="0" t="s">
-        <v>1810</v>
+        <v>382</v>
       </c>
       <c r="J501" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="502">
@@ -48465,19 +48468,19 @@
         <v>718</v>
       </c>
       <c r="E502" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F502" s="0" t="s">
-        <v>1784</v>
+        <v>1789</v>
       </c>
       <c r="G502" s="0" t="s">
-        <v>148</v>
+        <v>766</v>
       </c>
       <c r="H502" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I502" s="0" t="s">
-        <v>382</v>
+        <v>24</v>
       </c>
       <c r="J502" s="0" t="s">
         <v>297</v>
@@ -48485,31 +48488,31 @@
     </row>
     <row r="503">
       <c r="A503" s="0" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="B503" s="0" t="s">
         <v>358</v>
       </c>
       <c r="C503" s="0" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="D503" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E503" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F503" s="0" t="s">
-        <v>1789</v>
+        <v>1784</v>
       </c>
       <c r="G503" s="0" t="s">
-        <v>766</v>
+        <v>148</v>
       </c>
       <c r="H503" s="0" t="s">
-        <v>217</v>
+        <v>1782</v>
       </c>
       <c r="I503" s="0" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="J503" s="0" t="s">
         <v>297</v>
@@ -48532,7 +48535,7 @@
         <v>1776</v>
       </c>
       <c r="F504" s="0" t="s">
-        <v>1784</v>
+        <v>1777</v>
       </c>
       <c r="G504" s="0" t="s">
         <v>148</v>
@@ -48541,7 +48544,7 @@
         <v>1782</v>
       </c>
       <c r="I504" s="0" t="s">
-        <v>148</v>
+        <v>1811</v>
       </c>
       <c r="J504" s="0" t="s">
         <v>297</v>
@@ -48549,16 +48552,16 @@
     </row>
     <row r="505">
       <c r="A505" s="0" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="B505" s="0" t="s">
         <v>358</v>
       </c>
       <c r="C505" s="0" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D505" s="0" t="s">
         <v>1372</v>
-      </c>
-      <c r="D505" s="0" t="s">
-        <v>718</v>
       </c>
       <c r="E505" s="0" t="s">
         <v>1776</v>
@@ -48573,7 +48576,7 @@
         <v>1782</v>
       </c>
       <c r="I505" s="0" t="s">
-        <v>1811</v>
+        <v>1894</v>
       </c>
       <c r="J505" s="0" t="s">
         <v>297</v>
@@ -48593,19 +48596,19 @@
         <v>1372</v>
       </c>
       <c r="E506" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F506" s="0" t="s">
-        <v>1777</v>
+        <v>1808</v>
       </c>
       <c r="G506" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H506" s="0" t="s">
-        <v>1782</v>
+        <v>217</v>
       </c>
       <c r="I506" s="0" t="s">
-        <v>1895</v>
+        <v>1796</v>
       </c>
       <c r="J506" s="0" t="s">
         <v>297</v>
@@ -48613,31 +48616,31 @@
     </row>
     <row r="507">
       <c r="A507" s="0" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="B507" s="0" t="s">
         <v>358</v>
       </c>
       <c r="C507" s="0" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="D507" s="0" t="s">
-        <v>1372</v>
+        <v>718</v>
       </c>
       <c r="E507" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F507" s="0" t="s">
-        <v>1808</v>
+        <v>1784</v>
       </c>
       <c r="G507" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H507" s="0" t="s">
-        <v>217</v>
+        <v>1782</v>
       </c>
       <c r="I507" s="0" t="s">
-        <v>1796</v>
+        <v>1857</v>
       </c>
       <c r="J507" s="0" t="s">
         <v>297</v>
@@ -48660,7 +48663,7 @@
         <v>1776</v>
       </c>
       <c r="F508" s="0" t="s">
-        <v>1784</v>
+        <v>1777</v>
       </c>
       <c r="G508" s="0" t="s">
         <v>148</v>
@@ -48669,7 +48672,7 @@
         <v>1782</v>
       </c>
       <c r="I508" s="0" t="s">
-        <v>1857</v>
+        <v>1879</v>
       </c>
       <c r="J508" s="0" t="s">
         <v>297</v>
@@ -48677,13 +48680,13 @@
     </row>
     <row r="509">
       <c r="A509" s="0" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="B509" s="0" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C509" s="0" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="D509" s="0" t="s">
         <v>718</v>
@@ -48692,16 +48695,16 @@
         <v>1776</v>
       </c>
       <c r="F509" s="0" t="s">
-        <v>1777</v>
+        <v>1784</v>
       </c>
       <c r="G509" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H509" s="0" t="s">
-        <v>1782</v>
+        <v>24</v>
       </c>
       <c r="I509" s="0" t="s">
-        <v>1879</v>
+        <v>1895</v>
       </c>
       <c r="J509" s="0" t="s">
         <v>297</v>
@@ -48724,16 +48727,16 @@
         <v>1776</v>
       </c>
       <c r="F510" s="0" t="s">
-        <v>1784</v>
+        <v>1791</v>
       </c>
       <c r="G510" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H510" s="0" t="s">
-        <v>24</v>
+        <v>266</v>
       </c>
       <c r="I510" s="0" t="s">
-        <v>1896</v>
+        <v>1820</v>
       </c>
       <c r="J510" s="0" t="s">
         <v>297</v>
@@ -48753,19 +48756,19 @@
         <v>718</v>
       </c>
       <c r="E511" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F511" s="0" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="G511" s="0" t="s">
-        <v>148</v>
+        <v>742</v>
       </c>
       <c r="H511" s="0" t="s">
-        <v>266</v>
+        <v>163</v>
       </c>
       <c r="I511" s="0" t="s">
-        <v>1820</v>
+        <v>24</v>
       </c>
       <c r="J511" s="0" t="s">
         <v>297</v>
@@ -48773,31 +48776,31 @@
     </row>
     <row r="512">
       <c r="A512" s="0" t="s">
-        <v>1377</v>
+        <v>1381</v>
       </c>
       <c r="B512" s="0" t="s">
         <v>366</v>
       </c>
       <c r="C512" s="0" t="s">
-        <v>1378</v>
+        <v>1382</v>
       </c>
       <c r="D512" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E512" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F512" s="0" t="s">
-        <v>1789</v>
+        <v>1777</v>
       </c>
       <c r="G512" s="0" t="s">
-        <v>742</v>
+        <v>148</v>
       </c>
       <c r="H512" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I512" s="0" t="s">
-        <v>24</v>
+        <v>232</v>
       </c>
       <c r="J512" s="0" t="s">
         <v>297</v>
@@ -48805,16 +48808,16 @@
     </row>
     <row r="513">
       <c r="A513" s="0" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="B513" s="0" t="s">
         <v>366</v>
       </c>
       <c r="C513" s="0" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D513" s="0" t="s">
         <v>1382</v>
-      </c>
-      <c r="D513" s="0" t="s">
-        <v>718</v>
       </c>
       <c r="E513" s="0" t="s">
         <v>1776</v>
@@ -48829,7 +48832,7 @@
         <v>1782</v>
       </c>
       <c r="I513" s="0" t="s">
-        <v>232</v>
+        <v>62</v>
       </c>
       <c r="J513" s="0" t="s">
         <v>297</v>
@@ -48849,7 +48852,7 @@
         <v>1382</v>
       </c>
       <c r="E514" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F514" s="0" t="s">
         <v>1777</v>
@@ -48858,10 +48861,10 @@
         <v>148</v>
       </c>
       <c r="H514" s="0" t="s">
-        <v>1782</v>
+        <v>217</v>
       </c>
       <c r="I514" s="0" t="s">
-        <v>62</v>
+        <v>1807</v>
       </c>
       <c r="J514" s="0" t="s">
         <v>297</v>
@@ -48869,19 +48872,19 @@
     </row>
     <row r="515">
       <c r="A515" s="0" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="B515" s="0" t="s">
         <v>366</v>
       </c>
       <c r="C515" s="0" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="D515" s="0" t="s">
-        <v>1382</v>
+        <v>718</v>
       </c>
       <c r="E515" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F515" s="0" t="s">
         <v>1777</v>
@@ -48890,10 +48893,10 @@
         <v>148</v>
       </c>
       <c r="H515" s="0" t="s">
-        <v>217</v>
+        <v>1782</v>
       </c>
       <c r="I515" s="0" t="s">
-        <v>1807</v>
+        <v>1817</v>
       </c>
       <c r="J515" s="0" t="s">
         <v>297</v>
@@ -48901,16 +48904,16 @@
     </row>
     <row r="516">
       <c r="A516" s="0" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="B516" s="0" t="s">
         <v>366</v>
       </c>
       <c r="C516" s="0" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D516" s="0" t="s">
         <v>1386</v>
-      </c>
-      <c r="D516" s="0" t="s">
-        <v>718</v>
       </c>
       <c r="E516" s="0" t="s">
         <v>1776</v>
@@ -48925,7 +48928,7 @@
         <v>1782</v>
       </c>
       <c r="I516" s="0" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="J516" s="0" t="s">
         <v>297</v>
@@ -48948,13 +48951,13 @@
         <v>1776</v>
       </c>
       <c r="F517" s="0" t="s">
-        <v>1777</v>
+        <v>1791</v>
       </c>
       <c r="G517" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H517" s="0" t="s">
-        <v>1782</v>
+        <v>81</v>
       </c>
       <c r="I517" s="0" t="s">
         <v>1818</v>
@@ -48965,31 +48968,31 @@
     </row>
     <row r="518">
       <c r="A518" s="0" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="B518" s="0" t="s">
         <v>366</v>
       </c>
       <c r="C518" s="0" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="D518" s="0" t="s">
-        <v>1386</v>
+        <v>718</v>
       </c>
       <c r="E518" s="0" t="s">
         <v>1776</v>
       </c>
       <c r="F518" s="0" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
       <c r="G518" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H518" s="0" t="s">
-        <v>81</v>
+        <v>1782</v>
       </c>
       <c r="I518" s="0" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="J518" s="0" t="s">
         <v>297</v>
@@ -48997,16 +49000,16 @@
     </row>
     <row r="519">
       <c r="A519" s="0" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="B519" s="0" t="s">
         <v>366</v>
       </c>
       <c r="C519" s="0" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D519" s="0" t="s">
         <v>1390</v>
-      </c>
-      <c r="D519" s="0" t="s">
-        <v>718</v>
       </c>
       <c r="E519" s="0" t="s">
         <v>1776</v>
@@ -49021,7 +49024,7 @@
         <v>1782</v>
       </c>
       <c r="I519" s="0" t="s">
-        <v>1819</v>
+        <v>488</v>
       </c>
       <c r="J519" s="0" t="s">
         <v>297</v>
@@ -49044,16 +49047,16 @@
         <v>1776</v>
       </c>
       <c r="F520" s="0" t="s">
-        <v>1777</v>
+        <v>1824</v>
       </c>
       <c r="G520" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H520" s="0" t="s">
-        <v>1782</v>
+        <v>81</v>
       </c>
       <c r="I520" s="0" t="s">
-        <v>488</v>
+        <v>1818</v>
       </c>
       <c r="J520" s="0" t="s">
         <v>297</v>
@@ -49061,31 +49064,31 @@
     </row>
     <row r="521">
       <c r="A521" s="0" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="B521" s="0" t="s">
         <v>366</v>
       </c>
       <c r="C521" s="0" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="D521" s="0" t="s">
-        <v>1390</v>
+        <v>718</v>
       </c>
       <c r="E521" s="0" t="s">
         <v>1776</v>
       </c>
       <c r="F521" s="0" t="s">
-        <v>1824</v>
+        <v>1777</v>
       </c>
       <c r="G521" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H521" s="0" t="s">
-        <v>81</v>
+        <v>1782</v>
       </c>
       <c r="I521" s="0" t="s">
-        <v>1818</v>
+        <v>1828</v>
       </c>
       <c r="J521" s="0" t="s">
         <v>297</v>
@@ -49093,16 +49096,16 @@
     </row>
     <row r="522">
       <c r="A522" s="0" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="B522" s="0" t="s">
         <v>366</v>
       </c>
       <c r="C522" s="0" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D522" s="0" t="s">
         <v>1394</v>
-      </c>
-      <c r="D522" s="0" t="s">
-        <v>718</v>
       </c>
       <c r="E522" s="0" t="s">
         <v>1776</v>
@@ -49117,7 +49120,7 @@
         <v>1782</v>
       </c>
       <c r="I522" s="0" t="s">
-        <v>1828</v>
+        <v>1820</v>
       </c>
       <c r="J522" s="0" t="s">
         <v>297</v>
@@ -49140,16 +49143,16 @@
         <v>1776</v>
       </c>
       <c r="F523" s="0" t="s">
-        <v>1777</v>
+        <v>1813</v>
       </c>
       <c r="G523" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H523" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I523" s="0" t="s">
-        <v>1820</v>
+        <v>488</v>
       </c>
       <c r="J523" s="0" t="s">
         <v>297</v>
@@ -49157,31 +49160,31 @@
     </row>
     <row r="524">
       <c r="A524" s="0" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="B524" s="0" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C524" s="0" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="D524" s="0" t="s">
-        <v>1394</v>
+        <v>718</v>
       </c>
       <c r="E524" s="0" t="s">
         <v>1776</v>
       </c>
       <c r="F524" s="0" t="s">
-        <v>1813</v>
+        <v>1835</v>
       </c>
       <c r="G524" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H524" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I524" s="0" t="s">
-        <v>488</v>
+        <v>1896</v>
       </c>
       <c r="J524" s="0" t="s">
         <v>297</v>
@@ -49204,16 +49207,16 @@
         <v>1776</v>
       </c>
       <c r="F525" s="0" t="s">
-        <v>1835</v>
+        <v>1812</v>
       </c>
       <c r="G525" s="0" t="s">
-        <v>148</v>
+        <v>742</v>
       </c>
       <c r="H525" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I525" s="0" t="s">
-        <v>1897</v>
+        <v>232</v>
       </c>
       <c r="J525" s="0" t="s">
         <v>297</v>
@@ -49236,16 +49239,16 @@
         <v>1776</v>
       </c>
       <c r="F526" s="0" t="s">
-        <v>1812</v>
+        <v>1862</v>
       </c>
       <c r="G526" s="0" t="s">
-        <v>742</v>
+        <v>779</v>
       </c>
       <c r="H526" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I526" s="0" t="s">
-        <v>232</v>
+        <v>1796</v>
       </c>
       <c r="J526" s="0" t="s">
         <v>297</v>
@@ -49253,31 +49256,31 @@
     </row>
     <row r="527">
       <c r="A527" s="0" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="B527" s="0" t="s">
         <v>374</v>
       </c>
       <c r="C527" s="0" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D527" s="0" t="s">
         <v>1398</v>
       </c>
-      <c r="D527" s="0" t="s">
-        <v>718</v>
-      </c>
       <c r="E527" s="0" t="s">
         <v>1776</v>
       </c>
       <c r="F527" s="0" t="s">
-        <v>1862</v>
+        <v>1812</v>
       </c>
       <c r="G527" s="0" t="s">
-        <v>779</v>
+        <v>148</v>
       </c>
       <c r="H527" s="0" t="s">
-        <v>217</v>
+        <v>1782</v>
       </c>
       <c r="I527" s="0" t="s">
-        <v>1796</v>
+        <v>1802</v>
       </c>
       <c r="J527" s="0" t="s">
         <v>297</v>
@@ -49300,16 +49303,16 @@
         <v>1776</v>
       </c>
       <c r="F528" s="0" t="s">
-        <v>1812</v>
+        <v>1862</v>
       </c>
       <c r="G528" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H528" s="0" t="s">
-        <v>1782</v>
+        <v>217</v>
       </c>
       <c r="I528" s="0" t="s">
-        <v>1802</v>
+        <v>1866</v>
       </c>
       <c r="J528" s="0" t="s">
         <v>297</v>
@@ -49317,31 +49320,31 @@
     </row>
     <row r="529">
       <c r="A529" s="0" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="B529" s="0" t="s">
         <v>374</v>
       </c>
       <c r="C529" s="0" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="D529" s="0" t="s">
-        <v>1398</v>
+        <v>718</v>
       </c>
       <c r="E529" s="0" t="s">
         <v>1776</v>
       </c>
       <c r="F529" s="0" t="s">
-        <v>1862</v>
+        <v>1812</v>
       </c>
       <c r="G529" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H529" s="0" t="s">
-        <v>217</v>
+        <v>1782</v>
       </c>
       <c r="I529" s="0" t="s">
-        <v>1866</v>
+        <v>1803</v>
       </c>
       <c r="J529" s="0" t="s">
         <v>297</v>
@@ -49349,16 +49352,16 @@
     </row>
     <row r="530">
       <c r="A530" s="0" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="B530" s="0" t="s">
         <v>374</v>
       </c>
       <c r="C530" s="0" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D530" s="0" t="s">
         <v>1402</v>
-      </c>
-      <c r="D530" s="0" t="s">
-        <v>718</v>
       </c>
       <c r="E530" s="0" t="s">
         <v>1776</v>
@@ -49373,7 +49376,7 @@
         <v>1782</v>
       </c>
       <c r="I530" s="0" t="s">
-        <v>1803</v>
+        <v>1897</v>
       </c>
       <c r="J530" s="0" t="s">
         <v>297</v>
@@ -49396,16 +49399,16 @@
         <v>1776</v>
       </c>
       <c r="F531" s="0" t="s">
-        <v>1812</v>
+        <v>1793</v>
       </c>
       <c r="G531" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H531" s="0" t="s">
-        <v>1782</v>
+        <v>217</v>
       </c>
       <c r="I531" s="0" t="s">
-        <v>1898</v>
+        <v>165</v>
       </c>
       <c r="J531" s="0" t="s">
         <v>297</v>
@@ -49413,31 +49416,31 @@
     </row>
     <row r="532">
       <c r="A532" s="0" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="B532" s="0" t="s">
         <v>374</v>
       </c>
       <c r="C532" s="0" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="D532" s="0" t="s">
-        <v>1402</v>
+        <v>718</v>
       </c>
       <c r="E532" s="0" t="s">
         <v>1776</v>
       </c>
       <c r="F532" s="0" t="s">
-        <v>1793</v>
+        <v>1812</v>
       </c>
       <c r="G532" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H532" s="0" t="s">
-        <v>217</v>
+        <v>1782</v>
       </c>
       <c r="I532" s="0" t="s">
-        <v>165</v>
+        <v>1805</v>
       </c>
       <c r="J532" s="0" t="s">
         <v>297</v>
@@ -49445,16 +49448,16 @@
     </row>
     <row r="533">
       <c r="A533" s="0" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="B533" s="0" t="s">
         <v>374</v>
       </c>
       <c r="C533" s="0" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D533" s="0" t="s">
         <v>1406</v>
-      </c>
-      <c r="D533" s="0" t="s">
-        <v>718</v>
       </c>
       <c r="E533" s="0" t="s">
         <v>1776</v>
@@ -49469,7 +49472,7 @@
         <v>1782</v>
       </c>
       <c r="I533" s="0" t="s">
-        <v>1805</v>
+        <v>1837</v>
       </c>
       <c r="J533" s="0" t="s">
         <v>297</v>
@@ -49477,31 +49480,31 @@
     </row>
     <row r="534">
       <c r="A534" s="0" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="B534" s="0" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="C534" s="0" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="D534" s="0" t="s">
-        <v>1406</v>
+        <v>718</v>
       </c>
       <c r="E534" s="0" t="s">
         <v>1776</v>
       </c>
       <c r="F534" s="0" t="s">
-        <v>1812</v>
+        <v>1835</v>
       </c>
       <c r="G534" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H534" s="0" t="s">
-        <v>1782</v>
+        <v>24</v>
       </c>
       <c r="I534" s="0" t="s">
-        <v>1837</v>
+        <v>1898</v>
       </c>
       <c r="J534" s="0" t="s">
         <v>297</v>
@@ -49524,7 +49527,7 @@
         <v>1776</v>
       </c>
       <c r="F535" s="0" t="s">
-        <v>1835</v>
+        <v>1822</v>
       </c>
       <c r="G535" s="0" t="s">
         <v>148</v>
@@ -49533,7 +49536,7 @@
         <v>24</v>
       </c>
       <c r="I535" s="0" t="s">
-        <v>1899</v>
+        <v>62</v>
       </c>
       <c r="J535" s="0" t="s">
         <v>297</v>
@@ -49556,16 +49559,16 @@
         <v>1776</v>
       </c>
       <c r="F536" s="0" t="s">
-        <v>1822</v>
+        <v>1899</v>
       </c>
       <c r="G536" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H536" s="0" t="s">
-        <v>24</v>
+        <v>1900</v>
       </c>
       <c r="I536" s="0" t="s">
-        <v>62</v>
+        <v>232</v>
       </c>
       <c r="J536" s="0" t="s">
         <v>297</v>
@@ -49573,31 +49576,31 @@
     </row>
     <row r="537">
       <c r="A537" s="0" t="s">
-        <v>1409</v>
+        <v>1413</v>
       </c>
       <c r="B537" s="0" t="s">
         <v>385</v>
       </c>
       <c r="C537" s="0" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D537" s="0" t="s">
         <v>1410</v>
       </c>
-      <c r="D537" s="0" t="s">
-        <v>718</v>
-      </c>
       <c r="E537" s="0" t="s">
         <v>1776</v>
       </c>
       <c r="F537" s="0" t="s">
-        <v>1862</v>
+        <v>1812</v>
       </c>
       <c r="G537" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H537" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I537" s="0" t="s">
-        <v>62</v>
+        <v>1811</v>
       </c>
       <c r="J537" s="0" t="s">
         <v>297</v>
@@ -49620,16 +49623,16 @@
         <v>1776</v>
       </c>
       <c r="F538" s="0" t="s">
-        <v>1812</v>
+        <v>1831</v>
       </c>
       <c r="G538" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H538" s="0" t="s">
-        <v>1782</v>
+        <v>127</v>
       </c>
       <c r="I538" s="0" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
       <c r="J538" s="0" t="s">
         <v>297</v>
@@ -49652,16 +49655,16 @@
         <v>1776</v>
       </c>
       <c r="F539" s="0" t="s">
-        <v>1831</v>
+        <v>1793</v>
       </c>
       <c r="G539" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H539" s="0" t="s">
-        <v>127</v>
+        <v>1782</v>
       </c>
       <c r="I539" s="0" t="s">
-        <v>1796</v>
+        <v>1901</v>
       </c>
       <c r="J539" s="0" t="s">
         <v>297</v>
@@ -49669,22 +49672,22 @@
     </row>
     <row r="540">
       <c r="A540" s="0" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="B540" s="0" t="s">
         <v>385</v>
       </c>
       <c r="C540" s="0" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="D540" s="0" t="s">
-        <v>1410</v>
+        <v>718</v>
       </c>
       <c r="E540" s="0" t="s">
         <v>1776</v>
       </c>
       <c r="F540" s="0" t="s">
-        <v>1793</v>
+        <v>1812</v>
       </c>
       <c r="G540" s="0" t="s">
         <v>148</v>
@@ -49693,7 +49696,7 @@
         <v>1782</v>
       </c>
       <c r="I540" s="0" t="s">
-        <v>1900</v>
+        <v>1796</v>
       </c>
       <c r="J540" s="0" t="s">
         <v>297</v>
@@ -49701,16 +49704,16 @@
     </row>
     <row r="541">
       <c r="A541" s="0" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="B541" s="0" t="s">
         <v>385</v>
       </c>
       <c r="C541" s="0" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D541" s="0" t="s">
         <v>1416</v>
-      </c>
-      <c r="D541" s="0" t="s">
-        <v>718</v>
       </c>
       <c r="E541" s="0" t="s">
         <v>1776</v>
@@ -49725,7 +49728,7 @@
         <v>1782</v>
       </c>
       <c r="I541" s="0" t="s">
-        <v>1796</v>
+        <v>232</v>
       </c>
       <c r="J541" s="0" t="s">
         <v>297</v>
@@ -49748,16 +49751,16 @@
         <v>1776</v>
       </c>
       <c r="F542" s="0" t="s">
-        <v>1812</v>
+        <v>1862</v>
       </c>
       <c r="G542" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H542" s="0" t="s">
-        <v>1782</v>
+        <v>81</v>
       </c>
       <c r="I542" s="0" t="s">
-        <v>232</v>
+        <v>1818</v>
       </c>
       <c r="J542" s="0" t="s">
         <v>297</v>
@@ -49765,31 +49768,31 @@
     </row>
     <row r="543">
       <c r="A543" s="0" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="B543" s="0" t="s">
         <v>385</v>
       </c>
       <c r="C543" s="0" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="D543" s="0" t="s">
-        <v>1416</v>
+        <v>718</v>
       </c>
       <c r="E543" s="0" t="s">
         <v>1776</v>
       </c>
       <c r="F543" s="0" t="s">
-        <v>1862</v>
+        <v>1812</v>
       </c>
       <c r="G543" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H543" s="0" t="s">
-        <v>81</v>
+        <v>1782</v>
       </c>
       <c r="I543" s="0" t="s">
-        <v>1818</v>
+        <v>62</v>
       </c>
       <c r="J543" s="0" t="s">
         <v>297</v>
@@ -49797,13 +49800,13 @@
     </row>
     <row r="544">
       <c r="A544" s="0" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="B544" s="0" t="s">
         <v>385</v>
       </c>
       <c r="C544" s="0" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="D544" s="0" t="s">
         <v>718</v>
@@ -49821,7 +49824,7 @@
         <v>1782</v>
       </c>
       <c r="I544" s="0" t="s">
-        <v>62</v>
+        <v>1818</v>
       </c>
       <c r="J544" s="0" t="s">
         <v>297</v>
@@ -49829,16 +49832,16 @@
     </row>
     <row r="545">
       <c r="A545" s="0" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="B545" s="0" t="s">
         <v>385</v>
       </c>
       <c r="C545" s="0" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D545" s="0" t="s">
         <v>1423</v>
-      </c>
-      <c r="D545" s="0" t="s">
-        <v>718</v>
       </c>
       <c r="E545" s="0" t="s">
         <v>1776</v>
@@ -49853,7 +49856,7 @@
         <v>1782</v>
       </c>
       <c r="I545" s="0" t="s">
-        <v>1818</v>
+        <v>1902</v>
       </c>
       <c r="J545" s="0" t="s">
         <v>297</v>
@@ -49873,19 +49876,19 @@
         <v>1423</v>
       </c>
       <c r="E546" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F546" s="0" t="s">
-        <v>1812</v>
+        <v>1779</v>
       </c>
       <c r="G546" s="0" t="s">
-        <v>148</v>
+        <v>1786</v>
       </c>
       <c r="H546" s="0" t="s">
-        <v>1782</v>
+        <v>81</v>
       </c>
       <c r="I546" s="0" t="s">
-        <v>1901</v>
+        <v>24</v>
       </c>
       <c r="J546" s="0" t="s">
         <v>297</v>
@@ -49893,31 +49896,31 @@
     </row>
     <row r="547">
       <c r="A547" s="0" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="B547" s="0" t="s">
         <v>385</v>
       </c>
       <c r="C547" s="0" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="D547" s="0" t="s">
-        <v>1423</v>
+        <v>718</v>
       </c>
       <c r="E547" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F547" s="0" t="s">
-        <v>1779</v>
+        <v>1812</v>
       </c>
       <c r="G547" s="0" t="s">
-        <v>1786</v>
+        <v>148</v>
       </c>
       <c r="H547" s="0" t="s">
-        <v>81</v>
+        <v>1782</v>
       </c>
       <c r="I547" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J547" s="0" t="s">
         <v>297</v>
@@ -49925,16 +49928,16 @@
     </row>
     <row r="548">
       <c r="A548" s="0" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="B548" s="0" t="s">
         <v>385</v>
       </c>
       <c r="C548" s="0" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D548" s="0" t="s">
         <v>1427</v>
-      </c>
-      <c r="D548" s="0" t="s">
-        <v>718</v>
       </c>
       <c r="E548" s="0" t="s">
         <v>1776</v>
@@ -49949,7 +49952,7 @@
         <v>1782</v>
       </c>
       <c r="I548" s="0" t="s">
-        <v>488</v>
+        <v>1828</v>
       </c>
       <c r="J548" s="0" t="s">
         <v>297</v>
@@ -49972,16 +49975,16 @@
         <v>1776</v>
       </c>
       <c r="F549" s="0" t="s">
-        <v>1812</v>
+        <v>1795</v>
       </c>
       <c r="G549" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H549" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I549" s="0" t="s">
-        <v>1828</v>
+        <v>62</v>
       </c>
       <c r="J549" s="0" t="s">
         <v>297</v>
@@ -49989,31 +49992,31 @@
     </row>
     <row r="550">
       <c r="A550" s="0" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="B550" s="0" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="C550" s="0" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="D550" s="0" t="s">
-        <v>1427</v>
+        <v>718</v>
       </c>
       <c r="E550" s="0" t="s">
         <v>1776</v>
       </c>
       <c r="F550" s="0" t="s">
-        <v>1795</v>
+        <v>1835</v>
       </c>
       <c r="G550" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H550" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I550" s="0" t="s">
-        <v>62</v>
+        <v>1903</v>
       </c>
       <c r="J550" s="0" t="s">
         <v>297</v>
@@ -50036,16 +50039,16 @@
         <v>1776</v>
       </c>
       <c r="F551" s="0" t="s">
-        <v>1835</v>
+        <v>1812</v>
       </c>
       <c r="G551" s="0" t="s">
-        <v>148</v>
+        <v>742</v>
       </c>
       <c r="H551" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I551" s="0" t="s">
-        <v>1902</v>
+        <v>62</v>
       </c>
       <c r="J551" s="0" t="s">
         <v>297</v>
@@ -50068,16 +50071,16 @@
         <v>1776</v>
       </c>
       <c r="F552" s="0" t="s">
-        <v>1812</v>
+        <v>1822</v>
       </c>
       <c r="G552" s="0" t="s">
-        <v>742</v>
+        <v>318</v>
       </c>
       <c r="H552" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I552" s="0" t="s">
-        <v>62</v>
+        <v>232</v>
       </c>
       <c r="J552" s="0" t="s">
         <v>297</v>
@@ -50097,19 +50100,19 @@
         <v>718</v>
       </c>
       <c r="E553" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F553" s="0" t="s">
-        <v>1822</v>
+        <v>1838</v>
       </c>
       <c r="G553" s="0" t="s">
-        <v>318</v>
+        <v>1873</v>
       </c>
       <c r="H553" s="0" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="I553" s="0" t="s">
-        <v>232</v>
+        <v>24</v>
       </c>
       <c r="J553" s="0" t="s">
         <v>297</v>
@@ -50132,13 +50135,13 @@
         <v>1778</v>
       </c>
       <c r="F554" s="0" t="s">
-        <v>1838</v>
+        <v>1790</v>
       </c>
       <c r="G554" s="0" t="s">
-        <v>1873</v>
+        <v>742</v>
       </c>
       <c r="H554" s="0" t="s">
-        <v>127</v>
+        <v>513</v>
       </c>
       <c r="I554" s="0" t="s">
         <v>24</v>
@@ -50164,13 +50167,13 @@
         <v>1778</v>
       </c>
       <c r="F555" s="0" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="G555" s="0" t="s">
-        <v>742</v>
+        <v>127</v>
       </c>
       <c r="H555" s="0" t="s">
-        <v>513</v>
+        <v>231</v>
       </c>
       <c r="I555" s="0" t="s">
         <v>24</v>
@@ -50181,31 +50184,31 @@
     </row>
     <row r="556">
       <c r="A556" s="0" t="s">
-        <v>1430</v>
+        <v>1434</v>
       </c>
       <c r="B556" s="0" t="s">
         <v>398</v>
       </c>
       <c r="C556" s="0" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D556" s="0" t="s">
         <v>1431</v>
       </c>
-      <c r="D556" s="0" t="s">
-        <v>718</v>
-      </c>
       <c r="E556" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F556" s="0" t="s">
-        <v>1789</v>
+        <v>1812</v>
       </c>
       <c r="G556" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H556" s="0" t="s">
-        <v>231</v>
+        <v>1782</v>
       </c>
       <c r="I556" s="0" t="s">
-        <v>24</v>
+        <v>1782</v>
       </c>
       <c r="J556" s="0" t="s">
         <v>297</v>
@@ -50228,16 +50231,16 @@
         <v>1776</v>
       </c>
       <c r="F557" s="0" t="s">
-        <v>1812</v>
+        <v>1822</v>
       </c>
       <c r="G557" s="0" t="s">
-        <v>148</v>
+        <v>889</v>
       </c>
       <c r="H557" s="0" t="s">
         <v>1782</v>
       </c>
       <c r="I557" s="0" t="s">
-        <v>1782</v>
+        <v>1821</v>
       </c>
       <c r="J557" s="0" t="s">
         <v>297</v>
@@ -50245,31 +50248,31 @@
     </row>
     <row r="558">
       <c r="A558" s="0" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="B558" s="0" t="s">
         <v>398</v>
       </c>
       <c r="C558" s="0" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="D558" s="0" t="s">
-        <v>1431</v>
+        <v>718</v>
       </c>
       <c r="E558" s="0" t="s">
         <v>1776</v>
       </c>
       <c r="F558" s="0" t="s">
-        <v>1822</v>
+        <v>1812</v>
       </c>
       <c r="G558" s="0" t="s">
-        <v>889</v>
+        <v>148</v>
       </c>
       <c r="H558" s="0" t="s">
         <v>1782</v>
       </c>
       <c r="I558" s="0" t="s">
-        <v>1821</v>
+        <v>62</v>
       </c>
       <c r="J558" s="0" t="s">
         <v>297</v>
@@ -50292,10 +50295,10 @@
         <v>1776</v>
       </c>
       <c r="F559" s="0" t="s">
-        <v>1812</v>
+        <v>1822</v>
       </c>
       <c r="G559" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H559" s="0" t="s">
         <v>1782</v>
@@ -50309,13 +50312,13 @@
     </row>
     <row r="560">
       <c r="A560" s="0" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="B560" s="0" t="s">
         <v>398</v>
       </c>
       <c r="C560" s="0" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="D560" s="0" t="s">
         <v>718</v>
@@ -50324,16 +50327,16 @@
         <v>1776</v>
       </c>
       <c r="F560" s="0" t="s">
-        <v>1822</v>
+        <v>1812</v>
       </c>
       <c r="G560" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H560" s="0" t="s">
         <v>1782</v>
       </c>
       <c r="I560" s="0" t="s">
-        <v>62</v>
+        <v>1818</v>
       </c>
       <c r="J560" s="0" t="s">
         <v>297</v>
@@ -50356,10 +50359,10 @@
         <v>1776</v>
       </c>
       <c r="F561" s="0" t="s">
-        <v>1812</v>
+        <v>1822</v>
       </c>
       <c r="G561" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H561" s="0" t="s">
         <v>1782</v>
@@ -50373,13 +50376,13 @@
     </row>
     <row r="562">
       <c r="A562" s="0" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="B562" s="0" t="s">
         <v>398</v>
       </c>
       <c r="C562" s="0" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="D562" s="0" t="s">
         <v>718</v>
@@ -50388,16 +50391,16 @@
         <v>1776</v>
       </c>
       <c r="F562" s="0" t="s">
-        <v>1822</v>
+        <v>1812</v>
       </c>
       <c r="G562" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H562" s="0" t="s">
         <v>1782</v>
       </c>
       <c r="I562" s="0" t="s">
-        <v>1818</v>
+        <v>488</v>
       </c>
       <c r="J562" s="0" t="s">
         <v>297</v>
@@ -50420,10 +50423,10 @@
         <v>1776</v>
       </c>
       <c r="F563" s="0" t="s">
-        <v>1812</v>
+        <v>1822</v>
       </c>
       <c r="G563" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H563" s="0" t="s">
         <v>1782</v>
@@ -50437,13 +50440,13 @@
     </row>
     <row r="564">
       <c r="A564" s="0" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="B564" s="0" t="s">
         <v>398</v>
       </c>
       <c r="C564" s="0" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="D564" s="0" t="s">
         <v>718</v>
@@ -50452,16 +50455,16 @@
         <v>1776</v>
       </c>
       <c r="F564" s="0" t="s">
-        <v>1822</v>
+        <v>1812</v>
       </c>
       <c r="G564" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H564" s="0" t="s">
         <v>1782</v>
       </c>
       <c r="I564" s="0" t="s">
-        <v>488</v>
+        <v>1820</v>
       </c>
       <c r="J564" s="0" t="s">
         <v>297</v>
@@ -50484,10 +50487,10 @@
         <v>1776</v>
       </c>
       <c r="F565" s="0" t="s">
-        <v>1812</v>
+        <v>1822</v>
       </c>
       <c r="G565" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H565" s="0" t="s">
         <v>1782</v>
@@ -50501,66 +50504,66 @@
     </row>
     <row r="566">
       <c r="A566" s="0" t="s">
-        <v>1443</v>
+        <v>1461</v>
       </c>
       <c r="B566" s="0" t="s">
-        <v>398</v>
+        <v>431</v>
       </c>
       <c r="C566" s="0" t="s">
-        <v>1444</v>
+        <v>431</v>
       </c>
       <c r="D566" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E566" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F566" s="0" t="s">
-        <v>1822</v>
+        <v>1779</v>
       </c>
       <c r="G566" s="0" t="s">
-        <v>318</v>
+        <v>742</v>
       </c>
       <c r="H566" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I566" s="0" t="s">
-        <v>1820</v>
+        <v>24</v>
       </c>
       <c r="J566" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="0" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B567" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C567" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D567" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E567" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F567" s="0" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="G567" s="0" t="s">
-        <v>742</v>
+        <v>318</v>
       </c>
       <c r="H567" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I567" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J567" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="568">
@@ -50577,19 +50580,19 @@
         <v>718</v>
       </c>
       <c r="E568" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F568" s="0" t="s">
-        <v>1777</v>
+        <v>1790</v>
       </c>
       <c r="G568" s="0" t="s">
-        <v>318</v>
+        <v>742</v>
       </c>
       <c r="H568" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="I568" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J568" s="0" t="s">
         <v>297</v>
@@ -50597,31 +50600,31 @@
     </row>
     <row r="569">
       <c r="A569" s="0" t="s">
-        <v>1462</v>
+        <v>1468</v>
       </c>
       <c r="B569" s="0" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="C569" s="0" t="s">
-        <v>434</v>
+        <v>1469</v>
       </c>
       <c r="D569" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E569" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F569" s="0" t="s">
-        <v>1790</v>
+        <v>1812</v>
       </c>
       <c r="G569" s="0" t="s">
-        <v>742</v>
+        <v>148</v>
       </c>
       <c r="H569" s="0" t="s">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="I569" s="0" t="s">
-        <v>24</v>
+        <v>1820</v>
       </c>
       <c r="J569" s="0" t="s">
         <v>297</v>
@@ -50641,19 +50644,19 @@
         <v>718</v>
       </c>
       <c r="E570" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F570" s="0" t="s">
-        <v>1812</v>
+        <v>1790</v>
       </c>
       <c r="G570" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H570" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I570" s="0" t="s">
-        <v>1820</v>
+        <v>24</v>
       </c>
       <c r="J570" s="0" t="s">
         <v>297</v>
@@ -50661,31 +50664,31 @@
     </row>
     <row r="571">
       <c r="A571" s="0" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="B571" s="0" t="s">
         <v>448</v>
       </c>
       <c r="C571" s="0" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="D571" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E571" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F571" s="0" t="s">
-        <v>1790</v>
+        <v>1812</v>
       </c>
       <c r="G571" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H571" s="0" t="s">
-        <v>217</v>
+        <v>1782</v>
       </c>
       <c r="I571" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J571" s="0" t="s">
         <v>297</v>
@@ -50693,13 +50696,13 @@
     </row>
     <row r="572">
       <c r="A572" s="0" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="B572" s="0" t="s">
         <v>448</v>
       </c>
       <c r="C572" s="0" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="D572" s="0" t="s">
         <v>718</v>
@@ -50717,7 +50720,7 @@
         <v>1782</v>
       </c>
       <c r="I572" s="0" t="s">
-        <v>488</v>
+        <v>1820</v>
       </c>
       <c r="J572" s="0" t="s">
         <v>297</v>
@@ -50725,13 +50728,13 @@
     </row>
     <row r="573">
       <c r="A573" s="0" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="B573" s="0" t="s">
         <v>448</v>
       </c>
       <c r="C573" s="0" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="D573" s="0" t="s">
         <v>718</v>
@@ -50749,7 +50752,7 @@
         <v>1782</v>
       </c>
       <c r="I573" s="0" t="s">
-        <v>1820</v>
+        <v>1829</v>
       </c>
       <c r="J573" s="0" t="s">
         <v>297</v>
@@ -50757,13 +50760,13 @@
     </row>
     <row r="574">
       <c r="A574" s="0" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="B574" s="0" t="s">
         <v>448</v>
       </c>
       <c r="C574" s="0" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="D574" s="0" t="s">
         <v>718</v>
@@ -50781,7 +50784,7 @@
         <v>1782</v>
       </c>
       <c r="I574" s="0" t="s">
-        <v>1829</v>
+        <v>1821</v>
       </c>
       <c r="J574" s="0" t="s">
         <v>297</v>
@@ -50804,16 +50807,16 @@
         <v>1776</v>
       </c>
       <c r="F575" s="0" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="G575" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H575" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I575" s="0" t="s">
-        <v>1821</v>
+        <v>1796</v>
       </c>
       <c r="J575" s="0" t="s">
         <v>297</v>
@@ -50833,19 +50836,19 @@
         <v>718</v>
       </c>
       <c r="E576" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F576" s="0" t="s">
-        <v>1813</v>
+        <v>1779</v>
       </c>
       <c r="G576" s="0" t="s">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="H576" s="0" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="I576" s="0" t="s">
-        <v>1796</v>
+        <v>24</v>
       </c>
       <c r="J576" s="0" t="s">
         <v>297</v>
@@ -50853,31 +50856,31 @@
     </row>
     <row r="577">
       <c r="A577" s="0" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="B577" s="0" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C577" s="0" t="s">
-        <v>1477</v>
+        <v>454</v>
       </c>
       <c r="D577" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E577" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F577" s="0" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="G577" s="0" t="s">
-        <v>127</v>
+        <v>318</v>
       </c>
       <c r="H577" s="0" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="I577" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J577" s="0" t="s">
         <v>297</v>
@@ -50885,28 +50888,28 @@
     </row>
     <row r="578">
       <c r="A578" s="0" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="B578" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C578" s="0" t="s">
-        <v>454</v>
+        <v>1482</v>
       </c>
       <c r="D578" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E578" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F578" s="0" t="s">
-        <v>1777</v>
+        <v>1808</v>
       </c>
       <c r="G578" s="0" t="s">
-        <v>318</v>
+        <v>1786</v>
       </c>
       <c r="H578" s="0" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="I578" s="0" t="s">
         <v>488</v>
@@ -50917,13 +50920,13 @@
     </row>
     <row r="579">
       <c r="A579" s="0" t="s">
-        <v>1481</v>
+        <v>1501</v>
       </c>
       <c r="B579" s="0" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C579" s="0" t="s">
-        <v>1482</v>
+        <v>1502</v>
       </c>
       <c r="D579" s="0" t="s">
         <v>718</v>
@@ -50932,30 +50935,30 @@
         <v>1778</v>
       </c>
       <c r="F579" s="0" t="s">
-        <v>1808</v>
+        <v>1779</v>
       </c>
       <c r="G579" s="0" t="s">
         <v>1786</v>
       </c>
       <c r="H579" s="0" t="s">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="I579" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J579" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="0" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="B580" s="0" t="s">
         <v>463</v>
       </c>
       <c r="C580" s="0" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="D580" s="0" t="s">
         <v>718</v>
@@ -50981,13 +50984,13 @@
     </row>
     <row r="581">
       <c r="A581" s="0" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="B581" s="0" t="s">
         <v>463</v>
       </c>
       <c r="C581" s="0" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="D581" s="0" t="s">
         <v>718</v>
@@ -50999,10 +51002,10 @@
         <v>1779</v>
       </c>
       <c r="G581" s="0" t="s">
-        <v>1786</v>
+        <v>127</v>
       </c>
       <c r="H581" s="0" t="s">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="I581" s="0" t="s">
         <v>24</v>
@@ -51013,34 +51016,34 @@
     </row>
     <row r="582">
       <c r="A582" s="0" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="B582" s="0" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C582" s="0" t="s">
-        <v>1506</v>
+        <v>466</v>
       </c>
       <c r="D582" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E582" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F582" s="0" t="s">
-        <v>1779</v>
+        <v>1792</v>
       </c>
       <c r="G582" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H582" s="0" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="I582" s="0" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="J582" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="583">
@@ -51060,7 +51063,7 @@
         <v>1776</v>
       </c>
       <c r="F583" s="0" t="s">
-        <v>1792</v>
+        <v>1822</v>
       </c>
       <c r="G583" s="0" t="s">
         <v>148</v>
@@ -51069,7 +51072,7 @@
         <v>24</v>
       </c>
       <c r="I583" s="0" t="s">
-        <v>243</v>
+        <v>1782</v>
       </c>
       <c r="J583" s="0" t="s">
         <v>297</v>
@@ -51089,19 +51092,19 @@
         <v>718</v>
       </c>
       <c r="E584" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F584" s="0" t="s">
-        <v>1822</v>
+        <v>1789</v>
       </c>
       <c r="G584" s="0" t="s">
-        <v>148</v>
+        <v>889</v>
       </c>
       <c r="H584" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I584" s="0" t="s">
-        <v>1782</v>
+        <v>24</v>
       </c>
       <c r="J584" s="0" t="s">
         <v>297</v>
@@ -51109,31 +51112,31 @@
     </row>
     <row r="585">
       <c r="A585" s="0" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B585" s="0" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C585" s="0" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D585" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E585" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F585" s="0" t="s">
-        <v>1789</v>
+        <v>1792</v>
       </c>
       <c r="G585" s="0" t="s">
-        <v>889</v>
+        <v>148</v>
       </c>
       <c r="H585" s="0" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="I585" s="0" t="s">
-        <v>24</v>
+        <v>1904</v>
       </c>
       <c r="J585" s="0" t="s">
         <v>297</v>
@@ -51153,19 +51156,19 @@
         <v>718</v>
       </c>
       <c r="E586" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F586" s="0" t="s">
-        <v>1792</v>
+        <v>1808</v>
       </c>
       <c r="G586" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H586" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I586" s="0" t="s">
-        <v>1903</v>
+        <v>488</v>
       </c>
       <c r="J586" s="0" t="s">
         <v>297</v>
@@ -51188,16 +51191,16 @@
         <v>1778</v>
       </c>
       <c r="F587" s="0" t="s">
-        <v>1808</v>
+        <v>1814</v>
       </c>
       <c r="G587" s="0" t="s">
-        <v>148</v>
+        <v>889</v>
       </c>
       <c r="H587" s="0" t="s">
         <v>217</v>
       </c>
       <c r="I587" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J587" s="0" t="s">
         <v>297</v>
@@ -51205,31 +51208,31 @@
     </row>
     <row r="588">
       <c r="A588" s="0" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B588" s="0" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C588" s="0" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D588" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E588" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F588" s="0" t="s">
-        <v>1814</v>
+        <v>1822</v>
       </c>
       <c r="G588" s="0" t="s">
         <v>889</v>
       </c>
       <c r="H588" s="0" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="I588" s="0" t="s">
-        <v>24</v>
+        <v>1782</v>
       </c>
       <c r="J588" s="0" t="s">
         <v>297</v>
@@ -51249,19 +51252,19 @@
         <v>718</v>
       </c>
       <c r="E589" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F589" s="0" t="s">
-        <v>1822</v>
+        <v>1838</v>
       </c>
       <c r="G589" s="0" t="s">
-        <v>889</v>
+        <v>148</v>
       </c>
       <c r="H589" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I589" s="0" t="s">
-        <v>1782</v>
+        <v>24</v>
       </c>
       <c r="J589" s="0" t="s">
         <v>297</v>
@@ -51269,31 +51272,31 @@
     </row>
     <row r="590">
       <c r="A590" s="0" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B590" s="0" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C590" s="0" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D590" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E590" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F590" s="0" t="s">
-        <v>1838</v>
+        <v>1822</v>
       </c>
       <c r="G590" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H590" s="0" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="I590" s="0" t="s">
-        <v>24</v>
+        <v>1818</v>
       </c>
       <c r="J590" s="0" t="s">
         <v>297</v>
@@ -51301,77 +51304,77 @@
     </row>
     <row r="591">
       <c r="A591" s="0" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B591" s="0" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C591" s="0" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D591" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E591" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F591" s="0" t="s">
-        <v>1822</v>
+        <v>1779</v>
       </c>
       <c r="G591" s="0" t="s">
-        <v>318</v>
+        <v>889</v>
       </c>
       <c r="H591" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I591" s="0" t="s">
-        <v>1818</v>
+        <v>24</v>
       </c>
       <c r="J591" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="0" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="B592" s="0" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C592" s="0" t="s">
-        <v>478</v>
+        <v>1514</v>
       </c>
       <c r="D592" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E592" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F592" s="0" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="G592" s="0" t="s">
-        <v>889</v>
+        <v>148</v>
       </c>
       <c r="H592" s="0" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="I592" s="0" t="s">
-        <v>24</v>
+        <v>1796</v>
       </c>
       <c r="J592" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="0" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="B593" s="0" t="s">
         <v>481</v>
       </c>
       <c r="C593" s="0" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="D593" s="0" t="s">
         <v>718</v>
@@ -51386,10 +51389,10 @@
         <v>148</v>
       </c>
       <c r="H593" s="0" t="s">
-        <v>24</v>
+        <v>1782</v>
       </c>
       <c r="I593" s="0" t="s">
-        <v>1796</v>
+        <v>62</v>
       </c>
       <c r="J593" s="0" t="s">
         <v>297</v>
@@ -51397,13 +51400,13 @@
     </row>
     <row r="594">
       <c r="A594" s="0" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="B594" s="0" t="s">
         <v>481</v>
       </c>
       <c r="C594" s="0" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="D594" s="0" t="s">
         <v>718</v>
@@ -51421,7 +51424,7 @@
         <v>1782</v>
       </c>
       <c r="I594" s="0" t="s">
-        <v>62</v>
+        <v>1818</v>
       </c>
       <c r="J594" s="0" t="s">
         <v>297</v>
@@ -51444,16 +51447,16 @@
         <v>1776</v>
       </c>
       <c r="F595" s="0" t="s">
-        <v>1777</v>
+        <v>1792</v>
       </c>
       <c r="G595" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H595" s="0" t="s">
         <v>1782</v>
       </c>
       <c r="I595" s="0" t="s">
-        <v>1818</v>
+        <v>721</v>
       </c>
       <c r="J595" s="0" t="s">
         <v>297</v>
@@ -51461,13 +51464,13 @@
     </row>
     <row r="596">
       <c r="A596" s="0" t="s">
-        <v>1517</v>
+        <v>1521</v>
       </c>
       <c r="B596" s="0" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="C596" s="0" t="s">
-        <v>1518</v>
+        <v>1522</v>
       </c>
       <c r="D596" s="0" t="s">
         <v>718</v>
@@ -51476,16 +51479,16 @@
         <v>1776</v>
       </c>
       <c r="F596" s="0" t="s">
-        <v>1792</v>
+        <v>1812</v>
       </c>
       <c r="G596" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H596" s="0" t="s">
-        <v>1782</v>
+        <v>24</v>
       </c>
       <c r="I596" s="0" t="s">
-        <v>721</v>
+        <v>1796</v>
       </c>
       <c r="J596" s="0" t="s">
         <v>297</v>
@@ -51508,13 +51511,13 @@
         <v>1776</v>
       </c>
       <c r="F597" s="0" t="s">
-        <v>1812</v>
+        <v>1795</v>
       </c>
       <c r="G597" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H597" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I597" s="0" t="s">
         <v>1796</v>
@@ -51525,13 +51528,13 @@
     </row>
     <row r="598">
       <c r="A598" s="0" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="B598" s="0" t="s">
         <v>487</v>
       </c>
       <c r="C598" s="0" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="D598" s="0" t="s">
         <v>718</v>
@@ -51540,16 +51543,16 @@
         <v>1776</v>
       </c>
       <c r="F598" s="0" t="s">
-        <v>1795</v>
+        <v>1777</v>
       </c>
       <c r="G598" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H598" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I598" s="0" t="s">
-        <v>1796</v>
+        <v>62</v>
       </c>
       <c r="J598" s="0" t="s">
         <v>297</v>
@@ -51572,13 +51575,13 @@
         <v>1776</v>
       </c>
       <c r="F599" s="0" t="s">
-        <v>1777</v>
+        <v>1795</v>
       </c>
       <c r="G599" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H599" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I599" s="0" t="s">
         <v>62</v>
@@ -51589,13 +51592,13 @@
     </row>
     <row r="600">
       <c r="A600" s="0" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B600" s="0" t="s">
         <v>487</v>
       </c>
       <c r="C600" s="0" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="D600" s="0" t="s">
         <v>718</v>
@@ -51604,16 +51607,16 @@
         <v>1776</v>
       </c>
       <c r="F600" s="0" t="s">
-        <v>1795</v>
+        <v>1777</v>
       </c>
       <c r="G600" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H600" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I600" s="0" t="s">
-        <v>62</v>
+        <v>1818</v>
       </c>
       <c r="J600" s="0" t="s">
         <v>297</v>
@@ -51636,13 +51639,13 @@
         <v>1776</v>
       </c>
       <c r="F601" s="0" t="s">
-        <v>1777</v>
+        <v>1795</v>
       </c>
       <c r="G601" s="0" t="s">
-        <v>148</v>
+        <v>1796</v>
       </c>
       <c r="H601" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I601" s="0" t="s">
         <v>1818</v>
@@ -51653,13 +51656,13 @@
     </row>
     <row r="602">
       <c r="A602" s="0" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="B602" s="0" t="s">
         <v>487</v>
       </c>
       <c r="C602" s="0" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="D602" s="0" t="s">
         <v>718</v>
@@ -51668,16 +51671,16 @@
         <v>1776</v>
       </c>
       <c r="F602" s="0" t="s">
-        <v>1795</v>
+        <v>1777</v>
       </c>
       <c r="G602" s="0" t="s">
-        <v>1796</v>
+        <v>148</v>
       </c>
       <c r="H602" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I602" s="0" t="s">
-        <v>1818</v>
+        <v>488</v>
       </c>
       <c r="J602" s="0" t="s">
         <v>297</v>
@@ -51700,13 +51703,13 @@
         <v>1776</v>
       </c>
       <c r="F603" s="0" t="s">
-        <v>1777</v>
+        <v>1795</v>
       </c>
       <c r="G603" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H603" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I603" s="0" t="s">
         <v>488</v>
@@ -51717,13 +51720,13 @@
     </row>
     <row r="604">
       <c r="A604" s="0" t="s">
-        <v>1527</v>
+        <v>1532</v>
       </c>
       <c r="B604" s="0" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="C604" s="0" t="s">
-        <v>1528</v>
+        <v>1533</v>
       </c>
       <c r="D604" s="0" t="s">
         <v>718</v>
@@ -51732,16 +51735,16 @@
         <v>1776</v>
       </c>
       <c r="F604" s="0" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="G604" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H604" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I604" s="0" t="s">
-        <v>488</v>
+        <v>1905</v>
       </c>
       <c r="J604" s="0" t="s">
         <v>297</v>
@@ -51749,13 +51752,13 @@
     </row>
     <row r="605">
       <c r="A605" s="0" t="s">
-        <v>1532</v>
+        <v>1535</v>
       </c>
       <c r="B605" s="0" t="s">
         <v>494</v>
       </c>
       <c r="C605" s="0" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="D605" s="0" t="s">
         <v>718</v>
@@ -51764,16 +51767,16 @@
         <v>1776</v>
       </c>
       <c r="F605" s="0" t="s">
-        <v>1792</v>
+        <v>1777</v>
       </c>
       <c r="G605" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H605" s="0" t="s">
-        <v>24</v>
+        <v>1782</v>
       </c>
       <c r="I605" s="0" t="s">
-        <v>1904</v>
+        <v>62</v>
       </c>
       <c r="J605" s="0" t="s">
         <v>297</v>
@@ -51793,19 +51796,19 @@
         <v>718</v>
       </c>
       <c r="E606" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F606" s="0" t="s">
-        <v>1777</v>
+        <v>1808</v>
       </c>
       <c r="G606" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H606" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I606" s="0" t="s">
-        <v>62</v>
+        <v>1796</v>
       </c>
       <c r="J606" s="0" t="s">
         <v>297</v>
@@ -51813,31 +51816,31 @@
     </row>
     <row r="607">
       <c r="A607" s="0" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="B607" s="0" t="s">
         <v>494</v>
       </c>
       <c r="C607" s="0" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="D607" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E607" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F607" s="0" t="s">
-        <v>1808</v>
+        <v>1791</v>
       </c>
       <c r="G607" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H607" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I607" s="0" t="s">
-        <v>1796</v>
+        <v>1818</v>
       </c>
       <c r="J607" s="0" t="s">
         <v>297</v>
@@ -51857,19 +51860,19 @@
         <v>718</v>
       </c>
       <c r="E608" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F608" s="0" t="s">
-        <v>1791</v>
+        <v>1779</v>
       </c>
       <c r="G608" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H608" s="0" t="s">
-        <v>1782</v>
+        <v>231</v>
       </c>
       <c r="I608" s="0" t="s">
-        <v>1818</v>
+        <v>24</v>
       </c>
       <c r="J608" s="0" t="s">
         <v>297</v>
@@ -51877,31 +51880,31 @@
     </row>
     <row r="609">
       <c r="A609" s="0" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="B609" s="0" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C609" s="0" t="s">
-        <v>1538</v>
+        <v>497</v>
       </c>
       <c r="D609" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E609" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F609" s="0" t="s">
-        <v>1779</v>
+        <v>1792</v>
       </c>
       <c r="G609" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H609" s="0" t="s">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="I609" s="0" t="s">
-        <v>24</v>
+        <v>1906</v>
       </c>
       <c r="J609" s="0" t="s">
         <v>297</v>
@@ -51909,13 +51912,13 @@
     </row>
     <row r="610">
       <c r="A610" s="0" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="B610" s="0" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C610" s="0" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D610" s="0" t="s">
         <v>718</v>
@@ -51933,7 +51936,7 @@
         <v>24</v>
       </c>
       <c r="I610" s="0" t="s">
-        <v>1905</v>
+        <v>334</v>
       </c>
       <c r="J610" s="0" t="s">
         <v>297</v>
@@ -51941,13 +51944,13 @@
     </row>
     <row r="611">
       <c r="A611" s="0" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="B611" s="0" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C611" s="0" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D611" s="0" t="s">
         <v>718</v>
@@ -51965,7 +51968,7 @@
         <v>24</v>
       </c>
       <c r="I611" s="0" t="s">
-        <v>334</v>
+        <v>1907</v>
       </c>
       <c r="J611" s="0" t="s">
         <v>297</v>
@@ -51985,54 +51988,54 @@
         <v>718</v>
       </c>
       <c r="E612" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F612" s="0" t="s">
-        <v>1792</v>
+        <v>1779</v>
       </c>
       <c r="G612" s="0" t="s">
-        <v>148</v>
+        <v>889</v>
       </c>
       <c r="H612" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="I612" s="0" t="s">
-        <v>1906</v>
+        <v>24</v>
       </c>
       <c r="J612" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="0" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="B613" s="0" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C613" s="0" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D613" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E613" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F613" s="0" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="G613" s="0" t="s">
-        <v>889</v>
+        <v>318</v>
       </c>
       <c r="H613" s="0" t="s">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="I613" s="0" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="J613" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="614">
@@ -52049,19 +52052,19 @@
         <v>718</v>
       </c>
       <c r="E614" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F614" s="0" t="s">
-        <v>1777</v>
+        <v>1791</v>
       </c>
       <c r="G614" s="0" t="s">
         <v>318</v>
       </c>
       <c r="H614" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I614" s="0" t="s">
-        <v>62</v>
+        <v>488</v>
       </c>
       <c r="J614" s="0" t="s">
         <v>297</v>
@@ -52069,13 +52072,13 @@
     </row>
     <row r="615">
       <c r="A615" s="0" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="B615" s="0" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C615" s="0" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D615" s="0" t="s">
         <v>718</v>
@@ -52084,16 +52087,16 @@
         <v>1778</v>
       </c>
       <c r="F615" s="0" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="G615" s="0" t="s">
-        <v>318</v>
+        <v>802</v>
       </c>
       <c r="H615" s="0" t="s">
-        <v>163</v>
+        <v>231</v>
       </c>
       <c r="I615" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J615" s="0" t="s">
         <v>297</v>
@@ -52101,31 +52104,31 @@
     </row>
     <row r="616">
       <c r="A616" s="0" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="B616" s="0" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C616" s="0" t="s">
-        <v>509</v>
+        <v>1549</v>
       </c>
       <c r="D616" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E616" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F616" s="0" t="s">
-        <v>1789</v>
+        <v>1812</v>
       </c>
       <c r="G616" s="0" t="s">
-        <v>802</v>
+        <v>148</v>
       </c>
       <c r="H616" s="0" t="s">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="I616" s="0" t="s">
-        <v>24</v>
+        <v>1796</v>
       </c>
       <c r="J616" s="0" t="s">
         <v>297</v>
@@ -52133,13 +52136,13 @@
     </row>
     <row r="617">
       <c r="A617" s="0" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="B617" s="0" t="s">
         <v>512</v>
       </c>
       <c r="C617" s="0" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="D617" s="0" t="s">
         <v>718</v>
@@ -52148,16 +52151,16 @@
         <v>1776</v>
       </c>
       <c r="F617" s="0" t="s">
-        <v>1812</v>
+        <v>1777</v>
       </c>
       <c r="G617" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H617" s="0" t="s">
-        <v>24</v>
+        <v>1782</v>
       </c>
       <c r="I617" s="0" t="s">
-        <v>1796</v>
+        <v>232</v>
       </c>
       <c r="J617" s="0" t="s">
         <v>297</v>
@@ -52165,13 +52168,13 @@
     </row>
     <row r="618">
       <c r="A618" s="0" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="B618" s="0" t="s">
         <v>512</v>
       </c>
       <c r="C618" s="0" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="D618" s="0" t="s">
         <v>718</v>
@@ -52189,7 +52192,7 @@
         <v>1782</v>
       </c>
       <c r="I618" s="0" t="s">
-        <v>232</v>
+        <v>488</v>
       </c>
       <c r="J618" s="0" t="s">
         <v>297</v>
@@ -52197,16 +52200,16 @@
     </row>
     <row r="619">
       <c r="A619" s="0" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="B619" s="0" t="s">
         <v>512</v>
       </c>
       <c r="C619" s="0" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D619" s="0" t="s">
         <v>1554</v>
-      </c>
-      <c r="D619" s="0" t="s">
-        <v>718</v>
       </c>
       <c r="E619" s="0" t="s">
         <v>1776</v>
@@ -52221,7 +52224,7 @@
         <v>1782</v>
       </c>
       <c r="I619" s="0" t="s">
-        <v>488</v>
+        <v>1782</v>
       </c>
       <c r="J619" s="0" t="s">
         <v>297</v>
@@ -52229,13 +52232,13 @@
     </row>
     <row r="620">
       <c r="A620" s="0" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="B620" s="0" t="s">
         <v>512</v>
       </c>
       <c r="C620" s="0" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="D620" s="0" t="s">
         <v>1554</v>
@@ -52253,7 +52256,7 @@
         <v>1782</v>
       </c>
       <c r="I620" s="0" t="s">
-        <v>1782</v>
+        <v>231</v>
       </c>
       <c r="J620" s="0" t="s">
         <v>297</v>
@@ -52261,16 +52264,16 @@
     </row>
     <row r="621">
       <c r="A621" s="0" t="s">
-        <v>1557</v>
+        <v>1561</v>
       </c>
       <c r="B621" s="0" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="C621" s="0" t="s">
-        <v>1558</v>
+        <v>522</v>
       </c>
       <c r="D621" s="0" t="s">
-        <v>1554</v>
+        <v>718</v>
       </c>
       <c r="E621" s="0" t="s">
         <v>1776</v>
@@ -52279,13 +52282,13 @@
         <v>1777</v>
       </c>
       <c r="G621" s="0" t="s">
-        <v>148</v>
+        <v>742</v>
       </c>
       <c r="H621" s="0" t="s">
-        <v>1782</v>
+        <v>24</v>
       </c>
       <c r="I621" s="0" t="s">
-        <v>231</v>
+        <v>62</v>
       </c>
       <c r="J621" s="0" t="s">
         <v>297</v>
@@ -52293,31 +52296,31 @@
     </row>
     <row r="622">
       <c r="A622" s="0" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B622" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C622" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D622" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E622" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F622" s="0" t="s">
-        <v>1777</v>
+        <v>1814</v>
       </c>
       <c r="G622" s="0" t="s">
-        <v>742</v>
+        <v>148</v>
       </c>
       <c r="H622" s="0" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I622" s="0" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="J622" s="0" t="s">
         <v>297</v>
@@ -52325,13 +52328,13 @@
     </row>
     <row r="623">
       <c r="A623" s="0" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
       <c r="B623" s="0" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="C623" s="0" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="D623" s="0" t="s">
         <v>718</v>
@@ -52340,62 +52343,62 @@
         <v>1778</v>
       </c>
       <c r="F623" s="0" t="s">
-        <v>1814</v>
+        <v>1779</v>
       </c>
       <c r="G623" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H623" s="0" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="I623" s="0" t="s">
         <v>24</v>
       </c>
       <c r="J623" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="0" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="B624" s="0" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C624" s="0" t="s">
-        <v>531</v>
+        <v>1568</v>
       </c>
       <c r="D624" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E624" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F624" s="0" t="s">
-        <v>1779</v>
+        <v>1812</v>
       </c>
       <c r="G624" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H624" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I624" s="0" t="s">
-        <v>24</v>
+        <v>1805</v>
       </c>
       <c r="J624" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="0" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="B625" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C625" s="0" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="D625" s="0" t="s">
         <v>718</v>
@@ -52410,10 +52413,10 @@
         <v>148</v>
       </c>
       <c r="H625" s="0" t="s">
-        <v>24</v>
+        <v>1782</v>
       </c>
       <c r="I625" s="0" t="s">
-        <v>1805</v>
+        <v>62</v>
       </c>
       <c r="J625" s="0" t="s">
         <v>297</v>
@@ -52421,13 +52424,13 @@
     </row>
     <row r="626">
       <c r="A626" s="0" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="B626" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C626" s="0" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="D626" s="0" t="s">
         <v>718</v>
@@ -52445,7 +52448,7 @@
         <v>1782</v>
       </c>
       <c r="I626" s="0" t="s">
-        <v>62</v>
+        <v>1819</v>
       </c>
       <c r="J626" s="0" t="s">
         <v>297</v>
@@ -52453,16 +52456,16 @@
     </row>
     <row r="627">
       <c r="A627" s="0" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="B627" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C627" s="0" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D627" s="0" t="s">
         <v>1572</v>
-      </c>
-      <c r="D627" s="0" t="s">
-        <v>718</v>
       </c>
       <c r="E627" s="0" t="s">
         <v>1776</v>
@@ -52477,7 +52480,7 @@
         <v>1782</v>
       </c>
       <c r="I627" s="0" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="J627" s="0" t="s">
         <v>297</v>
@@ -52497,19 +52500,19 @@
         <v>1572</v>
       </c>
       <c r="E628" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F628" s="0" t="s">
-        <v>1812</v>
+        <v>1790</v>
       </c>
       <c r="G628" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H628" s="0" t="s">
-        <v>1782</v>
+        <v>217</v>
       </c>
       <c r="I628" s="0" t="s">
-        <v>1820</v>
+        <v>24</v>
       </c>
       <c r="J628" s="0" t="s">
         <v>297</v>
@@ -52517,31 +52520,31 @@
     </row>
     <row r="629">
       <c r="A629" s="0" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="B629" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C629" s="0" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="D629" s="0" t="s">
-        <v>1572</v>
+        <v>718</v>
       </c>
       <c r="E629" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F629" s="0" t="s">
-        <v>1790</v>
+        <v>1812</v>
       </c>
       <c r="G629" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H629" s="0" t="s">
-        <v>217</v>
+        <v>1782</v>
       </c>
       <c r="I629" s="0" t="s">
-        <v>24</v>
+        <v>1820</v>
       </c>
       <c r="J629" s="0" t="s">
         <v>297</v>
@@ -52549,16 +52552,16 @@
     </row>
     <row r="630">
       <c r="A630" s="0" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="B630" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C630" s="0" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D630" s="0" t="s">
         <v>1576</v>
-      </c>
-      <c r="D630" s="0" t="s">
-        <v>718</v>
       </c>
       <c r="E630" s="0" t="s">
         <v>1776</v>
@@ -52573,7 +52576,7 @@
         <v>1782</v>
       </c>
       <c r="I630" s="0" t="s">
-        <v>1820</v>
+        <v>1840</v>
       </c>
       <c r="J630" s="0" t="s">
         <v>297</v>
@@ -52593,19 +52596,19 @@
         <v>1576</v>
       </c>
       <c r="E631" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F631" s="0" t="s">
-        <v>1812</v>
+        <v>1790</v>
       </c>
       <c r="G631" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H631" s="0" t="s">
-        <v>1782</v>
+        <v>81</v>
       </c>
       <c r="I631" s="0" t="s">
-        <v>1840</v>
+        <v>24</v>
       </c>
       <c r="J631" s="0" t="s">
         <v>297</v>
@@ -52613,31 +52616,31 @@
     </row>
     <row r="632">
       <c r="A632" s="0" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="B632" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C632" s="0" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="D632" s="0" t="s">
-        <v>1576</v>
+        <v>718</v>
       </c>
       <c r="E632" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F632" s="0" t="s">
-        <v>1790</v>
+        <v>1812</v>
       </c>
       <c r="G632" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H632" s="0" t="s">
-        <v>81</v>
+        <v>1782</v>
       </c>
       <c r="I632" s="0" t="s">
-        <v>24</v>
+        <v>1840</v>
       </c>
       <c r="J632" s="0" t="s">
         <v>297</v>
@@ -52645,16 +52648,16 @@
     </row>
     <row r="633">
       <c r="A633" s="0" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="B633" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C633" s="0" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D633" s="0" t="s">
         <v>1580</v>
-      </c>
-      <c r="D633" s="0" t="s">
-        <v>718</v>
       </c>
       <c r="E633" s="0" t="s">
         <v>1776</v>
@@ -52669,7 +52672,7 @@
         <v>1782</v>
       </c>
       <c r="I633" s="0" t="s">
-        <v>1840</v>
+        <v>1782</v>
       </c>
       <c r="J633" s="0" t="s">
         <v>297</v>
@@ -52689,19 +52692,19 @@
         <v>1580</v>
       </c>
       <c r="E634" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F634" s="0" t="s">
-        <v>1812</v>
+        <v>1790</v>
       </c>
       <c r="G634" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H634" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I634" s="0" t="s">
-        <v>1782</v>
+        <v>24</v>
       </c>
       <c r="J634" s="0" t="s">
         <v>297</v>
@@ -52709,31 +52712,31 @@
     </row>
     <row r="635">
       <c r="A635" s="0" t="s">
-        <v>1581</v>
+        <v>1586</v>
       </c>
       <c r="B635" s="0" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="C635" s="0" t="s">
-        <v>1582</v>
+        <v>1587</v>
       </c>
       <c r="D635" s="0" t="s">
-        <v>1580</v>
+        <v>718</v>
       </c>
       <c r="E635" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F635" s="0" t="s">
-        <v>1790</v>
+        <v>1777</v>
       </c>
       <c r="G635" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H635" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I635" s="0" t="s">
-        <v>24</v>
+        <v>1796</v>
       </c>
       <c r="J635" s="0" t="s">
         <v>297</v>
@@ -52741,13 +52744,13 @@
     </row>
     <row r="636">
       <c r="A636" s="0" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="B636" s="0" t="s">
         <v>549</v>
       </c>
       <c r="C636" s="0" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="D636" s="0" t="s">
         <v>718</v>
@@ -52762,10 +52765,10 @@
         <v>148</v>
       </c>
       <c r="H636" s="0" t="s">
-        <v>24</v>
+        <v>1782</v>
       </c>
       <c r="I636" s="0" t="s">
-        <v>1796</v>
+        <v>1818</v>
       </c>
       <c r="J636" s="0" t="s">
         <v>297</v>
@@ -52773,13 +52776,13 @@
     </row>
     <row r="637">
       <c r="A637" s="0" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="B637" s="0" t="s">
         <v>549</v>
       </c>
       <c r="C637" s="0" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="D637" s="0" t="s">
         <v>718</v>
@@ -52797,7 +52800,7 @@
         <v>1782</v>
       </c>
       <c r="I637" s="0" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="J637" s="0" t="s">
         <v>297</v>
@@ -52805,13 +52808,13 @@
     </row>
     <row r="638">
       <c r="A638" s="0" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="B638" s="0" t="s">
         <v>549</v>
       </c>
       <c r="C638" s="0" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="D638" s="0" t="s">
         <v>718</v>
@@ -52829,7 +52832,7 @@
         <v>1782</v>
       </c>
       <c r="I638" s="0" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="J638" s="0" t="s">
         <v>297</v>
@@ -52837,13 +52840,13 @@
     </row>
     <row r="639">
       <c r="A639" s="0" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="B639" s="0" t="s">
         <v>549</v>
       </c>
       <c r="C639" s="0" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="D639" s="0" t="s">
         <v>718</v>
@@ -52861,7 +52864,7 @@
         <v>1782</v>
       </c>
       <c r="I639" s="0" t="s">
-        <v>1821</v>
+        <v>1782</v>
       </c>
       <c r="J639" s="0" t="s">
         <v>297</v>
@@ -52881,19 +52884,19 @@
         <v>718</v>
       </c>
       <c r="E640" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F640" s="0" t="s">
-        <v>1777</v>
+        <v>1785</v>
       </c>
       <c r="G640" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H640" s="0" t="s">
-        <v>1782</v>
+        <v>217</v>
       </c>
       <c r="I640" s="0" t="s">
-        <v>1782</v>
+        <v>24</v>
       </c>
       <c r="J640" s="0" t="s">
         <v>297</v>
@@ -52901,31 +52904,31 @@
     </row>
     <row r="641">
       <c r="A641" s="0" t="s">
-        <v>1594</v>
+        <v>1598</v>
       </c>
       <c r="B641" s="0" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="C641" s="0" t="s">
-        <v>1595</v>
+        <v>1599</v>
       </c>
       <c r="D641" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E641" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F641" s="0" t="s">
-        <v>1785</v>
+        <v>1812</v>
       </c>
       <c r="G641" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H641" s="0" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="I641" s="0" t="s">
-        <v>24</v>
+        <v>1796</v>
       </c>
       <c r="J641" s="0" t="s">
         <v>297</v>
@@ -52933,13 +52936,13 @@
     </row>
     <row r="642">
       <c r="A642" s="0" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="B642" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C642" s="0" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="D642" s="0" t="s">
         <v>718</v>
@@ -52954,10 +52957,10 @@
         <v>148</v>
       </c>
       <c r="H642" s="0" t="s">
-        <v>24</v>
+        <v>1782</v>
       </c>
       <c r="I642" s="0" t="s">
-        <v>1796</v>
+        <v>1818</v>
       </c>
       <c r="J642" s="0" t="s">
         <v>297</v>
@@ -52965,13 +52968,13 @@
     </row>
     <row r="643">
       <c r="A643" s="0" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="B643" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C643" s="0" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="D643" s="0" t="s">
         <v>718</v>
@@ -52989,7 +52992,7 @@
         <v>1782</v>
       </c>
       <c r="I643" s="0" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="J643" s="0" t="s">
         <v>297</v>
@@ -52997,13 +53000,13 @@
     </row>
     <row r="644">
       <c r="A644" s="0" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="B644" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C644" s="0" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="D644" s="0" t="s">
         <v>718</v>
@@ -53021,7 +53024,7 @@
         <v>1782</v>
       </c>
       <c r="I644" s="0" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="J644" s="0" t="s">
         <v>297</v>
@@ -53029,13 +53032,13 @@
     </row>
     <row r="645">
       <c r="A645" s="0" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="B645" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C645" s="0" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="D645" s="0" t="s">
         <v>718</v>
@@ -53053,7 +53056,7 @@
         <v>1782</v>
       </c>
       <c r="I645" s="0" t="s">
-        <v>1821</v>
+        <v>1782</v>
       </c>
       <c r="J645" s="0" t="s">
         <v>297</v>
@@ -53061,16 +53064,16 @@
     </row>
     <row r="646">
       <c r="A646" s="0" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="B646" s="0" t="s">
         <v>558</v>
       </c>
       <c r="C646" s="0" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D646" s="0" t="s">
         <v>1607</v>
-      </c>
-      <c r="D646" s="0" t="s">
-        <v>718</v>
       </c>
       <c r="E646" s="0" t="s">
         <v>1776</v>
@@ -53085,7 +53088,7 @@
         <v>1782</v>
       </c>
       <c r="I646" s="0" t="s">
-        <v>1782</v>
+        <v>1908</v>
       </c>
       <c r="J646" s="0" t="s">
         <v>297</v>
@@ -53105,19 +53108,19 @@
         <v>1607</v>
       </c>
       <c r="E647" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F647" s="0" t="s">
-        <v>1812</v>
+        <v>1824</v>
       </c>
       <c r="G647" s="0" t="s">
-        <v>148</v>
+        <v>889</v>
       </c>
       <c r="H647" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I647" s="0" t="s">
-        <v>1907</v>
+        <v>1810</v>
       </c>
       <c r="J647" s="0" t="s">
         <v>297</v>
@@ -53125,31 +53128,31 @@
     </row>
     <row r="648">
       <c r="A648" s="0" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="B648" s="0" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="C648" s="0" t="s">
-        <v>1609</v>
+        <v>1613</v>
       </c>
       <c r="D648" s="0" t="s">
-        <v>1607</v>
+        <v>718</v>
       </c>
       <c r="E648" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F648" s="0" t="s">
-        <v>1824</v>
+        <v>1812</v>
       </c>
       <c r="G648" s="0" t="s">
-        <v>889</v>
+        <v>148</v>
       </c>
       <c r="H648" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I648" s="0" t="s">
-        <v>1810</v>
+        <v>1803</v>
       </c>
       <c r="J648" s="0" t="s">
         <v>297</v>
@@ -53172,16 +53175,16 @@
         <v>1776</v>
       </c>
       <c r="F649" s="0" t="s">
-        <v>1812</v>
+        <v>1862</v>
       </c>
       <c r="G649" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H649" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="I649" s="0" t="s">
-        <v>1803</v>
+        <v>488</v>
       </c>
       <c r="J649" s="0" t="s">
         <v>297</v>
@@ -53189,13 +53192,13 @@
     </row>
     <row r="650">
       <c r="A650" s="0" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="B650" s="0" t="s">
         <v>567</v>
       </c>
       <c r="C650" s="0" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="D650" s="0" t="s">
         <v>718</v>
@@ -53204,16 +53207,16 @@
         <v>1776</v>
       </c>
       <c r="F650" s="0" t="s">
-        <v>1862</v>
+        <v>1812</v>
       </c>
       <c r="G650" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H650" s="0" t="s">
-        <v>231</v>
+        <v>1782</v>
       </c>
       <c r="I650" s="0" t="s">
-        <v>488</v>
+        <v>1796</v>
       </c>
       <c r="J650" s="0" t="s">
         <v>297</v>
@@ -53236,13 +53239,13 @@
         <v>1776</v>
       </c>
       <c r="F651" s="0" t="s">
-        <v>1812</v>
+        <v>1862</v>
       </c>
       <c r="G651" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H651" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I651" s="0" t="s">
         <v>1796</v>
@@ -53253,13 +53256,13 @@
     </row>
     <row r="652">
       <c r="A652" s="0" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="B652" s="0" t="s">
         <v>567</v>
       </c>
       <c r="C652" s="0" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="D652" s="0" t="s">
         <v>718</v>
@@ -53268,16 +53271,16 @@
         <v>1776</v>
       </c>
       <c r="F652" s="0" t="s">
-        <v>1862</v>
+        <v>1812</v>
       </c>
       <c r="G652" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H652" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I652" s="0" t="s">
-        <v>1796</v>
+        <v>62</v>
       </c>
       <c r="J652" s="0" t="s">
         <v>297</v>
@@ -53300,13 +53303,13 @@
         <v>1776</v>
       </c>
       <c r="F653" s="0" t="s">
-        <v>1812</v>
+        <v>1862</v>
       </c>
       <c r="G653" s="0" t="s">
-        <v>148</v>
+        <v>802</v>
       </c>
       <c r="H653" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I653" s="0" t="s">
         <v>62</v>
@@ -53317,31 +53320,31 @@
     </row>
     <row r="654">
       <c r="A654" s="0" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="B654" s="0" t="s">
         <v>567</v>
       </c>
       <c r="C654" s="0" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D654" s="0" t="s">
         <v>1617</v>
       </c>
-      <c r="D654" s="0" t="s">
-        <v>718</v>
-      </c>
       <c r="E654" s="0" t="s">
         <v>1776</v>
       </c>
       <c r="F654" s="0" t="s">
-        <v>1862</v>
+        <v>1812</v>
       </c>
       <c r="G654" s="0" t="s">
-        <v>802</v>
+        <v>148</v>
       </c>
       <c r="H654" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I654" s="0" t="s">
-        <v>62</v>
+        <v>1818</v>
       </c>
       <c r="J654" s="0" t="s">
         <v>297</v>
@@ -53364,13 +53367,13 @@
         <v>1776</v>
       </c>
       <c r="F655" s="0" t="s">
-        <v>1812</v>
+        <v>1862</v>
       </c>
       <c r="G655" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H655" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I655" s="0" t="s">
         <v>1818</v>
@@ -53381,31 +53384,31 @@
     </row>
     <row r="656">
       <c r="A656" s="0" t="s">
-        <v>1618</v>
+        <v>1622</v>
       </c>
       <c r="B656" s="0" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="C656" s="0" t="s">
-        <v>1619</v>
+        <v>1623</v>
       </c>
       <c r="D656" s="0" t="s">
-        <v>1617</v>
+        <v>718</v>
       </c>
       <c r="E656" s="0" t="s">
         <v>1776</v>
       </c>
       <c r="F656" s="0" t="s">
-        <v>1862</v>
+        <v>1812</v>
       </c>
       <c r="G656" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H656" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I656" s="0" t="s">
-        <v>1818</v>
+        <v>1805</v>
       </c>
       <c r="J656" s="0" t="s">
         <v>297</v>
@@ -53413,13 +53416,13 @@
     </row>
     <row r="657">
       <c r="A657" s="0" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="B657" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C657" s="0" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="D657" s="0" t="s">
         <v>718</v>
@@ -53434,10 +53437,10 @@
         <v>148</v>
       </c>
       <c r="H657" s="0" t="s">
-        <v>24</v>
+        <v>1782</v>
       </c>
       <c r="I657" s="0" t="s">
-        <v>1805</v>
+        <v>62</v>
       </c>
       <c r="J657" s="0" t="s">
         <v>297</v>
@@ -53445,13 +53448,13 @@
     </row>
     <row r="658">
       <c r="A658" s="0" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B658" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C658" s="0" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="D658" s="0" t="s">
         <v>718</v>
@@ -53469,7 +53472,7 @@
         <v>1782</v>
       </c>
       <c r="I658" s="0" t="s">
-        <v>62</v>
+        <v>1819</v>
       </c>
       <c r="J658" s="0" t="s">
         <v>297</v>
@@ -53477,16 +53480,16 @@
     </row>
     <row r="659">
       <c r="A659" s="0" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="B659" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C659" s="0" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D659" s="0" t="s">
         <v>1627</v>
-      </c>
-      <c r="D659" s="0" t="s">
-        <v>718</v>
       </c>
       <c r="E659" s="0" t="s">
         <v>1776</v>
@@ -53501,7 +53504,7 @@
         <v>1782</v>
       </c>
       <c r="I659" s="0" t="s">
-        <v>1819</v>
+        <v>1909</v>
       </c>
       <c r="J659" s="0" t="s">
         <v>297</v>
@@ -53509,16 +53512,16 @@
     </row>
     <row r="660">
       <c r="A660" s="0" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="B660" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C660" s="0" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="D660" s="0" t="s">
-        <v>1627</v>
+        <v>718</v>
       </c>
       <c r="E660" s="0" t="s">
         <v>1776</v>
@@ -53533,7 +53536,7 @@
         <v>1782</v>
       </c>
       <c r="I660" s="0" t="s">
-        <v>1908</v>
+        <v>1820</v>
       </c>
       <c r="J660" s="0" t="s">
         <v>297</v>
@@ -53541,16 +53544,16 @@
     </row>
     <row r="661">
       <c r="A661" s="0" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="B661" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C661" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D661" s="0" t="s">
         <v>1631</v>
-      </c>
-      <c r="D661" s="0" t="s">
-        <v>718</v>
       </c>
       <c r="E661" s="0" t="s">
         <v>1776</v>
@@ -53565,7 +53568,7 @@
         <v>1782</v>
       </c>
       <c r="I661" s="0" t="s">
-        <v>1820</v>
+        <v>1910</v>
       </c>
       <c r="J661" s="0" t="s">
         <v>297</v>
@@ -53573,16 +53576,16 @@
     </row>
     <row r="662">
       <c r="A662" s="0" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="B662" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C662" s="0" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="D662" s="0" t="s">
-        <v>1631</v>
+        <v>718</v>
       </c>
       <c r="E662" s="0" t="s">
         <v>1776</v>
@@ -53597,7 +53600,7 @@
         <v>1782</v>
       </c>
       <c r="I662" s="0" t="s">
-        <v>1909</v>
+        <v>1840</v>
       </c>
       <c r="J662" s="0" t="s">
         <v>297</v>
@@ -53605,16 +53608,16 @@
     </row>
     <row r="663">
       <c r="A663" s="0" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="B663" s="0" t="s">
         <v>573</v>
       </c>
       <c r="C663" s="0" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D663" s="0" t="s">
         <v>1635</v>
-      </c>
-      <c r="D663" s="0" t="s">
-        <v>718</v>
       </c>
       <c r="E663" s="0" t="s">
         <v>1776</v>
@@ -53629,7 +53632,7 @@
         <v>1782</v>
       </c>
       <c r="I663" s="0" t="s">
-        <v>1840</v>
+        <v>1911</v>
       </c>
       <c r="J663" s="0" t="s">
         <v>297</v>
@@ -53649,19 +53652,19 @@
         <v>1635</v>
       </c>
       <c r="E664" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F664" s="0" t="s">
-        <v>1812</v>
+        <v>1789</v>
       </c>
       <c r="G664" s="0" t="s">
-        <v>148</v>
+        <v>742</v>
       </c>
       <c r="H664" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I664" s="0" t="s">
-        <v>1910</v>
+        <v>24</v>
       </c>
       <c r="J664" s="0" t="s">
         <v>297</v>
@@ -53669,31 +53672,31 @@
     </row>
     <row r="665">
       <c r="A665" s="0" t="s">
-        <v>1636</v>
+        <v>1639</v>
       </c>
       <c r="B665" s="0" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="C665" s="0" t="s">
-        <v>1637</v>
+        <v>1640</v>
       </c>
       <c r="D665" s="0" t="s">
-        <v>1635</v>
+        <v>718</v>
       </c>
       <c r="E665" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F665" s="0" t="s">
-        <v>1789</v>
+        <v>1812</v>
       </c>
       <c r="G665" s="0" t="s">
-        <v>742</v>
+        <v>148</v>
       </c>
       <c r="H665" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I665" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J665" s="0" t="s">
         <v>297</v>
@@ -53716,7 +53719,7 @@
         <v>1776</v>
       </c>
       <c r="F666" s="0" t="s">
-        <v>1812</v>
+        <v>1822</v>
       </c>
       <c r="G666" s="0" t="s">
         <v>148</v>
@@ -53745,19 +53748,19 @@
         <v>718</v>
       </c>
       <c r="E667" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F667" s="0" t="s">
-        <v>1822</v>
+        <v>1814</v>
       </c>
       <c r="G667" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H667" s="0" t="s">
-        <v>24</v>
+        <v>742</v>
       </c>
       <c r="I667" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J667" s="0" t="s">
         <v>297</v>
@@ -53765,31 +53768,31 @@
     </row>
     <row r="668">
       <c r="A668" s="0" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="B668" s="0" t="s">
         <v>579</v>
       </c>
       <c r="C668" s="0" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="D668" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E668" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F668" s="0" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="G668" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H668" s="0" t="s">
-        <v>742</v>
+        <v>1782</v>
       </c>
       <c r="I668" s="0" t="s">
-        <v>24</v>
+        <v>1782</v>
       </c>
       <c r="J668" s="0" t="s">
         <v>297</v>
@@ -53809,19 +53812,19 @@
         <v>718</v>
       </c>
       <c r="E669" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F669" s="0" t="s">
-        <v>1812</v>
+        <v>1838</v>
       </c>
       <c r="G669" s="0" t="s">
-        <v>148</v>
+        <v>889</v>
       </c>
       <c r="H669" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I669" s="0" t="s">
-        <v>1782</v>
+        <v>24</v>
       </c>
       <c r="J669" s="0" t="s">
         <v>297</v>
@@ -53829,31 +53832,31 @@
     </row>
     <row r="670">
       <c r="A670" s="0" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="B670" s="0" t="s">
         <v>579</v>
       </c>
       <c r="C670" s="0" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="D670" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E670" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F670" s="0" t="s">
-        <v>1838</v>
+        <v>1812</v>
       </c>
       <c r="G670" s="0" t="s">
-        <v>889</v>
+        <v>148</v>
       </c>
       <c r="H670" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I670" s="0" t="s">
-        <v>24</v>
+        <v>1911</v>
       </c>
       <c r="J670" s="0" t="s">
         <v>297</v>
@@ -53873,19 +53876,19 @@
         <v>718</v>
       </c>
       <c r="E671" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F671" s="0" t="s">
-        <v>1812</v>
+        <v>1808</v>
       </c>
       <c r="G671" s="0" t="s">
-        <v>148</v>
+        <v>802</v>
       </c>
       <c r="H671" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I671" s="0" t="s">
-        <v>1910</v>
+        <v>488</v>
       </c>
       <c r="J671" s="0" t="s">
         <v>297</v>
@@ -53893,31 +53896,31 @@
     </row>
     <row r="672">
       <c r="A672" s="0" t="s">
-        <v>1643</v>
+        <v>1647</v>
       </c>
       <c r="B672" s="0" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="C672" s="0" t="s">
-        <v>1644</v>
+        <v>1648</v>
       </c>
       <c r="D672" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E672" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F672" s="0" t="s">
-        <v>1808</v>
+        <v>1812</v>
       </c>
       <c r="G672" s="0" t="s">
-        <v>802</v>
+        <v>148</v>
       </c>
       <c r="H672" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I672" s="0" t="s">
-        <v>488</v>
+        <v>232</v>
       </c>
       <c r="J672" s="0" t="s">
         <v>297</v>
@@ -53937,19 +53940,19 @@
         <v>718</v>
       </c>
       <c r="E673" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F673" s="0" t="s">
-        <v>1812</v>
+        <v>1824</v>
       </c>
       <c r="G673" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H673" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I673" s="0" t="s">
-        <v>232</v>
+        <v>1878</v>
       </c>
       <c r="J673" s="0" t="s">
         <v>297</v>
@@ -53957,31 +53960,31 @@
     </row>
     <row r="674">
       <c r="A674" s="0" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="B674" s="0" t="s">
         <v>585</v>
       </c>
       <c r="C674" s="0" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="D674" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E674" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F674" s="0" t="s">
-        <v>1824</v>
+        <v>1777</v>
       </c>
       <c r="G674" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H674" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I674" s="0" t="s">
-        <v>1878</v>
+        <v>232</v>
       </c>
       <c r="J674" s="0" t="s">
         <v>297</v>
@@ -54001,19 +54004,19 @@
         <v>718</v>
       </c>
       <c r="E675" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F675" s="0" t="s">
-        <v>1777</v>
+        <v>1791</v>
       </c>
       <c r="G675" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H675" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I675" s="0" t="s">
-        <v>232</v>
+        <v>1878</v>
       </c>
       <c r="J675" s="0" t="s">
         <v>297</v>
@@ -54021,31 +54024,31 @@
     </row>
     <row r="676">
       <c r="A676" s="0" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="B676" s="0" t="s">
         <v>585</v>
       </c>
       <c r="C676" s="0" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="D676" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E676" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F676" s="0" t="s">
-        <v>1791</v>
+        <v>1812</v>
       </c>
       <c r="G676" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H676" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I676" s="0" t="s">
-        <v>1878</v>
+        <v>488</v>
       </c>
       <c r="J676" s="0" t="s">
         <v>297</v>
@@ -54053,13 +54056,13 @@
     </row>
     <row r="677">
       <c r="A677" s="0" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="B677" s="0" t="s">
         <v>585</v>
       </c>
       <c r="C677" s="0" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="D677" s="0" t="s">
         <v>718</v>
@@ -54068,7 +54071,7 @@
         <v>1776</v>
       </c>
       <c r="F677" s="0" t="s">
-        <v>1812</v>
+        <v>1777</v>
       </c>
       <c r="G677" s="0" t="s">
         <v>148</v>
@@ -54085,13 +54088,13 @@
     </row>
     <row r="678">
       <c r="A678" s="0" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="B678" s="0" t="s">
         <v>585</v>
       </c>
       <c r="C678" s="0" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="D678" s="0" t="s">
         <v>718</v>
@@ -54100,7 +54103,7 @@
         <v>1776</v>
       </c>
       <c r="F678" s="0" t="s">
-        <v>1777</v>
+        <v>1812</v>
       </c>
       <c r="G678" s="0" t="s">
         <v>148</v>
@@ -54109,7 +54112,7 @@
         <v>1782</v>
       </c>
       <c r="I678" s="0" t="s">
-        <v>488</v>
+        <v>1782</v>
       </c>
       <c r="J678" s="0" t="s">
         <v>297</v>
@@ -54129,19 +54132,19 @@
         <v>718</v>
       </c>
       <c r="E679" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F679" s="0" t="s">
-        <v>1812</v>
+        <v>1785</v>
       </c>
       <c r="G679" s="0" t="s">
-        <v>148</v>
+        <v>889</v>
       </c>
       <c r="H679" s="0" t="s">
-        <v>1782</v>
+        <v>217</v>
       </c>
       <c r="I679" s="0" t="s">
-        <v>1782</v>
+        <v>24</v>
       </c>
       <c r="J679" s="0" t="s">
         <v>297</v>
@@ -54149,31 +54152,31 @@
     </row>
     <row r="680">
       <c r="A680" s="0" t="s">
-        <v>1655</v>
+        <v>1662</v>
       </c>
       <c r="B680" s="0" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
       <c r="C680" s="0" t="s">
-        <v>1656</v>
+        <v>1663</v>
       </c>
       <c r="D680" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E680" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F680" s="0" t="s">
-        <v>1785</v>
+        <v>1812</v>
       </c>
       <c r="G680" s="0" t="s">
-        <v>889</v>
+        <v>148</v>
       </c>
       <c r="H680" s="0" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="I680" s="0" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="J680" s="0" t="s">
         <v>297</v>
@@ -54193,19 +54196,19 @@
         <v>718</v>
       </c>
       <c r="E681" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F681" s="0" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="G681" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H681" s="0" t="s">
-        <v>24</v>
+        <v>1845</v>
       </c>
       <c r="I681" s="0" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="J681" s="0" t="s">
         <v>297</v>
@@ -54213,31 +54216,31 @@
     </row>
     <row r="682">
       <c r="A682" s="0" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="B682" s="0" t="s">
         <v>603</v>
       </c>
       <c r="C682" s="0" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="D682" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E682" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F682" s="0" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="G682" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H682" s="0" t="s">
-        <v>1845</v>
+        <v>1782</v>
       </c>
       <c r="I682" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J682" s="0" t="s">
         <v>297</v>
@@ -54260,13 +54263,13 @@
         <v>1776</v>
       </c>
       <c r="F683" s="0" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="G683" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H683" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I683" s="0" t="s">
         <v>488</v>
@@ -54277,13 +54280,13 @@
     </row>
     <row r="684">
       <c r="A684" s="0" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="B684" s="0" t="s">
         <v>603</v>
       </c>
       <c r="C684" s="0" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="D684" s="0" t="s">
         <v>718</v>
@@ -54292,16 +54295,16 @@
         <v>1776</v>
       </c>
       <c r="F684" s="0" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="G684" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H684" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I684" s="0" t="s">
-        <v>488</v>
+        <v>1821</v>
       </c>
       <c r="J684" s="0" t="s">
         <v>297</v>
@@ -54309,13 +54312,13 @@
     </row>
     <row r="685">
       <c r="A685" s="0" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="B685" s="0" t="s">
         <v>603</v>
       </c>
       <c r="C685" s="0" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="D685" s="0" t="s">
         <v>718</v>
@@ -54333,7 +54336,7 @@
         <v>1782</v>
       </c>
       <c r="I685" s="0" t="s">
-        <v>1821</v>
+        <v>1782</v>
       </c>
       <c r="J685" s="0" t="s">
         <v>297</v>
@@ -54353,19 +54356,19 @@
         <v>718</v>
       </c>
       <c r="E686" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F686" s="0" t="s">
-        <v>1812</v>
+        <v>1838</v>
       </c>
       <c r="G686" s="0" t="s">
-        <v>148</v>
+        <v>742</v>
       </c>
       <c r="H686" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I686" s="0" t="s">
-        <v>1782</v>
+        <v>24</v>
       </c>
       <c r="J686" s="0" t="s">
         <v>297</v>
@@ -54373,31 +54376,31 @@
     </row>
     <row r="687">
       <c r="A687" s="0" t="s">
-        <v>1668</v>
+        <v>1679</v>
       </c>
       <c r="B687" s="0" t="s">
-        <v>603</v>
+        <v>627</v>
       </c>
       <c r="C687" s="0" t="s">
-        <v>1669</v>
+        <v>1680</v>
       </c>
       <c r="D687" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E687" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F687" s="0" t="s">
-        <v>1838</v>
+        <v>1777</v>
       </c>
       <c r="G687" s="0" t="s">
-        <v>742</v>
+        <v>148</v>
       </c>
       <c r="H687" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I687" s="0" t="s">
-        <v>24</v>
+        <v>1796</v>
       </c>
       <c r="J687" s="0" t="s">
         <v>297</v>
@@ -54405,13 +54408,13 @@
     </row>
     <row r="688">
       <c r="A688" s="0" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="B688" s="0" t="s">
         <v>627</v>
       </c>
       <c r="C688" s="0" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="D688" s="0" t="s">
         <v>718</v>
@@ -54426,10 +54429,10 @@
         <v>148</v>
       </c>
       <c r="H688" s="0" t="s">
-        <v>24</v>
+        <v>1782</v>
       </c>
       <c r="I688" s="0" t="s">
-        <v>1796</v>
+        <v>1818</v>
       </c>
       <c r="J688" s="0" t="s">
         <v>297</v>
@@ -54437,13 +54440,13 @@
     </row>
     <row r="689">
       <c r="A689" s="0" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="B689" s="0" t="s">
         <v>627</v>
       </c>
       <c r="C689" s="0" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="D689" s="0" t="s">
         <v>718</v>
@@ -54461,7 +54464,7 @@
         <v>1782</v>
       </c>
       <c r="I689" s="0" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="J689" s="0" t="s">
         <v>297</v>
@@ -54469,13 +54472,13 @@
     </row>
     <row r="690">
       <c r="A690" s="0" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="B690" s="0" t="s">
         <v>627</v>
       </c>
       <c r="C690" s="0" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="D690" s="0" t="s">
         <v>718</v>
@@ -54493,7 +54496,7 @@
         <v>1782</v>
       </c>
       <c r="I690" s="0" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="J690" s="0" t="s">
         <v>297</v>
@@ -54501,13 +54504,13 @@
     </row>
     <row r="691">
       <c r="A691" s="0" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="B691" s="0" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C691" s="0" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="D691" s="0" t="s">
         <v>718</v>
@@ -54522,10 +54525,10 @@
         <v>148</v>
       </c>
       <c r="H691" s="0" t="s">
-        <v>1782</v>
+        <v>24</v>
       </c>
       <c r="I691" s="0" t="s">
-        <v>1821</v>
+        <v>1805</v>
       </c>
       <c r="J691" s="0" t="s">
         <v>297</v>
@@ -54548,16 +54551,16 @@
         <v>1776</v>
       </c>
       <c r="F692" s="0" t="s">
-        <v>1777</v>
+        <v>1795</v>
       </c>
       <c r="G692" s="0" t="s">
-        <v>148</v>
+        <v>759</v>
       </c>
       <c r="H692" s="0" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="I692" s="0" t="s">
-        <v>1805</v>
+        <v>1796</v>
       </c>
       <c r="J692" s="0" t="s">
         <v>297</v>
@@ -54565,13 +54568,13 @@
     </row>
     <row r="693">
       <c r="A693" s="0" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="B693" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C693" s="0" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="D693" s="0" t="s">
         <v>718</v>
@@ -54580,16 +54583,16 @@
         <v>1776</v>
       </c>
       <c r="F693" s="0" t="s">
-        <v>1795</v>
+        <v>1777</v>
       </c>
       <c r="G693" s="0" t="s">
-        <v>759</v>
+        <v>148</v>
       </c>
       <c r="H693" s="0" t="s">
-        <v>231</v>
+        <v>1782</v>
       </c>
       <c r="I693" s="0" t="s">
-        <v>1796</v>
+        <v>62</v>
       </c>
       <c r="J693" s="0" t="s">
         <v>297</v>
@@ -54612,13 +54615,13 @@
         <v>1776</v>
       </c>
       <c r="F694" s="0" t="s">
-        <v>1777</v>
+        <v>1795</v>
       </c>
       <c r="G694" s="0" t="s">
-        <v>148</v>
+        <v>779</v>
       </c>
       <c r="H694" s="0" t="s">
-        <v>1782</v>
+        <v>217</v>
       </c>
       <c r="I694" s="0" t="s">
         <v>62</v>
@@ -54629,13 +54632,13 @@
     </row>
     <row r="695">
       <c r="A695" s="0" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="B695" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C695" s="0" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="D695" s="0" t="s">
         <v>718</v>
@@ -54644,16 +54647,16 @@
         <v>1776</v>
       </c>
       <c r="F695" s="0" t="s">
-        <v>1795</v>
+        <v>1777</v>
       </c>
       <c r="G695" s="0" t="s">
-        <v>779</v>
+        <v>148</v>
       </c>
       <c r="H695" s="0" t="s">
-        <v>217</v>
+        <v>1782</v>
       </c>
       <c r="I695" s="0" t="s">
-        <v>62</v>
+        <v>1819</v>
       </c>
       <c r="J695" s="0" t="s">
         <v>297</v>
@@ -54676,16 +54679,16 @@
         <v>1776</v>
       </c>
       <c r="F696" s="0" t="s">
-        <v>1777</v>
+        <v>1795</v>
       </c>
       <c r="G696" s="0" t="s">
-        <v>148</v>
+        <v>742</v>
       </c>
       <c r="H696" s="0" t="s">
-        <v>1782</v>
+        <v>81</v>
       </c>
       <c r="I696" s="0" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="J696" s="0" t="s">
         <v>297</v>
@@ -54693,13 +54696,13 @@
     </row>
     <row r="697">
       <c r="A697" s="0" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="B697" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C697" s="0" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="D697" s="0" t="s">
         <v>718</v>
@@ -54708,16 +54711,16 @@
         <v>1776</v>
       </c>
       <c r="F697" s="0" t="s">
-        <v>1795</v>
+        <v>1777</v>
       </c>
       <c r="G697" s="0" t="s">
-        <v>742</v>
+        <v>148</v>
       </c>
       <c r="H697" s="0" t="s">
-        <v>81</v>
+        <v>1782</v>
       </c>
       <c r="I697" s="0" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="J697" s="0" t="s">
         <v>297</v>
@@ -54740,16 +54743,16 @@
         <v>1776</v>
       </c>
       <c r="F698" s="0" t="s">
-        <v>1777</v>
+        <v>1795</v>
       </c>
       <c r="G698" s="0" t="s">
-        <v>148</v>
+        <v>766</v>
       </c>
       <c r="H698" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I698" s="0" t="s">
-        <v>1820</v>
+        <v>488</v>
       </c>
       <c r="J698" s="0" t="s">
         <v>297</v>
@@ -54757,13 +54760,13 @@
     </row>
     <row r="699">
       <c r="A699" s="0" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="B699" s="0" t="s">
         <v>630</v>
       </c>
       <c r="C699" s="0" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="D699" s="0" t="s">
         <v>718</v>
@@ -54772,16 +54775,16 @@
         <v>1776</v>
       </c>
       <c r="F699" s="0" t="s">
-        <v>1795</v>
+        <v>1777</v>
       </c>
       <c r="G699" s="0" t="s">
-        <v>766</v>
+        <v>148</v>
       </c>
       <c r="H699" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I699" s="0" t="s">
-        <v>488</v>
+        <v>1840</v>
       </c>
       <c r="J699" s="0" t="s">
         <v>297</v>
@@ -54804,16 +54807,16 @@
         <v>1776</v>
       </c>
       <c r="F700" s="0" t="s">
-        <v>1777</v>
+        <v>1795</v>
       </c>
       <c r="G700" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H700" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I700" s="0" t="s">
-        <v>1840</v>
+        <v>1820</v>
       </c>
       <c r="J700" s="0" t="s">
         <v>297</v>
@@ -54821,13 +54824,13 @@
     </row>
     <row r="701">
       <c r="A701" s="0" t="s">
-        <v>1695</v>
+        <v>1698</v>
       </c>
       <c r="B701" s="0" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="C701" s="0" t="s">
-        <v>1696</v>
+        <v>1699</v>
       </c>
       <c r="D701" s="0" t="s">
         <v>718</v>
@@ -54836,16 +54839,16 @@
         <v>1776</v>
       </c>
       <c r="F701" s="0" t="s">
-        <v>1795</v>
+        <v>1777</v>
       </c>
       <c r="G701" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H701" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I701" s="0" t="s">
-        <v>1820</v>
+        <v>1796</v>
       </c>
       <c r="J701" s="0" t="s">
         <v>297</v>
@@ -54868,16 +54871,16 @@
         <v>1776</v>
       </c>
       <c r="F702" s="0" t="s">
-        <v>1777</v>
+        <v>1795</v>
       </c>
       <c r="G702" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H702" s="0" t="s">
-        <v>24</v>
+        <v>318</v>
       </c>
       <c r="I702" s="0" t="s">
-        <v>1796</v>
+        <v>62</v>
       </c>
       <c r="J702" s="0" t="s">
         <v>297</v>
@@ -54885,13 +54888,13 @@
     </row>
     <row r="703">
       <c r="A703" s="0" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="B703" s="0" t="s">
         <v>641</v>
       </c>
       <c r="C703" s="0" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="D703" s="0" t="s">
         <v>718</v>
@@ -54900,16 +54903,16 @@
         <v>1776</v>
       </c>
       <c r="F703" s="0" t="s">
-        <v>1795</v>
+        <v>1777</v>
       </c>
       <c r="G703" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H703" s="0" t="s">
-        <v>318</v>
+        <v>1782</v>
       </c>
       <c r="I703" s="0" t="s">
-        <v>62</v>
+        <v>1817</v>
       </c>
       <c r="J703" s="0" t="s">
         <v>297</v>
@@ -54932,16 +54935,16 @@
         <v>1776</v>
       </c>
       <c r="F704" s="0" t="s">
-        <v>1777</v>
+        <v>1885</v>
       </c>
       <c r="G704" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H704" s="0" t="s">
-        <v>1782</v>
+        <v>217</v>
       </c>
       <c r="I704" s="0" t="s">
-        <v>1817</v>
+        <v>24</v>
       </c>
       <c r="J704" s="0" t="s">
         <v>297</v>
@@ -54949,13 +54952,13 @@
     </row>
     <row r="705">
       <c r="A705" s="0" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="B705" s="0" t="s">
         <v>641</v>
       </c>
       <c r="C705" s="0" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="D705" s="0" t="s">
         <v>718</v>
@@ -54964,16 +54967,16 @@
         <v>1776</v>
       </c>
       <c r="F705" s="0" t="s">
-        <v>1885</v>
+        <v>1777</v>
       </c>
       <c r="G705" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H705" s="0" t="s">
-        <v>217</v>
+        <v>1782</v>
       </c>
       <c r="I705" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J705" s="0" t="s">
         <v>297</v>
@@ -54993,19 +54996,19 @@
         <v>718</v>
       </c>
       <c r="E706" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F706" s="0" t="s">
-        <v>1777</v>
+        <v>1791</v>
       </c>
       <c r="G706" s="0" t="s">
-        <v>148</v>
+        <v>802</v>
       </c>
       <c r="H706" s="0" t="s">
-        <v>1782</v>
+        <v>217</v>
       </c>
       <c r="I706" s="0" t="s">
-        <v>488</v>
+        <v>1825</v>
       </c>
       <c r="J706" s="0" t="s">
         <v>297</v>
@@ -55013,13 +55016,13 @@
     </row>
     <row r="707">
       <c r="A707" s="0" t="s">
-        <v>1702</v>
+        <v>1706</v>
       </c>
       <c r="B707" s="0" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="C707" s="0" t="s">
-        <v>1703</v>
+        <v>650</v>
       </c>
       <c r="D707" s="0" t="s">
         <v>718</v>
@@ -55028,30 +55031,30 @@
         <v>1778</v>
       </c>
       <c r="F707" s="0" t="s">
-        <v>1791</v>
+        <v>1779</v>
       </c>
       <c r="G707" s="0" t="s">
-        <v>802</v>
+        <v>148</v>
       </c>
       <c r="H707" s="0" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="I707" s="0" t="s">
-        <v>1825</v>
+        <v>24</v>
       </c>
       <c r="J707" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="0" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B708" s="0" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C708" s="0" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="D708" s="0" t="s">
         <v>718</v>
@@ -55063,10 +55066,10 @@
         <v>1779</v>
       </c>
       <c r="G708" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H708" s="0" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="I708" s="0" t="s">
         <v>24</v>
@@ -55092,30 +55095,30 @@
         <v>1778</v>
       </c>
       <c r="F709" s="0" t="s">
-        <v>1779</v>
+        <v>1824</v>
       </c>
       <c r="G709" s="0" t="s">
-        <v>127</v>
+        <v>318</v>
       </c>
       <c r="H709" s="0" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="I709" s="0" t="s">
-        <v>24</v>
+        <v>1807</v>
       </c>
       <c r="J709" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="0" t="s">
-        <v>1707</v>
+        <v>1714</v>
       </c>
       <c r="B710" s="0" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="C710" s="0" t="s">
-        <v>653</v>
+        <v>1715</v>
       </c>
       <c r="D710" s="0" t="s">
         <v>718</v>
@@ -55124,16 +55127,16 @@
         <v>1778</v>
       </c>
       <c r="F710" s="0" t="s">
-        <v>1824</v>
+        <v>1814</v>
       </c>
       <c r="G710" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H710" s="0" t="s">
-        <v>24</v>
+        <v>1815</v>
       </c>
       <c r="I710" s="0" t="s">
-        <v>1807</v>
+        <v>24</v>
       </c>
       <c r="J710" s="0" t="s">
         <v>297</v>
@@ -55141,31 +55144,31 @@
     </row>
     <row r="711">
       <c r="A711" s="0" t="s">
-        <v>1714</v>
+        <v>1717</v>
       </c>
       <c r="B711" s="0" t="s">
         <v>668</v>
       </c>
       <c r="C711" s="0" t="s">
-        <v>1715</v>
+        <v>1718</v>
       </c>
       <c r="D711" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E711" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F711" s="0" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="G711" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H711" s="0" t="s">
-        <v>1815</v>
+        <v>1782</v>
       </c>
       <c r="I711" s="0" t="s">
-        <v>24</v>
+        <v>1819</v>
       </c>
       <c r="J711" s="0" t="s">
         <v>297</v>
@@ -55185,19 +55188,19 @@
         <v>718</v>
       </c>
       <c r="E712" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F712" s="0" t="s">
-        <v>1812</v>
+        <v>1785</v>
       </c>
       <c r="G712" s="0" t="s">
-        <v>148</v>
+        <v>742</v>
       </c>
       <c r="H712" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I712" s="0" t="s">
-        <v>1819</v>
+        <v>24</v>
       </c>
       <c r="J712" s="0" t="s">
         <v>297</v>
@@ -55205,31 +55208,31 @@
     </row>
     <row r="713">
       <c r="A713" s="0" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="B713" s="0" t="s">
         <v>668</v>
       </c>
       <c r="C713" s="0" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="D713" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E713" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F713" s="0" t="s">
-        <v>1785</v>
+        <v>1812</v>
       </c>
       <c r="G713" s="0" t="s">
-        <v>742</v>
+        <v>148</v>
       </c>
       <c r="H713" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I713" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J713" s="0" t="s">
         <v>297</v>
@@ -55252,16 +55255,16 @@
         <v>1776</v>
       </c>
       <c r="F714" s="0" t="s">
-        <v>1812</v>
+        <v>1793</v>
       </c>
       <c r="G714" s="0" t="s">
-        <v>148</v>
+        <v>742</v>
       </c>
       <c r="H714" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I714" s="0" t="s">
-        <v>488</v>
+        <v>1855</v>
       </c>
       <c r="J714" s="0" t="s">
         <v>297</v>
@@ -55269,13 +55272,13 @@
     </row>
     <row r="715">
       <c r="A715" s="0" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="B715" s="0" t="s">
         <v>668</v>
       </c>
       <c r="C715" s="0" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="D715" s="0" t="s">
         <v>718</v>
@@ -55284,16 +55287,16 @@
         <v>1776</v>
       </c>
       <c r="F715" s="0" t="s">
-        <v>1793</v>
+        <v>1812</v>
       </c>
       <c r="G715" s="0" t="s">
-        <v>742</v>
+        <v>148</v>
       </c>
       <c r="H715" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I715" s="0" t="s">
-        <v>1855</v>
+        <v>1893</v>
       </c>
       <c r="J715" s="0" t="s">
         <v>297</v>
@@ -55313,33 +55316,33 @@
         <v>718</v>
       </c>
       <c r="E716" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F716" s="0" t="s">
-        <v>1812</v>
+        <v>1824</v>
       </c>
       <c r="G716" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H716" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I716" s="0" t="s">
-        <v>1894</v>
+        <v>1807</v>
       </c>
       <c r="J716" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="0" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="B717" s="0" t="s">
         <v>668</v>
       </c>
       <c r="C717" s="0" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="D717" s="0" t="s">
         <v>718</v>
@@ -55348,48 +55351,48 @@
         <v>1778</v>
       </c>
       <c r="F717" s="0" t="s">
-        <v>1824</v>
+        <v>1785</v>
       </c>
       <c r="G717" s="0" t="s">
+        <v>889</v>
+      </c>
+      <c r="H717" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="H717" s="0" t="s">
-        <v>163</v>
-      </c>
       <c r="I717" s="0" t="s">
-        <v>1807</v>
+        <v>24</v>
       </c>
       <c r="J717" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="0" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="B718" s="0" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C718" s="0" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="D718" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E718" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F718" s="0" t="s">
-        <v>1785</v>
+        <v>1777</v>
       </c>
       <c r="G718" s="0" t="s">
-        <v>889</v>
+        <v>148</v>
       </c>
       <c r="H718" s="0" t="s">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="I718" s="0" t="s">
-        <v>24</v>
+        <v>1818</v>
       </c>
       <c r="J718" s="0" t="s">
         <v>297</v>
@@ -55409,19 +55412,19 @@
         <v>718</v>
       </c>
       <c r="E719" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F719" s="0" t="s">
-        <v>1777</v>
+        <v>1838</v>
       </c>
       <c r="G719" s="0" t="s">
-        <v>148</v>
+        <v>742</v>
       </c>
       <c r="H719" s="0" t="s">
-        <v>24</v>
+        <v>513</v>
       </c>
       <c r="I719" s="0" t="s">
-        <v>1818</v>
+        <v>24</v>
       </c>
       <c r="J719" s="0" t="s">
         <v>297</v>
@@ -55429,31 +55432,31 @@
     </row>
     <row r="720">
       <c r="A720" s="0" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="B720" s="0" t="s">
         <v>671</v>
       </c>
       <c r="C720" s="0" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="D720" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E720" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F720" s="0" t="s">
-        <v>1838</v>
+        <v>1777</v>
       </c>
       <c r="G720" s="0" t="s">
-        <v>742</v>
+        <v>148</v>
       </c>
       <c r="H720" s="0" t="s">
-        <v>513</v>
+        <v>1782</v>
       </c>
       <c r="I720" s="0" t="s">
-        <v>24</v>
+        <v>1820</v>
       </c>
       <c r="J720" s="0" t="s">
         <v>297</v>
@@ -55476,16 +55479,16 @@
         <v>1776</v>
       </c>
       <c r="F721" s="0" t="s">
-        <v>1777</v>
+        <v>1792</v>
       </c>
       <c r="G721" s="0" t="s">
-        <v>148</v>
+        <v>889</v>
       </c>
       <c r="H721" s="0" t="s">
         <v>1782</v>
       </c>
       <c r="I721" s="0" t="s">
-        <v>1820</v>
+        <v>721</v>
       </c>
       <c r="J721" s="0" t="s">
         <v>297</v>
@@ -55493,13 +55496,13 @@
     </row>
     <row r="722">
       <c r="A722" s="0" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="B722" s="0" t="s">
         <v>671</v>
       </c>
       <c r="C722" s="0" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="D722" s="0" t="s">
         <v>718</v>
@@ -55508,16 +55511,16 @@
         <v>1776</v>
       </c>
       <c r="F722" s="0" t="s">
-        <v>1792</v>
+        <v>1777</v>
       </c>
       <c r="G722" s="0" t="s">
-        <v>889</v>
+        <v>148</v>
       </c>
       <c r="H722" s="0" t="s">
         <v>1782</v>
       </c>
       <c r="I722" s="0" t="s">
-        <v>721</v>
+        <v>1840</v>
       </c>
       <c r="J722" s="0" t="s">
         <v>297</v>
@@ -55537,19 +55540,19 @@
         <v>718</v>
       </c>
       <c r="E723" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F723" s="0" t="s">
-        <v>1777</v>
+        <v>1785</v>
       </c>
       <c r="G723" s="0" t="s">
-        <v>148</v>
+        <v>742</v>
       </c>
       <c r="H723" s="0" t="s">
-        <v>1782</v>
+        <v>217</v>
       </c>
       <c r="I723" s="0" t="s">
-        <v>1840</v>
+        <v>24</v>
       </c>
       <c r="J723" s="0" t="s">
         <v>297</v>
@@ -55557,31 +55560,31 @@
     </row>
     <row r="724">
       <c r="A724" s="0" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="B724" s="0" t="s">
         <v>671</v>
       </c>
       <c r="C724" s="0" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="D724" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E724" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F724" s="0" t="s">
-        <v>1785</v>
+        <v>1777</v>
       </c>
       <c r="G724" s="0" t="s">
-        <v>742</v>
+        <v>148</v>
       </c>
       <c r="H724" s="0" t="s">
-        <v>217</v>
+        <v>1782</v>
       </c>
       <c r="I724" s="0" t="s">
-        <v>24</v>
+        <v>1908</v>
       </c>
       <c r="J724" s="0" t="s">
         <v>297</v>
@@ -55589,13 +55592,13 @@
     </row>
     <row r="725">
       <c r="A725" s="0" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="B725" s="0" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C725" s="0" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="D725" s="0" t="s">
         <v>718</v>
@@ -55604,16 +55607,16 @@
         <v>1776</v>
       </c>
       <c r="F725" s="0" t="s">
-        <v>1777</v>
+        <v>1792</v>
       </c>
       <c r="G725" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H725" s="0" t="s">
-        <v>1782</v>
+        <v>24</v>
       </c>
       <c r="I725" s="0" t="s">
-        <v>1907</v>
+        <v>1912</v>
       </c>
       <c r="J725" s="0" t="s">
         <v>297</v>
@@ -55633,19 +55636,19 @@
         <v>718</v>
       </c>
       <c r="E726" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F726" s="0" t="s">
-        <v>1792</v>
+        <v>1808</v>
       </c>
       <c r="G726" s="0" t="s">
-        <v>148</v>
+        <v>742</v>
       </c>
       <c r="H726" s="0" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="I726" s="0" t="s">
-        <v>1911</v>
+        <v>488</v>
       </c>
       <c r="J726" s="0" t="s">
         <v>297</v>
@@ -55668,16 +55671,16 @@
         <v>1778</v>
       </c>
       <c r="F727" s="0" t="s">
-        <v>1808</v>
+        <v>1789</v>
       </c>
       <c r="G727" s="0" t="s">
-        <v>742</v>
+        <v>148</v>
       </c>
       <c r="H727" s="0" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="I727" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J727" s="0" t="s">
         <v>297</v>
@@ -55685,31 +55688,31 @@
     </row>
     <row r="728">
       <c r="A728" s="0" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="B728" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C728" s="0" t="s">
-        <v>1734</v>
+        <v>1737</v>
       </c>
       <c r="D728" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E728" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F728" s="0" t="s">
-        <v>1789</v>
+        <v>1812</v>
       </c>
       <c r="G728" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H728" s="0" t="s">
-        <v>134</v>
+        <v>1782</v>
       </c>
       <c r="I728" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J728" s="0" t="s">
         <v>297</v>
@@ -55729,19 +55732,19 @@
         <v>718</v>
       </c>
       <c r="E729" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F729" s="0" t="s">
-        <v>1812</v>
+        <v>1785</v>
       </c>
       <c r="G729" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H729" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I729" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J729" s="0" t="s">
         <v>297</v>
@@ -55749,31 +55752,31 @@
     </row>
     <row r="730">
       <c r="A730" s="0" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="B730" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C730" s="0" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="D730" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E730" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F730" s="0" t="s">
-        <v>1785</v>
+        <v>1791</v>
       </c>
       <c r="G730" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H730" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I730" s="0" t="s">
-        <v>24</v>
+        <v>1782</v>
       </c>
       <c r="J730" s="0" t="s">
         <v>297</v>
@@ -55793,19 +55796,19 @@
         <v>718</v>
       </c>
       <c r="E731" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F731" s="0" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="G731" s="0" t="s">
-        <v>148</v>
+        <v>889</v>
       </c>
       <c r="H731" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I731" s="0" t="s">
-        <v>1782</v>
+        <v>24</v>
       </c>
       <c r="J731" s="0" t="s">
         <v>297</v>
@@ -55813,31 +55816,31 @@
     </row>
     <row r="732">
       <c r="A732" s="0" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="B732" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C732" s="0" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="D732" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E732" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F732" s="0" t="s">
-        <v>1790</v>
+        <v>1812</v>
       </c>
       <c r="G732" s="0" t="s">
-        <v>889</v>
+        <v>148</v>
       </c>
       <c r="H732" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I732" s="0" t="s">
-        <v>24</v>
+        <v>1782</v>
       </c>
       <c r="J732" s="0" t="s">
         <v>297</v>
@@ -55857,22 +55860,22 @@
         <v>718</v>
       </c>
       <c r="E733" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F733" s="0" t="s">
-        <v>1812</v>
+        <v>1791</v>
       </c>
       <c r="G733" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H733" s="0" t="s">
-        <v>1782</v>
+        <v>231</v>
       </c>
       <c r="I733" s="0" t="s">
-        <v>1782</v>
+        <v>1810</v>
       </c>
       <c r="J733" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="734">
@@ -55892,7 +55895,7 @@
         <v>1778</v>
       </c>
       <c r="F734" s="0" t="s">
-        <v>1791</v>
+        <v>1824</v>
       </c>
       <c r="G734" s="0" t="s">
         <v>318</v>
@@ -55909,34 +55912,34 @@
     </row>
     <row r="735">
       <c r="A735" s="0" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="B735" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C735" s="0" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="D735" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E735" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F735" s="0" t="s">
-        <v>1824</v>
+        <v>1777</v>
       </c>
       <c r="G735" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H735" s="0" t="s">
-        <v>231</v>
+        <v>1782</v>
       </c>
       <c r="I735" s="0" t="s">
-        <v>1810</v>
+        <v>1911</v>
       </c>
       <c r="J735" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="736">
@@ -55956,16 +55959,16 @@
         <v>1776</v>
       </c>
       <c r="F736" s="0" t="s">
-        <v>1777</v>
+        <v>1887</v>
       </c>
       <c r="G736" s="0" t="s">
-        <v>148</v>
+        <v>742</v>
       </c>
       <c r="H736" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I736" s="0" t="s">
-        <v>1910</v>
+        <v>24</v>
       </c>
       <c r="J736" s="0" t="s">
         <v>297</v>
@@ -55973,31 +55976,31 @@
     </row>
     <row r="737">
       <c r="A737" s="0" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="B737" s="0" t="s">
         <v>674</v>
       </c>
       <c r="C737" s="0" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D737" s="0" t="s">
         <v>1743</v>
       </c>
-      <c r="D737" s="0" t="s">
-        <v>718</v>
-      </c>
       <c r="E737" s="0" t="s">
         <v>1776</v>
       </c>
       <c r="F737" s="0" t="s">
-        <v>1887</v>
+        <v>1812</v>
       </c>
       <c r="G737" s="0" t="s">
-        <v>742</v>
+        <v>148</v>
       </c>
       <c r="H737" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I737" s="0" t="s">
-        <v>24</v>
+        <v>1911</v>
       </c>
       <c r="J737" s="0" t="s">
         <v>297</v>
@@ -56020,16 +56023,16 @@
         <v>1776</v>
       </c>
       <c r="F738" s="0" t="s">
-        <v>1812</v>
+        <v>1834</v>
       </c>
       <c r="G738" s="0" t="s">
-        <v>148</v>
+        <v>889</v>
       </c>
       <c r="H738" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I738" s="0" t="s">
-        <v>1910</v>
+        <v>24</v>
       </c>
       <c r="J738" s="0" t="s">
         <v>297</v>
@@ -56037,31 +56040,31 @@
     </row>
     <row r="739">
       <c r="A739" s="0" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="B739" s="0" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="C739" s="0" t="s">
-        <v>1745</v>
+        <v>677</v>
       </c>
       <c r="D739" s="0" t="s">
-        <v>1743</v>
+        <v>718</v>
       </c>
       <c r="E739" s="0" t="s">
         <v>1776</v>
       </c>
       <c r="F739" s="0" t="s">
-        <v>1834</v>
+        <v>1822</v>
       </c>
       <c r="G739" s="0" t="s">
-        <v>889</v>
+        <v>802</v>
       </c>
       <c r="H739" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I739" s="0" t="s">
-        <v>24</v>
+        <v>1829</v>
       </c>
       <c r="J739" s="0" t="s">
         <v>297</v>
@@ -56081,19 +56084,19 @@
         <v>718</v>
       </c>
       <c r="E740" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F740" s="0" t="s">
-        <v>1822</v>
+        <v>1789</v>
       </c>
       <c r="G740" s="0" t="s">
-        <v>802</v>
+        <v>318</v>
       </c>
       <c r="H740" s="0" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="I740" s="0" t="s">
-        <v>1829</v>
+        <v>24</v>
       </c>
       <c r="J740" s="0" t="s">
         <v>297</v>
@@ -56101,13 +56104,13 @@
     </row>
     <row r="741">
       <c r="A741" s="0" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="B741" s="0" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C741" s="0" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D741" s="0" t="s">
         <v>718</v>
@@ -56116,13 +56119,13 @@
         <v>1778</v>
       </c>
       <c r="F741" s="0" t="s">
-        <v>1789</v>
+        <v>1838</v>
       </c>
       <c r="G741" s="0" t="s">
-        <v>318</v>
+        <v>742</v>
       </c>
       <c r="H741" s="0" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="I741" s="0" t="s">
         <v>24</v>
@@ -56133,31 +56136,31 @@
     </row>
     <row r="742">
       <c r="A742" s="0" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B742" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="C742" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="D742" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E742" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F742" s="0" t="s">
-        <v>1838</v>
+        <v>1862</v>
       </c>
       <c r="G742" s="0" t="s">
         <v>742</v>
       </c>
       <c r="H742" s="0" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="I742" s="0" t="s">
-        <v>24</v>
+        <v>488</v>
       </c>
       <c r="J742" s="0" t="s">
         <v>297</v>
@@ -56165,34 +56168,34 @@
     </row>
     <row r="743">
       <c r="A743" s="0" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="B743" s="0" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C743" s="0" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="D743" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E743" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F743" s="0" t="s">
-        <v>1862</v>
+        <v>1779</v>
       </c>
       <c r="G743" s="0" t="s">
-        <v>742</v>
+        <v>148</v>
       </c>
       <c r="H743" s="0" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="I743" s="0" t="s">
-        <v>488</v>
+        <v>24</v>
       </c>
       <c r="J743" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="744">
@@ -56212,48 +56215,48 @@
         <v>1778</v>
       </c>
       <c r="F744" s="0" t="s">
-        <v>1779</v>
+        <v>1790</v>
       </c>
       <c r="G744" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H744" s="0" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="I744" s="0" t="s">
         <v>24</v>
       </c>
       <c r="J744" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="0" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B745" s="0" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C745" s="0" t="s">
-        <v>686</v>
+        <v>1753</v>
       </c>
       <c r="D745" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E745" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F745" s="0" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="G745" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H745" s="0" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="I745" s="0" t="s">
-        <v>24</v>
+        <v>1913</v>
       </c>
       <c r="J745" s="0" t="s">
         <v>297</v>
@@ -56261,13 +56264,13 @@
     </row>
     <row r="746">
       <c r="A746" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="B746" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C746" s="0" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="D746" s="0" t="s">
         <v>718</v>
@@ -56276,16 +56279,16 @@
         <v>1776</v>
       </c>
       <c r="F746" s="0" t="s">
-        <v>1792</v>
+        <v>1812</v>
       </c>
       <c r="G746" s="0" t="s">
         <v>148</v>
       </c>
       <c r="H746" s="0" t="s">
-        <v>24</v>
+        <v>1782</v>
       </c>
       <c r="I746" s="0" t="s">
-        <v>1912</v>
+        <v>1909</v>
       </c>
       <c r="J746" s="0" t="s">
         <v>297</v>
@@ -56305,19 +56308,19 @@
         <v>718</v>
       </c>
       <c r="E747" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F747" s="0" t="s">
-        <v>1812</v>
+        <v>1824</v>
       </c>
       <c r="G747" s="0" t="s">
-        <v>148</v>
+        <v>318</v>
       </c>
       <c r="H747" s="0" t="s">
-        <v>1782</v>
+        <v>217</v>
       </c>
       <c r="I747" s="0" t="s">
-        <v>1908</v>
+        <v>1810</v>
       </c>
       <c r="J747" s="0" t="s">
         <v>297</v>
@@ -56325,31 +56328,31 @@
     </row>
     <row r="748">
       <c r="A748" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="B748" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C748" s="0" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="D748" s="0" t="s">
         <v>718</v>
       </c>
       <c r="E748" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F748" s="0" t="s">
-        <v>1824</v>
+        <v>1812</v>
       </c>
       <c r="G748" s="0" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="H748" s="0" t="s">
-        <v>217</v>
+        <v>1782</v>
       </c>
       <c r="I748" s="0" t="s">
-        <v>1810</v>
+        <v>1914</v>
       </c>
       <c r="J748" s="0" t="s">
         <v>297</v>
@@ -56357,13 +56360,13 @@
     </row>
     <row r="749">
       <c r="A749" s="0" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="B749" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C749" s="0" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="D749" s="0" t="s">
         <v>718</v>
@@ -56372,7 +56375,7 @@
         <v>1776</v>
       </c>
       <c r="F749" s="0" t="s">
-        <v>1812</v>
+        <v>1777</v>
       </c>
       <c r="G749" s="0" t="s">
         <v>148</v>
@@ -56381,7 +56384,7 @@
         <v>1782</v>
       </c>
       <c r="I749" s="0" t="s">
-        <v>1913</v>
+        <v>1782</v>
       </c>
       <c r="J749" s="0" t="s">
         <v>297</v>
@@ -56389,16 +56392,16 @@
     </row>
     <row r="750">
       <c r="A750" s="0" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="B750" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C750" s="0" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D750" s="0" t="s">
         <v>1759</v>
-      </c>
-      <c r="D750" s="0" t="s">
-        <v>718</v>
       </c>
       <c r="E750" s="0" t="s">
         <v>1776</v>
@@ -56413,7 +56416,7 @@
         <v>1782</v>
       </c>
       <c r="I750" s="0" t="s">
-        <v>1782</v>
+        <v>1908</v>
       </c>
       <c r="J750" s="0" t="s">
         <v>297</v>
@@ -56436,16 +56439,16 @@
         <v>1776</v>
       </c>
       <c r="F751" s="0" t="s">
-        <v>1777</v>
+        <v>1795</v>
       </c>
       <c r="G751" s="0" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H751" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I751" s="0" t="s">
-        <v>1907</v>
+        <v>488</v>
       </c>
       <c r="J751" s="0" t="s">
         <v>297</v>
@@ -56453,31 +56456,31 @@
     </row>
     <row r="752">
       <c r="A752" s="0" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="B752" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C752" s="0" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="D752" s="0" t="s">
-        <v>1759</v>
+        <v>718</v>
       </c>
       <c r="E752" s="0" t="s">
         <v>1776</v>
       </c>
       <c r="F752" s="0" t="s">
-        <v>1795</v>
+        <v>1777</v>
       </c>
       <c r="G752" s="0" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H752" s="0" t="s">
         <v>163</v>
       </c>
       <c r="I752" s="0" t="s">
-        <v>488</v>
+        <v>1908</v>
       </c>
       <c r="J752" s="0" t="s">
         <v>297</v>
@@ -56497,19 +56500,19 @@
         <v>718</v>
       </c>
       <c r="E753" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F753" s="0" t="s">
-        <v>1777</v>
+        <v>1793</v>
       </c>
       <c r="G753" s="0" t="s">
-        <v>148</v>
+        <v>742</v>
       </c>
       <c r="H753" s="0" t="s">
         <v>163</v>
       </c>
       <c r="I753" s="0" t="s">
-        <v>1907</v>
+        <v>1915</v>
       </c>
       <c r="J753" s="0" t="s">
         <v>297</v>
@@ -56517,31 +56520,31 @@
     </row>
     <row r="754">
       <c r="A754" s="0" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="B754" s="0" t="s">
         <v>690</v>
       </c>
       <c r="C754" s="0" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D754" s="0" t="s">
         <v>1763</v>
       </c>
-      <c r="D754" s="0" t="s">
-        <v>718</v>
-      </c>
       <c r="E754" s="0" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F754" s="0" t="s">
-        <v>1793</v>
+        <v>1777</v>
       </c>
       <c r="G754" s="0" t="s">
-        <v>742</v>
+        <v>148</v>
       </c>
       <c r="H754" s="0" t="s">
-        <v>163</v>
+        <v>1782</v>
       </c>
       <c r="I754" s="0" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
       <c r="J754" s="0" t="s">
         <v>297</v>
@@ -56561,45 +56564,45 @@
         <v>1763</v>
       </c>
       <c r="E755" s="0" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="F755" s="0" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="G755" s="0" t="s">
-        <v>148</v>
+        <v>889</v>
       </c>
       <c r="H755" s="0" t="s">
-        <v>1782</v>
+        <v>163</v>
       </c>
       <c r="I755" s="0" t="s">
-        <v>1910</v>
+        <v>24</v>
       </c>
       <c r="J755" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="0" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="B756" s="0" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C756" s="0" t="s">
-        <v>1765</v>
+        <v>693</v>
       </c>
       <c r="D756" s="0" t="s">
-        <v>1763</v>
+        <v>718</v>
       </c>
       <c r="E756" s="0" t="s">
         <v>1778</v>
       </c>
       <c r="F756" s="0" t="s">
-        <v>1779</v>
+        <v>1785</v>
       </c>
       <c r="G756" s="0" t="s">
-        <v>889</v>
+        <v>1786</v>
       </c>
       <c r="H756" s="0" t="s">
         <v>163</v>
@@ -56608,18 +56611,18 @@
         <v>24</v>
       </c>
       <c r="J756" s="0" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="0" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B757" s="0" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C757" s="0" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="D757" s="0" t="s">
         <v>718</v>
@@ -56628,13 +56631,13 @@
         <v>1778</v>
       </c>
       <c r="F757" s="0" t="s">
-        <v>1785</v>
+        <v>1779</v>
       </c>
       <c r="G757" s="0" t="s">
-        <v>1786</v>
+        <v>1845</v>
       </c>
       <c r="H757" s="0" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="I757" s="0" t="s">
         <v>24</v>
@@ -56660,16 +56663,16 @@
         <v>1778</v>
       </c>
       <c r="F758" s="0" t="s">
-        <v>1779</v>
+        <v>1808</v>
       </c>
       <c r="G758" s="0" t="s">
-        <v>1845</v>
+        <v>1786</v>
       </c>
       <c r="H758" s="0" t="s">
         <v>81</v>
       </c>
       <c r="I758" s="0" t="s">
-        <v>24</v>
+        <v>1825</v>
       </c>
       <c r="J758" s="0" t="s">
         <v>297</v>
@@ -56677,13 +56680,13 @@
     </row>
     <row r="759">
       <c r="A759" s="0" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="B759" s="0" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C759" s="0" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="D759" s="0" t="s">
         <v>718</v>
@@ -56692,16 +56695,16 @@
         <v>1778</v>
       </c>
       <c r="F759" s="0" t="s">
-        <v>1808</v>
+        <v>1789</v>
       </c>
       <c r="G759" s="0" t="s">
-        <v>1786</v>
+        <v>1845</v>
       </c>
       <c r="H759" s="0" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="I759" s="0" t="s">
-        <v>1825</v>
+        <v>24</v>
       </c>
       <c r="J759" s="0" t="s">
         <v>297</v>
@@ -56709,13 +56712,13 @@
     </row>
     <row r="760">
       <c r="A760" s="0" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B760" s="0" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C760" s="0" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="D760" s="0" t="s">
         <v>718</v>
@@ -56724,30 +56727,30 @@
         <v>1778</v>
       </c>
       <c r="F760" s="0" t="s">
-        <v>1789</v>
+        <v>1779</v>
       </c>
       <c r="G760" s="0" t="s">
-        <v>1845</v>
+        <v>889</v>
       </c>
       <c r="H760" s="0" t="s">
-        <v>163</v>
+        <v>687</v>
       </c>
       <c r="I760" s="0" t="s">
         <v>24</v>
       </c>
       <c r="J760" s="0" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="0" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="B761" s="0" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C761" s="0" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="D761" s="0" t="s">
         <v>718</v>
@@ -56756,10 +56759,10 @@
         <v>1778</v>
       </c>
       <c r="F761" s="0" t="s">
-        <v>1779</v>
+        <v>1838</v>
       </c>
       <c r="G761" s="0" t="s">
-        <v>889</v>
+        <v>1845</v>
       </c>
       <c r="H761" s="0" t="s">
         <v>687</v>
@@ -56768,38 +56771,6 @@
         <v>24</v>
       </c>
       <c r="J761" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="762">
-      <c r="A762" s="0" t="s">
-        <v>1770</v>
-      </c>
-      <c r="B762" s="0" t="s">
-        <v>705</v>
-      </c>
-      <c r="C762" s="0" t="s">
-        <v>705</v>
-      </c>
-      <c r="D762" s="0" t="s">
-        <v>718</v>
-      </c>
-      <c r="E762" s="0" t="s">
-        <v>1778</v>
-      </c>
-      <c r="F762" s="0" t="s">
-        <v>1838</v>
-      </c>
-      <c r="G762" s="0" t="s">
-        <v>1845</v>
-      </c>
-      <c r="H762" s="0" t="s">
-        <v>687</v>
-      </c>
-      <c r="I762" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J762" s="0" t="s">
         <v>297</v>
       </c>
     </row>

--- a/docs/秘籍数值.xlsx
+++ b/docs/秘籍数值.xlsx
@@ -29664,7 +29664,7 @@
         <v>735</v>
       </c>
       <c r="E395" s="0" t="s">
-        <v>736</v>
+        <v>822</v>
       </c>
       <c r="F395" s="0" t="s">
         <v>164</v>
@@ -29867,7 +29867,7 @@
         <v>735</v>
       </c>
       <c r="E402" s="0" t="s">
-        <v>736</v>
+        <v>822</v>
       </c>
       <c r="F402" s="0" t="s">
         <v>164</v>
@@ -30128,7 +30128,7 @@
         <v>735</v>
       </c>
       <c r="E411" s="0" t="s">
-        <v>736</v>
+        <v>822</v>
       </c>
       <c r="F411" s="0" t="s">
         <v>164</v>
@@ -31549,7 +31549,7 @@
         <v>735</v>
       </c>
       <c r="E460" s="0" t="s">
-        <v>736</v>
+        <v>822</v>
       </c>
       <c r="F460" s="0" t="s">
         <v>164</v>
@@ -31578,7 +31578,7 @@
         <v>735</v>
       </c>
       <c r="E461" s="0" t="s">
-        <v>736</v>
+        <v>822</v>
       </c>
       <c r="F461" s="0" t="s">
         <v>164</v>

--- a/docs/秘籍数值.xlsx
+++ b/docs/秘籍数值.xlsx
@@ -19410,7 +19410,7 @@
         <v>24</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="F197" s="0" t="s">
         <v>142</v>
@@ -37627,7 +37627,7 @@
         <v>1010</v>
       </c>
       <c r="I514" s="0" t="s">
-        <v>189</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="515">
@@ -64489,7 +64489,7 @@
         <v>24</v>
       </c>
       <c r="I792" s="0" t="s">
-        <v>257</v>
+        <v>927</v>
       </c>
       <c r="J792" s="0" t="s">
         <v>323</v>
@@ -64617,7 +64617,7 @@
         <v>24</v>
       </c>
       <c r="I796" s="0" t="s">
-        <v>2181</v>
+        <v>2184</v>
       </c>
       <c r="J796" s="0" t="s">
         <v>323</v>

--- a/docs/秘籍数值.xlsx
+++ b/docs/秘籍数值.xlsx
@@ -64489,7 +64489,7 @@
         <v>24</v>
       </c>
       <c r="I792" s="0" t="s">
-        <v>927</v>
+        <v>2183</v>
       </c>
       <c r="J792" s="0" t="s">
         <v>323</v>
@@ -64515,13 +64515,13 @@
         <v>2083</v>
       </c>
       <c r="G793" s="0" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="H793" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I793" s="0" t="s">
-        <v>62</v>
+        <v>2057</v>
       </c>
       <c r="J793" s="0" t="s">
         <v>323</v>
@@ -64553,7 +64553,7 @@
         <v>24</v>
       </c>
       <c r="I794" s="0" t="s">
-        <v>2180</v>
+        <v>2183</v>
       </c>
       <c r="J794" s="0" t="s">
         <v>323</v>
@@ -64617,7 +64617,7 @@
         <v>24</v>
       </c>
       <c r="I796" s="0" t="s">
-        <v>2184</v>
+        <v>927</v>
       </c>
       <c r="J796" s="0" t="s">
         <v>323</v>
@@ -64681,7 +64681,7 @@
         <v>24</v>
       </c>
       <c r="I798" s="0" t="s">
-        <v>2184</v>
+        <v>2043</v>
       </c>
       <c r="J798" s="0" t="s">
         <v>323</v>
@@ -64713,7 +64713,7 @@
         <v>24</v>
       </c>
       <c r="I799" s="0" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="J799" s="0" t="s">
         <v>323</v>
@@ -67369,7 +67369,7 @@
         <v>24</v>
       </c>
       <c r="I882" s="0" t="s">
-        <v>1747</v>
+        <v>927</v>
       </c>
       <c r="J882" s="0" t="s">
         <v>323</v>
@@ -67398,7 +67398,7 @@
         <v>953</v>
       </c>
       <c r="H883" s="0" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="I883" s="0" t="s">
         <v>24</v>

--- a/docs/秘籍数值.xlsx
+++ b/docs/秘籍数值.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2200" uniqueCount="2200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="2201">
   <si>
     <t>1秘籍id</t>
   </si>
@@ -6601,10 +6601,13 @@
     <t>2.4</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>105000</t>
+  </si>
+  <si>
     <t>2.7</t>
-  </si>
-  <si>
-    <t>32000</t>
   </si>
   <si>
     <t>-0.9</t>
@@ -20979,13 +20982,13 @@
         <v>24</v>
       </c>
       <c r="E221" s="0" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="G221" s="0" t="s">
-        <v>24</v>
+        <v>712</v>
       </c>
       <c r="H221" s="0" t="s">
         <v>24</v>
@@ -21047,16 +21050,16 @@
         <v>142</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="G222" s="0" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="H222" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I222" s="0" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="J222" s="0" t="s">
         <v>24</v>
@@ -21109,19 +21112,19 @@
         <v>24</v>
       </c>
       <c r="E223" s="0" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="G223" s="0" t="s">
-        <v>142</v>
+        <v>712</v>
       </c>
       <c r="H223" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I223" s="0" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="J223" s="0" t="s">
         <v>24</v>
@@ -21174,19 +21177,19 @@
         <v>24</v>
       </c>
       <c r="E224" s="0" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="F224" s="0" t="s">
         <v>142</v>
       </c>
       <c r="G224" s="0" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="H224" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I224" s="0" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="J224" s="0" t="s">
         <v>24</v>
@@ -22607,16 +22610,16 @@
         <v>142</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="G246" s="0" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="H246" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I246" s="0" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="J246" s="0" t="s">
         <v>24</v>
@@ -22669,19 +22672,19 @@
         <v>24</v>
       </c>
       <c r="E247" s="0" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="F247" s="0" t="s">
         <v>129</v>
       </c>
       <c r="G247" s="0" t="s">
-        <v>243</v>
+        <v>142</v>
       </c>
       <c r="H247" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I247" s="0" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="J247" s="0" t="s">
         <v>24</v>
@@ -39154,7 +39157,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J889"/>
+  <dimension ref="A1:J890"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -66034,7 +66037,7 @@
         <v>24</v>
       </c>
       <c r="I840" s="0" t="s">
-        <v>1657</v>
+        <v>1712</v>
       </c>
       <c r="J840" s="0" t="s">
         <v>323</v>
@@ -66063,7 +66066,7 @@
         <v>1083</v>
       </c>
       <c r="H841" s="0" t="s">
-        <v>2193</v>
+        <v>2195</v>
       </c>
       <c r="I841" s="0" t="s">
         <v>24</v>
@@ -66098,7 +66101,7 @@
         <v>24</v>
       </c>
       <c r="I842" s="0" t="s">
-        <v>2195</v>
+        <v>1712</v>
       </c>
       <c r="J842" s="0" t="s">
         <v>323</v>
@@ -66162,7 +66165,7 @@
         <v>24</v>
       </c>
       <c r="I844" s="0" t="s">
-        <v>1878</v>
+        <v>1712</v>
       </c>
       <c r="J844" s="0" t="s">
         <v>323</v>
@@ -66226,7 +66229,7 @@
         <v>24</v>
       </c>
       <c r="I846" s="0" t="s">
-        <v>1634</v>
+        <v>1657</v>
       </c>
       <c r="J846" s="0" t="s">
         <v>323</v>
@@ -66266,13 +66269,13 @@
     </row>
     <row r="848">
       <c r="A848" s="0" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B848" s="0" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C848" s="0" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="D848" s="0" t="s">
         <v>914</v>
@@ -66281,7 +66284,7 @@
         <v>2037</v>
       </c>
       <c r="F848" s="0" t="s">
-        <v>2038</v>
+        <v>2144</v>
       </c>
       <c r="G848" s="0" t="s">
         <v>175</v>
@@ -66290,7 +66293,7 @@
         <v>24</v>
       </c>
       <c r="I848" s="0" t="s">
-        <v>2195</v>
+        <v>2064</v>
       </c>
       <c r="J848" s="0" t="s">
         <v>323</v>
@@ -66298,13 +66301,13 @@
     </row>
     <row r="849">
       <c r="A849" s="0" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B849" s="0" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C849" s="0" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D849" s="0" t="s">
         <v>914</v>
@@ -66322,7 +66325,7 @@
         <v>24</v>
       </c>
       <c r="I849" s="0" t="s">
-        <v>1878</v>
+        <v>2197</v>
       </c>
       <c r="J849" s="0" t="s">
         <v>323</v>
@@ -66330,13 +66333,13 @@
     </row>
     <row r="850">
       <c r="A850" s="0" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B850" s="0" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C850" s="0" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D850" s="0" t="s">
         <v>914</v>
@@ -66354,7 +66357,7 @@
         <v>24</v>
       </c>
       <c r="I850" s="0" t="s">
-        <v>189</v>
+        <v>1878</v>
       </c>
       <c r="J850" s="0" t="s">
         <v>323</v>
@@ -66377,16 +66380,16 @@
         <v>2037</v>
       </c>
       <c r="F851" s="0" t="s">
-        <v>2074</v>
+        <v>2038</v>
       </c>
       <c r="G851" s="0" t="s">
         <v>175</v>
       </c>
       <c r="H851" s="0" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="I851" s="0" t="s">
-        <v>2081</v>
+        <v>189</v>
       </c>
       <c r="J851" s="0" t="s">
         <v>323</v>
@@ -66406,19 +66409,19 @@
         <v>914</v>
       </c>
       <c r="E852" s="0" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="F852" s="0" t="s">
-        <v>2050</v>
+        <v>2074</v>
       </c>
       <c r="G852" s="0" t="s">
-        <v>1083</v>
+        <v>175</v>
       </c>
       <c r="H852" s="0" t="s">
-        <v>344</v>
+        <v>119</v>
       </c>
       <c r="I852" s="0" t="s">
-        <v>24</v>
+        <v>2081</v>
       </c>
       <c r="J852" s="0" t="s">
         <v>323</v>
@@ -66426,31 +66429,31 @@
     </row>
     <row r="853">
       <c r="A853" s="0" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B853" s="0" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="C853" s="0" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="D853" s="0" t="s">
         <v>914</v>
       </c>
       <c r="E853" s="0" t="s">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="F853" s="0" t="s">
-        <v>2073</v>
+        <v>2050</v>
       </c>
       <c r="G853" s="0" t="s">
-        <v>175</v>
+        <v>1083</v>
       </c>
       <c r="H853" s="0" t="s">
-        <v>24</v>
+        <v>344</v>
       </c>
       <c r="I853" s="0" t="s">
-        <v>2082</v>
+        <v>24</v>
       </c>
       <c r="J853" s="0" t="s">
         <v>323</v>
@@ -66473,16 +66476,16 @@
         <v>2037</v>
       </c>
       <c r="F854" s="0" t="s">
-        <v>2151</v>
+        <v>2073</v>
       </c>
       <c r="G854" s="0" t="s">
         <v>175</v>
       </c>
       <c r="H854" s="0" t="s">
-        <v>2076</v>
+        <v>24</v>
       </c>
       <c r="I854" s="0" t="s">
-        <v>24</v>
+        <v>2082</v>
       </c>
       <c r="J854" s="0" t="s">
         <v>323</v>
@@ -66502,13 +66505,13 @@
         <v>914</v>
       </c>
       <c r="E855" s="0" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="F855" s="0" t="s">
-        <v>2051</v>
+        <v>2151</v>
       </c>
       <c r="G855" s="0" t="s">
-        <v>1083</v>
+        <v>175</v>
       </c>
       <c r="H855" s="0" t="s">
         <v>2076</v>
@@ -66522,31 +66525,31 @@
     </row>
     <row r="856">
       <c r="A856" s="0" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B856" s="0" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C856" s="0" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="D856" s="0" t="s">
         <v>914</v>
       </c>
       <c r="E856" s="0" t="s">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="F856" s="0" t="s">
-        <v>2038</v>
+        <v>2051</v>
       </c>
       <c r="G856" s="0" t="s">
-        <v>175</v>
+        <v>1083</v>
       </c>
       <c r="H856" s="0" t="s">
-        <v>24</v>
+        <v>2076</v>
       </c>
       <c r="I856" s="0" t="s">
-        <v>1132</v>
+        <v>24</v>
       </c>
       <c r="J856" s="0" t="s">
         <v>323</v>
@@ -66566,19 +66569,19 @@
         <v>914</v>
       </c>
       <c r="E857" s="0" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="F857" s="0" t="s">
-        <v>2052</v>
+        <v>2038</v>
       </c>
       <c r="G857" s="0" t="s">
         <v>175</v>
       </c>
       <c r="H857" s="0" t="s">
-        <v>2076</v>
+        <v>24</v>
       </c>
       <c r="I857" s="0" t="s">
-        <v>2197</v>
+        <v>1132</v>
       </c>
       <c r="J857" s="0" t="s">
         <v>323</v>
@@ -66601,7 +66604,7 @@
         <v>2039</v>
       </c>
       <c r="F858" s="0" t="s">
-        <v>2085</v>
+        <v>2052</v>
       </c>
       <c r="G858" s="0" t="s">
         <v>175</v>
@@ -66610,7 +66613,7 @@
         <v>2076</v>
       </c>
       <c r="I858" s="0" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="J858" s="0" t="s">
         <v>323</v>
@@ -66618,31 +66621,31 @@
     </row>
     <row r="859">
       <c r="A859" s="0" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B859" s="0" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C859" s="0" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="D859" s="0" t="s">
         <v>914</v>
       </c>
       <c r="E859" s="0" t="s">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="F859" s="0" t="s">
-        <v>2073</v>
+        <v>2085</v>
       </c>
       <c r="G859" s="0" t="s">
         <v>175</v>
       </c>
       <c r="H859" s="0" t="s">
-        <v>24</v>
+        <v>2076</v>
       </c>
       <c r="I859" s="0" t="s">
-        <v>81</v>
+        <v>2198</v>
       </c>
       <c r="J859" s="0" t="s">
         <v>323</v>
@@ -66650,13 +66653,13 @@
     </row>
     <row r="860">
       <c r="A860" s="0" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B860" s="0" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C860" s="0" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D860" s="0" t="s">
         <v>914</v>
@@ -66665,7 +66668,7 @@
         <v>2037</v>
       </c>
       <c r="F860" s="0" t="s">
-        <v>2038</v>
+        <v>2073</v>
       </c>
       <c r="G860" s="0" t="s">
         <v>175</v>
@@ -66674,7 +66677,7 @@
         <v>24</v>
       </c>
       <c r="I860" s="0" t="s">
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="J860" s="0" t="s">
         <v>323</v>
@@ -66697,16 +66700,16 @@
         <v>2037</v>
       </c>
       <c r="F861" s="0" t="s">
-        <v>2103</v>
+        <v>2038</v>
       </c>
       <c r="G861" s="0" t="s">
         <v>175</v>
       </c>
       <c r="H861" s="0" t="s">
-        <v>2076</v>
+        <v>24</v>
       </c>
       <c r="I861" s="0" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="J861" s="0" t="s">
         <v>323</v>
@@ -66714,13 +66717,13 @@
     </row>
     <row r="862">
       <c r="A862" s="0" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B862" s="0" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C862" s="0" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D862" s="0" t="s">
         <v>914</v>
@@ -66729,16 +66732,16 @@
         <v>2037</v>
       </c>
       <c r="F862" s="0" t="s">
-        <v>2073</v>
+        <v>2103</v>
       </c>
       <c r="G862" s="0" t="s">
         <v>175</v>
       </c>
       <c r="H862" s="0" t="s">
-        <v>24</v>
+        <v>2076</v>
       </c>
       <c r="I862" s="0" t="s">
-        <v>1657</v>
+        <v>24</v>
       </c>
       <c r="J862" s="0" t="s">
         <v>323</v>
@@ -66761,16 +66764,16 @@
         <v>2037</v>
       </c>
       <c r="F863" s="0" t="s">
-        <v>2144</v>
+        <v>2073</v>
       </c>
       <c r="G863" s="0" t="s">
         <v>175</v>
       </c>
       <c r="H863" s="0" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="I863" s="0" t="s">
-        <v>2057</v>
+        <v>1657</v>
       </c>
       <c r="J863" s="0" t="s">
         <v>323</v>
@@ -66778,13 +66781,13 @@
     </row>
     <row r="864">
       <c r="A864" s="0" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B864" s="0" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C864" s="0" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D864" s="0" t="s">
         <v>914</v>
@@ -66793,16 +66796,16 @@
         <v>2037</v>
       </c>
       <c r="F864" s="0" t="s">
-        <v>2053</v>
+        <v>2144</v>
       </c>
       <c r="G864" s="0" t="s">
         <v>175</v>
       </c>
       <c r="H864" s="0" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="I864" s="0" t="s">
-        <v>2198</v>
+        <v>2057</v>
       </c>
       <c r="J864" s="0" t="s">
         <v>323</v>
@@ -66822,19 +66825,19 @@
         <v>914</v>
       </c>
       <c r="E865" s="0" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="F865" s="0" t="s">
-        <v>2046</v>
+        <v>2053</v>
       </c>
       <c r="G865" s="0" t="s">
         <v>175</v>
       </c>
       <c r="H865" s="0" t="s">
-        <v>853</v>
+        <v>24</v>
       </c>
       <c r="I865" s="0" t="s">
-        <v>24</v>
+        <v>2199</v>
       </c>
       <c r="J865" s="0" t="s">
         <v>323</v>
@@ -66842,31 +66845,31 @@
     </row>
     <row r="866">
       <c r="A866" s="0" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B866" s="0" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C866" s="0" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D866" s="0" t="s">
         <v>914</v>
       </c>
       <c r="E866" s="0" t="s">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="F866" s="0" t="s">
-        <v>2038</v>
+        <v>2046</v>
       </c>
       <c r="G866" s="0" t="s">
         <v>175</v>
       </c>
       <c r="H866" s="0" t="s">
-        <v>24</v>
+        <v>853</v>
       </c>
       <c r="I866" s="0" t="s">
-        <v>1914</v>
+        <v>24</v>
       </c>
       <c r="J866" s="0" t="s">
         <v>323</v>
@@ -66889,16 +66892,16 @@
         <v>2037</v>
       </c>
       <c r="F867" s="0" t="s">
-        <v>2092</v>
+        <v>2038</v>
       </c>
       <c r="G867" s="0" t="s">
         <v>175</v>
       </c>
       <c r="H867" s="0" t="s">
-        <v>2076</v>
+        <v>24</v>
       </c>
       <c r="I867" s="0" t="s">
-        <v>514</v>
+        <v>1914</v>
       </c>
       <c r="J867" s="0" t="s">
         <v>323</v>
@@ -66921,7 +66924,7 @@
         <v>2037</v>
       </c>
       <c r="F868" s="0" t="s">
-        <v>2144</v>
+        <v>2092</v>
       </c>
       <c r="G868" s="0" t="s">
         <v>175</v>
@@ -66938,13 +66941,13 @@
     </row>
     <row r="869">
       <c r="A869" s="0" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B869" s="0" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C869" s="0" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D869" s="0" t="s">
         <v>914</v>
@@ -66953,16 +66956,16 @@
         <v>2037</v>
       </c>
       <c r="F869" s="0" t="s">
-        <v>2073</v>
+        <v>2144</v>
       </c>
       <c r="G869" s="0" t="s">
         <v>175</v>
       </c>
       <c r="H869" s="0" t="s">
-        <v>24</v>
+        <v>2076</v>
       </c>
       <c r="I869" s="0" t="s">
-        <v>243</v>
+        <v>514</v>
       </c>
       <c r="J869" s="0" t="s">
         <v>323</v>
@@ -66985,16 +66988,16 @@
         <v>2037</v>
       </c>
       <c r="F870" s="0" t="s">
-        <v>2110</v>
+        <v>2073</v>
       </c>
       <c r="G870" s="0" t="s">
         <v>175</v>
       </c>
       <c r="H870" s="0" t="s">
-        <v>189</v>
+        <v>24</v>
       </c>
       <c r="I870" s="0" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="J870" s="0" t="s">
         <v>323</v>
@@ -67002,13 +67005,13 @@
     </row>
     <row r="871">
       <c r="A871" s="0" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B871" s="0" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C871" s="0" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D871" s="0" t="s">
         <v>914</v>
@@ -67017,16 +67020,16 @@
         <v>2037</v>
       </c>
       <c r="F871" s="0" t="s">
-        <v>2038</v>
+        <v>2110</v>
       </c>
       <c r="G871" s="0" t="s">
         <v>175</v>
       </c>
       <c r="H871" s="0" t="s">
-        <v>24</v>
+        <v>189</v>
       </c>
       <c r="I871" s="0" t="s">
-        <v>1750</v>
+        <v>24</v>
       </c>
       <c r="J871" s="0" t="s">
         <v>323</v>
@@ -67046,19 +67049,19 @@
         <v>914</v>
       </c>
       <c r="E872" s="0" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="F872" s="0" t="s">
-        <v>2050</v>
+        <v>2038</v>
       </c>
       <c r="G872" s="0" t="s">
         <v>175</v>
       </c>
       <c r="H872" s="0" t="s">
-        <v>853</v>
+        <v>24</v>
       </c>
       <c r="I872" s="0" t="s">
-        <v>24</v>
+        <v>1750</v>
       </c>
       <c r="J872" s="0" t="s">
         <v>323</v>
@@ -67066,31 +67069,31 @@
     </row>
     <row r="873">
       <c r="A873" s="0" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B873" s="0" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C873" s="0" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D873" s="0" t="s">
         <v>914</v>
       </c>
       <c r="E873" s="0" t="s">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="F873" s="0" t="s">
-        <v>2073</v>
+        <v>2050</v>
       </c>
       <c r="G873" s="0" t="s">
         <v>175</v>
       </c>
       <c r="H873" s="0" t="s">
-        <v>24</v>
+        <v>853</v>
       </c>
       <c r="I873" s="0" t="s">
-        <v>1132</v>
+        <v>24</v>
       </c>
       <c r="J873" s="0" t="s">
         <v>323</v>
@@ -67098,13 +67101,13 @@
     </row>
     <row r="874">
       <c r="A874" s="0" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B874" s="0" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="C874" s="0" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D874" s="0" t="s">
         <v>914</v>
@@ -67113,7 +67116,7 @@
         <v>2037</v>
       </c>
       <c r="F874" s="0" t="s">
-        <v>2038</v>
+        <v>2073</v>
       </c>
       <c r="G874" s="0" t="s">
         <v>175</v>
@@ -67122,7 +67125,7 @@
         <v>24</v>
       </c>
       <c r="I874" s="0" t="s">
-        <v>1634</v>
+        <v>1132</v>
       </c>
       <c r="J874" s="0" t="s">
         <v>323</v>
@@ -67145,7 +67148,7 @@
         <v>2037</v>
       </c>
       <c r="F875" s="0" t="s">
-        <v>2153</v>
+        <v>2038</v>
       </c>
       <c r="G875" s="0" t="s">
         <v>175</v>
@@ -67154,7 +67157,7 @@
         <v>24</v>
       </c>
       <c r="I875" s="0" t="s">
-        <v>2043</v>
+        <v>1634</v>
       </c>
       <c r="J875" s="0" t="s">
         <v>323</v>
@@ -67174,19 +67177,19 @@
         <v>914</v>
       </c>
       <c r="E876" s="0" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="F876" s="0" t="s">
-        <v>2050</v>
+        <v>2153</v>
       </c>
       <c r="G876" s="0" t="s">
-        <v>1083</v>
+        <v>175</v>
       </c>
       <c r="H876" s="0" t="s">
-        <v>344</v>
+        <v>24</v>
       </c>
       <c r="I876" s="0" t="s">
-        <v>24</v>
+        <v>2043</v>
       </c>
       <c r="J876" s="0" t="s">
         <v>323</v>
@@ -67194,31 +67197,31 @@
     </row>
     <row r="877">
       <c r="A877" s="0" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B877" s="0" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C877" s="0" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="D877" s="0" t="s">
         <v>914</v>
       </c>
       <c r="E877" s="0" t="s">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="F877" s="0" t="s">
-        <v>2073</v>
+        <v>2050</v>
       </c>
       <c r="G877" s="0" t="s">
-        <v>175</v>
+        <v>1083</v>
       </c>
       <c r="H877" s="0" t="s">
-        <v>24</v>
+        <v>344</v>
       </c>
       <c r="I877" s="0" t="s">
-        <v>243</v>
+        <v>24</v>
       </c>
       <c r="J877" s="0" t="s">
         <v>323</v>
@@ -67241,16 +67244,16 @@
         <v>2037</v>
       </c>
       <c r="F878" s="0" t="s">
-        <v>2131</v>
+        <v>2073</v>
       </c>
       <c r="G878" s="0" t="s">
         <v>175</v>
       </c>
       <c r="H878" s="0" t="s">
-        <v>2076</v>
+        <v>24</v>
       </c>
       <c r="I878" s="0" t="s">
-        <v>2181</v>
+        <v>243</v>
       </c>
       <c r="J878" s="0" t="s">
         <v>323</v>
@@ -67258,13 +67261,13 @@
     </row>
     <row r="879">
       <c r="A879" s="0" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B879" s="0" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C879" s="0" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D879" s="0" t="s">
         <v>914</v>
@@ -67273,16 +67276,16 @@
         <v>2037</v>
       </c>
       <c r="F879" s="0" t="s">
-        <v>2038</v>
+        <v>2131</v>
       </c>
       <c r="G879" s="0" t="s">
         <v>175</v>
       </c>
       <c r="H879" s="0" t="s">
-        <v>24</v>
+        <v>2076</v>
       </c>
       <c r="I879" s="0" t="s">
-        <v>1745</v>
+        <v>2181</v>
       </c>
       <c r="J879" s="0" t="s">
         <v>323</v>
@@ -67290,13 +67293,13 @@
     </row>
     <row r="880">
       <c r="A880" s="0" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B880" s="0" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C880" s="0" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D880" s="0" t="s">
         <v>914</v>
@@ -67314,7 +67317,7 @@
         <v>24</v>
       </c>
       <c r="I880" s="0" t="s">
-        <v>1634</v>
+        <v>1745</v>
       </c>
       <c r="J880" s="0" t="s">
         <v>323</v>
@@ -67334,19 +67337,19 @@
         <v>914</v>
       </c>
       <c r="E881" s="0" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="F881" s="0" t="s">
-        <v>2050</v>
+        <v>2038</v>
       </c>
       <c r="G881" s="0" t="s">
-        <v>1083</v>
+        <v>175</v>
       </c>
       <c r="H881" s="0" t="s">
-        <v>344</v>
+        <v>24</v>
       </c>
       <c r="I881" s="0" t="s">
-        <v>24</v>
+        <v>1634</v>
       </c>
       <c r="J881" s="0" t="s">
         <v>323</v>
@@ -67354,31 +67357,31 @@
     </row>
     <row r="882">
       <c r="A882" s="0" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B882" s="0" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C882" s="0" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D882" s="0" t="s">
         <v>914</v>
       </c>
       <c r="E882" s="0" t="s">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="F882" s="0" t="s">
-        <v>2038</v>
+        <v>2050</v>
       </c>
       <c r="G882" s="0" t="s">
-        <v>175</v>
+        <v>1083</v>
       </c>
       <c r="H882" s="0" t="s">
-        <v>24</v>
+        <v>344</v>
       </c>
       <c r="I882" s="0" t="s">
-        <v>243</v>
+        <v>24</v>
       </c>
       <c r="J882" s="0" t="s">
         <v>323</v>
@@ -67398,19 +67401,19 @@
         <v>914</v>
       </c>
       <c r="E883" s="0" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="F883" s="0" t="s">
-        <v>2046</v>
+        <v>2038</v>
       </c>
       <c r="G883" s="0" t="s">
-        <v>1083</v>
+        <v>175</v>
       </c>
       <c r="H883" s="0" t="s">
-        <v>344</v>
+        <v>24</v>
       </c>
       <c r="I883" s="0" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="J883" s="0" t="s">
         <v>323</v>
@@ -67418,31 +67421,31 @@
     </row>
     <row r="884">
       <c r="A884" s="0" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B884" s="0" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C884" s="0" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D884" s="0" t="s">
         <v>914</v>
       </c>
       <c r="E884" s="0" t="s">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="F884" s="0" t="s">
-        <v>2038</v>
+        <v>2046</v>
       </c>
       <c r="G884" s="0" t="s">
-        <v>175</v>
+        <v>1083</v>
       </c>
       <c r="H884" s="0" t="s">
-        <v>24</v>
+        <v>344</v>
       </c>
       <c r="I884" s="0" t="s">
-        <v>928</v>
+        <v>24</v>
       </c>
       <c r="J884" s="0" t="s">
         <v>323</v>
@@ -67462,19 +67465,19 @@
         <v>914</v>
       </c>
       <c r="E885" s="0" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="F885" s="0" t="s">
-        <v>2051</v>
+        <v>2038</v>
       </c>
       <c r="G885" s="0" t="s">
-        <v>954</v>
+        <v>175</v>
       </c>
       <c r="H885" s="0" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="I885" s="0" t="s">
-        <v>24</v>
+        <v>928</v>
       </c>
       <c r="J885" s="0" t="s">
         <v>323</v>
@@ -67482,31 +67485,31 @@
     </row>
     <row r="886">
       <c r="A886" s="0" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B886" s="0" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C886" s="0" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D886" s="0" t="s">
         <v>914</v>
       </c>
       <c r="E886" s="0" t="s">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="F886" s="0" t="s">
-        <v>2038</v>
+        <v>2051</v>
       </c>
       <c r="G886" s="0" t="s">
-        <v>175</v>
+        <v>954</v>
       </c>
       <c r="H886" s="0" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="I886" s="0" t="s">
-        <v>2199</v>
+        <v>24</v>
       </c>
       <c r="J886" s="0" t="s">
         <v>323</v>
@@ -67526,19 +67529,19 @@
         <v>914</v>
       </c>
       <c r="E887" s="0" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="F887" s="0" t="s">
-        <v>2051</v>
+        <v>2038</v>
       </c>
       <c r="G887" s="0" t="s">
         <v>175</v>
       </c>
       <c r="H887" s="0" t="s">
-        <v>712</v>
+        <v>24</v>
       </c>
       <c r="I887" s="0" t="s">
-        <v>24</v>
+        <v>2200</v>
       </c>
       <c r="J887" s="0" t="s">
         <v>323</v>
@@ -67546,31 +67549,31 @@
     </row>
     <row r="888">
       <c r="A888" s="0" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B888" s="0" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C888" s="0" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D888" s="0" t="s">
         <v>914</v>
       </c>
       <c r="E888" s="0" t="s">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="F888" s="0" t="s">
-        <v>2073</v>
+        <v>2051</v>
       </c>
       <c r="G888" s="0" t="s">
         <v>175</v>
       </c>
       <c r="H888" s="0" t="s">
-        <v>24</v>
+        <v>712</v>
       </c>
       <c r="I888" s="0" t="s">
-        <v>1680</v>
+        <v>24</v>
       </c>
       <c r="J888" s="0" t="s">
         <v>323</v>
@@ -67590,21 +67593,53 @@
         <v>914</v>
       </c>
       <c r="E889" s="0" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F889" s="0" t="s">
+        <v>2073</v>
+      </c>
+      <c r="G889" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="H889" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I889" s="0" t="s">
+        <v>1680</v>
+      </c>
+      <c r="J889" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="0" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B890" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="C890" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="D890" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="E890" s="0" t="s">
         <v>2039</v>
       </c>
-      <c r="F889" s="0" t="s">
+      <c r="F890" s="0" t="s">
         <v>2046</v>
       </c>
-      <c r="G889" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="H889" s="0" t="s">
+      <c r="G890" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="H890" s="0" t="s">
         <v>1620</v>
       </c>
-      <c r="I889" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J889" s="0" t="s">
+      <c r="I890" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J890" s="0" t="s">
         <v>323</v>
       </c>
     </row>

--- a/docs/秘籍数值.xlsx
+++ b/docs/秘籍数值.xlsx
@@ -6064,6 +6064,9 @@
     <t>40300042</t>
   </si>
   <si>
+    <t>2.7</t>
+  </si>
+  <si>
     <t>40300043</t>
   </si>
   <si>
@@ -6073,516 +6076,516 @@
     <t>40300045</t>
   </si>
   <si>
+    <t>40300046</t>
+  </si>
+  <si>
+    <t>40300047</t>
+  </si>
+  <si>
+    <t>40300048</t>
+  </si>
+  <si>
+    <t>40300049</t>
+  </si>
+  <si>
+    <t>40300050</t>
+  </si>
+  <si>
+    <t>40300051</t>
+  </si>
+  <si>
+    <t>40300052</t>
+  </si>
+  <si>
+    <t>40300053</t>
+  </si>
+  <si>
+    <t>40300054</t>
+  </si>
+  <si>
+    <t>40300055</t>
+  </si>
+  <si>
+    <t>40300056</t>
+  </si>
+  <si>
+    <t>40300057</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>概率</t>
+  </si>
+  <si>
+    <t>持续招数</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>首回合生效</t>
+  </si>
+  <si>
+    <t>增益</t>
+  </si>
+  <si>
+    <t>IncreasePhysicsAttackRate</t>
+  </si>
+  <si>
+    <t>减益</t>
+  </si>
+  <si>
+    <t>Drug</t>
+  </si>
+  <si>
+    <t>-800</t>
+  </si>
+  <si>
+    <t>IncreasePhysicsDefense</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>-150</t>
+  </si>
+  <si>
+    <t>IncreasePhysicsAttack</t>
+  </si>
+  <si>
+    <t>Disarm</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>Vertigo</t>
+  </si>
+  <si>
+    <t>Chaos</t>
+  </si>
+  <si>
+    <t>IncreasePhysicsDefenseRate</t>
+  </si>
+  <si>
+    <t>IncreaseFixedDamage</t>
+  </si>
+  <si>
+    <t>IncreaseHP</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>Fast</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.012</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>-0.3</t>
+  </si>
+  <si>
+    <t>Slow</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>-0.5</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>IncreaseMagicAttackRate</t>
+  </si>
+  <si>
+    <t>ReboundInjury</t>
+  </si>
+  <si>
+    <t>Alarmed</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>ChaosResistance</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>IncreaseDamageRate</t>
+  </si>
+  <si>
+    <t>-0.7</t>
+  </si>
+  <si>
+    <t>IncreaseMagicDefenseRate</t>
+  </si>
+  <si>
+    <t>-0.4</t>
+  </si>
+  <si>
+    <t>2080</t>
+  </si>
+  <si>
+    <t>1160</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>1260</t>
+  </si>
+  <si>
+    <t>IncreaseMaxHPRate</t>
+  </si>
+  <si>
+    <t>3860</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>DrugResistance</t>
+  </si>
+  <si>
+    <t>IncreaseMagicAttack</t>
+  </si>
+  <si>
+    <t>1380</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>CanNotMove</t>
+  </si>
+  <si>
+    <t>1536</t>
+  </si>
+  <si>
+    <t>CDTimeout</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>SolveDrug</t>
+  </si>
+  <si>
+    <t>Blindness</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>MakeDebuffStrong</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>UpSpeedCDTime</t>
+  </si>
+  <si>
+    <t>1024</t>
+  </si>
+  <si>
+    <t>MustMiss</t>
+  </si>
+  <si>
+    <t>-20</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>530</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>IncreaseMagicDefense</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>710</t>
+  </si>
+  <si>
+    <t>820</t>
+  </si>
+  <si>
+    <t>IncreaseMaxHP</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>-100</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>-200</t>
+  </si>
+  <si>
+    <t>-300</t>
+  </si>
+  <si>
+    <t>-500</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>IncreaseHurtCutRate</t>
+  </si>
+  <si>
+    <t>-0.05</t>
+  </si>
+  <si>
+    <t>-0.1</t>
+  </si>
+  <si>
+    <t>-0.15</t>
+  </si>
+  <si>
+    <t>-0.2</t>
+  </si>
+  <si>
+    <t>3150</t>
+  </si>
+  <si>
+    <t>536</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>ClearDebuffs</t>
+  </si>
+  <si>
+    <t>AddRateMaxHP</t>
+  </si>
+  <si>
+    <t>1248</t>
+  </si>
+  <si>
+    <t>3698</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>1510</t>
+  </si>
+  <si>
+    <t>-0.25</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>ForgotMe</t>
+  </si>
+  <si>
+    <t>1745</t>
+  </si>
+  <si>
+    <t>SuckHP</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>3060</t>
+  </si>
+  <si>
+    <t>CanNotMoveResistance</t>
+  </si>
+  <si>
+    <t>SlowResistance</t>
+  </si>
+  <si>
+    <t>DisarmResistance</t>
+  </si>
+  <si>
+    <t>VertigoResistance</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>1447</t>
+  </si>
+  <si>
+    <t>1269</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>3386</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>3018</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>2658</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>1083</t>
+  </si>
+  <si>
+    <t>4125</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>8345</t>
+  </si>
+  <si>
+    <t>13256</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>-400</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>1.9</t>
   </si>
   <si>
-    <t>40300046</t>
-  </si>
-  <si>
-    <t>40300047</t>
-  </si>
-  <si>
-    <t>40300048</t>
-  </si>
-  <si>
-    <t>40300049</t>
-  </si>
-  <si>
-    <t>40300050</t>
-  </si>
-  <si>
-    <t>40300051</t>
-  </si>
-  <si>
-    <t>40300052</t>
-  </si>
-  <si>
-    <t>40300053</t>
-  </si>
-  <si>
-    <t>40300054</t>
-  </si>
-  <si>
-    <t>40300055</t>
-  </si>
-  <si>
-    <t>40300056</t>
-  </si>
-  <si>
-    <t>40300057</t>
-  </si>
-  <si>
-    <t>类别</t>
-  </si>
-  <si>
-    <t>概率</t>
-  </si>
-  <si>
-    <t>持续招数</t>
-  </si>
-  <si>
-    <t>值</t>
-  </si>
-  <si>
-    <t>首回合生效</t>
-  </si>
-  <si>
-    <t>增益</t>
-  </si>
-  <si>
-    <t>IncreasePhysicsAttackRate</t>
-  </si>
-  <si>
-    <t>减益</t>
-  </si>
-  <si>
-    <t>Drug</t>
-  </si>
-  <si>
-    <t>-800</t>
-  </si>
-  <si>
-    <t>IncreasePhysicsDefense</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>-150</t>
-  </si>
-  <si>
-    <t>IncreasePhysicsAttack</t>
-  </si>
-  <si>
-    <t>Disarm</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>Vertigo</t>
-  </si>
-  <si>
-    <t>Chaos</t>
-  </si>
-  <si>
-    <t>IncreasePhysicsDefenseRate</t>
-  </si>
-  <si>
-    <t>IncreaseFixedDamage</t>
-  </si>
-  <si>
-    <t>IncreaseHP</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>Fast</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.012</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>-0.3</t>
-  </si>
-  <si>
-    <t>Slow</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>-0.5</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>IncreaseMagicAttackRate</t>
-  </si>
-  <si>
-    <t>ReboundInjury</t>
-  </si>
-  <si>
-    <t>Alarmed</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>ChaosResistance</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>IncreaseDamageRate</t>
-  </si>
-  <si>
-    <t>-0.7</t>
-  </si>
-  <si>
-    <t>IncreaseMagicDefenseRate</t>
-  </si>
-  <si>
-    <t>-0.4</t>
-  </si>
-  <si>
-    <t>2080</t>
-  </si>
-  <si>
-    <t>1160</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>1260</t>
-  </si>
-  <si>
-    <t>IncreaseMaxHPRate</t>
-  </si>
-  <si>
-    <t>3860</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>DrugResistance</t>
-  </si>
-  <si>
-    <t>IncreaseMagicAttack</t>
-  </si>
-  <si>
-    <t>1380</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>CanNotMove</t>
-  </si>
-  <si>
-    <t>1536</t>
-  </si>
-  <si>
-    <t>CDTimeout</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>SolveDrug</t>
-  </si>
-  <si>
-    <t>Blindness</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>MakeDebuffStrong</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>UpSpeedCDTime</t>
-  </si>
-  <si>
-    <t>1024</t>
-  </si>
-  <si>
-    <t>MustMiss</t>
-  </si>
-  <si>
-    <t>-20</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>530</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>IncreaseMagicDefense</t>
-  </si>
-  <si>
-    <t>490</t>
-  </si>
-  <si>
-    <t>710</t>
-  </si>
-  <si>
-    <t>820</t>
-  </si>
-  <si>
-    <t>IncreaseMaxHP</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>-100</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>-200</t>
-  </si>
-  <si>
-    <t>-300</t>
-  </si>
-  <si>
-    <t>-500</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>IncreaseHurtCutRate</t>
-  </si>
-  <si>
-    <t>-0.05</t>
-  </si>
-  <si>
-    <t>-0.1</t>
-  </si>
-  <si>
-    <t>-0.15</t>
-  </si>
-  <si>
-    <t>-0.2</t>
-  </si>
-  <si>
-    <t>3150</t>
-  </si>
-  <si>
-    <t>536</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>ClearDebuffs</t>
-  </si>
-  <si>
-    <t>AddRateMaxHP</t>
-  </si>
-  <si>
-    <t>1248</t>
-  </si>
-  <si>
-    <t>3698</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>1510</t>
-  </si>
-  <si>
-    <t>-0.25</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>ForgotMe</t>
-  </si>
-  <si>
-    <t>1745</t>
-  </si>
-  <si>
-    <t>SuckHP</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>3060</t>
-  </si>
-  <si>
-    <t>CanNotMoveResistance</t>
-  </si>
-  <si>
-    <t>SlowResistance</t>
-  </si>
-  <si>
-    <t>DisarmResistance</t>
-  </si>
-  <si>
-    <t>VertigoResistance</t>
-  </si>
-  <si>
-    <t>850</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>1447</t>
-  </si>
-  <si>
-    <t>1269</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>3386</t>
-  </si>
-  <si>
-    <t>1020</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>3018</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>0.42</t>
-  </si>
-  <si>
-    <t>2658</t>
-  </si>
-  <si>
-    <t>580</t>
-  </si>
-  <si>
-    <t>2500</t>
-  </si>
-  <si>
-    <t>1083</t>
-  </si>
-  <si>
-    <t>4125</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>8345</t>
-  </si>
-  <si>
-    <t>13256</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>-400</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>45000</t>
   </si>
   <si>
@@ -6607,13 +6610,10 @@
     <t>105000</t>
   </si>
   <si>
-    <t>2.7</t>
-  </si>
-  <si>
     <t>-0.9</t>
   </si>
   <si>
-    <t>28600</t>
+    <t>18748</t>
   </si>
   <si>
     <t>2.2</t>
@@ -21762,10 +21762,10 @@
         <v>24</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="G233" s="0" t="s">
         <v>24</v>
@@ -21774,7 +21774,7 @@
         <v>24</v>
       </c>
       <c r="I233" s="0" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="J233" s="0" t="s">
         <v>24</v>
@@ -21827,19 +21827,19 @@
         <v>24</v>
       </c>
       <c r="E234" s="0" t="s">
-        <v>24</v>
+        <v>712</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>24</v>
+        <v>712</v>
       </c>
       <c r="G234" s="0" t="s">
-        <v>24</v>
+        <v>712</v>
       </c>
       <c r="H234" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I234" s="0" t="s">
-        <v>24</v>
+        <v>712</v>
       </c>
       <c r="J234" s="0" t="s">
         <v>24</v>
@@ -21957,19 +21957,19 @@
         <v>24</v>
       </c>
       <c r="E236" s="0" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>24</v>
+        <v>712</v>
       </c>
       <c r="G236" s="0" t="s">
-        <v>24</v>
+        <v>344</v>
       </c>
       <c r="H236" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I236" s="0" t="s">
-        <v>24</v>
+        <v>712</v>
       </c>
       <c r="J236" s="0" t="s">
         <v>24</v>
@@ -22022,19 +22022,19 @@
         <v>24</v>
       </c>
       <c r="E237" s="0" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>24</v>
+        <v>712</v>
       </c>
       <c r="G237" s="0" t="s">
-        <v>24</v>
+        <v>794</v>
       </c>
       <c r="H237" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I237" s="0" t="s">
-        <v>24</v>
+        <v>712</v>
       </c>
       <c r="J237" s="0" t="s">
         <v>24</v>
@@ -38683,7 +38683,7 @@
         <v>1019</v>
       </c>
       <c r="I550" s="0" t="s">
-        <v>243</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="551">
@@ -38712,12 +38712,12 @@
         <v>1071</v>
       </c>
       <c r="I551" s="0" t="s">
-        <v>81</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="0" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B552" s="0" t="s">
         <v>859</v>
@@ -38741,12 +38741,12 @@
         <v>1038</v>
       </c>
       <c r="I552" s="0" t="s">
-        <v>1914</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="0" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B553" s="0" t="s">
         <v>862</v>
@@ -38775,7 +38775,7 @@
     </row>
     <row r="554">
       <c r="A554" s="0" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B554" s="0" t="s">
         <v>865</v>
@@ -38799,7 +38799,7 @@
         <v>1038</v>
       </c>
       <c r="I554" s="0" t="s">
-        <v>2019</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="555">
@@ -38828,7 +38828,7 @@
         <v>1010</v>
       </c>
       <c r="I555" s="0" t="s">
-        <v>81</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="556">
@@ -38857,7 +38857,7 @@
         <v>1172</v>
       </c>
       <c r="I556" s="0" t="s">
-        <v>1046</v>
+        <v>925</v>
       </c>
     </row>
     <row r="557">
@@ -45007,10 +45007,10 @@
         <v>2110</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>974</v>
+        <v>175</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="I183" s="0" t="s">
         <v>24</v>
@@ -65045,7 +65045,7 @@
         <v>24</v>
       </c>
       <c r="I809" s="0" t="s">
-        <v>2019</v>
+        <v>2189</v>
       </c>
       <c r="J809" s="0" t="s">
         <v>323</v>
@@ -65141,7 +65141,7 @@
         <v>24</v>
       </c>
       <c r="I812" s="0" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="J812" s="0" t="s">
         <v>323</v>
@@ -65333,7 +65333,7 @@
         <v>24</v>
       </c>
       <c r="I818" s="0" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="J818" s="0" t="s">
         <v>323</v>
@@ -65621,7 +65621,7 @@
         <v>24</v>
       </c>
       <c r="I827" s="0" t="s">
-        <v>2019</v>
+        <v>2189</v>
       </c>
       <c r="J827" s="0" t="s">
         <v>323</v>
@@ -65685,7 +65685,7 @@
         <v>24</v>
       </c>
       <c r="I829" s="0" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="J829" s="0" t="s">
         <v>323</v>
@@ -65781,7 +65781,7 @@
         <v>24</v>
       </c>
       <c r="I832" s="0" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="J832" s="0" t="s">
         <v>323</v>
@@ -65810,7 +65810,7 @@
         <v>1083</v>
       </c>
       <c r="H833" s="0" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="I833" s="0" t="s">
         <v>24</v>
@@ -65845,7 +65845,7 @@
         <v>24</v>
       </c>
       <c r="I834" s="0" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="J834" s="0" t="s">
         <v>323</v>
@@ -65909,7 +65909,7 @@
         <v>24</v>
       </c>
       <c r="I836" s="0" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="J836" s="0" t="s">
         <v>323</v>
@@ -66002,7 +66002,7 @@
         <v>1083</v>
       </c>
       <c r="H839" s="0" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="I839" s="0" t="s">
         <v>24</v>
@@ -66066,7 +66066,7 @@
         <v>1083</v>
       </c>
       <c r="H841" s="0" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="I841" s="0" t="s">
         <v>24</v>
@@ -66130,7 +66130,7 @@
         <v>1083</v>
       </c>
       <c r="H843" s="0" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="I843" s="0" t="s">
         <v>24</v>
@@ -66194,7 +66194,7 @@
         <v>1083</v>
       </c>
       <c r="H845" s="0" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="I845" s="0" t="s">
         <v>24</v>
@@ -66261,7 +66261,7 @@
         <v>24</v>
       </c>
       <c r="I847" s="0" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="J847" s="0" t="s">
         <v>323</v>
@@ -66325,7 +66325,7 @@
         <v>24</v>
       </c>
       <c r="I849" s="0" t="s">
-        <v>2197</v>
+        <v>2016</v>
       </c>
       <c r="J849" s="0" t="s">
         <v>323</v>
@@ -66389,7 +66389,7 @@
         <v>24</v>
       </c>
       <c r="I851" s="0" t="s">
-        <v>189</v>
+        <v>1914</v>
       </c>
       <c r="J851" s="0" t="s">
         <v>323</v>
@@ -66581,7 +66581,7 @@
         <v>24</v>
       </c>
       <c r="I857" s="0" t="s">
-        <v>1132</v>
+        <v>1634</v>
       </c>
       <c r="J857" s="0" t="s">
         <v>323</v>
@@ -66677,7 +66677,7 @@
         <v>24</v>
       </c>
       <c r="I860" s="0" t="s">
-        <v>81</v>
+        <v>1634</v>
       </c>
       <c r="J860" s="0" t="s">
         <v>323</v>
@@ -66685,7 +66685,7 @@
     </row>
     <row r="861">
       <c r="A861" s="0" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B861" s="0" t="s">
         <v>859</v>
@@ -66717,7 +66717,7 @@
     </row>
     <row r="862">
       <c r="A862" s="0" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B862" s="0" t="s">
         <v>859</v>
@@ -66749,7 +66749,7 @@
     </row>
     <row r="863">
       <c r="A863" s="0" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B863" s="0" t="s">
         <v>862</v>
@@ -66781,7 +66781,7 @@
     </row>
     <row r="864">
       <c r="A864" s="0" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B864" s="0" t="s">
         <v>862</v>
@@ -66802,10 +66802,10 @@
         <v>175</v>
       </c>
       <c r="H864" s="0" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="I864" s="0" t="s">
-        <v>2057</v>
+        <v>258</v>
       </c>
       <c r="J864" s="0" t="s">
         <v>323</v>
@@ -66813,7 +66813,7 @@
     </row>
     <row r="865">
       <c r="A865" s="0" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B865" s="0" t="s">
         <v>865</v>
@@ -66845,7 +66845,7 @@
     </row>
     <row r="866">
       <c r="A866" s="0" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B866" s="0" t="s">
         <v>865</v>
@@ -66866,7 +66866,7 @@
         <v>175</v>
       </c>
       <c r="H866" s="0" t="s">
-        <v>853</v>
+        <v>2076</v>
       </c>
       <c r="I866" s="0" t="s">
         <v>24</v>
@@ -66901,7 +66901,7 @@
         <v>24</v>
       </c>
       <c r="I867" s="0" t="s">
-        <v>1914</v>
+        <v>1634</v>
       </c>
       <c r="J867" s="0" t="s">
         <v>323</v>
@@ -66962,10 +66962,10 @@
         <v>175</v>
       </c>
       <c r="H869" s="0" t="s">
-        <v>2076</v>
+        <v>24</v>
       </c>
       <c r="I869" s="0" t="s">
-        <v>514</v>
+        <v>62</v>
       </c>
       <c r="J869" s="0" t="s">
         <v>323</v>
@@ -67026,7 +67026,7 @@
         <v>175</v>
       </c>
       <c r="H871" s="0" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="I871" s="0" t="s">
         <v>24</v>
@@ -67125,7 +67125,7 @@
         <v>24</v>
       </c>
       <c r="I874" s="0" t="s">
-        <v>1132</v>
+        <v>1878</v>
       </c>
       <c r="J874" s="0" t="s">
         <v>323</v>
